--- a/帮助.xlsx
+++ b/帮助.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BoBOAHK\Vimdesktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BoBOAHK\WorkFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB49C18D-8BE3-4E86-A2D9-AAD6D04CCF57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B06E8C-E95C-40F5-AD34-243B85F4FE82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3265" uniqueCount="1400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3268" uniqueCount="1403">
   <si>
     <t>程序</t>
   </si>
@@ -4326,9 +4326,6 @@
     <t>附加常用功能</t>
   </si>
   <si>
-    <t>Ctrl+CC</t>
-  </si>
-  <si>
     <t>Tab上面的~</t>
   </si>
   <si>
@@ -4342,6 +4339,18 @@
   </si>
   <si>
     <t>在Word/Excel/PPT/AE则跳转到文件保存位置</t>
+  </si>
+  <si>
+    <t>在AE 则打开文件所在位置</t>
+  </si>
+  <si>
+    <t>Ctrl+C+C</t>
+  </si>
+  <si>
+    <t>Ctrl+A+A</t>
+  </si>
+  <si>
+    <t>截图/录制gif</t>
   </si>
 </sst>
 </file>
@@ -6342,7 +6351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="541">
+  <cellXfs count="543">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7648,6 +7657,12 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7666,7 +7681,19 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="20" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7952,18 +7979,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8249,10 +8264,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -8299,10 +8314,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="436" t="s">
+      <c r="A3" s="438" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="439" t="s">
+      <c r="B3" s="441" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="418" t="s">
@@ -8315,8 +8330,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="437"/>
-      <c r="B4" s="440"/>
+      <c r="A4" s="439"/>
+      <c r="B4" s="442"/>
       <c r="C4" s="418" t="s">
         <v>10</v>
       </c>
@@ -8327,8 +8342,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="437"/>
-      <c r="B5" s="440"/>
+      <c r="A5" s="439"/>
+      <c r="B5" s="442"/>
       <c r="C5" s="418" t="s">
         <v>12</v>
       </c>
@@ -8339,8 +8354,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="437"/>
-      <c r="B6" s="440"/>
+      <c r="A6" s="439"/>
+      <c r="B6" s="442"/>
       <c r="C6" s="418" t="s">
         <v>14</v>
       </c>
@@ -8351,23 +8366,23 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="437"/>
-      <c r="B7" s="440"/>
+      <c r="A7" s="439"/>
+      <c r="B7" s="442"/>
       <c r="C7" s="418"/>
       <c r="D7" s="419"/>
       <c r="E7" s="418"/>
       <c r="F7" s="420"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="437"/>
-      <c r="B8" s="440"/>
+      <c r="A8" s="439"/>
+      <c r="B8" s="442"/>
       <c r="C8" s="418"/>
       <c r="D8" s="419"/>
       <c r="E8" s="418"/>
       <c r="F8" s="420"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="437"/>
+      <c r="A9" s="439"/>
       <c r="B9" s="418"/>
       <c r="C9" s="418"/>
       <c r="D9" s="419"/>
@@ -8375,8 +8390,8 @@
       <c r="F9" s="420"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="437"/>
-      <c r="B10" s="440" t="s">
+      <c r="A10" s="439"/>
+      <c r="B10" s="442" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="418" t="s">
@@ -8389,8 +8404,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="437"/>
-      <c r="B11" s="440"/>
+      <c r="A11" s="439"/>
+      <c r="B11" s="442"/>
       <c r="C11" s="418" t="s">
         <v>18</v>
       </c>
@@ -8401,8 +8416,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="437"/>
-      <c r="B12" s="440"/>
+      <c r="A12" s="439"/>
+      <c r="B12" s="442"/>
       <c r="C12" s="418" t="s">
         <v>1383</v>
       </c>
@@ -8413,8 +8428,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="437"/>
-      <c r="B13" s="440"/>
+      <c r="A13" s="439"/>
+      <c r="B13" s="442"/>
       <c r="C13" s="418" t="s">
         <v>21</v>
       </c>
@@ -8425,8 +8440,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="437"/>
-      <c r="B14" s="440"/>
+      <c r="A14" s="439"/>
+      <c r="B14" s="442"/>
       <c r="C14" s="418" t="s">
         <v>22</v>
       </c>
@@ -8437,8 +8452,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="437"/>
-      <c r="B15" s="440"/>
+      <c r="A15" s="439"/>
+      <c r="B15" s="442"/>
       <c r="C15" s="418" t="s">
         <v>23</v>
       </c>
@@ -8449,8 +8464,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="437"/>
-      <c r="B16" s="440"/>
+      <c r="A16" s="439"/>
+      <c r="B16" s="442"/>
       <c r="C16" s="418" t="s">
         <v>1384</v>
       </c>
@@ -8461,8 +8476,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="437"/>
-      <c r="B17" s="440"/>
+      <c r="A17" s="439"/>
+      <c r="B17" s="442"/>
       <c r="C17" s="418" t="s">
         <v>26</v>
       </c>
@@ -8473,7 +8488,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="437"/>
+      <c r="A18" s="439"/>
       <c r="B18" s="418"/>
       <c r="C18" s="418"/>
       <c r="D18" s="419"/>
@@ -8481,7 +8496,7 @@
       <c r="F18" s="420"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="437"/>
+      <c r="A19" s="439"/>
       <c r="B19" s="418"/>
       <c r="C19" s="418"/>
       <c r="D19" s="419"/>
@@ -8489,8 +8504,8 @@
       <c r="F19" s="420"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="437"/>
-      <c r="B20" s="440" t="s">
+      <c r="A20" s="439"/>
+      <c r="B20" s="442" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="418" t="s">
@@ -8503,8 +8518,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="437"/>
-      <c r="B21" s="440"/>
+      <c r="A21" s="439"/>
+      <c r="B21" s="442"/>
       <c r="C21" s="418" t="s">
         <v>31</v>
       </c>
@@ -8515,8 +8530,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="437"/>
-      <c r="B22" s="440"/>
+      <c r="A22" s="439"/>
+      <c r="B22" s="442"/>
       <c r="C22" s="418" t="s">
         <v>1385</v>
       </c>
@@ -8527,39 +8542,39 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="437"/>
-      <c r="B23" s="440"/>
+      <c r="A23" s="439"/>
+      <c r="B23" s="442"/>
       <c r="C23" s="418"/>
       <c r="D23" s="419"/>
       <c r="E23" s="418"/>
       <c r="F23" s="420"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="437"/>
-      <c r="B24" s="440"/>
+      <c r="A24" s="439"/>
+      <c r="B24" s="442"/>
       <c r="C24" s="418"/>
       <c r="D24" s="419"/>
       <c r="E24" s="418"/>
       <c r="F24" s="420"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="437"/>
-      <c r="B25" s="440"/>
+      <c r="A25" s="439"/>
+      <c r="B25" s="442"/>
       <c r="C25" s="418"/>
       <c r="D25" s="419"/>
       <c r="E25" s="418"/>
       <c r="F25" s="420"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="437"/>
-      <c r="B26" s="440"/>
+      <c r="A26" s="439"/>
+      <c r="B26" s="442"/>
       <c r="C26" s="418"/>
       <c r="D26" s="419"/>
       <c r="E26" s="418"/>
       <c r="F26" s="420"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="437"/>
+      <c r="A27" s="439"/>
       <c r="B27" s="418"/>
       <c r="C27" s="418"/>
       <c r="D27" s="419"/>
@@ -8567,8 +8582,8 @@
       <c r="F27" s="420"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="437"/>
-      <c r="B28" s="440" t="s">
+      <c r="A28" s="439"/>
+      <c r="B28" s="442" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="418" t="s">
@@ -8581,23 +8596,23 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="437"/>
-      <c r="B29" s="440"/>
+      <c r="A29" s="439"/>
+      <c r="B29" s="442"/>
       <c r="C29" s="418"/>
       <c r="D29" s="419"/>
       <c r="E29" s="418"/>
       <c r="F29" s="420"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="437"/>
-      <c r="B30" s="440"/>
+      <c r="A30" s="439"/>
+      <c r="B30" s="442"/>
       <c r="C30" s="418"/>
       <c r="D30" s="419"/>
       <c r="E30" s="418"/>
       <c r="F30" s="420"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="437"/>
+      <c r="A31" s="439"/>
       <c r="B31" s="418"/>
       <c r="C31" s="418"/>
       <c r="D31" s="419"/>
@@ -8605,8 +8620,8 @@
       <c r="F31" s="420"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="437"/>
-      <c r="B32" s="440" t="s">
+      <c r="A32" s="439"/>
+      <c r="B32" s="442" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="418" t="s">
@@ -8619,8 +8634,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="437"/>
-      <c r="B33" s="537"/>
+      <c r="A33" s="439"/>
+      <c r="B33" s="443"/>
       <c r="C33" s="434" t="s">
         <v>39</v>
       </c>
@@ -8631,8 +8646,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="437"/>
-      <c r="B34" s="537"/>
+      <c r="A34" s="439"/>
+      <c r="B34" s="443"/>
       <c r="C34" s="434" t="s">
         <v>1387</v>
       </c>
@@ -8643,8 +8658,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="437"/>
-      <c r="B35" s="537"/>
+      <c r="A35" s="439"/>
+      <c r="B35" s="443"/>
       <c r="C35" s="434" t="s">
         <v>1389</v>
       </c>
@@ -8655,13 +8670,13 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="437"/>
-      <c r="B36" s="537"/>
+      <c r="A36" s="439"/>
+      <c r="B36" s="443"/>
       <c r="C36" s="434" t="s">
         <v>1391</v>
       </c>
       <c r="D36" s="422" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="E36" s="434"/>
       <c r="F36" s="423" t="s">
@@ -8669,99 +8684,121 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="437"/>
-      <c r="B37" s="537"/>
-      <c r="C37" s="434" t="s">
-        <v>1394</v>
+      <c r="A37" s="439"/>
+      <c r="B37" s="443"/>
+      <c r="C37" s="436" t="s">
+        <v>1401</v>
       </c>
       <c r="D37" s="422"/>
-      <c r="E37" s="434"/>
+      <c r="E37" s="436"/>
       <c r="F37" s="423" t="s">
-        <v>1393</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="437"/>
-      <c r="B38" s="537"/>
-      <c r="C38" s="538" t="s">
-        <v>1321</v>
+      <c r="A38" s="439"/>
+      <c r="B38" s="443"/>
+      <c r="C38" s="434" t="s">
+        <v>1400</v>
       </c>
       <c r="D38" s="422"/>
       <c r="E38" s="434"/>
       <c r="F38" s="423" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="437"/>
-      <c r="B39" s="537"/>
-      <c r="C39" s="539"/>
+      <c r="A39" s="439"/>
+      <c r="B39" s="443"/>
+      <c r="C39" s="445" t="s">
+        <v>1321</v>
+      </c>
       <c r="D39" s="422"/>
       <c r="E39" s="434"/>
       <c r="F39" s="423" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="437"/>
-      <c r="B40" s="537"/>
-      <c r="C40" s="539"/>
+      <c r="A40" s="439"/>
+      <c r="B40" s="443"/>
+      <c r="C40" s="446"/>
       <c r="D40" s="422"/>
       <c r="E40" s="434"/>
       <c r="F40" s="423" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="439"/>
+      <c r="B41" s="443"/>
+      <c r="C41" s="446"/>
+      <c r="D41" s="422"/>
+      <c r="E41" s="434"/>
+      <c r="F41" s="423" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="439"/>
+      <c r="B42" s="443"/>
+      <c r="C42" s="446"/>
+      <c r="D42" s="422"/>
+      <c r="E42" s="435"/>
+      <c r="F42" s="423" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="440"/>
+      <c r="B43" s="444"/>
+      <c r="C43" s="447"/>
+      <c r="D43" s="422"/>
+      <c r="E43" s="421"/>
+      <c r="F43" s="423" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="438"/>
-      <c r="B41" s="441"/>
-      <c r="C41" s="540"/>
-      <c r="D41" s="422"/>
-      <c r="E41" s="421"/>
-      <c r="F41" s="423" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="435" t="s">
+    <row r="46" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="437" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="435"/>
-      <c r="C44" s="435"/>
-      <c r="D44" s="435"/>
-      <c r="E44" s="435"/>
-      <c r="F44" s="435"/>
-    </row>
-    <row r="45" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="424"/>
-      <c r="B45" s="425" t="s">
+      <c r="B46" s="437"/>
+      <c r="C46" s="437"/>
+      <c r="D46" s="437"/>
+      <c r="E46" s="437"/>
+      <c r="F46" s="437"/>
+    </row>
+    <row r="47" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="424"/>
+      <c r="B47" s="425" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="425" t="s">
+      <c r="C47" s="425" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="427" t="s">
+      <c r="D47" s="427" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="426"/>
-      <c r="F45" s="424"/>
+      <c r="E47" s="426"/>
+      <c r="F47" s="424"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A3:A41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A3:A43"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B10:B17"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B32:B41"/>
-    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="B32:B43"/>
+    <mergeCell ref="C39:C43"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B45" location="AE!A1" display="AfterEffects" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C45" location="Photoshop!A1" display="Photoshop" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D45" location="'3DsMax'!A1" display="3DsMax" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B47" location="AE!A1" display="AfterEffects" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C47" location="Photoshop!A1" display="Photoshop" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D47" location="'3DsMax'!A1" display="3DsMax" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.196850393700787" footer="0.196850393700787"/>
@@ -8824,7 +8861,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="510" t="s">
+      <c r="A3" s="516" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="51" t="s">
@@ -8845,7 +8882,7 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="511"/>
+      <c r="A4" s="517"/>
       <c r="B4" s="55"/>
       <c r="C4" s="56"/>
       <c r="D4" s="57"/>
@@ -8856,7 +8893,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="512" t="s">
+      <c r="A5" s="518" t="s">
         <v>271</v>
       </c>
       <c r="B5" s="51" t="s">
@@ -8877,7 +8914,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="512"/>
+      <c r="A6" s="518"/>
       <c r="B6" s="55"/>
       <c r="C6" s="56"/>
       <c r="D6" s="57"/>
@@ -8888,7 +8925,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="512"/>
+      <c r="A7" s="518"/>
       <c r="B7" s="61" t="s">
         <v>274</v>
       </c>
@@ -8907,7 +8944,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="512"/>
+      <c r="A8" s="518"/>
       <c r="B8" s="65" t="s">
         <v>274</v>
       </c>
@@ -8926,7 +8963,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="512"/>
+      <c r="A9" s="518"/>
       <c r="B9" s="65" t="s">
         <v>274</v>
       </c>
@@ -8945,7 +8982,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="512"/>
+      <c r="A10" s="518"/>
       <c r="B10" s="65" t="s">
         <v>274</v>
       </c>
@@ -8964,7 +9001,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="512"/>
+      <c r="A11" s="518"/>
       <c r="B11" s="65" t="s">
         <v>274</v>
       </c>
@@ -8983,7 +9020,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="512"/>
+      <c r="A12" s="518"/>
       <c r="B12" s="69" t="s">
         <v>57</v>
       </c>
@@ -8999,7 +9036,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="513"/>
+      <c r="A13" s="519"/>
       <c r="B13" s="55"/>
       <c r="C13" s="56"/>
       <c r="D13" s="57"/>
@@ -9010,8 +9047,8 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="514"/>
-      <c r="B14" s="516" t="s">
+      <c r="A14" s="520"/>
+      <c r="B14" s="522" t="s">
         <v>1182</v>
       </c>
       <c r="C14" s="62" t="s">
@@ -9026,8 +9063,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="514"/>
-      <c r="B15" s="517"/>
+      <c r="A15" s="520"/>
+      <c r="B15" s="523"/>
       <c r="C15" s="66" t="s">
         <v>298</v>
       </c>
@@ -9040,8 +9077,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="514"/>
-      <c r="B16" s="518"/>
+      <c r="A16" s="520"/>
+      <c r="B16" s="524"/>
       <c r="C16" s="77" t="s">
         <v>908</v>
       </c>
@@ -9054,7 +9091,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="514"/>
+      <c r="A17" s="520"/>
       <c r="B17" s="80"/>
       <c r="C17" s="81"/>
       <c r="D17" s="82"/>
@@ -9062,7 +9099,7 @@
       <c r="F17" s="83"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="514"/>
+      <c r="A18" s="520"/>
       <c r="B18" s="84"/>
       <c r="C18" s="85"/>
       <c r="D18" s="86"/>
@@ -9070,8 +9107,8 @@
       <c r="F18" s="87"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="514"/>
-      <c r="B19" s="519" t="s">
+      <c r="A19" s="520"/>
+      <c r="B19" s="525" t="s">
         <v>1186</v>
       </c>
       <c r="C19" s="62" t="s">
@@ -9086,8 +9123,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="514"/>
-      <c r="B20" s="517"/>
+      <c r="A20" s="520"/>
+      <c r="B20" s="523"/>
       <c r="C20" s="66" t="s">
         <v>725</v>
       </c>
@@ -9100,8 +9137,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="514"/>
-      <c r="B21" s="517"/>
+      <c r="A21" s="520"/>
+      <c r="B21" s="523"/>
       <c r="C21" s="66" t="s">
         <v>1189</v>
       </c>
@@ -9114,8 +9151,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="514"/>
-      <c r="B22" s="518"/>
+      <c r="A22" s="520"/>
+      <c r="B22" s="524"/>
       <c r="C22" s="77" t="s">
         <v>1191</v>
       </c>
@@ -9128,7 +9165,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="514"/>
+      <c r="A23" s="520"/>
       <c r="B23" s="88"/>
       <c r="C23" s="56"/>
       <c r="D23" s="57"/>
@@ -9136,8 +9173,8 @@
       <c r="F23" s="89"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="514"/>
-      <c r="B24" s="516" t="s">
+      <c r="A24" s="520"/>
+      <c r="B24" s="522" t="s">
         <v>1193</v>
       </c>
       <c r="C24" s="432" t="s">
@@ -9152,8 +9189,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="514"/>
-      <c r="B25" s="518"/>
+      <c r="A25" s="520"/>
+      <c r="B25" s="524"/>
       <c r="C25" s="433" t="s">
         <v>234</v>
       </c>
@@ -9166,7 +9203,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="514"/>
+      <c r="A26" s="520"/>
       <c r="B26" s="55"/>
       <c r="C26" s="56"/>
       <c r="D26" s="57"/>
@@ -9174,8 +9211,8 @@
       <c r="F26" s="92"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="514"/>
-      <c r="B27" s="516" t="s">
+      <c r="A27" s="520"/>
+      <c r="B27" s="522" t="s">
         <v>1196</v>
       </c>
       <c r="C27" s="62" t="s">
@@ -9190,8 +9227,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="514"/>
-      <c r="B28" s="518"/>
+      <c r="A28" s="520"/>
+      <c r="B28" s="524"/>
       <c r="C28" s="77" t="s">
         <v>1199</v>
       </c>
@@ -9206,7 +9243,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="514"/>
+      <c r="A29" s="520"/>
       <c r="B29" s="55"/>
       <c r="C29" s="56"/>
       <c r="D29" s="57"/>
@@ -9214,8 +9251,8 @@
       <c r="F29" s="89"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="514"/>
-      <c r="B30" s="516" t="s">
+      <c r="A30" s="520"/>
+      <c r="B30" s="522" t="s">
         <v>1202</v>
       </c>
       <c r="C30" s="62" t="s">
@@ -9230,8 +9267,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="514"/>
-      <c r="B31" s="518"/>
+      <c r="A31" s="520"/>
+      <c r="B31" s="524"/>
       <c r="C31" s="77" t="s">
         <v>1205</v>
       </c>
@@ -9246,7 +9283,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="514"/>
+      <c r="A32" s="520"/>
       <c r="B32" s="55"/>
       <c r="C32" s="56"/>
       <c r="D32" s="57"/>
@@ -9254,8 +9291,8 @@
       <c r="F32" s="89"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="514"/>
-      <c r="B33" s="516" t="s">
+      <c r="A33" s="520"/>
+      <c r="B33" s="522" t="s">
         <v>1207</v>
       </c>
       <c r="C33" s="62" t="s">
@@ -9270,8 +9307,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="514"/>
-      <c r="B34" s="517"/>
+      <c r="A34" s="520"/>
+      <c r="B34" s="523"/>
       <c r="C34" s="66" t="s">
         <v>1210</v>
       </c>
@@ -9286,8 +9323,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="514"/>
-      <c r="B35" s="517"/>
+      <c r="A35" s="520"/>
+      <c r="B35" s="523"/>
       <c r="C35" s="66" t="s">
         <v>367</v>
       </c>
@@ -9302,16 +9339,16 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="514"/>
-      <c r="B36" s="517"/>
+      <c r="A36" s="520"/>
+      <c r="B36" s="523"/>
       <c r="C36" s="66"/>
       <c r="D36" s="67"/>
       <c r="E36" s="66"/>
       <c r="F36" s="75"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="514"/>
-      <c r="B37" s="517"/>
+      <c r="A37" s="520"/>
+      <c r="B37" s="523"/>
       <c r="C37" s="66" t="s">
         <v>1214</v>
       </c>
@@ -9324,8 +9361,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="514"/>
-      <c r="B38" s="517"/>
+      <c r="A38" s="520"/>
+      <c r="B38" s="523"/>
       <c r="C38" s="66" t="s">
         <v>442</v>
       </c>
@@ -9340,8 +9377,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="514"/>
-      <c r="B39" s="517"/>
+      <c r="A39" s="520"/>
+      <c r="B39" s="523"/>
       <c r="C39" s="66" t="s">
         <v>1217</v>
       </c>
@@ -9356,16 +9393,16 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="514"/>
-      <c r="B40" s="517"/>
+      <c r="A40" s="520"/>
+      <c r="B40" s="523"/>
       <c r="C40" s="66"/>
       <c r="D40" s="67"/>
       <c r="E40" s="66"/>
       <c r="F40" s="75"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="514"/>
-      <c r="B41" s="517"/>
+      <c r="A41" s="520"/>
+      <c r="B41" s="523"/>
       <c r="C41" s="66" t="s">
         <v>1219</v>
       </c>
@@ -9378,8 +9415,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="514"/>
-      <c r="B42" s="517"/>
+      <c r="A42" s="520"/>
+      <c r="B42" s="523"/>
       <c r="C42" s="66" t="s">
         <v>1221</v>
       </c>
@@ -9394,8 +9431,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="514"/>
-      <c r="B43" s="518"/>
+      <c r="A43" s="520"/>
+      <c r="B43" s="524"/>
       <c r="C43" s="77" t="s">
         <v>1223</v>
       </c>
@@ -9410,7 +9447,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="514"/>
+      <c r="A44" s="520"/>
       <c r="B44" s="55"/>
       <c r="C44" s="56"/>
       <c r="D44" s="57"/>
@@ -9418,8 +9455,8 @@
       <c r="F44" s="89"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="514"/>
-      <c r="B45" s="516" t="s">
+      <c r="A45" s="520"/>
+      <c r="B45" s="522" t="s">
         <v>1225</v>
       </c>
       <c r="C45" s="62" t="s">
@@ -9434,8 +9471,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="514"/>
-      <c r="B46" s="517"/>
+      <c r="A46" s="520"/>
+      <c r="B46" s="523"/>
       <c r="C46" s="66" t="s">
         <v>74</v>
       </c>
@@ -9448,8 +9485,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="514"/>
-      <c r="B47" s="517"/>
+      <c r="A47" s="520"/>
+      <c r="B47" s="523"/>
       <c r="C47" s="66" t="s">
         <v>327</v>
       </c>
@@ -9462,8 +9499,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="514"/>
-      <c r="B48" s="517"/>
+      <c r="A48" s="520"/>
+      <c r="B48" s="523"/>
       <c r="C48" s="66" t="s">
         <v>1229</v>
       </c>
@@ -9476,8 +9513,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="514"/>
-      <c r="B49" s="518"/>
+      <c r="A49" s="520"/>
+      <c r="B49" s="524"/>
       <c r="C49" s="77" t="s">
         <v>560</v>
       </c>
@@ -9490,7 +9527,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="514"/>
+      <c r="A50" s="520"/>
       <c r="B50" s="55"/>
       <c r="C50" s="56"/>
       <c r="D50" s="57"/>
@@ -9498,8 +9535,8 @@
       <c r="F50" s="89"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="514"/>
-      <c r="B51" s="516" t="s">
+      <c r="A51" s="520"/>
+      <c r="B51" s="522" t="s">
         <v>1232</v>
       </c>
       <c r="C51" s="62" t="s">
@@ -9514,8 +9551,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="514"/>
-      <c r="B52" s="517"/>
+      <c r="A52" s="520"/>
+      <c r="B52" s="523"/>
       <c r="C52" s="66" t="s">
         <v>364</v>
       </c>
@@ -9528,8 +9565,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="514"/>
-      <c r="B53" s="517"/>
+      <c r="A53" s="520"/>
+      <c r="B53" s="523"/>
       <c r="C53" s="66" t="s">
         <v>61</v>
       </c>
@@ -9542,8 +9579,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="514"/>
-      <c r="B54" s="518"/>
+      <c r="A54" s="520"/>
+      <c r="B54" s="524"/>
       <c r="C54" s="77" t="s">
         <v>208</v>
       </c>
@@ -9556,7 +9593,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="514"/>
+      <c r="A55" s="520"/>
       <c r="B55" s="55"/>
       <c r="C55" s="56"/>
       <c r="D55" s="57"/>
@@ -9564,8 +9601,8 @@
       <c r="F55" s="89"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="514"/>
-      <c r="B56" s="516" t="s">
+      <c r="A56" s="520"/>
+      <c r="B56" s="522" t="s">
         <v>1167</v>
       </c>
       <c r="C56" s="62" t="s">
@@ -9580,8 +9617,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="514"/>
-      <c r="B57" s="517"/>
+      <c r="A57" s="520"/>
+      <c r="B57" s="523"/>
       <c r="C57" s="66" t="s">
         <v>131</v>
       </c>
@@ -9594,8 +9631,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="514"/>
-      <c r="B58" s="517"/>
+      <c r="A58" s="520"/>
+      <c r="B58" s="523"/>
       <c r="C58" s="66" t="s">
         <v>300</v>
       </c>
@@ -9608,8 +9645,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="515"/>
-      <c r="B59" s="520"/>
+      <c r="A59" s="521"/>
+      <c r="B59" s="526"/>
       <c r="C59" s="93" t="s">
         <v>302</v>
       </c>
@@ -9696,10 +9733,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="531" t="s">
+      <c r="A3" s="537" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="525" t="s">
+      <c r="B3" s="531" t="s">
         <v>1240</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -9714,8 +9751,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="532"/>
-      <c r="B4" s="526"/>
+      <c r="A4" s="538"/>
+      <c r="B4" s="532"/>
       <c r="C4" s="14" t="s">
         <v>1243</v>
       </c>
@@ -9726,8 +9763,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="532"/>
-      <c r="B5" s="526"/>
+      <c r="A5" s="538"/>
+      <c r="B5" s="532"/>
       <c r="C5" s="14" t="s">
         <v>1245</v>
       </c>
@@ -9738,8 +9775,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="532"/>
-      <c r="B6" s="526"/>
+      <c r="A6" s="538"/>
+      <c r="B6" s="532"/>
       <c r="C6" s="14" t="s">
         <v>1247</v>
       </c>
@@ -9750,8 +9787,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="532"/>
-      <c r="B7" s="526"/>
+      <c r="A7" s="538"/>
+      <c r="B7" s="532"/>
       <c r="C7" s="14" t="s">
         <v>1249</v>
       </c>
@@ -9762,8 +9799,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="532"/>
-      <c r="B8" s="526"/>
+      <c r="A8" s="538"/>
+      <c r="B8" s="532"/>
       <c r="C8" s="14" t="s">
         <v>1251</v>
       </c>
@@ -9774,7 +9811,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="532"/>
+      <c r="A9" s="538"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
@@ -9782,8 +9819,8 @@
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="532"/>
-      <c r="B10" s="526" t="s">
+      <c r="A10" s="538"/>
+      <c r="B10" s="532" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -9796,8 +9833,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="532"/>
-      <c r="B11" s="526"/>
+      <c r="A11" s="538"/>
+      <c r="B11" s="532"/>
       <c r="C11" s="14" t="s">
         <v>1255</v>
       </c>
@@ -9808,8 +9845,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="532"/>
-      <c r="B12" s="526"/>
+      <c r="A12" s="538"/>
+      <c r="B12" s="532"/>
       <c r="C12" s="14" t="s">
         <v>1257</v>
       </c>
@@ -9820,8 +9857,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="532"/>
-      <c r="B13" s="526"/>
+      <c r="A13" s="538"/>
+      <c r="B13" s="532"/>
       <c r="C13" s="14" t="s">
         <v>1259</v>
       </c>
@@ -9832,8 +9869,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="532"/>
-      <c r="B14" s="526"/>
+      <c r="A14" s="538"/>
+      <c r="B14" s="532"/>
       <c r="C14" s="14" t="s">
         <v>1261</v>
       </c>
@@ -9844,8 +9881,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="532"/>
-      <c r="B15" s="526"/>
+      <c r="A15" s="538"/>
+      <c r="B15" s="532"/>
       <c r="C15" s="14" t="s">
         <v>1263</v>
       </c>
@@ -9856,7 +9893,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="532"/>
+      <c r="A16" s="538"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
@@ -9864,8 +9901,8 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="532"/>
-      <c r="B17" s="526" t="s">
+      <c r="A17" s="538"/>
+      <c r="B17" s="532" t="s">
         <v>1265</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -9878,8 +9915,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="532"/>
-      <c r="B18" s="526"/>
+      <c r="A18" s="538"/>
+      <c r="B18" s="532"/>
       <c r="C18" s="14" t="s">
         <v>1268</v>
       </c>
@@ -9890,7 +9927,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="532"/>
+      <c r="A19" s="538"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
@@ -9898,8 +9935,8 @@
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="532"/>
-      <c r="B20" s="526" t="s">
+      <c r="A20" s="538"/>
+      <c r="B20" s="532" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="14" t="s">
@@ -9912,8 +9949,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="532"/>
-      <c r="B21" s="526"/>
+      <c r="A21" s="538"/>
+      <c r="B21" s="532"/>
       <c r="C21" s="14" t="s">
         <v>1271</v>
       </c>
@@ -9924,8 +9961,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="532"/>
-      <c r="B22" s="526"/>
+      <c r="A22" s="538"/>
+      <c r="B22" s="532"/>
       <c r="C22" s="14" t="s">
         <v>1273</v>
       </c>
@@ -9936,8 +9973,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="532"/>
-      <c r="B23" s="526"/>
+      <c r="A23" s="538"/>
+      <c r="B23" s="532"/>
       <c r="C23" s="14" t="s">
         <v>1274</v>
       </c>
@@ -9948,8 +9985,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="532"/>
-      <c r="B24" s="526"/>
+      <c r="A24" s="538"/>
+      <c r="B24" s="532"/>
       <c r="C24" s="14" t="s">
         <v>1276</v>
       </c>
@@ -9960,7 +9997,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="532"/>
+      <c r="A25" s="538"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
@@ -9968,8 +10005,8 @@
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="532"/>
-      <c r="B26" s="526" t="s">
+      <c r="A26" s="538"/>
+      <c r="B26" s="532" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="14" t="s">
@@ -9982,8 +10019,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="532"/>
-      <c r="B27" s="526"/>
+      <c r="A27" s="538"/>
+      <c r="B27" s="532"/>
       <c r="C27" s="14" t="s">
         <v>10</v>
       </c>
@@ -9994,8 +10031,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="532"/>
-      <c r="B28" s="526"/>
+      <c r="A28" s="538"/>
+      <c r="B28" s="532"/>
       <c r="C28" s="14" t="s">
         <v>1280</v>
       </c>
@@ -10006,8 +10043,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="532"/>
-      <c r="B29" s="526"/>
+      <c r="A29" s="538"/>
+      <c r="B29" s="532"/>
       <c r="C29" s="14" t="s">
         <v>1282</v>
       </c>
@@ -10018,8 +10055,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="532"/>
-      <c r="B30" s="526"/>
+      <c r="A30" s="538"/>
+      <c r="B30" s="532"/>
       <c r="C30" s="14" t="s">
         <v>86</v>
       </c>
@@ -10030,7 +10067,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="532"/>
+      <c r="A31" s="538"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
@@ -10038,8 +10075,8 @@
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="532"/>
-      <c r="B32" s="526" t="s">
+      <c r="A32" s="538"/>
+      <c r="B32" s="532" t="s">
         <v>1285</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -10052,8 +10089,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="532"/>
-      <c r="B33" s="526"/>
+      <c r="A33" s="538"/>
+      <c r="B33" s="532"/>
       <c r="C33" s="14" t="s">
         <v>1288</v>
       </c>
@@ -10064,7 +10101,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="532"/>
+      <c r="A34" s="538"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="15"/>
@@ -10072,8 +10109,8 @@
       <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="532"/>
-      <c r="B35" s="526" t="s">
+      <c r="A35" s="538"/>
+      <c r="B35" s="532" t="s">
         <v>1290</v>
       </c>
       <c r="C35" s="14" t="s">
@@ -10086,8 +10123,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="532"/>
-      <c r="B36" s="526"/>
+      <c r="A36" s="538"/>
+      <c r="B36" s="532"/>
       <c r="C36" s="14" t="s">
         <v>1293</v>
       </c>
@@ -10098,8 +10135,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="532"/>
-      <c r="B37" s="526"/>
+      <c r="A37" s="538"/>
+      <c r="B37" s="532"/>
       <c r="C37" s="14" t="s">
         <v>1295</v>
       </c>
@@ -10110,7 +10147,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="532"/>
+      <c r="A38" s="538"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
@@ -10118,8 +10155,8 @@
       <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="532"/>
-      <c r="B39" s="526" t="s">
+      <c r="A39" s="538"/>
+      <c r="B39" s="532" t="s">
         <v>1297</v>
       </c>
       <c r="C39" s="14" t="s">
@@ -10132,8 +10169,8 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="533"/>
-      <c r="B40" s="527"/>
+      <c r="A40" s="539"/>
+      <c r="B40" s="533"/>
       <c r="C40" s="17" t="s">
         <v>1300</v>
       </c>
@@ -10174,7 +10211,7 @@
       <c r="F43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="521" t="s">
+      <c r="A44" s="527" t="s">
         <v>1265</v>
       </c>
       <c r="B44" s="31"/>
@@ -10188,7 +10225,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="522"/>
+      <c r="A45" s="528"/>
       <c r="B45" s="35"/>
       <c r="C45" s="14" t="s">
         <v>1306</v>
@@ -10203,7 +10240,7 @@
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="522"/>
+      <c r="A46" s="528"/>
       <c r="B46" s="35"/>
       <c r="C46" s="14" t="s">
         <v>1308</v>
@@ -10218,7 +10255,7 @@
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="523"/>
+      <c r="A47" s="529"/>
       <c r="B47" s="37"/>
       <c r="C47" s="17" t="s">
         <v>1310</v>
@@ -10260,7 +10297,7 @@
       <c r="F50" s="23"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="534" t="s">
+      <c r="A51" s="540" t="s">
         <v>1314</v>
       </c>
       <c r="B51" s="31"/>
@@ -10274,7 +10311,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="535"/>
+      <c r="A52" s="541"/>
       <c r="B52" s="35"/>
       <c r="C52" s="14" t="s">
         <v>1316</v>
@@ -10286,7 +10323,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="536"/>
+      <c r="A53" s="542"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17" t="s">
         <v>1318</v>
@@ -10375,7 +10412,7 @@
       <c r="F60" s="23"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="521" t="s">
+      <c r="A61" s="527" t="s">
         <v>1328</v>
       </c>
       <c r="B61" s="31"/>
@@ -10389,7 +10426,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="522"/>
+      <c r="A62" s="528"/>
       <c r="B62" s="35"/>
       <c r="C62" s="14" t="s">
         <v>1330</v>
@@ -10401,7 +10438,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="522"/>
+      <c r="A63" s="528"/>
       <c r="B63" s="35"/>
       <c r="C63" s="14" t="s">
         <v>1332</v>
@@ -10413,7 +10450,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="522"/>
+      <c r="A64" s="528"/>
       <c r="B64" s="35"/>
       <c r="C64" s="14" t="s">
         <v>1333</v>
@@ -10425,7 +10462,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="522"/>
+      <c r="A65" s="528"/>
       <c r="B65" s="35"/>
       <c r="C65" s="14" t="s">
         <v>1335</v>
@@ -10437,7 +10474,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="522"/>
+      <c r="A66" s="528"/>
       <c r="B66" s="35"/>
       <c r="C66" s="14" t="s">
         <v>1336</v>
@@ -10449,7 +10486,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="523"/>
+      <c r="A67" s="529"/>
       <c r="B67" s="37"/>
       <c r="C67" s="17" t="s">
         <v>1337</v>
@@ -10469,7 +10506,7 @@
       <c r="F68" s="23"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="521" t="s">
+      <c r="A69" s="527" t="s">
         <v>1339</v>
       </c>
       <c r="B69" s="32" t="s">
@@ -10485,7 +10522,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="522"/>
+      <c r="A70" s="528"/>
       <c r="B70" s="14" t="s">
         <v>1342</v>
       </c>
@@ -10499,7 +10536,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="522"/>
+      <c r="A71" s="528"/>
       <c r="B71" s="14" t="s">
         <v>1344</v>
       </c>
@@ -10513,8 +10550,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72" s="522"/>
-      <c r="B72" s="528" t="s">
+      <c r="A72" s="528"/>
+      <c r="B72" s="534" t="s">
         <v>1346</v>
       </c>
       <c r="C72" s="14" t="s">
@@ -10527,8 +10564,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="522"/>
-      <c r="B73" s="529"/>
+      <c r="A73" s="528"/>
+      <c r="B73" s="535"/>
       <c r="C73" s="14" t="s">
         <v>1348</v>
       </c>
@@ -10539,8 +10576,8 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="522"/>
-      <c r="B74" s="530"/>
+      <c r="A74" s="528"/>
+      <c r="B74" s="536"/>
       <c r="C74" s="14" t="s">
         <v>1350</v>
       </c>
@@ -10551,8 +10588,8 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="522"/>
-      <c r="B75" s="528" t="s">
+      <c r="A75" s="528"/>
+      <c r="B75" s="534" t="s">
         <v>1352</v>
       </c>
       <c r="C75" s="14" t="s">
@@ -10565,8 +10602,8 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="522"/>
-      <c r="B76" s="529"/>
+      <c r="A76" s="528"/>
+      <c r="B76" s="535"/>
       <c r="C76" s="14" t="s">
         <v>1355</v>
       </c>
@@ -10577,8 +10614,8 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77" s="522"/>
-      <c r="B77" s="529"/>
+      <c r="A77" s="528"/>
+      <c r="B77" s="535"/>
       <c r="C77" s="14" t="s">
         <v>1357</v>
       </c>
@@ -10589,8 +10626,8 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="522"/>
-      <c r="B78" s="529"/>
+      <c r="A78" s="528"/>
+      <c r="B78" s="535"/>
       <c r="C78" s="14" t="s">
         <v>1359</v>
       </c>
@@ -10601,8 +10638,8 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="522"/>
-      <c r="B79" s="529"/>
+      <c r="A79" s="528"/>
+      <c r="B79" s="535"/>
       <c r="C79" s="14" t="s">
         <v>1361</v>
       </c>
@@ -10613,8 +10650,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="522"/>
-      <c r="B80" s="529"/>
+      <c r="A80" s="528"/>
+      <c r="B80" s="535"/>
       <c r="C80" s="14" t="s">
         <v>1362</v>
       </c>
@@ -10625,8 +10662,8 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="522"/>
-      <c r="B81" s="529"/>
+      <c r="A81" s="528"/>
+      <c r="B81" s="535"/>
       <c r="C81" s="14" t="s">
         <v>1364</v>
       </c>
@@ -10637,8 +10674,8 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="522"/>
-      <c r="B82" s="530"/>
+      <c r="A82" s="528"/>
+      <c r="B82" s="536"/>
       <c r="C82" s="14" t="s">
         <v>1366</v>
       </c>
@@ -10649,7 +10686,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="522"/>
+      <c r="A83" s="528"/>
       <c r="B83" s="14" t="s">
         <v>1368</v>
       </c>
@@ -10663,7 +10700,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="523"/>
+      <c r="A84" s="529"/>
       <c r="B84" s="17" t="s">
         <v>1370</v>
       </c>
@@ -10685,7 +10722,7 @@
       <c r="F85" s="23"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" s="521" t="s">
+      <c r="A86" s="527" t="s">
         <v>1373</v>
       </c>
       <c r="B86" s="32"/>
@@ -10699,7 +10736,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="522"/>
+      <c r="A87" s="528"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14" t="s">
         <v>82</v>
@@ -10711,7 +10748,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" s="522"/>
+      <c r="A88" s="528"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14" t="s">
         <v>84</v>
@@ -10723,7 +10760,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="522"/>
+      <c r="A89" s="528"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14" t="s">
         <v>86</v>
@@ -10735,7 +10772,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90" s="523"/>
+      <c r="A90" s="529"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17" t="s">
         <v>65</v>
@@ -10755,7 +10792,7 @@
       <c r="F91" s="23"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92" s="521" t="s">
+      <c r="A92" s="527" t="s">
         <v>1379</v>
       </c>
       <c r="B92" s="32"/>
@@ -10769,7 +10806,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93" s="524"/>
+      <c r="A93" s="530"/>
       <c r="B93" s="45"/>
       <c r="C93" s="45" t="s">
         <v>1381</v>
@@ -10782,6 +10819,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A61:A67"/>
     <mergeCell ref="A69:A84"/>
     <mergeCell ref="A86:A90"/>
     <mergeCell ref="A92:A93"/>
@@ -10797,8 +10836,6 @@
     <mergeCell ref="B75:B82"/>
     <mergeCell ref="A3:A40"/>
     <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A61:A67"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.196850393700787" footer="0.196850393700787"/>
@@ -10856,7 +10893,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="374" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="442" t="s">
+      <c r="A3" s="448" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="307"/>
@@ -10870,7 +10907,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="374" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="442"/>
+      <c r="A4" s="448"/>
       <c r="B4" s="307"/>
       <c r="C4" s="307"/>
       <c r="D4" s="307"/>
@@ -10882,7 +10919,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="443" t="s">
+      <c r="A5" s="449" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="309" t="s">
@@ -10903,7 +10940,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="444"/>
+      <c r="A6" s="450"/>
       <c r="B6" s="313"/>
       <c r="C6" s="314" t="s">
         <v>8</v>
@@ -10920,7 +10957,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="445"/>
+      <c r="A7" s="451"/>
       <c r="B7" s="317" t="s">
         <v>57</v>
       </c>
@@ -10936,8 +10973,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="446"/>
-      <c r="B8" s="450" t="s">
+      <c r="A8" s="452"/>
+      <c r="B8" s="456" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="347" t="s">
@@ -10952,8 +10989,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="446"/>
-      <c r="B9" s="451"/>
+      <c r="A9" s="452"/>
+      <c r="B9" s="457"/>
       <c r="C9" s="341" t="s">
         <v>63</v>
       </c>
@@ -10966,8 +11003,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="446"/>
-      <c r="B10" s="451"/>
+      <c r="A10" s="452"/>
+      <c r="B10" s="457"/>
       <c r="C10" s="375" t="s">
         <v>65</v>
       </c>
@@ -10982,8 +11019,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="446"/>
-      <c r="B11" s="451"/>
+      <c r="A11" s="452"/>
+      <c r="B11" s="457"/>
       <c r="C11" s="332" t="s">
         <v>68</v>
       </c>
@@ -10996,8 +11033,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="446"/>
-      <c r="B12" s="452"/>
+      <c r="A12" s="452"/>
+      <c r="B12" s="458"/>
       <c r="C12" s="376" t="s">
         <v>70</v>
       </c>
@@ -11010,8 +11047,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="446"/>
-      <c r="B13" s="453" t="s">
+      <c r="A13" s="452"/>
+      <c r="B13" s="459" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="378" t="s">
@@ -11026,8 +11063,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="446"/>
-      <c r="B14" s="454"/>
+      <c r="A14" s="452"/>
+      <c r="B14" s="460"/>
       <c r="C14" s="375" t="s">
         <v>74</v>
       </c>
@@ -11040,8 +11077,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="446"/>
-      <c r="B15" s="454"/>
+      <c r="A15" s="452"/>
+      <c r="B15" s="460"/>
       <c r="C15" s="341" t="s">
         <v>76</v>
       </c>
@@ -11054,8 +11091,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="446"/>
-      <c r="B16" s="454"/>
+      <c r="A16" s="452"/>
+      <c r="B16" s="460"/>
       <c r="C16" s="341" t="s">
         <v>78</v>
       </c>
@@ -11068,8 +11105,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="446"/>
-      <c r="B17" s="454"/>
+      <c r="A17" s="452"/>
+      <c r="B17" s="460"/>
       <c r="C17" s="383" t="s">
         <v>80</v>
       </c>
@@ -11082,8 +11119,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="446"/>
-      <c r="B18" s="454"/>
+      <c r="A18" s="452"/>
+      <c r="B18" s="460"/>
       <c r="C18" s="383" t="s">
         <v>82</v>
       </c>
@@ -11096,8 +11133,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="446"/>
-      <c r="B19" s="454"/>
+      <c r="A19" s="452"/>
+      <c r="B19" s="460"/>
       <c r="C19" s="383" t="s">
         <v>84</v>
       </c>
@@ -11110,8 +11147,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="446"/>
-      <c r="B20" s="454"/>
+      <c r="A20" s="452"/>
+      <c r="B20" s="460"/>
       <c r="C20" s="383" t="s">
         <v>86</v>
       </c>
@@ -11124,8 +11161,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="446"/>
-      <c r="B21" s="454"/>
+      <c r="A21" s="452"/>
+      <c r="B21" s="460"/>
       <c r="C21" s="383" t="s">
         <v>65</v>
       </c>
@@ -11138,8 +11175,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="446"/>
-      <c r="B22" s="454"/>
+      <c r="A22" s="452"/>
+      <c r="B22" s="460"/>
       <c r="C22" s="383" t="s">
         <v>89</v>
       </c>
@@ -11152,8 +11189,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="446"/>
-      <c r="B23" s="454"/>
+      <c r="A23" s="452"/>
+      <c r="B23" s="460"/>
       <c r="C23" s="383" t="s">
         <v>91</v>
       </c>
@@ -11166,8 +11203,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="446"/>
-      <c r="B24" s="454"/>
+      <c r="A24" s="452"/>
+      <c r="B24" s="460"/>
       <c r="C24" s="383" t="s">
         <v>93</v>
       </c>
@@ -11180,8 +11217,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="446"/>
-      <c r="B25" s="454"/>
+      <c r="A25" s="452"/>
+      <c r="B25" s="460"/>
       <c r="C25" s="383" t="s">
         <v>95</v>
       </c>
@@ -11194,8 +11231,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="446"/>
-      <c r="B26" s="454"/>
+      <c r="A26" s="452"/>
+      <c r="B26" s="460"/>
       <c r="C26" s="314" t="s">
         <v>97</v>
       </c>
@@ -11208,8 +11245,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="446"/>
-      <c r="B27" s="454"/>
+      <c r="A27" s="452"/>
+      <c r="B27" s="460"/>
       <c r="C27" s="314" t="s">
         <v>99</v>
       </c>
@@ -11224,8 +11261,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="446"/>
-      <c r="B28" s="454"/>
+      <c r="A28" s="452"/>
+      <c r="B28" s="460"/>
       <c r="C28" s="314" t="s">
         <v>102</v>
       </c>
@@ -11240,16 +11277,16 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="446"/>
-      <c r="B29" s="454"/>
+      <c r="A29" s="452"/>
+      <c r="B29" s="460"/>
       <c r="C29" s="314"/>
       <c r="D29" s="315"/>
       <c r="E29" s="341"/>
       <c r="F29" s="338"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="446"/>
-      <c r="B30" s="454"/>
+      <c r="A30" s="452"/>
+      <c r="B30" s="460"/>
       <c r="C30" s="314" t="s">
         <v>65</v>
       </c>
@@ -11264,8 +11301,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="446"/>
-      <c r="B31" s="455" t="s">
+      <c r="A31" s="452"/>
+      <c r="B31" s="461" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="347" t="s">
@@ -11280,8 +11317,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="446"/>
-      <c r="B32" s="451"/>
+      <c r="A32" s="452"/>
+      <c r="B32" s="457"/>
       <c r="C32" s="314" t="s">
         <v>110</v>
       </c>
@@ -11294,8 +11331,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="446"/>
-      <c r="B33" s="451"/>
+      <c r="A33" s="452"/>
+      <c r="B33" s="457"/>
       <c r="C33" s="390" t="s">
         <v>112</v>
       </c>
@@ -11308,8 +11345,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="446"/>
-      <c r="B34" s="451"/>
+      <c r="A34" s="452"/>
+      <c r="B34" s="457"/>
       <c r="C34" s="390" t="s">
         <v>115</v>
       </c>
@@ -11322,8 +11359,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="446"/>
-      <c r="B35" s="451"/>
+      <c r="A35" s="452"/>
+      <c r="B35" s="457"/>
       <c r="C35" s="314" t="s">
         <v>117</v>
       </c>
@@ -11338,8 +11375,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="446"/>
-      <c r="B36" s="456"/>
+      <c r="A36" s="452"/>
+      <c r="B36" s="462"/>
       <c r="C36" s="314" t="s">
         <v>120</v>
       </c>
@@ -11352,8 +11389,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="446"/>
-      <c r="B37" s="451"/>
+      <c r="A37" s="452"/>
+      <c r="B37" s="457"/>
       <c r="C37" s="314" t="s">
         <v>122</v>
       </c>
@@ -11366,8 +11403,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="446"/>
-      <c r="B38" s="451"/>
+      <c r="A38" s="452"/>
+      <c r="B38" s="457"/>
       <c r="C38" s="314" t="s">
         <v>61</v>
       </c>
@@ -11382,8 +11419,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="446"/>
-      <c r="B39" s="451"/>
+      <c r="A39" s="452"/>
+      <c r="B39" s="457"/>
       <c r="C39" s="314" t="s">
         <v>126</v>
       </c>
@@ -11396,8 +11433,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="446"/>
-      <c r="B40" s="451"/>
+      <c r="A40" s="452"/>
+      <c r="B40" s="457"/>
       <c r="C40" s="314" t="s">
         <v>128</v>
       </c>
@@ -11412,8 +11449,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="446"/>
-      <c r="B41" s="451"/>
+      <c r="A41" s="452"/>
+      <c r="B41" s="457"/>
       <c r="C41" s="314" t="s">
         <v>131</v>
       </c>
@@ -11428,8 +11465,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="446"/>
-      <c r="B42" s="451"/>
+      <c r="A42" s="452"/>
+      <c r="B42" s="457"/>
       <c r="C42" s="314" t="s">
         <v>134</v>
       </c>
@@ -11444,8 +11481,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="446"/>
-      <c r="B43" s="451"/>
+      <c r="A43" s="452"/>
+      <c r="B43" s="457"/>
       <c r="C43" s="314" t="s">
         <v>137</v>
       </c>
@@ -11460,8 +11497,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="446"/>
-      <c r="B44" s="451"/>
+      <c r="A44" s="452"/>
+      <c r="B44" s="457"/>
       <c r="C44" s="314" t="s">
         <v>140</v>
       </c>
@@ -11476,8 +11513,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="446"/>
-      <c r="B45" s="451"/>
+      <c r="A45" s="452"/>
+      <c r="B45" s="457"/>
       <c r="C45" s="314" t="s">
         <v>143</v>
       </c>
@@ -11492,8 +11529,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="446"/>
-      <c r="B46" s="451"/>
+      <c r="A46" s="452"/>
+      <c r="B46" s="457"/>
       <c r="C46" s="314" t="s">
         <v>146</v>
       </c>
@@ -11508,7 +11545,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="446"/>
+      <c r="A47" s="452"/>
       <c r="B47" s="396"/>
       <c r="C47" s="397" t="s">
         <v>149</v>
@@ -11524,8 +11561,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="446"/>
-      <c r="B48" s="457" t="s">
+      <c r="A48" s="452"/>
+      <c r="B48" s="463" t="s">
         <v>152</v>
       </c>
       <c r="C48" s="337" t="s">
@@ -11542,8 +11579,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="446"/>
-      <c r="B49" s="457"/>
+      <c r="A49" s="452"/>
+      <c r="B49" s="463"/>
       <c r="C49" s="341" t="s">
         <v>149</v>
       </c>
@@ -11558,8 +11595,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="446"/>
-      <c r="B50" s="457"/>
+      <c r="A50" s="452"/>
+      <c r="B50" s="463"/>
       <c r="C50" s="341" t="s">
         <v>156</v>
       </c>
@@ -11574,32 +11611,32 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="446"/>
-      <c r="B51" s="457"/>
+      <c r="A51" s="452"/>
+      <c r="B51" s="463"/>
       <c r="C51" s="341"/>
       <c r="D51" s="340"/>
       <c r="E51" s="341"/>
       <c r="F51" s="342"/>
     </row>
     <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="446"/>
-      <c r="B52" s="457"/>
+      <c r="A52" s="452"/>
+      <c r="B52" s="463"/>
       <c r="C52" s="341"/>
       <c r="D52" s="340"/>
       <c r="E52" s="402"/>
       <c r="F52" s="342"/>
     </row>
     <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="446"/>
-      <c r="B53" s="457"/>
+      <c r="A53" s="452"/>
+      <c r="B53" s="463"/>
       <c r="C53" s="314"/>
       <c r="D53" s="315"/>
       <c r="E53" s="388"/>
       <c r="F53" s="338"/>
     </row>
     <row r="54" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="447"/>
-      <c r="B54" s="455" t="s">
+      <c r="A54" s="453"/>
+      <c r="B54" s="461" t="s">
         <v>159</v>
       </c>
       <c r="C54" s="403" t="s">
@@ -11614,8 +11651,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="447"/>
-      <c r="B55" s="451"/>
+      <c r="A55" s="453"/>
+      <c r="B55" s="457"/>
       <c r="C55" s="407" t="s">
         <v>162</v>
       </c>
@@ -11628,8 +11665,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="447"/>
-      <c r="B56" s="458"/>
+      <c r="A56" s="453"/>
+      <c r="B56" s="464"/>
       <c r="C56" s="343" t="s">
         <v>164</v>
       </c>
@@ -11642,8 +11679,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="447"/>
-      <c r="B57" s="451"/>
+      <c r="A57" s="453"/>
+      <c r="B57" s="457"/>
       <c r="C57" s="408" t="s">
         <v>166</v>
       </c>
@@ -11656,8 +11693,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="447"/>
-      <c r="B58" s="451"/>
+      <c r="A58" s="453"/>
+      <c r="B58" s="457"/>
       <c r="C58" s="388" t="s">
         <v>168</v>
       </c>
@@ -11670,8 +11707,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="447"/>
-      <c r="B59" s="451"/>
+      <c r="A59" s="453"/>
+      <c r="B59" s="457"/>
       <c r="C59" s="341" t="s">
         <v>170</v>
       </c>
@@ -11684,8 +11721,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="447"/>
-      <c r="B60" s="451"/>
+      <c r="A60" s="453"/>
+      <c r="B60" s="457"/>
       <c r="C60" s="341"/>
       <c r="D60" s="361"/>
       <c r="E60" s="337" t="s">
@@ -11694,8 +11731,8 @@
       <c r="F60" s="352"/>
     </row>
     <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="447"/>
-      <c r="B61" s="451"/>
+      <c r="A61" s="453"/>
+      <c r="B61" s="457"/>
       <c r="C61" s="341" t="s">
         <v>172</v>
       </c>
@@ -11708,8 +11745,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="447"/>
-      <c r="B62" s="458"/>
+      <c r="A62" s="453"/>
+      <c r="B62" s="464"/>
       <c r="C62" s="339" t="s">
         <v>174</v>
       </c>
@@ -11722,8 +11759,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="448"/>
-      <c r="B63" s="451"/>
+      <c r="A63" s="454"/>
+      <c r="B63" s="457"/>
       <c r="C63" s="341"/>
       <c r="D63" s="4"/>
       <c r="E63" s="367" t="s">
@@ -11732,8 +11769,8 @@
       <c r="F63" s="366"/>
     </row>
     <row r="64" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="448"/>
-      <c r="B64" s="451"/>
+      <c r="A64" s="454"/>
+      <c r="B64" s="457"/>
       <c r="C64" s="367" t="s">
         <v>176</v>
       </c>
@@ -11746,8 +11783,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="448"/>
-      <c r="B65" s="451"/>
+      <c r="A65" s="454"/>
+      <c r="B65" s="457"/>
       <c r="C65" s="367" t="s">
         <v>178</v>
       </c>
@@ -11760,8 +11797,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="448"/>
-      <c r="B66" s="451"/>
+      <c r="A66" s="454"/>
+      <c r="B66" s="457"/>
       <c r="C66" s="367" t="s">
         <v>89</v>
       </c>
@@ -11774,8 +11811,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="449"/>
-      <c r="B67" s="459"/>
+      <c r="A67" s="455"/>
+      <c r="B67" s="465"/>
       <c r="C67" s="372"/>
       <c r="D67" s="371"/>
       <c r="E67" s="372"/>
@@ -11847,38 +11884,38 @@
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="345"/>
-      <c r="B3" s="463" t="s">
+      <c r="B3" s="469" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="464"/>
-      <c r="D3" s="464"/>
-      <c r="E3" s="464"/>
-      <c r="F3" s="465"/>
+      <c r="C3" s="470"/>
+      <c r="D3" s="470"/>
+      <c r="E3" s="470"/>
+      <c r="F3" s="471"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="442" t="s">
+      <c r="A4" s="448" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="463" t="s">
+      <c r="B4" s="469" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="464"/>
-      <c r="D4" s="464"/>
-      <c r="E4" s="464"/>
-      <c r="F4" s="465"/>
+      <c r="C4" s="470"/>
+      <c r="D4" s="470"/>
+      <c r="E4" s="470"/>
+      <c r="F4" s="471"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="442"/>
-      <c r="B5" s="463" t="s">
+      <c r="A5" s="448"/>
+      <c r="B5" s="469" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="464"/>
-      <c r="D5" s="464"/>
-      <c r="E5" s="464"/>
-      <c r="F5" s="465"/>
+      <c r="C5" s="470"/>
+      <c r="D5" s="470"/>
+      <c r="E5" s="470"/>
+      <c r="F5" s="471"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="443" t="s">
+      <c r="A6" s="449" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="309" t="s">
@@ -11896,7 +11933,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="444"/>
+      <c r="A7" s="450"/>
       <c r="B7" s="313"/>
       <c r="C7" s="314" t="s">
         <v>185</v>
@@ -11910,7 +11947,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="445"/>
+      <c r="A8" s="451"/>
       <c r="B8" s="317" t="s">
         <v>57</v>
       </c>
@@ -11926,8 +11963,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="460"/>
-      <c r="B9" s="461" t="s">
+      <c r="A9" s="466"/>
+      <c r="B9" s="467" t="s">
         <v>187</v>
       </c>
       <c r="C9" s="336" t="s">
@@ -11942,8 +11979,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="460"/>
-      <c r="B10" s="461"/>
+      <c r="A10" s="466"/>
+      <c r="B10" s="467"/>
       <c r="C10" s="336" t="s">
         <v>189</v>
       </c>
@@ -11956,8 +11993,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="460"/>
-      <c r="B11" s="461"/>
+      <c r="A11" s="466"/>
+      <c r="B11" s="467"/>
       <c r="C11" s="336" t="s">
         <v>63</v>
       </c>
@@ -11970,8 +12007,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="447"/>
-      <c r="B12" s="461"/>
+      <c r="A12" s="453"/>
+      <c r="B12" s="467"/>
       <c r="C12" s="349" t="s">
         <v>61</v>
       </c>
@@ -11986,8 +12023,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="447"/>
-      <c r="B13" s="461"/>
+      <c r="A13" s="453"/>
+      <c r="B13" s="467"/>
       <c r="C13" s="339" t="s">
         <v>126</v>
       </c>
@@ -12002,8 +12039,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="447"/>
-      <c r="B14" s="461"/>
+      <c r="A14" s="453"/>
+      <c r="B14" s="467"/>
       <c r="C14" s="313" t="s">
         <v>196</v>
       </c>
@@ -12016,8 +12053,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="447"/>
-      <c r="B15" s="461"/>
+      <c r="A15" s="453"/>
+      <c r="B15" s="467"/>
       <c r="C15" s="355" t="s">
         <v>72</v>
       </c>
@@ -12030,8 +12067,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="447"/>
-      <c r="B16" s="462" t="s">
+      <c r="A16" s="453"/>
+      <c r="B16" s="468" t="s">
         <v>198</v>
       </c>
       <c r="C16" s="322" t="s">
@@ -12046,8 +12083,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="447"/>
-      <c r="B17" s="462"/>
+      <c r="A17" s="453"/>
+      <c r="B17" s="468"/>
       <c r="C17" s="321" t="s">
         <v>201</v>
       </c>
@@ -12060,8 +12097,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="447"/>
-      <c r="B18" s="462"/>
+      <c r="A18" s="453"/>
+      <c r="B18" s="468"/>
       <c r="C18" s="321" t="s">
         <v>203</v>
       </c>
@@ -12074,8 +12111,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="447"/>
-      <c r="B19" s="462"/>
+      <c r="A19" s="453"/>
+      <c r="B19" s="468"/>
       <c r="C19" s="322" t="s">
         <v>76</v>
       </c>
@@ -12090,8 +12127,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="447"/>
-      <c r="B20" s="462"/>
+      <c r="A20" s="453"/>
+      <c r="B20" s="468"/>
       <c r="C20" s="322" t="s">
         <v>146</v>
       </c>
@@ -12104,8 +12141,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="447"/>
-      <c r="B21" s="462"/>
+      <c r="A21" s="453"/>
+      <c r="B21" s="468"/>
       <c r="C21" s="322" t="s">
         <v>208</v>
       </c>
@@ -12120,32 +12157,32 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="447"/>
-      <c r="B22" s="462"/>
+      <c r="A22" s="453"/>
+      <c r="B22" s="468"/>
       <c r="C22" s="322"/>
       <c r="D22" s="333"/>
       <c r="E22" s="322"/>
       <c r="F22" s="324"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="447"/>
-      <c r="B23" s="462"/>
+      <c r="A23" s="453"/>
+      <c r="B23" s="468"/>
       <c r="C23" s="322"/>
       <c r="D23" s="333"/>
       <c r="E23" s="322"/>
       <c r="F23" s="324"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="447"/>
-      <c r="B24" s="462"/>
+      <c r="A24" s="453"/>
+      <c r="B24" s="468"/>
       <c r="C24" s="334"/>
       <c r="D24" s="334"/>
       <c r="E24" s="334"/>
       <c r="F24" s="334"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="447"/>
-      <c r="B25" s="461" t="s">
+      <c r="A25" s="453"/>
+      <c r="B25" s="467" t="s">
         <v>211</v>
       </c>
       <c r="C25" s="360" t="s">
@@ -12162,8 +12199,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="447"/>
-      <c r="B26" s="461"/>
+      <c r="A26" s="453"/>
+      <c r="B26" s="467"/>
       <c r="C26" s="336" t="s">
         <v>99</v>
       </c>
@@ -12176,8 +12213,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="447"/>
-      <c r="B27" s="461"/>
+      <c r="A27" s="453"/>
+      <c r="B27" s="467"/>
       <c r="C27" s="336" t="s">
         <v>214</v>
       </c>
@@ -12190,8 +12227,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="447"/>
-      <c r="B28" s="461"/>
+      <c r="A28" s="453"/>
+      <c r="B28" s="467"/>
       <c r="C28" s="339" t="s">
         <v>216</v>
       </c>
@@ -12204,8 +12241,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="447"/>
-      <c r="B29" s="461"/>
+      <c r="A29" s="453"/>
+      <c r="B29" s="467"/>
       <c r="C29" s="339" t="s">
         <v>117</v>
       </c>
@@ -12218,8 +12255,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="447"/>
-      <c r="B30" s="461"/>
+      <c r="A30" s="453"/>
+      <c r="B30" s="467"/>
       <c r="C30" s="336" t="s">
         <v>174</v>
       </c>
@@ -12232,8 +12269,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="447"/>
-      <c r="B31" s="461"/>
+      <c r="A31" s="453"/>
+      <c r="B31" s="467"/>
       <c r="C31" s="336" t="s">
         <v>220</v>
       </c>
@@ -12246,8 +12283,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="447"/>
-      <c r="B32" s="461"/>
+      <c r="A32" s="453"/>
+      <c r="B32" s="467"/>
       <c r="C32" s="343" t="s">
         <v>149</v>
       </c>
@@ -12260,8 +12297,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="447"/>
-      <c r="B33" s="461"/>
+      <c r="A33" s="453"/>
+      <c r="B33" s="467"/>
       <c r="C33" s="343" t="s">
         <v>134</v>
       </c>
@@ -12274,88 +12311,88 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="447"/>
-      <c r="B34" s="461"/>
+      <c r="A34" s="453"/>
+      <c r="B34" s="467"/>
       <c r="C34" s="363"/>
       <c r="D34" s="315"/>
       <c r="E34" s="339"/>
       <c r="F34" s="344"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="447"/>
-      <c r="B35" s="461"/>
+      <c r="A35" s="453"/>
+      <c r="B35" s="467"/>
       <c r="C35" s="364"/>
       <c r="D35" s="340"/>
       <c r="E35" s="336"/>
       <c r="F35" s="365"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="447"/>
-      <c r="B36" s="461"/>
+      <c r="A36" s="453"/>
+      <c r="B36" s="467"/>
       <c r="C36" s="339"/>
       <c r="D36" s="361"/>
       <c r="E36" s="343"/>
       <c r="F36" s="366"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="447"/>
-      <c r="B37" s="461"/>
+      <c r="A37" s="453"/>
+      <c r="B37" s="467"/>
       <c r="C37" s="339"/>
       <c r="D37" s="361"/>
       <c r="E37" s="337"/>
       <c r="F37" s="352"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="447"/>
-      <c r="B38" s="461"/>
+      <c r="A38" s="453"/>
+      <c r="B38" s="467"/>
       <c r="C38" s="339"/>
       <c r="D38" s="340"/>
       <c r="E38" s="341"/>
       <c r="F38" s="352"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="447"/>
-      <c r="B39" s="461"/>
+      <c r="A39" s="453"/>
+      <c r="B39" s="467"/>
       <c r="C39" s="339"/>
       <c r="D39" s="340"/>
       <c r="E39" s="341"/>
       <c r="F39" s="352"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="448"/>
-      <c r="B40" s="461"/>
+      <c r="A40" s="454"/>
+      <c r="B40" s="467"/>
       <c r="C40" s="339"/>
       <c r="D40" s="4"/>
       <c r="E40" s="367"/>
       <c r="F40" s="366"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="448"/>
-      <c r="B41" s="461"/>
+      <c r="A41" s="454"/>
+      <c r="B41" s="467"/>
       <c r="C41" s="368"/>
       <c r="D41" s="369"/>
       <c r="E41" s="341"/>
       <c r="F41" s="366"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="448"/>
-      <c r="B42" s="461"/>
+      <c r="A42" s="454"/>
+      <c r="B42" s="467"/>
       <c r="C42" s="368"/>
       <c r="D42" s="369"/>
       <c r="E42" s="367"/>
       <c r="F42" s="366"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="448"/>
-      <c r="B43" s="461"/>
+      <c r="A43" s="454"/>
+      <c r="B43" s="467"/>
       <c r="C43" s="368"/>
       <c r="D43" s="369"/>
       <c r="E43" s="341"/>
       <c r="F43" s="366"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="449"/>
-      <c r="B44" s="461"/>
+      <c r="A44" s="455"/>
+      <c r="B44" s="467"/>
       <c r="C44" s="370"/>
       <c r="D44" s="371"/>
       <c r="E44" s="372"/>
@@ -12425,7 +12462,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="442" t="s">
+      <c r="A3" s="448" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="307"/>
@@ -12437,7 +12474,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="442"/>
+      <c r="A4" s="448"/>
       <c r="B4" s="307"/>
       <c r="C4" s="307"/>
       <c r="D4" s="307"/>
@@ -12445,7 +12482,7 @@
       <c r="F4" s="308"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="443" t="s">
+      <c r="A5" s="449" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="309" t="s">
@@ -12463,7 +12500,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="444"/>
+      <c r="A6" s="450"/>
       <c r="B6" s="313"/>
       <c r="C6" s="314" t="s">
         <v>12</v>
@@ -12475,7 +12512,7 @@
       <c r="F6" s="316"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="445"/>
+      <c r="A7" s="451"/>
       <c r="B7" s="317" t="s">
         <v>57</v>
       </c>
@@ -12491,8 +12528,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="460"/>
-      <c r="B8" s="461" t="s">
+      <c r="A8" s="466"/>
+      <c r="B8" s="467" t="s">
         <v>187</v>
       </c>
       <c r="C8" s="322" t="s">
@@ -12507,8 +12544,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="460"/>
-      <c r="B9" s="461"/>
+      <c r="A9" s="466"/>
+      <c r="B9" s="467"/>
       <c r="C9" s="322" t="s">
         <v>189</v>
       </c>
@@ -12521,8 +12558,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="460"/>
-      <c r="B10" s="461"/>
+      <c r="A10" s="466"/>
+      <c r="B10" s="467"/>
       <c r="C10" s="322" t="s">
         <v>63</v>
       </c>
@@ -12535,8 +12572,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="460"/>
-      <c r="B11" s="461"/>
+      <c r="A11" s="466"/>
+      <c r="B11" s="467"/>
       <c r="C11" s="322" t="s">
         <v>134</v>
       </c>
@@ -12547,8 +12584,8 @@
       <c r="F11" s="324"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="447"/>
-      <c r="B12" s="461"/>
+      <c r="A12" s="453"/>
+      <c r="B12" s="467"/>
       <c r="C12" s="322" t="s">
         <v>72</v>
       </c>
@@ -12561,8 +12598,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="447"/>
-      <c r="B13" s="461"/>
+      <c r="A13" s="453"/>
+      <c r="B13" s="467"/>
       <c r="C13" s="327" t="s">
         <v>230</v>
       </c>
@@ -12575,8 +12612,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="447"/>
-      <c r="B14" s="461"/>
+      <c r="A14" s="453"/>
+      <c r="B14" s="467"/>
       <c r="C14" s="327" t="s">
         <v>70</v>
       </c>
@@ -12589,16 +12626,16 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="447"/>
-      <c r="B15" s="461"/>
+      <c r="A15" s="453"/>
+      <c r="B15" s="467"/>
       <c r="C15" s="330"/>
       <c r="D15" s="330"/>
       <c r="E15" s="331"/>
       <c r="F15" s="330"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="447"/>
-      <c r="B16" s="462" t="s">
+      <c r="A16" s="453"/>
+      <c r="B16" s="468" t="s">
         <v>233</v>
       </c>
       <c r="C16" s="322" t="s">
@@ -12613,8 +12650,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="447"/>
-      <c r="B17" s="462"/>
+      <c r="A17" s="453"/>
+      <c r="B17" s="468"/>
       <c r="C17" s="322" t="s">
         <v>149</v>
       </c>
@@ -12627,8 +12664,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="447"/>
-      <c r="B18" s="462"/>
+      <c r="A18" s="453"/>
+      <c r="B18" s="468"/>
       <c r="C18" s="322" t="s">
         <v>146</v>
       </c>
@@ -12641,8 +12678,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="447"/>
-      <c r="B19" s="462"/>
+      <c r="A19" s="453"/>
+      <c r="B19" s="468"/>
       <c r="C19" s="322" t="s">
         <v>238</v>
       </c>
@@ -12655,8 +12692,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="447"/>
-      <c r="B20" s="462"/>
+      <c r="A20" s="453"/>
+      <c r="B20" s="468"/>
       <c r="C20" s="322" t="s">
         <v>126</v>
       </c>
@@ -12669,8 +12706,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="447"/>
-      <c r="B21" s="462"/>
+      <c r="A21" s="453"/>
+      <c r="B21" s="468"/>
       <c r="C21" s="322" t="s">
         <v>156</v>
       </c>
@@ -12683,8 +12720,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="447"/>
-      <c r="B22" s="462"/>
+      <c r="A22" s="453"/>
+      <c r="B22" s="468"/>
       <c r="C22" s="322" t="s">
         <v>91</v>
       </c>
@@ -12697,8 +12734,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="447"/>
-      <c r="B23" s="462"/>
+      <c r="A23" s="453"/>
+      <c r="B23" s="468"/>
       <c r="C23" s="322" t="s">
         <v>203</v>
       </c>
@@ -12711,12 +12748,12 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="447"/>
-      <c r="B24" s="462"/>
+      <c r="A24" s="453"/>
+      <c r="B24" s="468"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="447"/>
-      <c r="B25" s="462"/>
+      <c r="A25" s="453"/>
+      <c r="B25" s="468"/>
       <c r="C25" s="322" t="s">
         <v>244</v>
       </c>
@@ -12729,16 +12766,16 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="447"/>
-      <c r="B26" s="462"/>
+      <c r="A26" s="453"/>
+      <c r="B26" s="468"/>
       <c r="C26" s="322"/>
       <c r="D26" s="333"/>
       <c r="E26" s="322"/>
       <c r="F26" s="324"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="447"/>
-      <c r="B27" s="462"/>
+      <c r="A27" s="453"/>
+      <c r="B27" s="468"/>
       <c r="C27" s="322" t="s">
         <v>246</v>
       </c>
@@ -12753,8 +12790,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="447"/>
-      <c r="B28" s="462"/>
+      <c r="A28" s="453"/>
+      <c r="B28" s="468"/>
       <c r="C28" s="322" t="s">
         <v>249</v>
       </c>
@@ -12767,8 +12804,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="447"/>
-      <c r="B29" s="462"/>
+      <c r="A29" s="453"/>
+      <c r="B29" s="468"/>
       <c r="C29" s="322" t="s">
         <v>251</v>
       </c>
@@ -12783,16 +12820,16 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="447"/>
-      <c r="B30" s="462"/>
+      <c r="A30" s="453"/>
+      <c r="B30" s="468"/>
       <c r="C30" s="334"/>
       <c r="D30" s="334"/>
       <c r="E30" s="322"/>
       <c r="F30" s="334"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="447"/>
-      <c r="B31" s="461" t="s">
+      <c r="A31" s="453"/>
+      <c r="B31" s="467" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="322" t="s">
@@ -12807,8 +12844,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="447"/>
-      <c r="B32" s="461"/>
+      <c r="A32" s="453"/>
+      <c r="B32" s="467"/>
       <c r="C32" s="322"/>
       <c r="D32" s="333"/>
       <c r="E32" s="322" t="s">
@@ -12817,8 +12854,8 @@
       <c r="F32" s="324"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="447"/>
-      <c r="B33" s="461"/>
+      <c r="A33" s="453"/>
+      <c r="B33" s="467"/>
       <c r="C33" s="336"/>
       <c r="D33" s="315"/>
       <c r="E33" s="337" t="s">
@@ -12827,8 +12864,8 @@
       <c r="F33" s="338"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="447"/>
-      <c r="B34" s="461"/>
+      <c r="A34" s="453"/>
+      <c r="B34" s="467"/>
       <c r="C34" s="339"/>
       <c r="D34" s="340"/>
       <c r="E34" s="341" t="s">
@@ -12837,8 +12874,8 @@
       <c r="F34" s="342"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="447"/>
-      <c r="B35" s="461"/>
+      <c r="A35" s="453"/>
+      <c r="B35" s="467"/>
       <c r="C35" s="339"/>
       <c r="D35" s="340"/>
       <c r="E35" s="341" t="s">
@@ -12847,8 +12884,8 @@
       <c r="F35" s="342"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="447"/>
-      <c r="B36" s="461"/>
+      <c r="A36" s="453"/>
+      <c r="B36" s="467"/>
       <c r="C36" s="336"/>
       <c r="D36" s="315"/>
       <c r="E36" s="341" t="s">
@@ -12857,8 +12894,8 @@
       <c r="F36" s="338"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="447"/>
-      <c r="B37" s="461"/>
+      <c r="A37" s="453"/>
+      <c r="B37" s="467"/>
       <c r="C37" s="336"/>
       <c r="D37" s="315"/>
       <c r="E37" s="341" t="s">
@@ -12867,8 +12904,8 @@
       <c r="F37" s="338"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="447"/>
-      <c r="B38" s="461"/>
+      <c r="A38" s="453"/>
+      <c r="B38" s="467"/>
       <c r="C38" s="343"/>
       <c r="D38" s="340"/>
       <c r="E38" s="341" t="s">
@@ -12878,7 +12915,7 @@
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="325"/>
-      <c r="B39" s="461" t="s">
+      <c r="B39" s="467" t="s">
         <v>255</v>
       </c>
       <c r="C39" s="322" t="s">
@@ -12894,7 +12931,7 @@
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="325"/>
-      <c r="B40" s="461"/>
+      <c r="B40" s="467"/>
       <c r="C40" s="322" t="s">
         <v>84</v>
       </c>
@@ -12908,7 +12945,7 @@
     </row>
     <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="325"/>
-      <c r="B41" s="461"/>
+      <c r="B41" s="467"/>
       <c r="C41" s="336" t="s">
         <v>86</v>
       </c>
@@ -12922,7 +12959,7 @@
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="325"/>
-      <c r="B42" s="461"/>
+      <c r="B42" s="467"/>
       <c r="C42" s="339" t="s">
         <v>65</v>
       </c>
@@ -12936,7 +12973,7 @@
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="325"/>
-      <c r="B43" s="461"/>
+      <c r="B43" s="467"/>
       <c r="C43" s="339"/>
       <c r="D43" s="340"/>
       <c r="E43" s="341"/>
@@ -12944,7 +12981,7 @@
     </row>
     <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="325"/>
-      <c r="B44" s="461"/>
+      <c r="B44" s="467"/>
       <c r="C44" s="336"/>
       <c r="D44" s="315"/>
       <c r="E44" s="341"/>
@@ -12952,7 +12989,7 @@
     </row>
     <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="325"/>
-      <c r="B45" s="461"/>
+      <c r="B45" s="467"/>
       <c r="C45" s="336"/>
       <c r="D45" s="315"/>
       <c r="E45" s="341"/>
@@ -12960,7 +12997,7 @@
     </row>
     <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="325"/>
-      <c r="B46" s="461"/>
+      <c r="B46" s="467"/>
       <c r="C46" s="343"/>
       <c r="D46" s="340"/>
       <c r="E46" s="341"/>
@@ -13055,7 +13092,7 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="474" t="s">
+      <c r="A5" s="480" t="s">
         <v>263</v>
       </c>
       <c r="B5" s="224" t="s">
@@ -13074,7 +13111,7 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="475"/>
+      <c r="A6" s="481"/>
       <c r="B6" s="227"/>
       <c r="C6" s="52"/>
       <c r="D6" s="53"/>
@@ -13083,7 +13120,7 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="475"/>
+      <c r="A7" s="481"/>
       <c r="B7" s="180"/>
       <c r="C7" s="62" t="s">
         <v>264</v>
@@ -13098,7 +13135,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="475"/>
+      <c r="A8" s="481"/>
       <c r="B8" s="229"/>
       <c r="C8" s="66" t="s">
         <v>266</v>
@@ -13111,7 +13148,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="475"/>
+      <c r="A9" s="481"/>
       <c r="B9" s="229"/>
       <c r="C9" s="66" t="s">
         <v>268</v>
@@ -13124,7 +13161,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="476"/>
+      <c r="A10" s="482"/>
       <c r="B10" s="182"/>
       <c r="C10" s="93" t="s">
         <v>270</v>
@@ -13137,7 +13174,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="477" t="s">
+      <c r="A11" s="483" t="s">
         <v>271</v>
       </c>
       <c r="B11" s="51" t="s">
@@ -13156,19 +13193,19 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="478"/>
+      <c r="A12" s="484"/>
       <c r="F12" s="231"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="478"/>
+      <c r="A13" s="484"/>
       <c r="B13" s="61" t="s">
         <v>274</v>
       </c>
       <c r="C13" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="D13" s="481"/>
+      <c r="D13" s="487"/>
       <c r="E13" s="62" t="s">
         <v>54</v>
       </c>
@@ -13178,14 +13215,14 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="478"/>
+      <c r="A14" s="484"/>
       <c r="B14" s="65" t="s">
         <v>274</v>
       </c>
       <c r="C14" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="D14" s="469"/>
+      <c r="D14" s="475"/>
       <c r="E14" s="66" t="s">
         <v>54</v>
       </c>
@@ -13195,14 +13232,14 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="478"/>
+      <c r="A15" s="484"/>
       <c r="B15" s="65" t="s">
         <v>274</v>
       </c>
       <c r="C15" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D15" s="469"/>
+      <c r="D15" s="475"/>
       <c r="E15" s="66" t="s">
         <v>54</v>
       </c>
@@ -13212,14 +13249,14 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="478"/>
+      <c r="A16" s="484"/>
       <c r="B16" s="65" t="s">
         <v>274</v>
       </c>
       <c r="C16" s="66" t="s">
         <v>281</v>
       </c>
-      <c r="D16" s="469"/>
+      <c r="D16" s="475"/>
       <c r="E16" s="66" t="s">
         <v>54</v>
       </c>
@@ -13228,14 +13265,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="478"/>
+      <c r="A17" s="484"/>
       <c r="B17" s="65" t="s">
         <v>274</v>
       </c>
       <c r="C17" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="D17" s="469"/>
+      <c r="D17" s="475"/>
       <c r="E17" s="66" t="s">
         <v>54</v>
       </c>
@@ -13244,7 +13281,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="478"/>
+      <c r="A18" s="484"/>
       <c r="B18" s="232" t="s">
         <v>57</v>
       </c>
@@ -13260,7 +13297,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="478"/>
+      <c r="A19" s="484"/>
       <c r="B19" s="69" t="s">
         <v>57</v>
       </c>
@@ -13276,7 +13313,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="478"/>
+      <c r="A20" s="484"/>
       <c r="B20" s="69" t="s">
         <v>57</v>
       </c>
@@ -13292,18 +13329,18 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="478"/>
+      <c r="A21" s="484"/>
       <c r="F21" s="236"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="478"/>
+      <c r="A22" s="484"/>
       <c r="B22" s="237" t="s">
         <v>290</v>
       </c>
       <c r="C22" s="237" t="s">
         <v>238</v>
       </c>
-      <c r="D22" s="482"/>
+      <c r="D22" s="488"/>
       <c r="E22" s="237" t="s">
         <v>54</v>
       </c>
@@ -13312,14 +13349,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="478"/>
+      <c r="A23" s="484"/>
       <c r="B23" s="240" t="s">
         <v>290</v>
       </c>
       <c r="C23" s="240" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="483"/>
+      <c r="D23" s="489"/>
       <c r="E23" s="240" t="s">
         <v>54</v>
       </c>
@@ -13328,14 +13365,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="478"/>
+      <c r="A24" s="484"/>
       <c r="B24" s="240" t="s">
         <v>290</v>
       </c>
       <c r="C24" s="240" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="483"/>
+      <c r="D24" s="489"/>
       <c r="E24" s="240" t="s">
         <v>54</v>
       </c>
@@ -13344,14 +13381,14 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="478"/>
+      <c r="A25" s="484"/>
       <c r="B25" s="243" t="s">
         <v>290</v>
       </c>
       <c r="C25" s="243" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="484"/>
+      <c r="D25" s="490"/>
       <c r="E25" s="243" t="s">
         <v>54</v>
       </c>
@@ -13360,18 +13397,18 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="478"/>
+      <c r="A26" s="484"/>
       <c r="F26" s="236"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="478"/>
+      <c r="A27" s="484"/>
       <c r="B27" s="237" t="s">
         <v>295</v>
       </c>
       <c r="C27" s="237" t="s">
         <v>296</v>
       </c>
-      <c r="D27" s="482"/>
+      <c r="D27" s="488"/>
       <c r="E27" s="237" t="s">
         <v>54</v>
       </c>
@@ -13380,14 +13417,14 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="478"/>
+      <c r="A28" s="484"/>
       <c r="B28" s="240" t="s">
         <v>295</v>
       </c>
       <c r="C28" s="240" t="s">
         <v>298</v>
       </c>
-      <c r="D28" s="483"/>
+      <c r="D28" s="489"/>
       <c r="E28" s="240" t="s">
         <v>54</v>
       </c>
@@ -13396,14 +13433,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="478"/>
+      <c r="A29" s="484"/>
       <c r="B29" s="240" t="s">
         <v>295</v>
       </c>
       <c r="C29" s="240" t="s">
         <v>300</v>
       </c>
-      <c r="D29" s="483"/>
+      <c r="D29" s="489"/>
       <c r="E29" s="240" t="s">
         <v>54</v>
       </c>
@@ -13412,14 +13449,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="478"/>
+      <c r="A30" s="484"/>
       <c r="B30" s="243" t="s">
         <v>295</v>
       </c>
       <c r="C30" s="243" t="s">
         <v>302</v>
       </c>
-      <c r="D30" s="484"/>
+      <c r="D30" s="490"/>
       <c r="E30" s="243" t="s">
         <v>54</v>
       </c>
@@ -13428,18 +13465,18 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="478"/>
+      <c r="A31" s="484"/>
       <c r="F31" s="236"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="478"/>
+      <c r="A32" s="484"/>
       <c r="B32" s="237" t="s">
         <v>290</v>
       </c>
       <c r="C32" s="237" t="s">
         <v>304</v>
       </c>
-      <c r="D32" s="482" t="s">
+      <c r="D32" s="488" t="s">
         <v>305</v>
       </c>
       <c r="E32" s="237" t="s">
@@ -13450,14 +13487,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="478"/>
+      <c r="A33" s="484"/>
       <c r="B33" s="240" t="s">
         <v>290</v>
       </c>
       <c r="C33" s="240" t="s">
         <v>307</v>
       </c>
-      <c r="D33" s="483"/>
+      <c r="D33" s="489"/>
       <c r="E33" s="240" t="s">
         <v>54</v>
       </c>
@@ -13466,14 +13503,14 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="478"/>
+      <c r="A34" s="484"/>
       <c r="B34" s="240" t="s">
         <v>290</v>
       </c>
       <c r="C34" s="240" t="s">
         <v>309</v>
       </c>
-      <c r="D34" s="483"/>
+      <c r="D34" s="489"/>
       <c r="E34" s="240" t="s">
         <v>54</v>
       </c>
@@ -13482,14 +13519,14 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="478"/>
+      <c r="A35" s="484"/>
       <c r="B35" s="243" t="s">
         <v>290</v>
       </c>
       <c r="C35" s="243" t="s">
         <v>311</v>
       </c>
-      <c r="D35" s="484"/>
+      <c r="D35" s="490"/>
       <c r="E35" s="243" t="s">
         <v>54</v>
       </c>
@@ -13498,18 +13535,18 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="478"/>
+      <c r="A36" s="484"/>
       <c r="F36" s="236"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="478"/>
+      <c r="A37" s="484"/>
       <c r="B37" s="237" t="s">
         <v>290</v>
       </c>
       <c r="C37" s="237" t="s">
         <v>313</v>
       </c>
-      <c r="D37" s="482"/>
+      <c r="D37" s="488"/>
       <c r="E37" s="237" t="s">
         <v>54</v>
       </c>
@@ -13518,14 +13555,14 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="478"/>
+      <c r="A38" s="484"/>
       <c r="B38" s="240" t="s">
         <v>290</v>
       </c>
       <c r="C38" s="240" t="s">
         <v>315</v>
       </c>
-      <c r="D38" s="483"/>
+      <c r="D38" s="489"/>
       <c r="E38" s="240" t="s">
         <v>54</v>
       </c>
@@ -13534,14 +13571,14 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="478"/>
+      <c r="A39" s="484"/>
       <c r="B39" s="240" t="s">
         <v>290</v>
       </c>
       <c r="C39" s="240" t="s">
         <v>317</v>
       </c>
-      <c r="D39" s="483"/>
+      <c r="D39" s="489"/>
       <c r="E39" s="240" t="s">
         <v>54</v>
       </c>
@@ -13550,14 +13587,14 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="478"/>
+      <c r="A40" s="484"/>
       <c r="B40" s="240" t="s">
         <v>290</v>
       </c>
       <c r="C40" s="240" t="s">
         <v>319</v>
       </c>
-      <c r="D40" s="483"/>
+      <c r="D40" s="489"/>
       <c r="E40" s="240" t="s">
         <v>54</v>
       </c>
@@ -13566,22 +13603,22 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="478"/>
+      <c r="A41" s="484"/>
       <c r="B41" s="240"/>
       <c r="C41" s="240"/>
-      <c r="D41" s="483"/>
+      <c r="D41" s="489"/>
       <c r="E41" s="240"/>
       <c r="F41" s="242"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="478"/>
+      <c r="A42" s="484"/>
       <c r="B42" s="240" t="s">
         <v>290</v>
       </c>
       <c r="C42" s="240" t="s">
         <v>321</v>
       </c>
-      <c r="D42" s="483"/>
+      <c r="D42" s="489"/>
       <c r="E42" s="240" t="s">
         <v>54</v>
       </c>
@@ -13590,14 +13627,14 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="478"/>
+      <c r="A43" s="484"/>
       <c r="B43" s="240" t="s">
         <v>290</v>
       </c>
       <c r="C43" s="240" t="s">
         <v>323</v>
       </c>
-      <c r="D43" s="483"/>
+      <c r="D43" s="489"/>
       <c r="E43" s="240" t="s">
         <v>54</v>
       </c>
@@ -13606,22 +13643,22 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="478"/>
+      <c r="A44" s="484"/>
       <c r="B44" s="240"/>
       <c r="C44" s="240"/>
-      <c r="D44" s="483"/>
+      <c r="D44" s="489"/>
       <c r="E44" s="240"/>
       <c r="F44" s="242"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="478"/>
+      <c r="A45" s="484"/>
       <c r="B45" s="243" t="s">
         <v>290</v>
       </c>
       <c r="C45" s="243" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="484"/>
+      <c r="D45" s="490"/>
       <c r="E45" s="243" t="s">
         <v>54</v>
       </c>
@@ -13630,18 +13667,18 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="478"/>
+      <c r="A46" s="484"/>
       <c r="F46" s="236"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="478"/>
+      <c r="A47" s="484"/>
       <c r="B47" s="237" t="s">
         <v>326</v>
       </c>
       <c r="C47" s="237" t="s">
         <v>327</v>
       </c>
-      <c r="D47" s="482"/>
+      <c r="D47" s="488"/>
       <c r="E47" s="237" t="s">
         <v>54</v>
       </c>
@@ -13650,14 +13687,14 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="478"/>
+      <c r="A48" s="484"/>
       <c r="B48" s="243" t="s">
         <v>326</v>
       </c>
       <c r="C48" s="243" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="484"/>
+      <c r="D48" s="490"/>
       <c r="E48" s="243" t="s">
         <v>54</v>
       </c>
@@ -13666,7 +13703,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="478"/>
+      <c r="A49" s="484"/>
       <c r="B49" s="245"/>
       <c r="C49" s="245"/>
       <c r="D49" s="246"/>
@@ -13674,7 +13711,7 @@
       <c r="F49" s="247"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="478"/>
+      <c r="A50" s="484"/>
       <c r="B50" s="237" t="s">
         <v>330</v>
       </c>
@@ -13690,7 +13727,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="478"/>
+      <c r="A51" s="484"/>
       <c r="B51" s="240" t="s">
         <v>330</v>
       </c>
@@ -13706,7 +13743,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="478"/>
+      <c r="A52" s="484"/>
       <c r="B52" s="240" t="s">
         <v>330</v>
       </c>
@@ -13722,14 +13759,14 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="478"/>
+      <c r="A53" s="484"/>
       <c r="B53" s="240" t="s">
         <v>330</v>
       </c>
       <c r="C53" s="240" t="s">
         <v>336</v>
       </c>
-      <c r="D53" s="485" t="s">
+      <c r="D53" s="491" t="s">
         <v>337</v>
       </c>
       <c r="E53" s="240" t="s">
@@ -13740,14 +13777,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="478"/>
+      <c r="A54" s="484"/>
       <c r="B54" s="243" t="s">
         <v>330</v>
       </c>
       <c r="C54" s="243" t="s">
         <v>339</v>
       </c>
-      <c r="D54" s="484"/>
+      <c r="D54" s="490"/>
       <c r="E54" s="243" t="s">
         <v>54</v>
       </c>
@@ -13756,7 +13793,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="478"/>
+      <c r="A55" s="484"/>
       <c r="B55" s="245"/>
       <c r="C55" s="245"/>
       <c r="D55" s="246"/>
@@ -13764,7 +13801,7 @@
       <c r="F55" s="247"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="478"/>
+      <c r="A56" s="484"/>
       <c r="B56" s="237" t="s">
         <v>341</v>
       </c>
@@ -13782,7 +13819,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="478"/>
+      <c r="A57" s="484"/>
       <c r="B57" s="240" t="s">
         <v>341</v>
       </c>
@@ -13800,7 +13837,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="478"/>
+      <c r="A58" s="484"/>
       <c r="B58" s="240" t="s">
         <v>341</v>
       </c>
@@ -13818,7 +13855,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="478"/>
+      <c r="A59" s="484"/>
       <c r="B59" s="240" t="s">
         <v>341</v>
       </c>
@@ -13834,7 +13871,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="478"/>
+      <c r="A60" s="484"/>
       <c r="B60" s="240" t="s">
         <v>341</v>
       </c>
@@ -13852,7 +13889,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="478"/>
+      <c r="A61" s="484"/>
       <c r="B61" s="240" t="s">
         <v>341</v>
       </c>
@@ -13868,7 +13905,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="478"/>
+      <c r="A62" s="484"/>
       <c r="B62" s="240" t="s">
         <v>356</v>
       </c>
@@ -13884,7 +13921,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="478"/>
+      <c r="A63" s="484"/>
       <c r="B63" s="240" t="s">
         <v>356</v>
       </c>
@@ -13900,7 +13937,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="478"/>
+      <c r="A64" s="484"/>
       <c r="B64" s="250" t="s">
         <v>356</v>
       </c>
@@ -13916,7 +13953,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="478"/>
+      <c r="A65" s="484"/>
       <c r="B65" s="250" t="s">
         <v>356</v>
       </c>
@@ -13932,7 +13969,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="478"/>
+      <c r="A66" s="484"/>
       <c r="B66" s="250" t="s">
         <v>356</v>
       </c>
@@ -13948,7 +13985,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="478"/>
+      <c r="A67" s="484"/>
       <c r="B67" s="250" t="s">
         <v>356</v>
       </c>
@@ -13964,7 +14001,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="478"/>
+      <c r="A68" s="484"/>
       <c r="B68" s="253" t="s">
         <v>356</v>
       </c>
@@ -13980,7 +14017,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="478"/>
+      <c r="A69" s="484"/>
       <c r="B69" s="245"/>
       <c r="C69" s="245"/>
       <c r="D69" s="246"/>
@@ -13988,14 +14025,14 @@
       <c r="F69" s="247"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="478"/>
+      <c r="A70" s="484"/>
       <c r="B70" s="237" t="s">
         <v>341</v>
       </c>
       <c r="C70" s="237" t="s">
         <v>367</v>
       </c>
-      <c r="D70" s="486" t="s">
+      <c r="D70" s="492" t="s">
         <v>368</v>
       </c>
       <c r="E70" s="237" t="s">
@@ -14006,14 +14043,14 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="478"/>
+      <c r="A71" s="484"/>
       <c r="B71" s="240" t="s">
         <v>341</v>
       </c>
       <c r="C71" s="240" t="s">
         <v>370</v>
       </c>
-      <c r="D71" s="483"/>
+      <c r="D71" s="489"/>
       <c r="E71" s="240" t="s">
         <v>54</v>
       </c>
@@ -14022,14 +14059,14 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72" s="478"/>
+      <c r="A72" s="484"/>
       <c r="B72" s="240" t="s">
         <v>341</v>
       </c>
       <c r="C72" s="240" t="s">
         <v>372</v>
       </c>
-      <c r="D72" s="483"/>
+      <c r="D72" s="489"/>
       <c r="E72" s="240" t="s">
         <v>54</v>
       </c>
@@ -14038,14 +14075,14 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="478"/>
+      <c r="A73" s="484"/>
       <c r="B73" s="240" t="s">
         <v>341</v>
       </c>
       <c r="C73" s="240" t="s">
         <v>374</v>
       </c>
-      <c r="D73" s="483"/>
+      <c r="D73" s="489"/>
       <c r="E73" s="240" t="s">
         <v>54</v>
       </c>
@@ -14054,14 +14091,14 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="478"/>
+      <c r="A74" s="484"/>
       <c r="B74" s="240" t="s">
         <v>341</v>
       </c>
       <c r="C74" s="240" t="s">
         <v>376</v>
       </c>
-      <c r="D74" s="483"/>
+      <c r="D74" s="489"/>
       <c r="E74" s="240" t="s">
         <v>54</v>
       </c>
@@ -14070,14 +14107,14 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="478"/>
+      <c r="A75" s="484"/>
       <c r="B75" s="240" t="s">
         <v>341</v>
       </c>
       <c r="C75" s="240" t="s">
         <v>378</v>
       </c>
-      <c r="D75" s="483"/>
+      <c r="D75" s="489"/>
       <c r="E75" s="240" t="s">
         <v>54</v>
       </c>
@@ -14086,7 +14123,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="478"/>
+      <c r="A76" s="484"/>
       <c r="B76" s="240"/>
       <c r="C76" s="240"/>
       <c r="D76" s="248"/>
@@ -14094,14 +14131,14 @@
       <c r="F76" s="242"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77" s="478"/>
+      <c r="A77" s="484"/>
       <c r="B77" s="240" t="s">
         <v>341</v>
       </c>
       <c r="C77" s="240" t="s">
         <v>380</v>
       </c>
-      <c r="D77" s="485" t="s">
+      <c r="D77" s="491" t="s">
         <v>337</v>
       </c>
       <c r="E77" s="240" t="s">
@@ -14112,14 +14149,14 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="478"/>
+      <c r="A78" s="484"/>
       <c r="B78" s="243" t="s">
         <v>341</v>
       </c>
       <c r="C78" s="243" t="s">
         <v>382</v>
       </c>
-      <c r="D78" s="484"/>
+      <c r="D78" s="490"/>
       <c r="E78" s="243" t="s">
         <v>54</v>
       </c>
@@ -14128,7 +14165,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="478"/>
+      <c r="A79" s="484"/>
       <c r="B79" s="245"/>
       <c r="C79" s="245"/>
       <c r="D79" s="246"/>
@@ -14136,7 +14173,7 @@
       <c r="F79" s="247"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="478"/>
+      <c r="A80" s="484"/>
       <c r="B80" s="237" t="s">
         <v>341</v>
       </c>
@@ -14154,7 +14191,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="478"/>
+      <c r="A81" s="484"/>
       <c r="B81" s="240"/>
       <c r="C81" s="240"/>
       <c r="D81" s="248"/>
@@ -14162,14 +14199,14 @@
       <c r="F81" s="242"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="478"/>
+      <c r="A82" s="484"/>
       <c r="B82" s="240" t="s">
         <v>341</v>
       </c>
       <c r="C82" s="240" t="s">
         <v>387</v>
       </c>
-      <c r="D82" s="487" t="s">
+      <c r="D82" s="493" t="s">
         <v>388</v>
       </c>
       <c r="E82" s="240" t="s">
@@ -14180,14 +14217,14 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="478"/>
+      <c r="A83" s="484"/>
       <c r="B83" s="240" t="s">
         <v>341</v>
       </c>
       <c r="C83" s="240" t="s">
         <v>390</v>
       </c>
-      <c r="D83" s="488"/>
+      <c r="D83" s="494"/>
       <c r="E83" s="240" t="s">
         <v>54</v>
       </c>
@@ -14196,14 +14233,14 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="478"/>
+      <c r="A84" s="484"/>
       <c r="B84" s="240" t="s">
         <v>341</v>
       </c>
       <c r="C84" s="240" t="s">
         <v>392</v>
       </c>
-      <c r="D84" s="488"/>
+      <c r="D84" s="494"/>
       <c r="E84" s="240" t="s">
         <v>54</v>
       </c>
@@ -14212,14 +14249,14 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="478"/>
+      <c r="A85" s="484"/>
       <c r="B85" s="240" t="s">
         <v>341</v>
       </c>
       <c r="C85" s="240" t="s">
         <v>394</v>
       </c>
-      <c r="D85" s="488"/>
+      <c r="D85" s="494"/>
       <c r="E85" s="240" t="s">
         <v>54</v>
       </c>
@@ -14228,7 +14265,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" s="478"/>
+      <c r="A86" s="484"/>
       <c r="B86" s="240"/>
       <c r="C86" s="240"/>
       <c r="D86" s="248"/>
@@ -14236,7 +14273,7 @@
       <c r="F86" s="242"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="478"/>
+      <c r="A87" s="484"/>
       <c r="B87" s="250" t="s">
         <v>341</v>
       </c>
@@ -14254,7 +14291,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" s="478"/>
+      <c r="A88" s="484"/>
       <c r="B88" s="240" t="s">
         <v>341</v>
       </c>
@@ -14272,7 +14309,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="478"/>
+      <c r="A89" s="484"/>
       <c r="B89" s="240" t="s">
         <v>330</v>
       </c>
@@ -14290,7 +14327,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90" s="478"/>
+      <c r="A90" s="484"/>
       <c r="B90" s="243" t="s">
         <v>330</v>
       </c>
@@ -14308,18 +14345,18 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A91" s="478"/>
+      <c r="A91" s="484"/>
       <c r="F91" s="236"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92" s="478"/>
+      <c r="A92" s="484"/>
       <c r="B92" s="237" t="s">
         <v>295</v>
       </c>
       <c r="C92" s="237" t="s">
         <v>408</v>
       </c>
-      <c r="D92" s="486" t="s">
+      <c r="D92" s="492" t="s">
         <v>337</v>
       </c>
       <c r="E92" s="237" t="s">
@@ -14330,14 +14367,14 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="478"/>
+      <c r="A93" s="484"/>
       <c r="B93" s="240" t="s">
         <v>295</v>
       </c>
       <c r="C93" s="240" t="s">
         <v>410</v>
       </c>
-      <c r="D93" s="483"/>
+      <c r="D93" s="489"/>
       <c r="E93" s="240" t="s">
         <v>54</v>
       </c>
@@ -14346,7 +14383,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="478"/>
+      <c r="A94" s="484"/>
       <c r="B94" s="240"/>
       <c r="C94" s="240"/>
       <c r="D94" s="248"/>
@@ -14354,14 +14391,14 @@
       <c r="F94" s="242"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95" s="478"/>
+      <c r="A95" s="484"/>
       <c r="B95" s="240" t="s">
         <v>341</v>
       </c>
       <c r="C95" s="240" t="s">
         <v>412</v>
       </c>
-      <c r="D95" s="485" t="s">
+      <c r="D95" s="491" t="s">
         <v>413</v>
       </c>
       <c r="E95" s="240" t="s">
@@ -14372,14 +14409,14 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="478"/>
+      <c r="A96" s="484"/>
       <c r="B96" s="240" t="s">
         <v>341</v>
       </c>
       <c r="C96" s="240" t="s">
         <v>415</v>
       </c>
-      <c r="D96" s="483"/>
+      <c r="D96" s="489"/>
       <c r="E96" s="240" t="s">
         <v>54</v>
       </c>
@@ -14388,14 +14425,14 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A97" s="478"/>
+      <c r="A97" s="484"/>
       <c r="B97" s="240" t="s">
         <v>341</v>
       </c>
       <c r="C97" s="240" t="s">
         <v>417</v>
       </c>
-      <c r="D97" s="483"/>
+      <c r="D97" s="489"/>
       <c r="E97" s="240" t="s">
         <v>54</v>
       </c>
@@ -14404,14 +14441,14 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A98" s="478"/>
+      <c r="A98" s="484"/>
       <c r="B98" s="243" t="s">
         <v>341</v>
       </c>
       <c r="C98" s="243" t="s">
         <v>419</v>
       </c>
-      <c r="D98" s="484"/>
+      <c r="D98" s="490"/>
       <c r="E98" s="243" t="s">
         <v>54</v>
       </c>
@@ -14420,18 +14457,18 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99" s="478"/>
+      <c r="A99" s="484"/>
       <c r="F99" s="236"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A100" s="478"/>
+      <c r="A100" s="484"/>
       <c r="B100" s="237" t="s">
         <v>330</v>
       </c>
       <c r="C100" s="237" t="s">
         <v>421</v>
       </c>
-      <c r="D100" s="482"/>
+      <c r="D100" s="488"/>
       <c r="E100" s="237" t="s">
         <v>54</v>
       </c>
@@ -14440,14 +14477,14 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A101" s="478"/>
+      <c r="A101" s="484"/>
       <c r="B101" s="240" t="s">
         <v>330</v>
       </c>
       <c r="C101" s="240" t="s">
         <v>423</v>
       </c>
-      <c r="D101" s="483"/>
+      <c r="D101" s="489"/>
       <c r="E101" s="240" t="s">
         <v>54</v>
       </c>
@@ -14456,14 +14493,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A102" s="478"/>
+      <c r="A102" s="484"/>
       <c r="B102" s="240" t="s">
         <v>330</v>
       </c>
       <c r="C102" s="240" t="s">
         <v>425</v>
       </c>
-      <c r="D102" s="483"/>
+      <c r="D102" s="489"/>
       <c r="E102" s="240" t="s">
         <v>54</v>
       </c>
@@ -14472,14 +14509,14 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A103" s="478"/>
+      <c r="A103" s="484"/>
       <c r="B103" s="240" t="s">
         <v>330</v>
       </c>
       <c r="C103" s="240" t="s">
         <v>427</v>
       </c>
-      <c r="D103" s="483"/>
+      <c r="D103" s="489"/>
       <c r="E103" s="240" t="s">
         <v>54</v>
       </c>
@@ -14488,14 +14525,14 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A104" s="478"/>
+      <c r="A104" s="484"/>
       <c r="B104" s="240" t="s">
         <v>330</v>
       </c>
       <c r="C104" s="240" t="s">
         <v>429</v>
       </c>
-      <c r="D104" s="483"/>
+      <c r="D104" s="489"/>
       <c r="E104" s="240" t="s">
         <v>54</v>
       </c>
@@ -14504,14 +14541,14 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A105" s="478"/>
+      <c r="A105" s="484"/>
       <c r="B105" s="240" t="s">
         <v>330</v>
       </c>
       <c r="C105" s="240" t="s">
         <v>431</v>
       </c>
-      <c r="D105" s="483"/>
+      <c r="D105" s="489"/>
       <c r="E105" s="240" t="s">
         <v>54</v>
       </c>
@@ -14520,14 +14557,14 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A106" s="478"/>
+      <c r="A106" s="484"/>
       <c r="B106" s="240" t="s">
         <v>330</v>
       </c>
       <c r="C106" s="240" t="s">
         <v>433</v>
       </c>
-      <c r="D106" s="483"/>
+      <c r="D106" s="489"/>
       <c r="E106" s="240" t="s">
         <v>54</v>
       </c>
@@ -14536,14 +14573,14 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A107" s="478"/>
+      <c r="A107" s="484"/>
       <c r="B107" s="240" t="s">
         <v>330</v>
       </c>
       <c r="C107" s="240" t="s">
         <v>435</v>
       </c>
-      <c r="D107" s="483"/>
+      <c r="D107" s="489"/>
       <c r="E107" s="240" t="s">
         <v>54</v>
       </c>
@@ -14552,14 +14589,14 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A108" s="478"/>
+      <c r="A108" s="484"/>
       <c r="B108" s="240" t="s">
         <v>330</v>
       </c>
       <c r="C108" s="240" t="s">
         <v>437</v>
       </c>
-      <c r="D108" s="483"/>
+      <c r="D108" s="489"/>
       <c r="E108" s="240" t="s">
         <v>54</v>
       </c>
@@ -14568,7 +14605,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A109" s="478"/>
+      <c r="A109" s="484"/>
       <c r="B109" s="240"/>
       <c r="C109" s="240"/>
       <c r="D109" s="241"/>
@@ -14576,7 +14613,7 @@
       <c r="F109" s="242"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A110" s="478"/>
+      <c r="A110" s="484"/>
       <c r="B110" s="240" t="s">
         <v>330</v>
       </c>
@@ -14594,7 +14631,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A111" s="478"/>
+      <c r="A111" s="484"/>
       <c r="B111" s="240" t="s">
         <v>330</v>
       </c>
@@ -14612,7 +14649,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A112" s="478"/>
+      <c r="A112" s="484"/>
       <c r="B112" s="240"/>
       <c r="C112" s="240"/>
       <c r="D112" s="248"/>
@@ -14620,7 +14657,7 @@
       <c r="F112" s="258"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A113" s="478"/>
+      <c r="A113" s="484"/>
       <c r="B113" s="240" t="s">
         <v>445</v>
       </c>
@@ -14638,7 +14675,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A114" s="478"/>
+      <c r="A114" s="484"/>
       <c r="B114" s="240" t="s">
         <v>445</v>
       </c>
@@ -14656,7 +14693,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A115" s="478"/>
+      <c r="A115" s="484"/>
       <c r="B115" s="240" t="s">
         <v>445</v>
       </c>
@@ -14674,7 +14711,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A116" s="478"/>
+      <c r="A116" s="484"/>
       <c r="B116" s="240"/>
       <c r="C116" s="259"/>
       <c r="D116" s="260"/>
@@ -14682,7 +14719,7 @@
       <c r="F116" s="242"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A117" s="478"/>
+      <c r="A117" s="484"/>
       <c r="B117" s="240" t="s">
         <v>330</v>
       </c>
@@ -14700,7 +14737,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A118" s="478"/>
+      <c r="A118" s="484"/>
       <c r="B118" s="240" t="s">
         <v>330</v>
       </c>
@@ -14718,7 +14755,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A119" s="478"/>
+      <c r="A119" s="484"/>
       <c r="B119" s="240" t="s">
         <v>330</v>
       </c>
@@ -14736,7 +14773,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A120" s="478"/>
+      <c r="A120" s="484"/>
       <c r="B120" s="240" t="s">
         <v>330</v>
       </c>
@@ -14754,7 +14791,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A121" s="478"/>
+      <c r="A121" s="484"/>
       <c r="B121" s="240" t="s">
         <v>330</v>
       </c>
@@ -14772,7 +14809,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A122" s="478"/>
+      <c r="A122" s="484"/>
       <c r="B122" s="240" t="s">
         <v>330</v>
       </c>
@@ -14790,7 +14827,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A123" s="478"/>
+      <c r="A123" s="484"/>
       <c r="B123" s="243" t="s">
         <v>330</v>
       </c>
@@ -14808,11 +14845,11 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A124" s="478"/>
+      <c r="A124" s="484"/>
       <c r="F124" s="236"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A125" s="478"/>
+      <c r="A125" s="484"/>
       <c r="B125" s="237" t="s">
         <v>473</v>
       </c>
@@ -14830,14 +14867,14 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A126" s="478"/>
+      <c r="A126" s="484"/>
       <c r="B126" s="240" t="s">
         <v>473</v>
       </c>
       <c r="C126" s="240" t="s">
         <v>477</v>
       </c>
-      <c r="D126" s="470" t="s">
+      <c r="D126" s="476" t="s">
         <v>478</v>
       </c>
       <c r="E126" s="240" t="s">
@@ -14848,14 +14885,14 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A127" s="478"/>
+      <c r="A127" s="484"/>
       <c r="B127" s="240" t="s">
         <v>473</v>
       </c>
       <c r="C127" s="240" t="s">
         <v>480</v>
       </c>
-      <c r="D127" s="470"/>
+      <c r="D127" s="476"/>
       <c r="E127" s="240" t="s">
         <v>54</v>
       </c>
@@ -14864,14 +14901,14 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A128" s="478"/>
+      <c r="A128" s="484"/>
       <c r="B128" s="240" t="s">
         <v>473</v>
       </c>
       <c r="C128" s="240" t="s">
         <v>482</v>
       </c>
-      <c r="D128" s="470" t="s">
+      <c r="D128" s="476" t="s">
         <v>483</v>
       </c>
       <c r="E128" s="240" t="s">
@@ -14882,14 +14919,14 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A129" s="478"/>
+      <c r="A129" s="484"/>
       <c r="B129" s="240" t="s">
         <v>473</v>
       </c>
       <c r="C129" s="240" t="s">
         <v>485</v>
       </c>
-      <c r="D129" s="470"/>
+      <c r="D129" s="476"/>
       <c r="E129" s="240" t="s">
         <v>54</v>
       </c>
@@ -14898,14 +14935,14 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A130" s="478"/>
+      <c r="A130" s="484"/>
       <c r="B130" s="240" t="s">
         <v>473</v>
       </c>
       <c r="C130" s="240" t="s">
         <v>487</v>
       </c>
-      <c r="D130" s="470" t="s">
+      <c r="D130" s="476" t="s">
         <v>488</v>
       </c>
       <c r="E130" s="240" t="s">
@@ -14916,14 +14953,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A131" s="478"/>
+      <c r="A131" s="484"/>
       <c r="B131" s="240" t="s">
         <v>473</v>
       </c>
       <c r="C131" s="240" t="s">
         <v>490</v>
       </c>
-      <c r="D131" s="470"/>
+      <c r="D131" s="476"/>
       <c r="E131" s="240" t="s">
         <v>54</v>
       </c>
@@ -14932,7 +14969,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A132" s="478"/>
+      <c r="A132" s="484"/>
       <c r="B132" s="240" t="s">
         <v>473</v>
       </c>
@@ -14950,14 +14987,14 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A133" s="478"/>
+      <c r="A133" s="484"/>
       <c r="B133" s="240" t="s">
         <v>473</v>
       </c>
       <c r="C133" s="240" t="s">
         <v>495</v>
       </c>
-      <c r="D133" s="470" t="s">
+      <c r="D133" s="476" t="s">
         <v>496</v>
       </c>
       <c r="E133" s="240" t="s">
@@ -14968,14 +15005,14 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A134" s="478"/>
+      <c r="A134" s="484"/>
       <c r="B134" s="243" t="s">
         <v>473</v>
       </c>
       <c r="C134" s="243" t="s">
         <v>498</v>
       </c>
-      <c r="D134" s="471"/>
+      <c r="D134" s="477"/>
       <c r="E134" s="243" t="s">
         <v>54</v>
       </c>
@@ -14984,18 +15021,18 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A135" s="478"/>
+      <c r="A135" s="484"/>
       <c r="F135" s="236"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A136" s="478"/>
+      <c r="A136" s="484"/>
       <c r="B136" s="180" t="s">
         <v>500</v>
       </c>
       <c r="C136" s="62" t="s">
         <v>501</v>
       </c>
-      <c r="D136" s="472" t="s">
+      <c r="D136" s="478" t="s">
         <v>502</v>
       </c>
       <c r="E136" s="62" t="s">
@@ -15006,14 +15043,14 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A137" s="478"/>
+      <c r="A137" s="484"/>
       <c r="B137" s="229" t="s">
         <v>500</v>
       </c>
       <c r="C137" s="66" t="s">
         <v>504</v>
       </c>
-      <c r="D137" s="473"/>
+      <c r="D137" s="479"/>
       <c r="E137" s="66" t="s">
         <v>54</v>
       </c>
@@ -15022,14 +15059,14 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A138" s="478"/>
+      <c r="A138" s="484"/>
       <c r="B138" s="229" t="s">
         <v>500</v>
       </c>
       <c r="C138" s="66" t="s">
         <v>506</v>
       </c>
-      <c r="D138" s="473"/>
+      <c r="D138" s="479"/>
       <c r="E138" s="66" t="s">
         <v>54</v>
       </c>
@@ -15038,14 +15075,14 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A139" s="478"/>
+      <c r="A139" s="484"/>
       <c r="B139" s="229" t="s">
         <v>500</v>
       </c>
       <c r="C139" s="66" t="s">
         <v>508</v>
       </c>
-      <c r="D139" s="473"/>
+      <c r="D139" s="479"/>
       <c r="E139" s="66" t="s">
         <v>54</v>
       </c>
@@ -15054,7 +15091,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A140" s="478"/>
+      <c r="A140" s="484"/>
       <c r="B140" s="229" t="s">
         <v>500</v>
       </c>
@@ -15072,7 +15109,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A141" s="478"/>
+      <c r="A141" s="484"/>
       <c r="B141" s="229" t="s">
         <v>500</v>
       </c>
@@ -15090,7 +15127,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A142" s="478"/>
+      <c r="A142" s="484"/>
       <c r="B142" s="229" t="s">
         <v>500</v>
       </c>
@@ -15106,7 +15143,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A143" s="478"/>
+      <c r="A143" s="484"/>
       <c r="B143" s="229" t="s">
         <v>500</v>
       </c>
@@ -15122,7 +15159,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A144" s="478"/>
+      <c r="A144" s="484"/>
       <c r="B144" s="229" t="s">
         <v>500</v>
       </c>
@@ -15140,7 +15177,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A145" s="478"/>
+      <c r="A145" s="484"/>
       <c r="B145" s="262" t="s">
         <v>500</v>
       </c>
@@ -15158,11 +15195,11 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A146" s="478"/>
+      <c r="A146" s="484"/>
       <c r="F146" s="263"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A147" s="478"/>
+      <c r="A147" s="484"/>
       <c r="B147" s="61" t="s">
         <v>526</v>
       </c>
@@ -15180,14 +15217,14 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A148" s="478"/>
+      <c r="A148" s="484"/>
       <c r="B148" s="65" t="s">
         <v>526</v>
       </c>
       <c r="C148" s="66" t="s">
         <v>530</v>
       </c>
-      <c r="D148" s="466" t="s">
+      <c r="D148" s="472" t="s">
         <v>531</v>
       </c>
       <c r="E148" s="66" t="s">
@@ -15198,14 +15235,14 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A149" s="478"/>
+      <c r="A149" s="484"/>
       <c r="B149" s="65" t="s">
         <v>526</v>
       </c>
       <c r="C149" s="66" t="s">
         <v>533</v>
       </c>
-      <c r="D149" s="469"/>
+      <c r="D149" s="475"/>
       <c r="E149" s="66" t="s">
         <v>54</v>
       </c>
@@ -15214,14 +15251,14 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A150" s="478"/>
+      <c r="A150" s="484"/>
       <c r="B150" s="65" t="s">
         <v>526</v>
       </c>
       <c r="C150" s="66" t="s">
         <v>535</v>
       </c>
-      <c r="D150" s="466" t="s">
+      <c r="D150" s="472" t="s">
         <v>536</v>
       </c>
       <c r="E150" s="66" t="s">
@@ -15232,14 +15269,14 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A151" s="478"/>
+      <c r="A151" s="484"/>
       <c r="B151" s="65" t="s">
         <v>526</v>
       </c>
       <c r="C151" s="66" t="s">
         <v>538</v>
       </c>
-      <c r="D151" s="469"/>
+      <c r="D151" s="475"/>
       <c r="E151" s="66" t="s">
         <v>54</v>
       </c>
@@ -15248,14 +15285,14 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A152" s="478"/>
+      <c r="A152" s="484"/>
       <c r="B152" s="65" t="s">
         <v>526</v>
       </c>
       <c r="C152" s="66" t="s">
         <v>540</v>
       </c>
-      <c r="D152" s="466" t="s">
+      <c r="D152" s="472" t="s">
         <v>541</v>
       </c>
       <c r="E152" s="66" t="s">
@@ -15266,14 +15303,14 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A153" s="478"/>
+      <c r="A153" s="484"/>
       <c r="B153" s="65" t="s">
         <v>526</v>
       </c>
       <c r="C153" s="66" t="s">
         <v>543</v>
       </c>
-      <c r="D153" s="469"/>
+      <c r="D153" s="475"/>
       <c r="E153" s="66" t="s">
         <v>54</v>
       </c>
@@ -15282,14 +15319,14 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A154" s="478"/>
+      <c r="A154" s="484"/>
       <c r="B154" s="65" t="s">
         <v>526</v>
       </c>
       <c r="C154" s="66" t="s">
         <v>545</v>
       </c>
-      <c r="D154" s="469"/>
+      <c r="D154" s="475"/>
       <c r="E154" s="66" t="s">
         <v>54</v>
       </c>
@@ -15298,14 +15335,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A155" s="478"/>
+      <c r="A155" s="484"/>
       <c r="B155" s="65" t="s">
         <v>526</v>
       </c>
       <c r="C155" s="66" t="s">
         <v>547</v>
       </c>
-      <c r="D155" s="469"/>
+      <c r="D155" s="475"/>
       <c r="E155" s="66" t="s">
         <v>54</v>
       </c>
@@ -15314,7 +15351,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A156" s="478"/>
+      <c r="A156" s="484"/>
       <c r="B156" s="65" t="s">
         <v>526</v>
       </c>
@@ -15332,7 +15369,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A157" s="478"/>
+      <c r="A157" s="484"/>
       <c r="B157" s="65" t="s">
         <v>526</v>
       </c>
@@ -15350,14 +15387,14 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A158" s="478"/>
+      <c r="A158" s="484"/>
       <c r="B158" s="65" t="s">
         <v>526</v>
       </c>
       <c r="C158" s="66" t="s">
         <v>555</v>
       </c>
-      <c r="D158" s="466" t="s">
+      <c r="D158" s="472" t="s">
         <v>556</v>
       </c>
       <c r="E158" s="66" t="s">
@@ -15368,14 +15405,14 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A159" s="478"/>
+      <c r="A159" s="484"/>
       <c r="B159" s="65" t="s">
         <v>526</v>
       </c>
       <c r="C159" s="66" t="s">
         <v>558</v>
       </c>
-      <c r="D159" s="469"/>
+      <c r="D159" s="475"/>
       <c r="E159" s="66" t="s">
         <v>54</v>
       </c>
@@ -15384,14 +15421,14 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A160" s="478"/>
+      <c r="A160" s="484"/>
       <c r="B160" s="65" t="s">
         <v>526</v>
       </c>
       <c r="C160" s="66" t="s">
         <v>560</v>
       </c>
-      <c r="D160" s="466" t="s">
+      <c r="D160" s="472" t="s">
         <v>561</v>
       </c>
       <c r="E160" s="66" t="s">
@@ -15402,14 +15439,14 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A161" s="478"/>
+      <c r="A161" s="484"/>
       <c r="B161" s="65" t="s">
         <v>526</v>
       </c>
       <c r="C161" s="66" t="s">
         <v>563</v>
       </c>
-      <c r="D161" s="469"/>
+      <c r="D161" s="475"/>
       <c r="E161" s="66" t="s">
         <v>54</v>
       </c>
@@ -15418,7 +15455,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A162" s="478"/>
+      <c r="A162" s="484"/>
       <c r="B162" s="65" t="s">
         <v>526</v>
       </c>
@@ -15436,14 +15473,14 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A163" s="478"/>
+      <c r="A163" s="484"/>
       <c r="B163" s="65" t="s">
         <v>526</v>
       </c>
       <c r="C163" s="66" t="s">
         <v>568</v>
       </c>
-      <c r="D163" s="466" t="s">
+      <c r="D163" s="472" t="s">
         <v>569</v>
       </c>
       <c r="E163" s="66" t="s">
@@ -15454,14 +15491,14 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A164" s="478"/>
+      <c r="A164" s="484"/>
       <c r="B164" s="108" t="s">
         <v>526</v>
       </c>
       <c r="C164" s="77" t="s">
         <v>570</v>
       </c>
-      <c r="D164" s="467"/>
+      <c r="D164" s="473"/>
       <c r="E164" s="77" t="s">
         <v>54</v>
       </c>
@@ -15470,11 +15507,11 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A165" s="478"/>
+      <c r="A165" s="484"/>
       <c r="F165" s="280"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A166" s="478"/>
+      <c r="A166" s="484"/>
       <c r="B166" s="61" t="s">
         <v>572</v>
       </c>
@@ -15492,14 +15529,14 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A167" s="478"/>
+      <c r="A167" s="484"/>
       <c r="B167" s="65" t="s">
         <v>572</v>
       </c>
       <c r="C167" s="66" t="s">
         <v>575</v>
       </c>
-      <c r="D167" s="466" t="s">
+      <c r="D167" s="472" t="s">
         <v>531</v>
       </c>
       <c r="E167" s="66" t="s">
@@ -15510,14 +15547,14 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A168" s="478"/>
+      <c r="A168" s="484"/>
       <c r="B168" s="65" t="s">
         <v>572</v>
       </c>
       <c r="C168" s="66" t="s">
         <v>577</v>
       </c>
-      <c r="D168" s="469"/>
+      <c r="D168" s="475"/>
       <c r="E168" s="66" t="s">
         <v>54</v>
       </c>
@@ -15526,14 +15563,14 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A169" s="478"/>
+      <c r="A169" s="484"/>
       <c r="B169" s="65" t="s">
         <v>572</v>
       </c>
       <c r="C169" s="66" t="s">
         <v>579</v>
       </c>
-      <c r="D169" s="466" t="s">
+      <c r="D169" s="472" t="s">
         <v>536</v>
       </c>
       <c r="E169" s="66" t="s">
@@ -15544,14 +15581,14 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A170" s="478"/>
+      <c r="A170" s="484"/>
       <c r="B170" s="65" t="s">
         <v>572</v>
       </c>
       <c r="C170" s="66" t="s">
         <v>581</v>
       </c>
-      <c r="D170" s="469"/>
+      <c r="D170" s="475"/>
       <c r="E170" s="66" t="s">
         <v>54</v>
       </c>
@@ -15560,14 +15597,14 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A171" s="478"/>
+      <c r="A171" s="484"/>
       <c r="B171" s="65" t="s">
         <v>572</v>
       </c>
       <c r="C171" s="66" t="s">
         <v>583</v>
       </c>
-      <c r="D171" s="466" t="s">
+      <c r="D171" s="472" t="s">
         <v>541</v>
       </c>
       <c r="E171" s="66" t="s">
@@ -15578,14 +15615,14 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A172" s="478"/>
+      <c r="A172" s="484"/>
       <c r="B172" s="65" t="s">
         <v>572</v>
       </c>
       <c r="C172" s="66" t="s">
         <v>585</v>
       </c>
-      <c r="D172" s="469"/>
+      <c r="D172" s="475"/>
       <c r="E172" s="66" t="s">
         <v>54</v>
       </c>
@@ -15594,14 +15631,14 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A173" s="478"/>
+      <c r="A173" s="484"/>
       <c r="B173" s="65" t="s">
         <v>572</v>
       </c>
       <c r="C173" s="66" t="s">
         <v>587</v>
       </c>
-      <c r="D173" s="469"/>
+      <c r="D173" s="475"/>
       <c r="E173" s="66" t="s">
         <v>54</v>
       </c>
@@ -15610,14 +15647,14 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A174" s="478"/>
+      <c r="A174" s="484"/>
       <c r="B174" s="65" t="s">
         <v>572</v>
       </c>
       <c r="C174" s="66" t="s">
         <v>589</v>
       </c>
-      <c r="D174" s="469"/>
+      <c r="D174" s="475"/>
       <c r="E174" s="66" t="s">
         <v>54</v>
       </c>
@@ -15626,7 +15663,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A175" s="478"/>
+      <c r="A175" s="484"/>
       <c r="B175" s="65" t="s">
         <v>572</v>
       </c>
@@ -15644,14 +15681,14 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A176" s="478"/>
+      <c r="A176" s="484"/>
       <c r="B176" s="65" t="s">
         <v>572</v>
       </c>
       <c r="C176" s="66" t="s">
         <v>593</v>
       </c>
-      <c r="D176" s="466" t="s">
+      <c r="D176" s="472" t="s">
         <v>556</v>
       </c>
       <c r="E176" s="66" t="s">
@@ -15662,14 +15699,14 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A177" s="478"/>
+      <c r="A177" s="484"/>
       <c r="B177" s="65" t="s">
         <v>572</v>
       </c>
       <c r="C177" s="66" t="s">
         <v>595</v>
       </c>
-      <c r="D177" s="469"/>
+      <c r="D177" s="475"/>
       <c r="E177" s="66" t="s">
         <v>54</v>
       </c>
@@ -15678,14 +15715,14 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A178" s="478"/>
+      <c r="A178" s="484"/>
       <c r="B178" s="65" t="s">
         <v>572</v>
       </c>
       <c r="C178" s="66" t="s">
         <v>597</v>
       </c>
-      <c r="D178" s="466" t="s">
+      <c r="D178" s="472" t="s">
         <v>561</v>
       </c>
       <c r="E178" s="66" t="s">
@@ -15696,14 +15733,14 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A179" s="478"/>
+      <c r="A179" s="484"/>
       <c r="B179" s="65" t="s">
         <v>572</v>
       </c>
       <c r="C179" s="66" t="s">
         <v>598</v>
       </c>
-      <c r="D179" s="469"/>
+      <c r="D179" s="475"/>
       <c r="E179" s="66" t="s">
         <v>54</v>
       </c>
@@ -15712,7 +15749,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A180" s="478"/>
+      <c r="A180" s="484"/>
       <c r="B180" s="65" t="s">
         <v>572</v>
       </c>
@@ -15730,14 +15767,14 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A181" s="478"/>
+      <c r="A181" s="484"/>
       <c r="B181" s="65" t="s">
         <v>572</v>
       </c>
       <c r="C181" s="66" t="s">
         <v>602</v>
       </c>
-      <c r="D181" s="466" t="s">
+      <c r="D181" s="472" t="s">
         <v>569</v>
       </c>
       <c r="E181" s="66" t="s">
@@ -15748,14 +15785,14 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A182" s="478"/>
+      <c r="A182" s="484"/>
       <c r="B182" s="108" t="s">
         <v>572</v>
       </c>
       <c r="C182" s="77" t="s">
         <v>604</v>
       </c>
-      <c r="D182" s="467"/>
+      <c r="D182" s="473"/>
       <c r="E182" s="77" t="s">
         <v>54</v>
       </c>
@@ -15764,11 +15801,11 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A183" s="478"/>
+      <c r="A183" s="484"/>
       <c r="F183" s="297"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A184" s="478"/>
+      <c r="A184" s="484"/>
       <c r="B184" s="61" t="s">
         <v>606</v>
       </c>
@@ -15786,7 +15823,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A185" s="478"/>
+      <c r="A185" s="484"/>
       <c r="B185" s="65" t="s">
         <v>606</v>
       </c>
@@ -15804,7 +15841,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A186" s="478"/>
+      <c r="A186" s="484"/>
       <c r="B186" s="65"/>
       <c r="C186" s="66"/>
       <c r="D186" s="67"/>
@@ -15812,7 +15849,7 @@
       <c r="F186" s="107"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A187" s="478"/>
+      <c r="A187" s="484"/>
       <c r="B187" s="65" t="s">
         <v>606</v>
       </c>
@@ -15830,7 +15867,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A188" s="478"/>
+      <c r="A188" s="484"/>
       <c r="B188" s="65" t="s">
         <v>606</v>
       </c>
@@ -15848,7 +15885,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A189" s="478"/>
+      <c r="A189" s="484"/>
       <c r="B189" s="65" t="s">
         <v>606</v>
       </c>
@@ -15866,7 +15903,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A190" s="478"/>
+      <c r="A190" s="484"/>
       <c r="B190" s="65" t="s">
         <v>606</v>
       </c>
@@ -15884,7 +15921,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A191" s="478"/>
+      <c r="A191" s="484"/>
       <c r="B191" s="65" t="s">
         <v>606</v>
       </c>
@@ -15902,7 +15939,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A192" s="478"/>
+      <c r="A192" s="484"/>
       <c r="B192" s="65" t="s">
         <v>606</v>
       </c>
@@ -15920,7 +15957,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A193" s="478"/>
+      <c r="A193" s="484"/>
       <c r="B193" s="65"/>
       <c r="C193" s="66"/>
       <c r="D193" s="67"/>
@@ -15928,7 +15965,7 @@
       <c r="F193" s="107"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A194" s="478"/>
+      <c r="A194" s="484"/>
       <c r="B194" s="65" t="s">
         <v>606</v>
       </c>
@@ -15946,7 +15983,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A195" s="478"/>
+      <c r="A195" s="484"/>
       <c r="B195" s="65" t="s">
         <v>606</v>
       </c>
@@ -15964,7 +16001,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A196" s="478"/>
+      <c r="A196" s="484"/>
       <c r="B196" s="65" t="s">
         <v>606</v>
       </c>
@@ -15982,7 +16019,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A197" s="478"/>
+      <c r="A197" s="484"/>
       <c r="B197" s="65" t="s">
         <v>606</v>
       </c>
@@ -15998,7 +16035,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A198" s="478"/>
+      <c r="A198" s="484"/>
       <c r="B198" s="65" t="s">
         <v>606</v>
       </c>
@@ -16014,7 +16051,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A199" s="478"/>
+      <c r="A199" s="484"/>
       <c r="B199" s="108" t="s">
         <v>606</v>
       </c>
@@ -16030,11 +16067,11 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A200" s="478"/>
+      <c r="A200" s="484"/>
       <c r="F200" s="236"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A201" s="478"/>
+      <c r="A201" s="484"/>
       <c r="B201" s="61" t="s">
         <v>643</v>
       </c>
@@ -16050,7 +16087,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A202" s="478"/>
+      <c r="A202" s="484"/>
       <c r="B202" s="65"/>
       <c r="C202" s="66"/>
       <c r="D202" s="67"/>
@@ -16058,7 +16095,7 @@
       <c r="F202" s="107"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A203" s="478"/>
+      <c r="A203" s="484"/>
       <c r="B203" s="65" t="s">
         <v>643</v>
       </c>
@@ -16074,7 +16111,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A204" s="478"/>
+      <c r="A204" s="484"/>
       <c r="B204" s="65" t="s">
         <v>643</v>
       </c>
@@ -16090,7 +16127,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A205" s="478"/>
+      <c r="A205" s="484"/>
       <c r="B205" s="65"/>
       <c r="C205" s="66"/>
       <c r="D205" s="67"/>
@@ -16098,7 +16135,7 @@
       <c r="F205" s="107"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A206" s="478"/>
+      <c r="A206" s="484"/>
       <c r="B206" s="65" t="s">
         <v>643</v>
       </c>
@@ -16114,7 +16151,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A207" s="478"/>
+      <c r="A207" s="484"/>
       <c r="B207" s="65" t="s">
         <v>643</v>
       </c>
@@ -16130,7 +16167,7 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A208" s="478"/>
+      <c r="A208" s="484"/>
       <c r="B208" s="65" t="s">
         <v>643</v>
       </c>
@@ -16146,7 +16183,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A209" s="478"/>
+      <c r="A209" s="484"/>
       <c r="B209" s="65" t="s">
         <v>643</v>
       </c>
@@ -16162,7 +16199,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A210" s="478"/>
+      <c r="A210" s="484"/>
       <c r="B210" s="65" t="s">
         <v>643</v>
       </c>
@@ -16178,7 +16215,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A211" s="478"/>
+      <c r="A211" s="484"/>
       <c r="B211" s="65" t="s">
         <v>643</v>
       </c>
@@ -16194,7 +16231,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A212" s="478"/>
+      <c r="A212" s="484"/>
       <c r="B212" s="65" t="s">
         <v>643</v>
       </c>
@@ -16210,7 +16247,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A213" s="478"/>
+      <c r="A213" s="484"/>
       <c r="B213" s="65"/>
       <c r="C213" s="66"/>
       <c r="D213" s="67"/>
@@ -16218,7 +16255,7 @@
       <c r="F213" s="107"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A214" s="478"/>
+      <c r="A214" s="484"/>
       <c r="B214" s="65" t="s">
         <v>643</v>
       </c>
@@ -16234,7 +16271,7 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A215" s="478"/>
+      <c r="A215" s="484"/>
       <c r="B215" s="65" t="s">
         <v>643</v>
       </c>
@@ -16250,7 +16287,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A216" s="478"/>
+      <c r="A216" s="484"/>
       <c r="B216" s="65"/>
       <c r="C216" s="66"/>
       <c r="D216" s="67"/>
@@ -16258,7 +16295,7 @@
       <c r="F216" s="107"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A217" s="478"/>
+      <c r="A217" s="484"/>
       <c r="B217" s="65" t="s">
         <v>643</v>
       </c>
@@ -16274,7 +16311,7 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A218" s="478"/>
+      <c r="A218" s="484"/>
       <c r="B218" s="65" t="s">
         <v>643</v>
       </c>
@@ -16290,7 +16327,7 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A219" s="478"/>
+      <c r="A219" s="484"/>
       <c r="B219" s="65" t="s">
         <v>643</v>
       </c>
@@ -16306,7 +16343,7 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A220" s="478"/>
+      <c r="A220" s="484"/>
       <c r="B220" s="65" t="s">
         <v>643</v>
       </c>
@@ -16322,7 +16359,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A221" s="478"/>
+      <c r="A221" s="484"/>
       <c r="B221" s="65" t="s">
         <v>643</v>
       </c>
@@ -16338,7 +16375,7 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A222" s="478"/>
+      <c r="A222" s="484"/>
       <c r="B222" s="65" t="s">
         <v>643</v>
       </c>
@@ -16354,7 +16391,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A223" s="478"/>
+      <c r="A223" s="484"/>
       <c r="B223" s="65" t="s">
         <v>643</v>
       </c>
@@ -16370,7 +16407,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A224" s="478"/>
+      <c r="A224" s="484"/>
       <c r="B224" s="65" t="s">
         <v>643</v>
       </c>
@@ -16386,7 +16423,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A225" s="478"/>
+      <c r="A225" s="484"/>
       <c r="B225" s="65" t="s">
         <v>643</v>
       </c>
@@ -16402,7 +16439,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A226" s="478"/>
+      <c r="A226" s="484"/>
       <c r="B226" s="65"/>
       <c r="C226" s="66"/>
       <c r="D226" s="67"/>
@@ -16410,7 +16447,7 @@
       <c r="F226" s="107"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A227" s="478"/>
+      <c r="A227" s="484"/>
       <c r="B227" s="65" t="s">
         <v>643</v>
       </c>
@@ -16426,7 +16463,7 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A228" s="478"/>
+      <c r="A228" s="484"/>
       <c r="B228" s="65" t="s">
         <v>643</v>
       </c>
@@ -16442,7 +16479,7 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A229" s="478"/>
+      <c r="A229" s="484"/>
       <c r="B229" s="65" t="s">
         <v>643</v>
       </c>
@@ -16458,7 +16495,7 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A230" s="478"/>
+      <c r="A230" s="484"/>
       <c r="B230" s="65" t="s">
         <v>643</v>
       </c>
@@ -16474,7 +16511,7 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A231" s="478"/>
+      <c r="A231" s="484"/>
       <c r="B231" s="65" t="s">
         <v>643</v>
       </c>
@@ -16490,7 +16527,7 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A232" s="478"/>
+      <c r="A232" s="484"/>
       <c r="B232" s="65" t="s">
         <v>643</v>
       </c>
@@ -16506,7 +16543,7 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A233" s="478"/>
+      <c r="A233" s="484"/>
       <c r="B233" s="65" t="s">
         <v>643</v>
       </c>
@@ -16522,7 +16559,7 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A234" s="478"/>
+      <c r="A234" s="484"/>
       <c r="B234" s="65" t="s">
         <v>643</v>
       </c>
@@ -16538,7 +16575,7 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A235" s="478"/>
+      <c r="A235" s="484"/>
       <c r="B235" s="65" t="s">
         <v>643</v>
       </c>
@@ -16554,7 +16591,7 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A236" s="478"/>
+      <c r="A236" s="484"/>
       <c r="B236" s="65"/>
       <c r="C236" s="66"/>
       <c r="D236" s="67"/>
@@ -16562,7 +16599,7 @@
       <c r="F236" s="107"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A237" s="478"/>
+      <c r="A237" s="484"/>
       <c r="B237" s="65" t="s">
         <v>643</v>
       </c>
@@ -16578,7 +16615,7 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A238" s="478"/>
+      <c r="A238" s="484"/>
       <c r="B238" s="65" t="s">
         <v>643</v>
       </c>
@@ -16594,7 +16631,7 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A239" s="478"/>
+      <c r="A239" s="484"/>
       <c r="B239" s="65"/>
       <c r="C239" s="66"/>
       <c r="D239" s="67"/>
@@ -16602,7 +16639,7 @@
       <c r="F239" s="107"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A240" s="478"/>
+      <c r="A240" s="484"/>
       <c r="B240" s="65" t="s">
         <v>643</v>
       </c>
@@ -16618,7 +16655,7 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A241" s="478"/>
+      <c r="A241" s="484"/>
       <c r="B241" s="65" t="s">
         <v>643</v>
       </c>
@@ -16634,7 +16671,7 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A242" s="478"/>
+      <c r="A242" s="484"/>
       <c r="B242" s="65"/>
       <c r="C242" s="66"/>
       <c r="D242" s="67"/>
@@ -16642,7 +16679,7 @@
       <c r="F242" s="107"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A243" s="478"/>
+      <c r="A243" s="484"/>
       <c r="B243" s="65" t="s">
         <v>643</v>
       </c>
@@ -16660,7 +16697,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A244" s="478"/>
+      <c r="A244" s="484"/>
       <c r="B244" s="65" t="s">
         <v>643</v>
       </c>
@@ -16678,7 +16715,7 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A245" s="478"/>
+      <c r="A245" s="484"/>
       <c r="B245" s="65"/>
       <c r="C245" s="66"/>
       <c r="D245" s="67"/>
@@ -16686,7 +16723,7 @@
       <c r="F245" s="107"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A246" s="478"/>
+      <c r="A246" s="484"/>
       <c r="B246" s="65" t="s">
         <v>643</v>
       </c>
@@ -16702,7 +16739,7 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A247" s="478"/>
+      <c r="A247" s="484"/>
       <c r="B247" s="65" t="s">
         <v>643</v>
       </c>
@@ -16718,7 +16755,7 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A248" s="478"/>
+      <c r="A248" s="484"/>
       <c r="B248" s="298" t="s">
         <v>643</v>
       </c>
@@ -16734,7 +16771,7 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A249" s="478"/>
+      <c r="A249" s="484"/>
       <c r="B249" s="65"/>
       <c r="C249" s="66"/>
       <c r="D249" s="67"/>
@@ -16742,14 +16779,14 @@
       <c r="F249" s="107"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A250" s="478"/>
+      <c r="A250" s="484"/>
       <c r="B250" s="65" t="s">
         <v>643</v>
       </c>
       <c r="C250" s="66" t="s">
         <v>707</v>
       </c>
-      <c r="D250" s="468" t="s">
+      <c r="D250" s="474" t="s">
         <v>708</v>
       </c>
       <c r="E250" s="66" t="s">
@@ -16760,14 +16797,14 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A251" s="478"/>
+      <c r="A251" s="484"/>
       <c r="B251" s="108" t="s">
         <v>643</v>
       </c>
       <c r="C251" s="77" t="s">
         <v>710</v>
       </c>
-      <c r="D251" s="467"/>
+      <c r="D251" s="473"/>
       <c r="E251" s="77" t="s">
         <v>54</v>
       </c>
@@ -16776,11 +16813,11 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A252" s="478"/>
+      <c r="A252" s="484"/>
       <c r="F252" s="236"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A253" s="478"/>
+      <c r="A253" s="484"/>
       <c r="B253" s="61" t="s">
         <v>712</v>
       </c>
@@ -16796,7 +16833,7 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A254" s="478"/>
+      <c r="A254" s="484"/>
       <c r="B254" s="65" t="s">
         <v>712</v>
       </c>
@@ -16812,7 +16849,7 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A255" s="478"/>
+      <c r="A255" s="484"/>
       <c r="B255" s="65" t="s">
         <v>712</v>
       </c>
@@ -16828,7 +16865,7 @@
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A256" s="478"/>
+      <c r="A256" s="484"/>
       <c r="B256" s="65" t="s">
         <v>712</v>
       </c>
@@ -16844,7 +16881,7 @@
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A257" s="478"/>
+      <c r="A257" s="484"/>
       <c r="B257" s="65" t="s">
         <v>712</v>
       </c>
@@ -16860,7 +16897,7 @@
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A258" s="478"/>
+      <c r="A258" s="484"/>
       <c r="B258" s="65" t="s">
         <v>712</v>
       </c>
@@ -16876,7 +16913,7 @@
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A259" s="479"/>
+      <c r="A259" s="485"/>
       <c r="B259" s="65" t="s">
         <v>712</v>
       </c>
@@ -16894,7 +16931,7 @@
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A260" s="479"/>
+      <c r="A260" s="485"/>
       <c r="B260" s="65" t="s">
         <v>712</v>
       </c>
@@ -16912,7 +16949,7 @@
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A261" s="479"/>
+      <c r="A261" s="485"/>
       <c r="B261" s="65" t="s">
         <v>712</v>
       </c>
@@ -16930,7 +16967,7 @@
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A262" s="479"/>
+      <c r="A262" s="485"/>
       <c r="B262" s="65" t="s">
         <v>712</v>
       </c>
@@ -16948,7 +16985,7 @@
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A263" s="479"/>
+      <c r="A263" s="485"/>
       <c r="B263" s="65" t="s">
         <v>712</v>
       </c>
@@ -16966,7 +17003,7 @@
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A264" s="479"/>
+      <c r="A264" s="485"/>
       <c r="B264" s="65" t="s">
         <v>712</v>
       </c>
@@ -16984,7 +17021,7 @@
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A265" s="479"/>
+      <c r="A265" s="485"/>
       <c r="B265" s="65" t="s">
         <v>712</v>
       </c>
@@ -17003,7 +17040,7 @@
       <c r="G265" s="3"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A266" s="479"/>
+      <c r="A266" s="485"/>
       <c r="B266" s="65" t="s">
         <v>712</v>
       </c>
@@ -17022,7 +17059,7 @@
       <c r="G266" s="3"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A267" s="479"/>
+      <c r="A267" s="485"/>
       <c r="B267" s="65" t="s">
         <v>712</v>
       </c>
@@ -17040,7 +17077,7 @@
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A268" s="479"/>
+      <c r="A268" s="485"/>
       <c r="B268" s="65" t="s">
         <v>712</v>
       </c>
@@ -17058,7 +17095,7 @@
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A269" s="479"/>
+      <c r="A269" s="485"/>
       <c r="B269" s="65" t="s">
         <v>712</v>
       </c>
@@ -17076,7 +17113,7 @@
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A270" s="479"/>
+      <c r="A270" s="485"/>
       <c r="B270" s="65" t="s">
         <v>712</v>
       </c>
@@ -17094,7 +17131,7 @@
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A271" s="480"/>
+      <c r="A271" s="486"/>
       <c r="B271" s="124" t="s">
         <v>712</v>
       </c>
@@ -17175,15 +17212,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="489" t="s">
+      <c r="A1" s="495" t="s">
         <v>764</v>
       </c>
-      <c r="B1" s="489"/>
-      <c r="C1" s="489"/>
-      <c r="D1" s="489"/>
-      <c r="E1" s="489"/>
-      <c r="F1" s="489"/>
-      <c r="G1" s="489"/>
+      <c r="B1" s="495"/>
+      <c r="C1" s="495"/>
+      <c r="D1" s="495"/>
+      <c r="E1" s="495"/>
+      <c r="F1" s="495"/>
+      <c r="G1" s="495"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="177" t="s">
@@ -17209,7 +17246,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="490" t="s">
+      <c r="A3" s="496" t="s">
         <v>766</v>
       </c>
       <c r="B3" s="180" t="s">
@@ -17228,7 +17265,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="491"/>
+      <c r="A4" s="497"/>
       <c r="B4" s="182" t="s">
         <v>52</v>
       </c>
@@ -17254,7 +17291,7 @@
       <c r="G5" s="92"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="492" t="s">
+      <c r="A6" s="498" t="s">
         <v>770</v>
       </c>
       <c r="B6" s="186" t="s">
@@ -17273,7 +17310,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="493"/>
+      <c r="A7" s="499"/>
       <c r="B7" s="55"/>
       <c r="C7" s="56"/>
       <c r="D7" s="56"/>
@@ -17282,7 +17319,7 @@
       <c r="G7" s="92"/>
     </row>
     <row r="8" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="493"/>
+      <c r="A8" s="499"/>
       <c r="B8" s="61" t="s">
         <v>772</v>
       </c>
@@ -17301,7 +17338,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="493"/>
+      <c r="A9" s="499"/>
       <c r="B9" s="65" t="s">
         <v>772</v>
       </c>
@@ -17320,7 +17357,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="493"/>
+      <c r="A10" s="499"/>
       <c r="B10" s="65" t="s">
         <v>772</v>
       </c>
@@ -17339,7 +17376,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="493"/>
+      <c r="A11" s="499"/>
       <c r="B11" s="65"/>
       <c r="C11" s="66"/>
       <c r="D11" s="66"/>
@@ -17348,7 +17385,7 @@
       <c r="G11" s="107"/>
     </row>
     <row r="12" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="493"/>
+      <c r="A12" s="499"/>
       <c r="B12" s="65" t="s">
         <v>772</v>
       </c>
@@ -17367,7 +17404,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="493"/>
+      <c r="A13" s="499"/>
       <c r="B13" s="65" t="s">
         <v>772</v>
       </c>
@@ -17386,7 +17423,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="493"/>
+      <c r="A14" s="499"/>
       <c r="B14" s="74" t="s">
         <v>772</v>
       </c>
@@ -17405,7 +17442,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="493"/>
+      <c r="A15" s="499"/>
       <c r="B15" s="74"/>
       <c r="C15" s="191"/>
       <c r="D15" s="191"/>
@@ -17414,7 +17451,7 @@
       <c r="G15" s="193"/>
     </row>
     <row r="16" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="493"/>
+      <c r="A16" s="499"/>
       <c r="B16" s="65" t="s">
         <v>772</v>
       </c>
@@ -17433,7 +17470,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="493"/>
+      <c r="A17" s="499"/>
       <c r="B17" s="65" t="s">
         <v>772</v>
       </c>
@@ -17452,7 +17489,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="493"/>
+      <c r="A18" s="499"/>
       <c r="B18" s="65" t="s">
         <v>772</v>
       </c>
@@ -17471,7 +17508,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="493"/>
+      <c r="A19" s="499"/>
       <c r="B19" s="65" t="s">
         <v>772</v>
       </c>
@@ -17492,7 +17529,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="493"/>
+      <c r="A20" s="499"/>
       <c r="B20" s="65" t="s">
         <v>772</v>
       </c>
@@ -17513,7 +17550,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="493"/>
+      <c r="A21" s="499"/>
       <c r="B21" s="65"/>
       <c r="C21" s="66"/>
       <c r="D21" s="66"/>
@@ -17522,7 +17559,7 @@
       <c r="G21" s="107"/>
     </row>
     <row r="22" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="493"/>
+      <c r="A22" s="499"/>
       <c r="B22" s="65" t="s">
         <v>772</v>
       </c>
@@ -17541,7 +17578,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="493"/>
+      <c r="A23" s="499"/>
       <c r="B23" s="65" t="s">
         <v>772</v>
       </c>
@@ -17560,7 +17597,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="493"/>
+      <c r="A24" s="499"/>
       <c r="B24" s="65" t="s">
         <v>772</v>
       </c>
@@ -17579,7 +17616,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="493"/>
+      <c r="A25" s="499"/>
       <c r="B25" s="65" t="s">
         <v>772</v>
       </c>
@@ -17598,7 +17635,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="493"/>
+      <c r="A26" s="499"/>
       <c r="B26" s="65" t="s">
         <v>772</v>
       </c>
@@ -17617,7 +17654,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="493"/>
+      <c r="A27" s="499"/>
       <c r="B27" s="65" t="s">
         <v>772</v>
       </c>
@@ -17636,7 +17673,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="493"/>
+      <c r="A28" s="499"/>
       <c r="B28" s="65" t="s">
         <v>772</v>
       </c>
@@ -17655,7 +17692,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="493"/>
+      <c r="A29" s="499"/>
       <c r="B29" s="65" t="s">
         <v>772</v>
       </c>
@@ -17674,7 +17711,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="493"/>
+      <c r="A30" s="499"/>
       <c r="B30" s="65" t="s">
         <v>772</v>
       </c>
@@ -17693,7 +17730,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="493"/>
+      <c r="A31" s="499"/>
       <c r="B31" s="76" t="s">
         <v>772</v>
       </c>
@@ -17712,7 +17749,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="493"/>
+      <c r="A32" s="499"/>
       <c r="B32" s="55"/>
       <c r="C32" s="56"/>
       <c r="D32" s="56"/>
@@ -17721,7 +17758,7 @@
       <c r="G32" s="92"/>
     </row>
     <row r="33" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="493"/>
+      <c r="A33" s="499"/>
       <c r="B33" s="61" t="s">
         <v>16</v>
       </c>
@@ -17740,7 +17777,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="493"/>
+      <c r="A34" s="499"/>
       <c r="B34" s="65" t="s">
         <v>16</v>
       </c>
@@ -17759,7 +17796,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="493"/>
+      <c r="A35" s="499"/>
       <c r="B35" s="65" t="s">
         <v>16</v>
       </c>
@@ -17778,7 +17815,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="493"/>
+      <c r="A36" s="499"/>
       <c r="B36" s="108" t="s">
         <v>16</v>
       </c>
@@ -17797,7 +17834,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="493"/>
+      <c r="A37" s="499"/>
       <c r="B37" s="55"/>
       <c r="C37" s="56"/>
       <c r="D37" s="56"/>
@@ -17806,7 +17843,7 @@
       <c r="G37" s="92"/>
     </row>
     <row r="38" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="493"/>
+      <c r="A38" s="499"/>
       <c r="B38" s="61" t="s">
         <v>825</v>
       </c>
@@ -17825,7 +17862,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="493"/>
+      <c r="A39" s="499"/>
       <c r="B39" s="65" t="s">
         <v>825</v>
       </c>
@@ -17844,7 +17881,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="493"/>
+      <c r="A40" s="499"/>
       <c r="B40" s="65" t="s">
         <v>825</v>
       </c>
@@ -17863,7 +17900,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="493"/>
+      <c r="A41" s="499"/>
       <c r="B41" s="65" t="s">
         <v>825</v>
       </c>
@@ -17882,7 +17919,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="493"/>
+      <c r="A42" s="499"/>
       <c r="B42" s="65" t="s">
         <v>825</v>
       </c>
@@ -17901,7 +17938,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="493"/>
+      <c r="A43" s="499"/>
       <c r="B43" s="108" t="s">
         <v>825</v>
       </c>
@@ -17920,7 +17957,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="493"/>
+      <c r="A44" s="499"/>
       <c r="B44" s="55"/>
       <c r="C44" s="56"/>
       <c r="D44" s="56"/>
@@ -17929,7 +17966,7 @@
       <c r="G44" s="92"/>
     </row>
     <row r="45" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="493"/>
+      <c r="A45" s="499"/>
       <c r="B45" s="61" t="s">
         <v>290</v>
       </c>
@@ -17948,7 +17985,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="493"/>
+      <c r="A46" s="499"/>
       <c r="B46" s="65" t="s">
         <v>290</v>
       </c>
@@ -17967,7 +18004,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="493"/>
+      <c r="A47" s="499"/>
       <c r="B47" s="65" t="s">
         <v>290</v>
       </c>
@@ -17986,7 +18023,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="493"/>
+      <c r="A48" s="499"/>
       <c r="B48" s="65"/>
       <c r="C48" s="66"/>
       <c r="D48" s="66"/>
@@ -17995,7 +18032,7 @@
       <c r="G48" s="107"/>
     </row>
     <row r="49" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="493"/>
+      <c r="A49" s="499"/>
       <c r="B49" s="65" t="s">
         <v>290</v>
       </c>
@@ -18014,7 +18051,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="493"/>
+      <c r="A50" s="499"/>
       <c r="B50" s="65" t="s">
         <v>290</v>
       </c>
@@ -18033,7 +18070,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="493"/>
+      <c r="A51" s="499"/>
       <c r="B51" s="108" t="s">
         <v>290</v>
       </c>
@@ -18052,7 +18089,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="493"/>
+      <c r="A52" s="499"/>
       <c r="B52" s="55"/>
       <c r="C52" s="56"/>
       <c r="D52" s="56"/>
@@ -18061,7 +18098,7 @@
       <c r="G52" s="92"/>
     </row>
     <row r="53" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="493"/>
+      <c r="A53" s="499"/>
       <c r="B53" s="61" t="s">
         <v>840</v>
       </c>
@@ -18080,7 +18117,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="493"/>
+      <c r="A54" s="499"/>
       <c r="B54" s="65" t="s">
         <v>840</v>
       </c>
@@ -18099,7 +18136,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="493"/>
+      <c r="A55" s="499"/>
       <c r="B55" s="108" t="s">
         <v>840</v>
       </c>
@@ -18118,7 +18155,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="493"/>
+      <c r="A56" s="499"/>
       <c r="B56" s="55"/>
       <c r="C56" s="56"/>
       <c r="D56" s="56"/>
@@ -18127,7 +18164,7 @@
       <c r="G56" s="92"/>
     </row>
     <row r="57" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="493"/>
+      <c r="A57" s="499"/>
       <c r="B57" s="61" t="s">
         <v>846</v>
       </c>
@@ -18148,7 +18185,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="493"/>
+      <c r="A58" s="499"/>
       <c r="B58" s="65" t="s">
         <v>846</v>
       </c>
@@ -18167,7 +18204,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="493"/>
+      <c r="A59" s="499"/>
       <c r="B59" s="65" t="s">
         <v>846</v>
       </c>
@@ -18188,7 +18225,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="493"/>
+      <c r="A60" s="499"/>
       <c r="B60" s="65"/>
       <c r="C60" s="66"/>
       <c r="D60" s="66"/>
@@ -18197,7 +18234,7 @@
       <c r="G60" s="107"/>
     </row>
     <row r="61" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="493"/>
+      <c r="A61" s="499"/>
       <c r="B61" s="65" t="s">
         <v>846</v>
       </c>
@@ -18216,7 +18253,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="493"/>
+      <c r="A62" s="499"/>
       <c r="B62" s="65" t="s">
         <v>846</v>
       </c>
@@ -18235,7 +18272,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="493"/>
+      <c r="A63" s="499"/>
       <c r="B63" s="108" t="s">
         <v>846</v>
       </c>
@@ -18254,7 +18291,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="493"/>
+      <c r="A64" s="499"/>
       <c r="B64" s="55"/>
       <c r="C64" s="56"/>
       <c r="D64" s="56"/>
@@ -18263,7 +18300,7 @@
       <c r="G64" s="92"/>
     </row>
     <row r="65" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="493"/>
+      <c r="A65" s="499"/>
       <c r="B65" s="55"/>
       <c r="C65" s="56"/>
       <c r="D65" s="56"/>
@@ -18272,7 +18309,7 @@
       <c r="G65" s="92"/>
     </row>
     <row r="66" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="493"/>
+      <c r="A66" s="499"/>
       <c r="B66" s="61" t="s">
         <v>356</v>
       </c>
@@ -18293,7 +18330,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="493"/>
+      <c r="A67" s="499"/>
       <c r="B67" s="65" t="s">
         <v>356</v>
       </c>
@@ -18314,7 +18351,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="493"/>
+      <c r="A68" s="499"/>
       <c r="B68" s="108" t="s">
         <v>356</v>
       </c>
@@ -18335,7 +18372,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="493"/>
+      <c r="A69" s="499"/>
       <c r="B69" s="55"/>
       <c r="C69" s="56"/>
       <c r="D69" s="56"/>
@@ -18344,7 +18381,7 @@
       <c r="G69" s="92"/>
     </row>
     <row r="70" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="493"/>
+      <c r="A70" s="499"/>
       <c r="B70" s="61" t="s">
         <v>326</v>
       </c>
@@ -18365,7 +18402,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="493"/>
+      <c r="A71" s="499"/>
       <c r="B71" s="65" t="s">
         <v>326</v>
       </c>
@@ -18386,7 +18423,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="493"/>
+      <c r="A72" s="499"/>
       <c r="B72" s="65" t="s">
         <v>326</v>
       </c>
@@ -18405,7 +18442,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="493"/>
+      <c r="A73" s="499"/>
       <c r="B73" s="65"/>
       <c r="C73" s="66"/>
       <c r="D73" s="66" t="s">
@@ -18420,7 +18457,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="493"/>
+      <c r="A74" s="499"/>
       <c r="B74" s="65" t="s">
         <v>326</v>
       </c>
@@ -18439,7 +18476,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="493"/>
+      <c r="A75" s="499"/>
       <c r="B75" s="65"/>
       <c r="C75" s="66"/>
       <c r="D75" s="66"/>
@@ -18448,7 +18485,7 @@
       <c r="G75" s="107"/>
     </row>
     <row r="76" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="493"/>
+      <c r="A76" s="499"/>
       <c r="B76" s="65" t="s">
         <v>326</v>
       </c>
@@ -18465,7 +18502,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="493"/>
+      <c r="A77" s="499"/>
       <c r="B77" s="65" t="s">
         <v>326</v>
       </c>
@@ -18484,7 +18521,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="493"/>
+      <c r="A78" s="499"/>
       <c r="B78" s="108" t="s">
         <v>326</v>
       </c>
@@ -18503,7 +18540,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="493"/>
+      <c r="A79" s="499"/>
       <c r="B79" s="55"/>
       <c r="C79" s="56"/>
       <c r="D79" s="56"/>
@@ -18512,7 +18549,7 @@
       <c r="G79" s="92"/>
     </row>
     <row r="80" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="493"/>
+      <c r="A80" s="499"/>
       <c r="B80" s="61" t="s">
         <v>889</v>
       </c>
@@ -18531,7 +18568,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="493"/>
+      <c r="A81" s="499"/>
       <c r="B81" s="108" t="s">
         <v>889</v>
       </c>
@@ -18550,7 +18587,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="493"/>
+      <c r="A82" s="499"/>
       <c r="B82" s="55"/>
       <c r="C82" s="56"/>
       <c r="D82" s="56"/>
@@ -18559,7 +18596,7 @@
       <c r="G82" s="92"/>
     </row>
     <row r="83" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="493"/>
+      <c r="A83" s="499"/>
       <c r="B83" s="61" t="s">
         <v>892</v>
       </c>
@@ -18578,7 +18615,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="493"/>
+      <c r="A84" s="499"/>
       <c r="B84" s="65" t="s">
         <v>892</v>
       </c>
@@ -18597,7 +18634,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="493"/>
+      <c r="A85" s="499"/>
       <c r="B85" s="65" t="s">
         <v>892</v>
       </c>
@@ -18614,7 +18651,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="493"/>
+      <c r="A86" s="499"/>
       <c r="B86" s="65"/>
       <c r="C86" s="66"/>
       <c r="D86" s="66"/>
@@ -18623,7 +18660,7 @@
       <c r="G86" s="107"/>
     </row>
     <row r="87" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="493"/>
+      <c r="A87" s="499"/>
       <c r="B87" s="65" t="s">
         <v>892</v>
       </c>
@@ -18644,7 +18681,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="493"/>
+      <c r="A88" s="499"/>
       <c r="B88" s="65" t="s">
         <v>892</v>
       </c>
@@ -18663,7 +18700,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="493"/>
+      <c r="A89" s="499"/>
       <c r="B89" s="65" t="s">
         <v>892</v>
       </c>
@@ -18684,7 +18721,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="493"/>
+      <c r="A90" s="499"/>
       <c r="B90" s="65" t="s">
         <v>892</v>
       </c>
@@ -18703,7 +18740,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="493"/>
+      <c r="A91" s="499"/>
       <c r="B91" s="65" t="s">
         <v>892</v>
       </c>
@@ -18722,7 +18759,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="493"/>
+      <c r="A92" s="499"/>
       <c r="B92" s="65"/>
       <c r="C92" s="66"/>
       <c r="D92" s="66"/>
@@ -18731,7 +18768,7 @@
       <c r="G92" s="107"/>
     </row>
     <row r="93" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="493"/>
+      <c r="A93" s="499"/>
       <c r="B93" s="65" t="s">
         <v>892</v>
       </c>
@@ -18750,7 +18787,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="493"/>
+      <c r="A94" s="499"/>
       <c r="B94" s="65" t="s">
         <v>892</v>
       </c>
@@ -18769,7 +18806,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="493"/>
+      <c r="A95" s="499"/>
       <c r="B95" s="65" t="s">
         <v>892</v>
       </c>
@@ -18786,7 +18823,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="493"/>
+      <c r="A96" s="499"/>
       <c r="B96" s="65" t="s">
         <v>892</v>
       </c>
@@ -18803,7 +18840,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="493"/>
+      <c r="A97" s="499"/>
       <c r="B97" s="65" t="s">
         <v>892</v>
       </c>
@@ -18822,7 +18859,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="493"/>
+      <c r="A98" s="499"/>
       <c r="B98" s="108" t="s">
         <v>892</v>
       </c>
@@ -18841,7 +18878,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="493"/>
+      <c r="A99" s="499"/>
       <c r="B99" s="55"/>
       <c r="C99" s="56"/>
       <c r="D99" s="56"/>
@@ -18850,7 +18887,7 @@
       <c r="G99" s="92"/>
     </row>
     <row r="100" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="493"/>
+      <c r="A100" s="499"/>
       <c r="B100" s="61" t="s">
         <v>295</v>
       </c>
@@ -18869,7 +18906,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="493"/>
+      <c r="A101" s="499"/>
       <c r="B101" s="65" t="s">
         <v>295</v>
       </c>
@@ -18888,7 +18925,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="493"/>
+      <c r="A102" s="499"/>
       <c r="B102" s="65" t="s">
         <v>295</v>
       </c>
@@ -18909,7 +18946,7 @@
       </c>
     </row>
     <row r="103" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="493"/>
+      <c r="A103" s="499"/>
       <c r="B103" s="65" t="s">
         <v>295</v>
       </c>
@@ -18930,7 +18967,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="493"/>
+      <c r="A104" s="499"/>
       <c r="B104" s="65" t="s">
         <v>295</v>
       </c>
@@ -18951,7 +18988,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="493"/>
+      <c r="A105" s="499"/>
       <c r="B105" s="65" t="s">
         <v>295</v>
       </c>
@@ -18972,7 +19009,7 @@
       </c>
     </row>
     <row r="106" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="493"/>
+      <c r="A106" s="499"/>
       <c r="B106" s="65" t="s">
         <v>295</v>
       </c>
@@ -18991,7 +19028,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="493"/>
+      <c r="A107" s="499"/>
       <c r="B107" s="65" t="s">
         <v>295</v>
       </c>
@@ -19010,7 +19047,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="494"/>
+      <c r="A108" s="500"/>
       <c r="B108" s="124" t="s">
         <v>295</v>
       </c>
@@ -19930,15 +19967,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="497" t="s">
+      <c r="A1" s="503" t="s">
         <v>1014</v>
       </c>
-      <c r="B1" s="497"/>
-      <c r="C1" s="497"/>
-      <c r="D1" s="497"/>
-      <c r="E1" s="497"/>
-      <c r="F1" s="497"/>
-      <c r="G1" s="497"/>
+      <c r="B1" s="503"/>
+      <c r="C1" s="503"/>
+      <c r="D1" s="503"/>
+      <c r="E1" s="503"/>
+      <c r="F1" s="503"/>
+      <c r="G1" s="503"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="126" t="s">
@@ -19962,7 +19999,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="498" t="s">
+      <c r="A3" s="504" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="129" t="s">
@@ -19984,7 +20021,7 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="499"/>
+      <c r="A4" s="505"/>
       <c r="B4" s="133"/>
       <c r="C4" s="21"/>
       <c r="D4" s="39"/>
@@ -19994,7 +20031,7 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="500" t="s">
+      <c r="A5" s="506" t="s">
         <v>271</v>
       </c>
       <c r="B5" s="134" t="s">
@@ -20016,7 +20053,7 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="501"/>
+      <c r="A6" s="507"/>
       <c r="B6" s="133"/>
       <c r="C6" s="21"/>
       <c r="D6" s="39"/>
@@ -20026,7 +20063,7 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="501"/>
+      <c r="A7" s="507"/>
       <c r="B7" s="138" t="s">
         <v>274</v>
       </c>
@@ -20036,7 +20073,7 @@
       <c r="D7" s="139" t="s">
         <v>1015</v>
       </c>
-      <c r="E7" s="504"/>
+      <c r="E7" s="510"/>
       <c r="F7" s="11" t="s">
         <v>54</v>
       </c>
@@ -20046,7 +20083,7 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="501"/>
+      <c r="A8" s="507"/>
       <c r="B8" s="140" t="s">
         <v>274</v>
       </c>
@@ -20056,7 +20093,7 @@
       <c r="D8" s="36" t="s">
         <v>1016</v>
       </c>
-      <c r="E8" s="495"/>
+      <c r="E8" s="501"/>
       <c r="F8" s="14" t="s">
         <v>54</v>
       </c>
@@ -20066,7 +20103,7 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="501"/>
+      <c r="A9" s="507"/>
       <c r="B9" s="140" t="s">
         <v>274</v>
       </c>
@@ -20076,7 +20113,7 @@
       <c r="D9" s="36" t="s">
         <v>1017</v>
       </c>
-      <c r="E9" s="495"/>
+      <c r="E9" s="501"/>
       <c r="F9" s="14" t="s">
         <v>54</v>
       </c>
@@ -20086,7 +20123,7 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="501"/>
+      <c r="A10" s="507"/>
       <c r="B10" s="140" t="s">
         <v>274</v>
       </c>
@@ -20096,7 +20133,7 @@
       <c r="D10" s="36" t="s">
         <v>1018</v>
       </c>
-      <c r="E10" s="495"/>
+      <c r="E10" s="501"/>
       <c r="F10" s="14" t="s">
         <v>54</v>
       </c>
@@ -20105,7 +20142,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="501"/>
+      <c r="A11" s="507"/>
       <c r="B11" s="140" t="s">
         <v>274</v>
       </c>
@@ -20115,7 +20152,7 @@
       <c r="D11" s="36" t="s">
         <v>1019</v>
       </c>
-      <c r="E11" s="495"/>
+      <c r="E11" s="501"/>
       <c r="F11" s="14" t="s">
         <v>54</v>
       </c>
@@ -20124,7 +20161,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="501"/>
+      <c r="A12" s="507"/>
       <c r="B12" s="141" t="s">
         <v>57</v>
       </c>
@@ -20143,7 +20180,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="501"/>
+      <c r="A13" s="507"/>
       <c r="B13" s="133"/>
       <c r="C13" s="21"/>
       <c r="D13" s="39"/>
@@ -20152,7 +20189,7 @@
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="501"/>
+      <c r="A14" s="507"/>
       <c r="B14" s="138" t="s">
         <v>290</v>
       </c>
@@ -20162,7 +20199,7 @@
       <c r="D14" s="139" t="s">
         <v>291</v>
       </c>
-      <c r="E14" s="504"/>
+      <c r="E14" s="510"/>
       <c r="F14" s="11" t="s">
         <v>54</v>
       </c>
@@ -20171,7 +20208,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="501"/>
+      <c r="A15" s="507"/>
       <c r="B15" s="140" t="s">
         <v>290</v>
       </c>
@@ -20181,7 +20218,7 @@
       <c r="D15" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="E15" s="495"/>
+      <c r="E15" s="501"/>
       <c r="F15" s="14" t="s">
         <v>54</v>
       </c>
@@ -20190,7 +20227,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="501"/>
+      <c r="A16" s="507"/>
       <c r="B16" s="140" t="s">
         <v>290</v>
       </c>
@@ -20200,7 +20237,7 @@
       <c r="D16" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="E16" s="495"/>
+      <c r="E16" s="501"/>
       <c r="F16" s="14" t="s">
         <v>54</v>
       </c>
@@ -20209,7 +20246,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="501"/>
+      <c r="A17" s="507"/>
       <c r="B17" s="140" t="s">
         <v>290</v>
       </c>
@@ -20219,7 +20256,7 @@
       <c r="D17" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="E17" s="495"/>
+      <c r="E17" s="501"/>
       <c r="F17" s="14" t="s">
         <v>54</v>
       </c>
@@ -20228,7 +20265,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="501"/>
+      <c r="A18" s="507"/>
       <c r="B18" s="140" t="s">
         <v>290</v>
       </c>
@@ -20247,7 +20284,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="501"/>
+      <c r="A19" s="507"/>
       <c r="B19" s="141" t="s">
         <v>290</v>
       </c>
@@ -20266,7 +20303,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="501"/>
+      <c r="A20" s="507"/>
       <c r="B20" s="133"/>
       <c r="C20" s="21"/>
       <c r="D20" s="39"/>
@@ -20275,7 +20312,7 @@
       <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="501"/>
+      <c r="A21" s="507"/>
       <c r="B21" s="138" t="s">
         <v>290</v>
       </c>
@@ -20285,7 +20322,7 @@
       <c r="D21" s="139" t="s">
         <v>1022</v>
       </c>
-      <c r="E21" s="504"/>
+      <c r="E21" s="510"/>
       <c r="F21" s="11" t="s">
         <v>54</v>
       </c>
@@ -20294,7 +20331,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="501"/>
+      <c r="A22" s="507"/>
       <c r="B22" s="140" t="s">
         <v>290</v>
       </c>
@@ -20304,7 +20341,7 @@
       <c r="D22" s="36" t="s">
         <v>1023</v>
       </c>
-      <c r="E22" s="495"/>
+      <c r="E22" s="501"/>
       <c r="F22" s="14" t="s">
         <v>54</v>
       </c>
@@ -20313,7 +20350,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="501"/>
+      <c r="A23" s="507"/>
       <c r="B23" s="140" t="s">
         <v>290</v>
       </c>
@@ -20323,7 +20360,7 @@
       <c r="D23" s="36" t="s">
         <v>1024</v>
       </c>
-      <c r="E23" s="495"/>
+      <c r="E23" s="501"/>
       <c r="F23" s="14" t="s">
         <v>54</v>
       </c>
@@ -20332,7 +20369,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="501"/>
+      <c r="A24" s="507"/>
       <c r="B24" s="141" t="s">
         <v>290</v>
       </c>
@@ -20342,7 +20379,7 @@
       <c r="D24" s="46" t="s">
         <v>1025</v>
       </c>
-      <c r="E24" s="496"/>
+      <c r="E24" s="502"/>
       <c r="F24" s="45" t="s">
         <v>54</v>
       </c>
@@ -20351,7 +20388,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="501"/>
+      <c r="A25" s="507"/>
       <c r="B25" s="133"/>
       <c r="C25" s="21"/>
       <c r="D25" s="39"/>
@@ -20360,7 +20397,7 @@
       <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="501"/>
+      <c r="A26" s="507"/>
       <c r="B26" s="138" t="s">
         <v>326</v>
       </c>
@@ -20370,7 +20407,7 @@
       <c r="D26" s="139" t="s">
         <v>1026</v>
       </c>
-      <c r="E26" s="504"/>
+      <c r="E26" s="510"/>
       <c r="F26" s="11" t="s">
         <v>54</v>
       </c>
@@ -20379,7 +20416,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="501"/>
+      <c r="A27" s="507"/>
       <c r="B27" s="141" t="s">
         <v>326</v>
       </c>
@@ -20389,7 +20426,7 @@
       <c r="D27" s="46" t="s">
         <v>1027</v>
       </c>
-      <c r="E27" s="496"/>
+      <c r="E27" s="502"/>
       <c r="F27" s="45" t="s">
         <v>54</v>
       </c>
@@ -20398,7 +20435,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="501"/>
+      <c r="A28" s="507"/>
       <c r="B28" s="133"/>
       <c r="C28" s="21"/>
       <c r="D28" s="39"/>
@@ -20407,7 +20444,7 @@
       <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="501"/>
+      <c r="A29" s="507"/>
       <c r="B29" s="138" t="s">
         <v>445</v>
       </c>
@@ -20426,7 +20463,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="501"/>
+      <c r="A30" s="507"/>
       <c r="B30" s="140" t="s">
         <v>445</v>
       </c>
@@ -20445,7 +20482,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="501"/>
+      <c r="A31" s="507"/>
       <c r="B31" s="141" t="s">
         <v>445</v>
       </c>
@@ -20464,7 +20501,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="501"/>
+      <c r="A32" s="507"/>
       <c r="B32" s="144"/>
       <c r="C32" s="43"/>
       <c r="D32" s="145"/>
@@ -20473,7 +20510,7 @@
       <c r="G32" s="146"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="501"/>
+      <c r="A33" s="507"/>
       <c r="B33" s="138" t="s">
         <v>341</v>
       </c>
@@ -20492,7 +20529,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="501"/>
+      <c r="A34" s="507"/>
       <c r="B34" s="140" t="s">
         <v>341</v>
       </c>
@@ -20511,7 +20548,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="501"/>
+      <c r="A35" s="507"/>
       <c r="B35" s="140" t="s">
         <v>341</v>
       </c>
@@ -20530,7 +20567,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="501"/>
+      <c r="A36" s="507"/>
       <c r="B36" s="140" t="s">
         <v>341</v>
       </c>
@@ -20549,7 +20586,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="501"/>
+      <c r="A37" s="507"/>
       <c r="B37" s="140" t="s">
         <v>341</v>
       </c>
@@ -20566,7 +20603,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="501"/>
+      <c r="A38" s="507"/>
       <c r="B38" s="141" t="s">
         <v>341</v>
       </c>
@@ -20583,7 +20620,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="501"/>
+      <c r="A39" s="507"/>
       <c r="B39" s="133"/>
       <c r="C39" s="21"/>
       <c r="D39" s="39"/>
@@ -20592,7 +20629,7 @@
       <c r="G39" s="23"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="501"/>
+      <c r="A40" s="507"/>
       <c r="B40" s="147" t="s">
         <v>356</v>
       </c>
@@ -20611,7 +20648,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="501"/>
+      <c r="A41" s="507"/>
       <c r="B41" s="152" t="s">
         <v>356</v>
       </c>
@@ -20630,7 +20667,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="501"/>
+      <c r="A42" s="507"/>
       <c r="B42" s="152" t="s">
         <v>356</v>
       </c>
@@ -20649,7 +20686,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="501"/>
+      <c r="A43" s="507"/>
       <c r="B43" s="152" t="s">
         <v>356</v>
       </c>
@@ -20668,7 +20705,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="501"/>
+      <c r="A44" s="507"/>
       <c r="B44" s="141" t="s">
         <v>356</v>
       </c>
@@ -20687,7 +20724,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="501"/>
+      <c r="A45" s="507"/>
       <c r="B45" s="133"/>
       <c r="C45" s="21"/>
       <c r="D45" s="39"/>
@@ -20696,7 +20733,7 @@
       <c r="G45" s="23"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="501"/>
+      <c r="A46" s="507"/>
       <c r="B46" s="138" t="s">
         <v>330</v>
       </c>
@@ -20706,7 +20743,7 @@
       <c r="D46" s="139" t="s">
         <v>1042</v>
       </c>
-      <c r="E46" s="504"/>
+      <c r="E46" s="510"/>
       <c r="F46" s="11" t="s">
         <v>54</v>
       </c>
@@ -20715,7 +20752,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="501"/>
+      <c r="A47" s="507"/>
       <c r="B47" s="140" t="s">
         <v>330</v>
       </c>
@@ -20725,7 +20762,7 @@
       <c r="D47" s="36" t="s">
         <v>1043</v>
       </c>
-      <c r="E47" s="495"/>
+      <c r="E47" s="501"/>
       <c r="F47" s="14" t="s">
         <v>54</v>
       </c>
@@ -20734,7 +20771,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="501"/>
+      <c r="A48" s="507"/>
       <c r="B48" s="140" t="s">
         <v>330</v>
       </c>
@@ -20744,7 +20781,7 @@
       <c r="D48" s="36" t="s">
         <v>1044</v>
       </c>
-      <c r="E48" s="495"/>
+      <c r="E48" s="501"/>
       <c r="F48" s="14" t="s">
         <v>54</v>
       </c>
@@ -20753,7 +20790,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="501"/>
+      <c r="A49" s="507"/>
       <c r="B49" s="140" t="s">
         <v>330</v>
       </c>
@@ -20763,7 +20800,7 @@
       <c r="D49" s="36" t="s">
         <v>1045</v>
       </c>
-      <c r="E49" s="495"/>
+      <c r="E49" s="501"/>
       <c r="F49" s="14" t="s">
         <v>54</v>
       </c>
@@ -20772,7 +20809,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="501"/>
+      <c r="A50" s="507"/>
       <c r="B50" s="140" t="s">
         <v>330</v>
       </c>
@@ -20782,7 +20819,7 @@
       <c r="D50" s="36" t="s">
         <v>1046</v>
       </c>
-      <c r="E50" s="495"/>
+      <c r="E50" s="501"/>
       <c r="F50" s="14" t="s">
         <v>54</v>
       </c>
@@ -20791,7 +20828,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="501"/>
+      <c r="A51" s="507"/>
       <c r="B51" s="140" t="s">
         <v>445</v>
       </c>
@@ -20810,7 +20847,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="501"/>
+      <c r="A52" s="507"/>
       <c r="B52" s="140" t="s">
         <v>445</v>
       </c>
@@ -20829,7 +20866,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="501"/>
+      <c r="A53" s="507"/>
       <c r="B53" s="140" t="s">
         <v>445</v>
       </c>
@@ -20848,7 +20885,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="501"/>
+      <c r="A54" s="507"/>
       <c r="B54" s="141" t="s">
         <v>445</v>
       </c>
@@ -20867,7 +20904,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="501"/>
+      <c r="A55" s="507"/>
       <c r="B55" s="158"/>
       <c r="C55" s="44"/>
       <c r="D55" s="159"/>
@@ -20876,7 +20913,7 @@
       <c r="G55" s="160"/>
     </row>
     <row r="56" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="501"/>
+      <c r="A56" s="507"/>
       <c r="B56" s="138" t="s">
         <v>445</v>
       </c>
@@ -20895,7 +20932,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="501"/>
+      <c r="A57" s="507"/>
       <c r="B57" s="140" t="s">
         <v>445</v>
       </c>
@@ -20914,7 +20951,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="501"/>
+      <c r="A58" s="507"/>
       <c r="B58" s="140" t="s">
         <v>445</v>
       </c>
@@ -20933,7 +20970,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="501"/>
+      <c r="A59" s="507"/>
       <c r="B59" s="140" t="s">
         <v>445</v>
       </c>
@@ -20952,7 +20989,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="501"/>
+      <c r="A60" s="507"/>
       <c r="B60" s="141" t="s">
         <v>445</v>
       </c>
@@ -20971,7 +21008,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="501"/>
+      <c r="A61" s="507"/>
       <c r="B61" s="133"/>
       <c r="C61" s="21"/>
       <c r="D61" s="39"/>
@@ -20980,7 +21017,7 @@
       <c r="G61" s="23"/>
     </row>
     <row r="62" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="501"/>
+      <c r="A62" s="507"/>
       <c r="B62" s="138" t="s">
         <v>1058</v>
       </c>
@@ -20999,7 +21036,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="501"/>
+      <c r="A63" s="507"/>
       <c r="B63" s="140" t="s">
         <v>1058</v>
       </c>
@@ -21018,7 +21055,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="501"/>
+      <c r="A64" s="507"/>
       <c r="B64" s="140" t="s">
         <v>1058</v>
       </c>
@@ -21037,7 +21074,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="501"/>
+      <c r="A65" s="507"/>
       <c r="B65" s="140" t="s">
         <v>1058</v>
       </c>
@@ -21056,7 +21093,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="501"/>
+      <c r="A66" s="507"/>
       <c r="B66" s="140" t="s">
         <v>1058</v>
       </c>
@@ -21075,7 +21112,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="501"/>
+      <c r="A67" s="507"/>
       <c r="B67" s="140" t="s">
         <v>1058</v>
       </c>
@@ -21094,7 +21131,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="501"/>
+      <c r="A68" s="507"/>
       <c r="B68" s="140" t="s">
         <v>1058</v>
       </c>
@@ -21113,7 +21150,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="501"/>
+      <c r="A69" s="507"/>
       <c r="B69" s="140" t="s">
         <v>1058</v>
       </c>
@@ -21132,7 +21169,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="501"/>
+      <c r="A70" s="507"/>
       <c r="B70" s="140" t="s">
         <v>1058</v>
       </c>
@@ -21151,7 +21188,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="501"/>
+      <c r="A71" s="507"/>
       <c r="B71" s="140" t="s">
         <v>1058</v>
       </c>
@@ -21170,7 +21207,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="501"/>
+      <c r="A72" s="507"/>
       <c r="B72" s="140" t="s">
         <v>1058</v>
       </c>
@@ -21189,7 +21226,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="501"/>
+      <c r="A73" s="507"/>
       <c r="B73" s="140" t="s">
         <v>1058</v>
       </c>
@@ -21208,7 +21245,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="501"/>
+      <c r="A74" s="507"/>
       <c r="B74" s="140" t="s">
         <v>1058</v>
       </c>
@@ -21227,7 +21264,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="501"/>
+      <c r="A75" s="507"/>
       <c r="B75" s="140" t="s">
         <v>1058</v>
       </c>
@@ -21246,7 +21283,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="501"/>
+      <c r="A76" s="507"/>
       <c r="B76" s="140" t="s">
         <v>1058</v>
       </c>
@@ -21265,7 +21302,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="501"/>
+      <c r="A77" s="507"/>
       <c r="B77" s="140" t="s">
         <v>1058</v>
       </c>
@@ -21284,7 +21321,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="501"/>
+      <c r="A78" s="507"/>
       <c r="B78" s="140" t="s">
         <v>1058</v>
       </c>
@@ -21305,7 +21342,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="501"/>
+      <c r="A79" s="507"/>
       <c r="B79" s="141" t="s">
         <v>1058</v>
       </c>
@@ -21326,7 +21363,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="501"/>
+      <c r="A80" s="507"/>
       <c r="B80" s="133"/>
       <c r="C80" s="21"/>
       <c r="D80" s="39"/>
@@ -21335,7 +21372,7 @@
       <c r="G80" s="165"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81" s="501"/>
+      <c r="A81" s="507"/>
       <c r="B81" s="138" t="s">
         <v>1087</v>
       </c>
@@ -21354,7 +21391,7 @@
       <c r="G81" s="142"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="501"/>
+      <c r="A82" s="507"/>
       <c r="B82" s="140" t="s">
         <v>1087</v>
       </c>
@@ -21364,7 +21401,7 @@
       <c r="D82" s="36" t="s">
         <v>1088</v>
       </c>
-      <c r="E82" s="495" t="s">
+      <c r="E82" s="501" t="s">
         <v>531</v>
       </c>
       <c r="F82" s="14" t="s">
@@ -21373,7 +21410,7 @@
       <c r="G82" s="166"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="501"/>
+      <c r="A83" s="507"/>
       <c r="B83" s="140" t="s">
         <v>1087</v>
       </c>
@@ -21383,14 +21420,14 @@
       <c r="D83" s="36" t="s">
         <v>1088</v>
       </c>
-      <c r="E83" s="495"/>
+      <c r="E83" s="501"/>
       <c r="F83" s="14" t="s">
         <v>54</v>
       </c>
       <c r="G83" s="166"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="501"/>
+      <c r="A84" s="507"/>
       <c r="B84" s="140" t="s">
         <v>1087</v>
       </c>
@@ -21400,7 +21437,7 @@
       <c r="D84" s="36" t="s">
         <v>1088</v>
       </c>
-      <c r="E84" s="495" t="s">
+      <c r="E84" s="501" t="s">
         <v>536</v>
       </c>
       <c r="F84" s="14" t="s">
@@ -21409,7 +21446,7 @@
       <c r="G84" s="166"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="501"/>
+      <c r="A85" s="507"/>
       <c r="B85" s="140" t="s">
         <v>1087</v>
       </c>
@@ -21419,14 +21456,14 @@
       <c r="D85" s="36" t="s">
         <v>1088</v>
       </c>
-      <c r="E85" s="495"/>
+      <c r="E85" s="501"/>
       <c r="F85" s="14" t="s">
         <v>54</v>
       </c>
       <c r="G85" s="166"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="501"/>
+      <c r="A86" s="507"/>
       <c r="B86" s="140" t="s">
         <v>1087</v>
       </c>
@@ -21436,7 +21473,7 @@
       <c r="D86" s="36" t="s">
         <v>1088</v>
       </c>
-      <c r="E86" s="495" t="s">
+      <c r="E86" s="501" t="s">
         <v>541</v>
       </c>
       <c r="F86" s="14" t="s">
@@ -21445,7 +21482,7 @@
       <c r="G86" s="68"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="501"/>
+      <c r="A87" s="507"/>
       <c r="B87" s="140" t="s">
         <v>1087</v>
       </c>
@@ -21455,14 +21492,14 @@
       <c r="D87" s="36" t="s">
         <v>1088</v>
       </c>
-      <c r="E87" s="495"/>
+      <c r="E87" s="501"/>
       <c r="F87" s="14" t="s">
         <v>54</v>
       </c>
       <c r="G87" s="68"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="501"/>
+      <c r="A88" s="507"/>
       <c r="B88" s="140" t="s">
         <v>1087</v>
       </c>
@@ -21472,14 +21509,14 @@
       <c r="D88" s="36" t="s">
         <v>1088</v>
       </c>
-      <c r="E88" s="495"/>
+      <c r="E88" s="501"/>
       <c r="F88" s="14" t="s">
         <v>54</v>
       </c>
       <c r="G88" s="68"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="501"/>
+      <c r="A89" s="507"/>
       <c r="B89" s="140" t="s">
         <v>1087</v>
       </c>
@@ -21489,14 +21526,14 @@
       <c r="D89" s="36" t="s">
         <v>1088</v>
       </c>
-      <c r="E89" s="495"/>
+      <c r="E89" s="501"/>
       <c r="F89" s="14" t="s">
         <v>54</v>
       </c>
       <c r="G89" s="68"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="501"/>
+      <c r="A90" s="507"/>
       <c r="B90" s="140" t="s">
         <v>1087</v>
       </c>
@@ -21515,7 +21552,7 @@
       <c r="G90" s="68"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A91" s="501"/>
+      <c r="A91" s="507"/>
       <c r="B91" s="140" t="s">
         <v>1087</v>
       </c>
@@ -21534,7 +21571,7 @@
       <c r="G91" s="68"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A92" s="501"/>
+      <c r="A92" s="507"/>
       <c r="B92" s="140" t="s">
         <v>1087</v>
       </c>
@@ -21544,7 +21581,7 @@
       <c r="D92" s="36" t="s">
         <v>1088</v>
       </c>
-      <c r="E92" s="495" t="s">
+      <c r="E92" s="501" t="s">
         <v>556</v>
       </c>
       <c r="F92" s="14" t="s">
@@ -21553,7 +21590,7 @@
       <c r="G92" s="166"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A93" s="501"/>
+      <c r="A93" s="507"/>
       <c r="B93" s="140" t="s">
         <v>1087</v>
       </c>
@@ -21563,14 +21600,14 @@
       <c r="D93" s="36" t="s">
         <v>1088</v>
       </c>
-      <c r="E93" s="495"/>
+      <c r="E93" s="501"/>
       <c r="F93" s="14" t="s">
         <v>54</v>
       </c>
       <c r="G93" s="166"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A94" s="501"/>
+      <c r="A94" s="507"/>
       <c r="B94" s="140" t="s">
         <v>1087</v>
       </c>
@@ -21580,7 +21617,7 @@
       <c r="D94" s="36" t="s">
         <v>1088</v>
       </c>
-      <c r="E94" s="495" t="s">
+      <c r="E94" s="501" t="s">
         <v>561</v>
       </c>
       <c r="F94" s="14" t="s">
@@ -21589,7 +21626,7 @@
       <c r="G94" s="68"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A95" s="501"/>
+      <c r="A95" s="507"/>
       <c r="B95" s="140" t="s">
         <v>1087</v>
       </c>
@@ -21599,14 +21636,14 @@
       <c r="D95" s="36" t="s">
         <v>1088</v>
       </c>
-      <c r="E95" s="495"/>
+      <c r="E95" s="501"/>
       <c r="F95" s="14" t="s">
         <v>54</v>
       </c>
       <c r="G95" s="166"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A96" s="501"/>
+      <c r="A96" s="507"/>
       <c r="B96" s="140" t="s">
         <v>1087</v>
       </c>
@@ -21625,7 +21662,7 @@
       <c r="G96" s="68"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A97" s="501"/>
+      <c r="A97" s="507"/>
       <c r="B97" s="140" t="s">
         <v>1087</v>
       </c>
@@ -21635,7 +21672,7 @@
       <c r="D97" s="36" t="s">
         <v>1088</v>
       </c>
-      <c r="E97" s="495" t="s">
+      <c r="E97" s="501" t="s">
         <v>569</v>
       </c>
       <c r="F97" s="14" t="s">
@@ -21644,7 +21681,7 @@
       <c r="G97" s="166"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A98" s="501"/>
+      <c r="A98" s="507"/>
       <c r="B98" s="141" t="s">
         <v>1087</v>
       </c>
@@ -21654,14 +21691,14 @@
       <c r="D98" s="46" t="s">
         <v>1088</v>
       </c>
-      <c r="E98" s="496"/>
+      <c r="E98" s="502"/>
       <c r="F98" s="45" t="s">
         <v>54</v>
       </c>
       <c r="G98" s="167"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A99" s="501"/>
+      <c r="A99" s="507"/>
       <c r="B99" s="133"/>
       <c r="C99" s="21"/>
       <c r="D99" s="39"/>
@@ -21670,7 +21707,7 @@
       <c r="G99" s="23"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A100" s="501"/>
+      <c r="A100" s="507"/>
       <c r="B100" s="138" t="s">
         <v>572</v>
       </c>
@@ -21689,7 +21726,7 @@
       <c r="G100" s="13"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A101" s="501"/>
+      <c r="A101" s="507"/>
       <c r="B101" s="140" t="s">
         <v>572</v>
       </c>
@@ -21699,7 +21736,7 @@
       <c r="D101" s="36" t="s">
         <v>1089</v>
       </c>
-      <c r="E101" s="495" t="s">
+      <c r="E101" s="501" t="s">
         <v>531</v>
       </c>
       <c r="F101" s="14" t="s">
@@ -21708,7 +21745,7 @@
       <c r="G101" s="16"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A102" s="501"/>
+      <c r="A102" s="507"/>
       <c r="B102" s="140" t="s">
         <v>572</v>
       </c>
@@ -21718,14 +21755,14 @@
       <c r="D102" s="36" t="s">
         <v>1089</v>
       </c>
-      <c r="E102" s="495"/>
+      <c r="E102" s="501"/>
       <c r="F102" s="14" t="s">
         <v>54</v>
       </c>
       <c r="G102" s="16"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A103" s="501"/>
+      <c r="A103" s="507"/>
       <c r="B103" s="140" t="s">
         <v>572</v>
       </c>
@@ -21735,7 +21772,7 @@
       <c r="D103" s="36" t="s">
         <v>1089</v>
       </c>
-      <c r="E103" s="495" t="s">
+      <c r="E103" s="501" t="s">
         <v>536</v>
       </c>
       <c r="F103" s="14" t="s">
@@ -21744,7 +21781,7 @@
       <c r="G103" s="16"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A104" s="501"/>
+      <c r="A104" s="507"/>
       <c r="B104" s="140" t="s">
         <v>572</v>
       </c>
@@ -21754,14 +21791,14 @@
       <c r="D104" s="36" t="s">
         <v>1089</v>
       </c>
-      <c r="E104" s="495"/>
+      <c r="E104" s="501"/>
       <c r="F104" s="14" t="s">
         <v>54</v>
       </c>
       <c r="G104" s="16"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A105" s="501"/>
+      <c r="A105" s="507"/>
       <c r="B105" s="140" t="s">
         <v>572</v>
       </c>
@@ -21771,7 +21808,7 @@
       <c r="D105" s="36" t="s">
         <v>1089</v>
       </c>
-      <c r="E105" s="495" t="s">
+      <c r="E105" s="501" t="s">
         <v>541</v>
       </c>
       <c r="F105" s="14" t="s">
@@ -21780,7 +21817,7 @@
       <c r="G105" s="16"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A106" s="501"/>
+      <c r="A106" s="507"/>
       <c r="B106" s="140" t="s">
         <v>572</v>
       </c>
@@ -21790,14 +21827,14 @@
       <c r="D106" s="36" t="s">
         <v>1089</v>
       </c>
-      <c r="E106" s="495"/>
+      <c r="E106" s="501"/>
       <c r="F106" s="14" t="s">
         <v>54</v>
       </c>
       <c r="G106" s="16"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A107" s="501"/>
+      <c r="A107" s="507"/>
       <c r="B107" s="140" t="s">
         <v>572</v>
       </c>
@@ -21807,14 +21844,14 @@
       <c r="D107" s="36" t="s">
         <v>1089</v>
       </c>
-      <c r="E107" s="495"/>
+      <c r="E107" s="501"/>
       <c r="F107" s="14" t="s">
         <v>54</v>
       </c>
       <c r="G107" s="16"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A108" s="501"/>
+      <c r="A108" s="507"/>
       <c r="B108" s="140" t="s">
         <v>572</v>
       </c>
@@ -21824,14 +21861,14 @@
       <c r="D108" s="36" t="s">
         <v>1089</v>
       </c>
-      <c r="E108" s="495"/>
+      <c r="E108" s="501"/>
       <c r="F108" s="14" t="s">
         <v>54</v>
       </c>
       <c r="G108" s="16"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A109" s="501"/>
+      <c r="A109" s="507"/>
       <c r="B109" s="140" t="s">
         <v>572</v>
       </c>
@@ -21850,7 +21887,7 @@
       <c r="G109" s="16"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A110" s="501"/>
+      <c r="A110" s="507"/>
       <c r="B110" s="140" t="s">
         <v>572</v>
       </c>
@@ -21860,7 +21897,7 @@
       <c r="D110" s="36" t="s">
         <v>1089</v>
       </c>
-      <c r="E110" s="495" t="s">
+      <c r="E110" s="501" t="s">
         <v>556</v>
       </c>
       <c r="F110" s="14" t="s">
@@ -21869,7 +21906,7 @@
       <c r="G110" s="16"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A111" s="501"/>
+      <c r="A111" s="507"/>
       <c r="B111" s="140" t="s">
         <v>572</v>
       </c>
@@ -21879,14 +21916,14 @@
       <c r="D111" s="36" t="s">
         <v>1089</v>
       </c>
-      <c r="E111" s="495"/>
+      <c r="E111" s="501"/>
       <c r="F111" s="14" t="s">
         <v>54</v>
       </c>
       <c r="G111" s="16"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A112" s="501"/>
+      <c r="A112" s="507"/>
       <c r="B112" s="140" t="s">
         <v>572</v>
       </c>
@@ -21896,7 +21933,7 @@
       <c r="D112" s="36" t="s">
         <v>1089</v>
       </c>
-      <c r="E112" s="495" t="s">
+      <c r="E112" s="501" t="s">
         <v>561</v>
       </c>
       <c r="F112" s="14" t="s">
@@ -21905,7 +21942,7 @@
       <c r="G112" s="16"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A113" s="501"/>
+      <c r="A113" s="507"/>
       <c r="B113" s="140" t="s">
         <v>572</v>
       </c>
@@ -21915,14 +21952,14 @@
       <c r="D113" s="36" t="s">
         <v>1089</v>
       </c>
-      <c r="E113" s="495"/>
+      <c r="E113" s="501"/>
       <c r="F113" s="14" t="s">
         <v>54</v>
       </c>
       <c r="G113" s="16"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A114" s="501"/>
+      <c r="A114" s="507"/>
       <c r="B114" s="140" t="s">
         <v>572</v>
       </c>
@@ -21941,7 +21978,7 @@
       <c r="G114" s="16"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A115" s="501"/>
+      <c r="A115" s="507"/>
       <c r="B115" s="140" t="s">
         <v>572</v>
       </c>
@@ -21951,7 +21988,7 @@
       <c r="D115" s="36" t="s">
         <v>1089</v>
       </c>
-      <c r="E115" s="495" t="s">
+      <c r="E115" s="501" t="s">
         <v>569</v>
       </c>
       <c r="F115" s="14" t="s">
@@ -21960,7 +21997,7 @@
       <c r="G115" s="16"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A116" s="501"/>
+      <c r="A116" s="507"/>
       <c r="B116" s="141" t="s">
         <v>572</v>
       </c>
@@ -21970,14 +22007,14 @@
       <c r="D116" s="46" t="s">
         <v>1089</v>
       </c>
-      <c r="E116" s="496"/>
+      <c r="E116" s="502"/>
       <c r="F116" s="45" t="s">
         <v>54</v>
       </c>
       <c r="G116" s="47"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A117" s="501"/>
+      <c r="A117" s="507"/>
       <c r="B117" s="133"/>
       <c r="C117" s="21"/>
       <c r="D117" s="39"/>
@@ -21986,7 +22023,7 @@
       <c r="G117" s="23"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A118" s="501"/>
+      <c r="A118" s="507"/>
       <c r="B118" s="138" t="s">
         <v>712</v>
       </c>
@@ -22007,7 +22044,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A119" s="501"/>
+      <c r="A119" s="507"/>
       <c r="B119" s="140" t="s">
         <v>712</v>
       </c>
@@ -22028,7 +22065,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A120" s="502"/>
+      <c r="A120" s="508"/>
       <c r="B120" s="168" t="s">
         <v>712</v>
       </c>
@@ -22049,7 +22086,7 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A121" s="502"/>
+      <c r="A121" s="508"/>
       <c r="B121" s="133"/>
       <c r="C121" s="21"/>
       <c r="D121" s="39"/>
@@ -22058,7 +22095,7 @@
       <c r="G121" s="23"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A122" s="502"/>
+      <c r="A122" s="508"/>
       <c r="B122" s="138" t="s">
         <v>1093</v>
       </c>
@@ -22077,7 +22114,7 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A123" s="502"/>
+      <c r="A123" s="508"/>
       <c r="B123" s="140" t="s">
         <v>1093</v>
       </c>
@@ -22096,7 +22133,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A124" s="502"/>
+      <c r="A124" s="508"/>
       <c r="B124" s="140" t="s">
         <v>1093</v>
       </c>
@@ -22115,7 +22152,7 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A125" s="502"/>
+      <c r="A125" s="508"/>
       <c r="B125" s="140" t="s">
         <v>1093</v>
       </c>
@@ -22134,7 +22171,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A126" s="502"/>
+      <c r="A126" s="508"/>
       <c r="B126" s="140" t="s">
         <v>1093</v>
       </c>
@@ -22153,7 +22190,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A127" s="502"/>
+      <c r="A127" s="508"/>
       <c r="B127" s="140" t="s">
         <v>1093</v>
       </c>
@@ -22172,7 +22209,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A128" s="502"/>
+      <c r="A128" s="508"/>
       <c r="B128" s="140" t="s">
         <v>1093</v>
       </c>
@@ -22191,7 +22228,7 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A129" s="502"/>
+      <c r="A129" s="508"/>
       <c r="B129" s="140" t="s">
         <v>1093</v>
       </c>
@@ -22210,7 +22247,7 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A130" s="502"/>
+      <c r="A130" s="508"/>
       <c r="B130" s="141" t="s">
         <v>1093</v>
       </c>
@@ -22229,7 +22266,7 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A131" s="502"/>
+      <c r="A131" s="508"/>
       <c r="B131" s="133"/>
       <c r="C131" s="21"/>
       <c r="D131" s="39"/>
@@ -22238,7 +22275,7 @@
       <c r="G131" s="23"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A132" s="502"/>
+      <c r="A132" s="508"/>
       <c r="B132" s="138" t="s">
         <v>1093</v>
       </c>
@@ -22257,7 +22294,7 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A133" s="502"/>
+      <c r="A133" s="508"/>
       <c r="B133" s="140" t="s">
         <v>1093</v>
       </c>
@@ -22276,7 +22313,7 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A134" s="502"/>
+      <c r="A134" s="508"/>
       <c r="B134" s="141" t="s">
         <v>1093</v>
       </c>
@@ -22295,7 +22332,7 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A135" s="502"/>
+      <c r="A135" s="508"/>
       <c r="B135" s="133"/>
       <c r="C135" s="21"/>
       <c r="D135" s="39"/>
@@ -22304,7 +22341,7 @@
       <c r="G135" s="60"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A136" s="502"/>
+      <c r="A136" s="508"/>
       <c r="B136" s="138" t="s">
         <v>1111</v>
       </c>
@@ -22323,7 +22360,7 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A137" s="502"/>
+      <c r="A137" s="508"/>
       <c r="B137" s="141" t="s">
         <v>1111</v>
       </c>
@@ -22342,7 +22379,7 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A138" s="502"/>
+      <c r="A138" s="508"/>
       <c r="B138" s="133"/>
       <c r="C138" s="21"/>
       <c r="D138" s="39"/>
@@ -22351,7 +22388,7 @@
       <c r="G138" s="60"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A139" s="502"/>
+      <c r="A139" s="508"/>
       <c r="B139" s="138" t="s">
         <v>1111</v>
       </c>
@@ -22370,7 +22407,7 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A140" s="502"/>
+      <c r="A140" s="508"/>
       <c r="B140" s="141" t="s">
         <v>1111</v>
       </c>
@@ -22389,7 +22426,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A141" s="502"/>
+      <c r="A141" s="508"/>
       <c r="B141" s="133"/>
       <c r="C141" s="21"/>
       <c r="D141" s="39"/>
@@ -22398,7 +22435,7 @@
       <c r="G141" s="60"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A142" s="502"/>
+      <c r="A142" s="508"/>
       <c r="B142" s="147" t="s">
         <v>1120</v>
       </c>
@@ -22417,7 +22454,7 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A143" s="502"/>
+      <c r="A143" s="508"/>
       <c r="B143" s="152" t="s">
         <v>1120</v>
       </c>
@@ -22436,7 +22473,7 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A144" s="502"/>
+      <c r="A144" s="508"/>
       <c r="B144" s="152" t="s">
         <v>1120</v>
       </c>
@@ -22455,7 +22492,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A145" s="502"/>
+      <c r="A145" s="508"/>
       <c r="B145" s="152" t="s">
         <v>1120</v>
       </c>
@@ -22474,7 +22511,7 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A146" s="502"/>
+      <c r="A146" s="508"/>
       <c r="B146" s="152" t="s">
         <v>1120</v>
       </c>
@@ -22493,7 +22530,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A147" s="502"/>
+      <c r="A147" s="508"/>
       <c r="B147" s="152" t="s">
         <v>1120</v>
       </c>
@@ -22512,7 +22549,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A148" s="502"/>
+      <c r="A148" s="508"/>
       <c r="B148" s="168" t="s">
         <v>1120</v>
       </c>
@@ -22531,7 +22568,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A149" s="502"/>
+      <c r="A149" s="508"/>
       <c r="B149" s="133"/>
       <c r="C149" s="21"/>
       <c r="D149" s="39"/>
@@ -22540,7 +22577,7 @@
       <c r="G149" s="60"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A150" s="502"/>
+      <c r="A150" s="508"/>
       <c r="B150" s="138" t="s">
         <v>1130</v>
       </c>
@@ -22559,7 +22596,7 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A151" s="502"/>
+      <c r="A151" s="508"/>
       <c r="B151" s="140" t="s">
         <v>1130</v>
       </c>
@@ -22578,7 +22615,7 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A152" s="502"/>
+      <c r="A152" s="508"/>
       <c r="B152" s="140" t="s">
         <v>1130</v>
       </c>
@@ -22597,7 +22634,7 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A153" s="502"/>
+      <c r="A153" s="508"/>
       <c r="B153" s="140" t="s">
         <v>1130</v>
       </c>
@@ -22616,7 +22653,7 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A154" s="502"/>
+      <c r="A154" s="508"/>
       <c r="B154" s="140" t="s">
         <v>1130</v>
       </c>
@@ -22635,7 +22672,7 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A155" s="502"/>
+      <c r="A155" s="508"/>
       <c r="B155" s="140" t="s">
         <v>1130</v>
       </c>
@@ -22654,7 +22691,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A156" s="502"/>
+      <c r="A156" s="508"/>
       <c r="B156" s="140" t="s">
         <v>1130</v>
       </c>
@@ -22673,7 +22710,7 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A157" s="502"/>
+      <c r="A157" s="508"/>
       <c r="B157" s="140" t="s">
         <v>1130</v>
       </c>
@@ -22692,7 +22729,7 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A158" s="502"/>
+      <c r="A158" s="508"/>
       <c r="B158" s="140" t="s">
         <v>1130</v>
       </c>
@@ -22711,7 +22748,7 @@
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A159" s="502"/>
+      <c r="A159" s="508"/>
       <c r="B159" s="140" t="s">
         <v>1130</v>
       </c>
@@ -22730,7 +22767,7 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A160" s="502"/>
+      <c r="A160" s="508"/>
       <c r="B160" s="140" t="s">
         <v>1130</v>
       </c>
@@ -22749,7 +22786,7 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A161" s="503"/>
+      <c r="A161" s="509"/>
       <c r="B161" s="141" t="s">
         <v>1130</v>
       </c>
@@ -22769,7 +22806,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E94:E95"/>
     <mergeCell ref="E97:E98"/>
     <mergeCell ref="E101:E102"/>
     <mergeCell ref="E103:E104"/>
@@ -22789,6 +22825,7 @@
     <mergeCell ref="E84:E85"/>
     <mergeCell ref="E86:E89"/>
     <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E94:E95"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.196850393700787" footer="0.196850393700787"/>
@@ -22883,7 +22920,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="477" t="s">
+      <c r="A5" s="483" t="s">
         <v>271</v>
       </c>
       <c r="B5" s="51" t="s">
@@ -22904,7 +22941,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="505"/>
+      <c r="A6" s="511"/>
       <c r="B6" s="119" t="s">
         <v>57</v>
       </c>
@@ -22920,7 +22957,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="478"/>
+      <c r="A7" s="484"/>
       <c r="B7" s="55"/>
       <c r="C7" s="56"/>
       <c r="D7" s="57"/>
@@ -22931,7 +22968,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="478"/>
+      <c r="A8" s="484"/>
       <c r="B8" s="61" t="s">
         <v>295</v>
       </c>
@@ -22950,7 +22987,7 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="478"/>
+      <c r="A9" s="484"/>
       <c r="B9" s="108" t="s">
         <v>295</v>
       </c>
@@ -22969,7 +23006,7 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="478"/>
+      <c r="A10" s="484"/>
       <c r="B10" s="55"/>
       <c r="C10" s="56"/>
       <c r="D10" s="121"/>
@@ -22980,7 +23017,7 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="478"/>
+      <c r="A11" s="484"/>
       <c r="B11" s="61" t="s">
         <v>274</v>
       </c>
@@ -22999,7 +23036,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="479"/>
+      <c r="A12" s="485"/>
       <c r="B12" s="65" t="s">
         <v>274</v>
       </c>
@@ -23015,7 +23052,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="479"/>
+      <c r="A13" s="485"/>
       <c r="B13" s="65" t="s">
         <v>274</v>
       </c>
@@ -23031,7 +23068,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="479"/>
+      <c r="A14" s="485"/>
       <c r="B14" s="108" t="s">
         <v>274</v>
       </c>
@@ -23047,7 +23084,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="479"/>
+      <c r="A15" s="485"/>
       <c r="B15" s="55"/>
       <c r="C15" s="56"/>
       <c r="D15" s="57"/>
@@ -23055,7 +23092,7 @@
       <c r="F15" s="92"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="479"/>
+      <c r="A16" s="485"/>
       <c r="B16" s="51" t="s">
         <v>1158</v>
       </c>
@@ -23071,7 +23108,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="479"/>
+      <c r="A17" s="485"/>
       <c r="B17" s="55"/>
       <c r="C17" s="56"/>
       <c r="D17" s="57"/>
@@ -23079,7 +23116,7 @@
       <c r="F17" s="92"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="479"/>
+      <c r="A18" s="485"/>
       <c r="B18" s="61" t="s">
         <v>1160</v>
       </c>
@@ -23095,7 +23132,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="479"/>
+      <c r="A19" s="485"/>
       <c r="B19" s="65" t="s">
         <v>1160</v>
       </c>
@@ -23111,7 +23148,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="479"/>
+      <c r="A20" s="485"/>
       <c r="B20" s="65" t="s">
         <v>1160</v>
       </c>
@@ -23127,7 +23164,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="479"/>
+      <c r="A21" s="485"/>
       <c r="B21" s="65" t="s">
         <v>1160</v>
       </c>
@@ -23143,7 +23180,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="479"/>
+      <c r="A22" s="485"/>
       <c r="B22" s="65" t="s">
         <v>1160</v>
       </c>
@@ -23159,7 +23196,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="479"/>
+      <c r="A23" s="485"/>
       <c r="B23" s="108" t="s">
         <v>1160</v>
       </c>
@@ -23175,7 +23212,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="479"/>
+      <c r="A24" s="485"/>
       <c r="B24" s="55"/>
       <c r="C24" s="56"/>
       <c r="D24" s="57"/>
@@ -23183,7 +23220,7 @@
       <c r="F24" s="92"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="479"/>
+      <c r="A25" s="485"/>
       <c r="B25" s="61" t="s">
         <v>1167</v>
       </c>
@@ -23199,7 +23236,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="479"/>
+      <c r="A26" s="485"/>
       <c r="B26" s="65" t="s">
         <v>1167</v>
       </c>
@@ -23215,7 +23252,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="480"/>
+      <c r="A27" s="486"/>
       <c r="B27" s="124" t="s">
         <v>1167</v>
       </c>
@@ -23295,7 +23332,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="506" t="s">
+      <c r="A3" s="512" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="99" t="s">
@@ -23313,7 +23350,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="507"/>
+      <c r="A4" s="513"/>
       <c r="B4" s="103"/>
       <c r="C4" s="104"/>
       <c r="D4" s="105"/>
@@ -23321,7 +23358,7 @@
       <c r="F4" s="106"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="507"/>
+      <c r="A5" s="513"/>
       <c r="B5" s="61"/>
       <c r="C5" s="62" t="s">
         <v>238</v>
@@ -23338,7 +23375,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="507"/>
+      <c r="A6" s="513"/>
       <c r="B6" s="65"/>
       <c r="C6" s="66" t="s">
         <v>126</v>
@@ -23355,7 +23392,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="507"/>
+      <c r="A7" s="513"/>
       <c r="B7" s="65"/>
       <c r="C7" s="66" t="s">
         <v>131</v>
@@ -23369,7 +23406,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="507"/>
+      <c r="A8" s="513"/>
       <c r="B8" s="108"/>
       <c r="C8" s="77" t="s">
         <v>189</v>
@@ -23383,7 +23420,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="507"/>
+      <c r="A9" s="513"/>
       <c r="B9" s="55"/>
       <c r="C9" s="56"/>
       <c r="D9" s="57"/>
@@ -23391,7 +23428,7 @@
       <c r="F9" s="92"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="508"/>
+      <c r="A10" s="514"/>
       <c r="B10" s="109"/>
       <c r="C10" s="110" t="s">
         <v>63</v>
@@ -23405,7 +23442,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="508"/>
+      <c r="A11" s="514"/>
       <c r="B11" s="108"/>
       <c r="C11" s="77" t="s">
         <v>134</v>
@@ -23419,7 +23456,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="508"/>
+      <c r="A12" s="514"/>
       <c r="B12" s="55"/>
       <c r="C12" s="56"/>
       <c r="D12" s="57"/>
@@ -23427,7 +23464,7 @@
       <c r="F12" s="92"/>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="509"/>
+      <c r="A13" s="515"/>
       <c r="B13" s="113"/>
       <c r="C13" s="114" t="s">
         <v>78</v>

--- a/帮助.xlsx
+++ b/帮助.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BoBOAHK\WorkFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70790F17-ECF9-42A7-BD0C-2E4953043C86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C489E47-B710-47F7-A621-C81B479C003E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3274" uniqueCount="1410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3275" uniqueCount="1410">
   <si>
     <t>程序</t>
   </si>
@@ -7789,6 +7789,66 @@
     <xf numFmtId="0" fontId="31" fillId="20" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7798,66 +7858,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7954,6 +7954,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7963,43 +7999,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8285,10 +8285,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -8500,7 +8500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="439"/>
       <c r="B17" s="442"/>
       <c r="C17" s="418" t="s">
@@ -8512,7 +8512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="439"/>
       <c r="B18" s="418"/>
       <c r="C18" s="418"/>
@@ -8520,7 +8520,7 @@
       <c r="E18" s="418"/>
       <c r="F18" s="420"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="439"/>
       <c r="B19" s="418"/>
       <c r="C19" s="418"/>
@@ -8528,7 +8528,7 @@
       <c r="E19" s="418"/>
       <c r="F19" s="420"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="439"/>
       <c r="B20" s="442" t="s">
         <v>28</v>
@@ -8541,8 +8541,11 @@
       <c r="F20" s="420" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="L20" s="411" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="439"/>
       <c r="B21" s="442"/>
       <c r="C21" s="418" t="s">
@@ -8554,7 +8557,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="439"/>
       <c r="B22" s="442"/>
       <c r="C22" s="418" t="s">
@@ -8566,7 +8569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="439"/>
       <c r="B23" s="442"/>
       <c r="C23" s="418"/>
@@ -8574,7 +8577,7 @@
       <c r="E23" s="418"/>
       <c r="F23" s="420"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="439"/>
       <c r="B24" s="442"/>
       <c r="C24" s="418"/>
@@ -8582,7 +8585,7 @@
       <c r="E24" s="418"/>
       <c r="F24" s="420"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="439"/>
       <c r="B25" s="442"/>
       <c r="C25" s="418"/>
@@ -8590,7 +8593,7 @@
       <c r="E25" s="418"/>
       <c r="F25" s="420"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="439"/>
       <c r="B26" s="442"/>
       <c r="C26" s="418"/>
@@ -8598,7 +8601,7 @@
       <c r="E26" s="418"/>
       <c r="F26" s="420"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="439"/>
       <c r="B27" s="418"/>
       <c r="C27" s="418"/>
@@ -8606,7 +8609,7 @@
       <c r="E27" s="418"/>
       <c r="F27" s="420"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="439"/>
       <c r="B28" s="442" t="s">
         <v>33</v>
@@ -8620,7 +8623,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="439"/>
       <c r="B29" s="442"/>
       <c r="C29" s="418" t="s">
@@ -8632,7 +8635,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="439"/>
       <c r="B30" s="442"/>
       <c r="C30" s="418"/>
@@ -8640,7 +8643,7 @@
       <c r="E30" s="418"/>
       <c r="F30" s="420"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="439"/>
       <c r="B31" s="418"/>
       <c r="C31" s="418"/>
@@ -8648,7 +8651,7 @@
       <c r="E31" s="418"/>
       <c r="F31" s="420"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="439"/>
       <c r="B32" s="442" t="s">
         <v>36</v>
@@ -9772,10 +9775,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="527" t="s">
+      <c r="A3" s="539" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="538" t="s">
+      <c r="B3" s="537" t="s">
         <v>1239</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -9790,8 +9793,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="528"/>
-      <c r="B4" s="533"/>
+      <c r="A4" s="540"/>
+      <c r="B4" s="538"/>
       <c r="C4" s="14" t="s">
         <v>1242</v>
       </c>
@@ -9802,8 +9805,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="528"/>
-      <c r="B5" s="533"/>
+      <c r="A5" s="540"/>
+      <c r="B5" s="538"/>
       <c r="C5" s="14" t="s">
         <v>1244</v>
       </c>
@@ -9814,8 +9817,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="528"/>
-      <c r="B6" s="533"/>
+      <c r="A6" s="540"/>
+      <c r="B6" s="538"/>
       <c r="C6" s="14" t="s">
         <v>1246</v>
       </c>
@@ -9826,8 +9829,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="528"/>
-      <c r="B7" s="533"/>
+      <c r="A7" s="540"/>
+      <c r="B7" s="538"/>
       <c r="C7" s="14" t="s">
         <v>1248</v>
       </c>
@@ -9838,8 +9841,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="528"/>
-      <c r="B8" s="533"/>
+      <c r="A8" s="540"/>
+      <c r="B8" s="538"/>
       <c r="C8" s="14" t="s">
         <v>1250</v>
       </c>
@@ -9850,7 +9853,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="528"/>
+      <c r="A9" s="540"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
@@ -9858,8 +9861,8 @@
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="528"/>
-      <c r="B10" s="533" t="s">
+      <c r="A10" s="540"/>
+      <c r="B10" s="538" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -9872,8 +9875,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="528"/>
-      <c r="B11" s="533"/>
+      <c r="A11" s="540"/>
+      <c r="B11" s="538"/>
       <c r="C11" s="14" t="s">
         <v>1254</v>
       </c>
@@ -9884,8 +9887,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="528"/>
-      <c r="B12" s="533"/>
+      <c r="A12" s="540"/>
+      <c r="B12" s="538"/>
       <c r="C12" s="14" t="s">
         <v>1256</v>
       </c>
@@ -9896,8 +9899,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="528"/>
-      <c r="B13" s="533"/>
+      <c r="A13" s="540"/>
+      <c r="B13" s="538"/>
       <c r="C13" s="14" t="s">
         <v>1258</v>
       </c>
@@ -9908,8 +9911,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="528"/>
-      <c r="B14" s="533"/>
+      <c r="A14" s="540"/>
+      <c r="B14" s="538"/>
       <c r="C14" s="14" t="s">
         <v>1260</v>
       </c>
@@ -9920,8 +9923,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="528"/>
-      <c r="B15" s="533"/>
+      <c r="A15" s="540"/>
+      <c r="B15" s="538"/>
       <c r="C15" s="14" t="s">
         <v>1262</v>
       </c>
@@ -9932,7 +9935,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="528"/>
+      <c r="A16" s="540"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
@@ -9940,8 +9943,8 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="528"/>
-      <c r="B17" s="533" t="s">
+      <c r="A17" s="540"/>
+      <c r="B17" s="538" t="s">
         <v>1264</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -9954,8 +9957,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="528"/>
-      <c r="B18" s="533"/>
+      <c r="A18" s="540"/>
+      <c r="B18" s="538"/>
       <c r="C18" s="14" t="s">
         <v>1267</v>
       </c>
@@ -9966,7 +9969,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="528"/>
+      <c r="A19" s="540"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
@@ -9974,8 +9977,8 @@
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="528"/>
-      <c r="B20" s="533" t="s">
+      <c r="A20" s="540"/>
+      <c r="B20" s="538" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="14" t="s">
@@ -9988,8 +9991,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="528"/>
-      <c r="B21" s="533"/>
+      <c r="A21" s="540"/>
+      <c r="B21" s="538"/>
       <c r="C21" s="14" t="s">
         <v>1270</v>
       </c>
@@ -10000,8 +10003,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="528"/>
-      <c r="B22" s="533"/>
+      <c r="A22" s="540"/>
+      <c r="B22" s="538"/>
       <c r="C22" s="14" t="s">
         <v>1272</v>
       </c>
@@ -10012,8 +10015,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="528"/>
-      <c r="B23" s="533"/>
+      <c r="A23" s="540"/>
+      <c r="B23" s="538"/>
       <c r="C23" s="14" t="s">
         <v>1273</v>
       </c>
@@ -10024,8 +10027,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="528"/>
-      <c r="B24" s="533"/>
+      <c r="A24" s="540"/>
+      <c r="B24" s="538"/>
       <c r="C24" s="14" t="s">
         <v>1275</v>
       </c>
@@ -10036,7 +10039,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="528"/>
+      <c r="A25" s="540"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
@@ -10044,8 +10047,8 @@
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="528"/>
-      <c r="B26" s="533" t="s">
+      <c r="A26" s="540"/>
+      <c r="B26" s="538" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="14" t="s">
@@ -10058,8 +10061,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="528"/>
-      <c r="B27" s="533"/>
+      <c r="A27" s="540"/>
+      <c r="B27" s="538"/>
       <c r="C27" s="14" t="s">
         <v>10</v>
       </c>
@@ -10070,8 +10073,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="528"/>
-      <c r="B28" s="533"/>
+      <c r="A28" s="540"/>
+      <c r="B28" s="538"/>
       <c r="C28" s="14" t="s">
         <v>1279</v>
       </c>
@@ -10082,8 +10085,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="528"/>
-      <c r="B29" s="533"/>
+      <c r="A29" s="540"/>
+      <c r="B29" s="538"/>
       <c r="C29" s="14" t="s">
         <v>1281</v>
       </c>
@@ -10094,8 +10097,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="528"/>
-      <c r="B30" s="533"/>
+      <c r="A30" s="540"/>
+      <c r="B30" s="538"/>
       <c r="C30" s="14" t="s">
         <v>85</v>
       </c>
@@ -10106,7 +10109,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="528"/>
+      <c r="A31" s="540"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
@@ -10114,8 +10117,8 @@
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="528"/>
-      <c r="B32" s="533" t="s">
+      <c r="A32" s="540"/>
+      <c r="B32" s="538" t="s">
         <v>1284</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -10128,8 +10131,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="528"/>
-      <c r="B33" s="533"/>
+      <c r="A33" s="540"/>
+      <c r="B33" s="538"/>
       <c r="C33" s="14" t="s">
         <v>1287</v>
       </c>
@@ -10140,7 +10143,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="528"/>
+      <c r="A34" s="540"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="15"/>
@@ -10148,8 +10151,8 @@
       <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="528"/>
-      <c r="B35" s="533" t="s">
+      <c r="A35" s="540"/>
+      <c r="B35" s="538" t="s">
         <v>1289</v>
       </c>
       <c r="C35" s="14" t="s">
@@ -10162,8 +10165,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="528"/>
-      <c r="B36" s="533"/>
+      <c r="A36" s="540"/>
+      <c r="B36" s="538"/>
       <c r="C36" s="14" t="s">
         <v>1292</v>
       </c>
@@ -10174,8 +10177,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="528"/>
-      <c r="B37" s="533"/>
+      <c r="A37" s="540"/>
+      <c r="B37" s="538"/>
       <c r="C37" s="14" t="s">
         <v>1294</v>
       </c>
@@ -10186,7 +10189,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="528"/>
+      <c r="A38" s="540"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
@@ -10194,8 +10197,8 @@
       <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="528"/>
-      <c r="B39" s="533" t="s">
+      <c r="A39" s="540"/>
+      <c r="B39" s="538" t="s">
         <v>1296</v>
       </c>
       <c r="C39" s="14" t="s">
@@ -10208,8 +10211,8 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="529"/>
-      <c r="B40" s="534"/>
+      <c r="A40" s="541"/>
+      <c r="B40" s="542"/>
       <c r="C40" s="17" t="s">
         <v>1299</v>
       </c>
@@ -10336,7 +10339,7 @@
       <c r="F50" s="23"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="539" t="s">
+      <c r="A51" s="527" t="s">
         <v>1313</v>
       </c>
       <c r="B51" s="31"/>
@@ -10350,7 +10353,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="540"/>
+      <c r="A52" s="528"/>
       <c r="B52" s="35"/>
       <c r="C52" s="14" t="s">
         <v>1315</v>
@@ -10362,7 +10365,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="541"/>
+      <c r="A53" s="529"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17" t="s">
         <v>1317</v>
@@ -10590,7 +10593,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="531"/>
-      <c r="B72" s="535" t="s">
+      <c r="B72" s="534" t="s">
         <v>1345</v>
       </c>
       <c r="C72" s="14" t="s">
@@ -10604,7 +10607,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="531"/>
-      <c r="B73" s="536"/>
+      <c r="B73" s="535"/>
       <c r="C73" s="14" t="s">
         <v>1347</v>
       </c>
@@ -10616,7 +10619,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="531"/>
-      <c r="B74" s="537"/>
+      <c r="B74" s="536"/>
       <c r="C74" s="14" t="s">
         <v>1349</v>
       </c>
@@ -10628,7 +10631,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="531"/>
-      <c r="B75" s="535" t="s">
+      <c r="B75" s="534" t="s">
         <v>1351</v>
       </c>
       <c r="C75" s="14" t="s">
@@ -10642,7 +10645,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="531"/>
-      <c r="B76" s="536"/>
+      <c r="B76" s="535"/>
       <c r="C76" s="14" t="s">
         <v>1354</v>
       </c>
@@ -10654,7 +10657,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="531"/>
-      <c r="B77" s="536"/>
+      <c r="B77" s="535"/>
       <c r="C77" s="14" t="s">
         <v>1356</v>
       </c>
@@ -10666,7 +10669,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="531"/>
-      <c r="B78" s="536"/>
+      <c r="B78" s="535"/>
       <c r="C78" s="14" t="s">
         <v>1358</v>
       </c>
@@ -10678,7 +10681,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="531"/>
-      <c r="B79" s="536"/>
+      <c r="B79" s="535"/>
       <c r="C79" s="14" t="s">
         <v>1360</v>
       </c>
@@ -10690,7 +10693,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="531"/>
-      <c r="B80" s="536"/>
+      <c r="B80" s="535"/>
       <c r="C80" s="14" t="s">
         <v>1361</v>
       </c>
@@ -10702,7 +10705,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="531"/>
-      <c r="B81" s="536"/>
+      <c r="B81" s="535"/>
       <c r="C81" s="14" t="s">
         <v>1363</v>
       </c>
@@ -10714,7 +10717,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="531"/>
-      <c r="B82" s="537"/>
+      <c r="B82" s="536"/>
       <c r="C82" s="14" t="s">
         <v>1365</v>
       </c>
@@ -10845,7 +10848,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93" s="542"/>
+      <c r="A93" s="533"/>
       <c r="B93" s="45"/>
       <c r="C93" s="45" t="s">
         <v>1380</v>
@@ -10858,11 +10861,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="A69:A84"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A3:A40"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B39:B40"/>
     <mergeCell ref="B72:B74"/>
     <mergeCell ref="B75:B82"/>
     <mergeCell ref="B3:B8"/>
@@ -10870,11 +10873,11 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A3:A40"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="A69:A84"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A92:A93"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.196850393700787" footer="0.196850393700787"/>
@@ -13131,7 +13134,7 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="480" t="s">
+      <c r="A5" s="472" t="s">
         <v>262</v>
       </c>
       <c r="B5" s="224" t="s">
@@ -13150,7 +13153,7 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="481"/>
+      <c r="A6" s="473"/>
       <c r="B6" s="227"/>
       <c r="C6" s="52"/>
       <c r="D6" s="53"/>
@@ -13159,7 +13162,7 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="481"/>
+      <c r="A7" s="473"/>
       <c r="B7" s="180"/>
       <c r="C7" s="62" t="s">
         <v>263</v>
@@ -13174,7 +13177,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="481"/>
+      <c r="A8" s="473"/>
       <c r="B8" s="229"/>
       <c r="C8" s="66" t="s">
         <v>265</v>
@@ -13187,7 +13190,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="481"/>
+      <c r="A9" s="473"/>
       <c r="B9" s="229"/>
       <c r="C9" s="66" t="s">
         <v>267</v>
@@ -13200,7 +13203,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="482"/>
+      <c r="A10" s="474"/>
       <c r="B10" s="182"/>
       <c r="C10" s="93" t="s">
         <v>269</v>
@@ -13213,7 +13216,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="483" t="s">
+      <c r="A11" s="475" t="s">
         <v>270</v>
       </c>
       <c r="B11" s="51" t="s">
@@ -13232,19 +13235,19 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="484"/>
+      <c r="A12" s="476"/>
       <c r="F12" s="231"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="484"/>
+      <c r="A13" s="476"/>
       <c r="B13" s="61" t="s">
         <v>273</v>
       </c>
       <c r="C13" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="D13" s="487"/>
+      <c r="D13" s="479"/>
       <c r="E13" s="62" t="s">
         <v>53</v>
       </c>
@@ -13254,14 +13257,14 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="484"/>
+      <c r="A14" s="476"/>
       <c r="B14" s="65" t="s">
         <v>273</v>
       </c>
       <c r="C14" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="D14" s="475"/>
+      <c r="D14" s="480"/>
       <c r="E14" s="66" t="s">
         <v>53</v>
       </c>
@@ -13271,14 +13274,14 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="484"/>
+      <c r="A15" s="476"/>
       <c r="B15" s="65" t="s">
         <v>273</v>
       </c>
       <c r="C15" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="D15" s="475"/>
+      <c r="D15" s="480"/>
       <c r="E15" s="66" t="s">
         <v>53</v>
       </c>
@@ -13288,14 +13291,14 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="484"/>
+      <c r="A16" s="476"/>
       <c r="B16" s="65" t="s">
         <v>273</v>
       </c>
       <c r="C16" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="D16" s="475"/>
+      <c r="D16" s="480"/>
       <c r="E16" s="66" t="s">
         <v>53</v>
       </c>
@@ -13304,14 +13307,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="484"/>
+      <c r="A17" s="476"/>
       <c r="B17" s="65" t="s">
         <v>273</v>
       </c>
       <c r="C17" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="475"/>
+      <c r="D17" s="480"/>
       <c r="E17" s="66" t="s">
         <v>53</v>
       </c>
@@ -13320,7 +13323,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="484"/>
+      <c r="A18" s="476"/>
       <c r="B18" s="232" t="s">
         <v>56</v>
       </c>
@@ -13336,7 +13339,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="484"/>
+      <c r="A19" s="476"/>
       <c r="B19" s="69" t="s">
         <v>56</v>
       </c>
@@ -13352,7 +13355,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="484"/>
+      <c r="A20" s="476"/>
       <c r="B20" s="69" t="s">
         <v>56</v>
       </c>
@@ -13368,18 +13371,18 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="484"/>
+      <c r="A21" s="476"/>
       <c r="F21" s="236"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="484"/>
+      <c r="A22" s="476"/>
       <c r="B22" s="237" t="s">
         <v>289</v>
       </c>
       <c r="C22" s="237" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="488"/>
+      <c r="D22" s="481"/>
       <c r="E22" s="237" t="s">
         <v>53</v>
       </c>
@@ -13388,14 +13391,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="484"/>
+      <c r="A23" s="476"/>
       <c r="B23" s="240" t="s">
         <v>289</v>
       </c>
       <c r="C23" s="240" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="489"/>
+      <c r="D23" s="482"/>
       <c r="E23" s="240" t="s">
         <v>53</v>
       </c>
@@ -13404,14 +13407,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="484"/>
+      <c r="A24" s="476"/>
       <c r="B24" s="240" t="s">
         <v>289</v>
       </c>
       <c r="C24" s="240" t="s">
         <v>188</v>
       </c>
-      <c r="D24" s="489"/>
+      <c r="D24" s="482"/>
       <c r="E24" s="240" t="s">
         <v>53</v>
       </c>
@@ -13420,14 +13423,14 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="484"/>
+      <c r="A25" s="476"/>
       <c r="B25" s="243" t="s">
         <v>289</v>
       </c>
       <c r="C25" s="243" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="490"/>
+      <c r="D25" s="483"/>
       <c r="E25" s="243" t="s">
         <v>53</v>
       </c>
@@ -13436,18 +13439,18 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="484"/>
+      <c r="A26" s="476"/>
       <c r="F26" s="236"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="484"/>
+      <c r="A27" s="476"/>
       <c r="B27" s="237" t="s">
         <v>294</v>
       </c>
       <c r="C27" s="237" t="s">
         <v>295</v>
       </c>
-      <c r="D27" s="488"/>
+      <c r="D27" s="481"/>
       <c r="E27" s="237" t="s">
         <v>53</v>
       </c>
@@ -13456,14 +13459,14 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="484"/>
+      <c r="A28" s="476"/>
       <c r="B28" s="240" t="s">
         <v>294</v>
       </c>
       <c r="C28" s="240" t="s">
         <v>297</v>
       </c>
-      <c r="D28" s="489"/>
+      <c r="D28" s="482"/>
       <c r="E28" s="240" t="s">
         <v>53</v>
       </c>
@@ -13472,14 +13475,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="484"/>
+      <c r="A29" s="476"/>
       <c r="B29" s="240" t="s">
         <v>294</v>
       </c>
       <c r="C29" s="240" t="s">
         <v>299</v>
       </c>
-      <c r="D29" s="489"/>
+      <c r="D29" s="482"/>
       <c r="E29" s="240" t="s">
         <v>53</v>
       </c>
@@ -13488,14 +13491,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="484"/>
+      <c r="A30" s="476"/>
       <c r="B30" s="243" t="s">
         <v>294</v>
       </c>
       <c r="C30" s="243" t="s">
         <v>301</v>
       </c>
-      <c r="D30" s="490"/>
+      <c r="D30" s="483"/>
       <c r="E30" s="243" t="s">
         <v>53</v>
       </c>
@@ -13504,18 +13507,18 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="484"/>
+      <c r="A31" s="476"/>
       <c r="F31" s="236"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="484"/>
+      <c r="A32" s="476"/>
       <c r="B32" s="237" t="s">
         <v>289</v>
       </c>
       <c r="C32" s="237" t="s">
         <v>303</v>
       </c>
-      <c r="D32" s="488" t="s">
+      <c r="D32" s="481" t="s">
         <v>304</v>
       </c>
       <c r="E32" s="237" t="s">
@@ -13526,14 +13529,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="484"/>
+      <c r="A33" s="476"/>
       <c r="B33" s="240" t="s">
         <v>289</v>
       </c>
       <c r="C33" s="240" t="s">
         <v>306</v>
       </c>
-      <c r="D33" s="489"/>
+      <c r="D33" s="482"/>
       <c r="E33" s="240" t="s">
         <v>53</v>
       </c>
@@ -13542,14 +13545,14 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="484"/>
+      <c r="A34" s="476"/>
       <c r="B34" s="240" t="s">
         <v>289</v>
       </c>
       <c r="C34" s="240" t="s">
         <v>308</v>
       </c>
-      <c r="D34" s="489"/>
+      <c r="D34" s="482"/>
       <c r="E34" s="240" t="s">
         <v>53</v>
       </c>
@@ -13558,14 +13561,14 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="484"/>
+      <c r="A35" s="476"/>
       <c r="B35" s="243" t="s">
         <v>289</v>
       </c>
       <c r="C35" s="243" t="s">
         <v>310</v>
       </c>
-      <c r="D35" s="490"/>
+      <c r="D35" s="483"/>
       <c r="E35" s="243" t="s">
         <v>53</v>
       </c>
@@ -13574,18 +13577,18 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="484"/>
+      <c r="A36" s="476"/>
       <c r="F36" s="236"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="484"/>
+      <c r="A37" s="476"/>
       <c r="B37" s="237" t="s">
         <v>289</v>
       </c>
       <c r="C37" s="237" t="s">
         <v>312</v>
       </c>
-      <c r="D37" s="488"/>
+      <c r="D37" s="481"/>
       <c r="E37" s="237" t="s">
         <v>53</v>
       </c>
@@ -13594,14 +13597,14 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="484"/>
+      <c r="A38" s="476"/>
       <c r="B38" s="240" t="s">
         <v>289</v>
       </c>
       <c r="C38" s="240" t="s">
         <v>314</v>
       </c>
-      <c r="D38" s="489"/>
+      <c r="D38" s="482"/>
       <c r="E38" s="240" t="s">
         <v>53</v>
       </c>
@@ -13610,14 +13613,14 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="484"/>
+      <c r="A39" s="476"/>
       <c r="B39" s="240" t="s">
         <v>289</v>
       </c>
       <c r="C39" s="240" t="s">
         <v>316</v>
       </c>
-      <c r="D39" s="489"/>
+      <c r="D39" s="482"/>
       <c r="E39" s="240" t="s">
         <v>53</v>
       </c>
@@ -13626,14 +13629,14 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="484"/>
+      <c r="A40" s="476"/>
       <c r="B40" s="240" t="s">
         <v>289</v>
       </c>
       <c r="C40" s="240" t="s">
         <v>318</v>
       </c>
-      <c r="D40" s="489"/>
+      <c r="D40" s="482"/>
       <c r="E40" s="240" t="s">
         <v>53</v>
       </c>
@@ -13642,22 +13645,22 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="484"/>
+      <c r="A41" s="476"/>
       <c r="B41" s="240"/>
       <c r="C41" s="240"/>
-      <c r="D41" s="489"/>
+      <c r="D41" s="482"/>
       <c r="E41" s="240"/>
       <c r="F41" s="242"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="484"/>
+      <c r="A42" s="476"/>
       <c r="B42" s="240" t="s">
         <v>289</v>
       </c>
       <c r="C42" s="240" t="s">
         <v>320</v>
       </c>
-      <c r="D42" s="489"/>
+      <c r="D42" s="482"/>
       <c r="E42" s="240" t="s">
         <v>53</v>
       </c>
@@ -13666,14 +13669,14 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="484"/>
+      <c r="A43" s="476"/>
       <c r="B43" s="240" t="s">
         <v>289</v>
       </c>
       <c r="C43" s="240" t="s">
         <v>322</v>
       </c>
-      <c r="D43" s="489"/>
+      <c r="D43" s="482"/>
       <c r="E43" s="240" t="s">
         <v>53</v>
       </c>
@@ -13682,22 +13685,22 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="484"/>
+      <c r="A44" s="476"/>
       <c r="B44" s="240"/>
       <c r="C44" s="240"/>
-      <c r="D44" s="489"/>
+      <c r="D44" s="482"/>
       <c r="E44" s="240"/>
       <c r="F44" s="242"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="484"/>
+      <c r="A45" s="476"/>
       <c r="B45" s="243" t="s">
         <v>289</v>
       </c>
       <c r="C45" s="243" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="490"/>
+      <c r="D45" s="483"/>
       <c r="E45" s="243" t="s">
         <v>53</v>
       </c>
@@ -13706,18 +13709,18 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="484"/>
+      <c r="A46" s="476"/>
       <c r="F46" s="236"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="484"/>
+      <c r="A47" s="476"/>
       <c r="B47" s="237" t="s">
         <v>325</v>
       </c>
       <c r="C47" s="237" t="s">
         <v>326</v>
       </c>
-      <c r="D47" s="488"/>
+      <c r="D47" s="481"/>
       <c r="E47" s="237" t="s">
         <v>53</v>
       </c>
@@ -13726,14 +13729,14 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="484"/>
+      <c r="A48" s="476"/>
       <c r="B48" s="243" t="s">
         <v>325</v>
       </c>
       <c r="C48" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="490"/>
+      <c r="D48" s="483"/>
       <c r="E48" s="243" t="s">
         <v>53</v>
       </c>
@@ -13742,7 +13745,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="484"/>
+      <c r="A49" s="476"/>
       <c r="B49" s="245"/>
       <c r="C49" s="245"/>
       <c r="D49" s="246"/>
@@ -13750,7 +13753,7 @@
       <c r="F49" s="247"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="484"/>
+      <c r="A50" s="476"/>
       <c r="B50" s="237" t="s">
         <v>329</v>
       </c>
@@ -13766,7 +13769,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="484"/>
+      <c r="A51" s="476"/>
       <c r="B51" s="240" t="s">
         <v>329</v>
       </c>
@@ -13782,7 +13785,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="484"/>
+      <c r="A52" s="476"/>
       <c r="B52" s="240" t="s">
         <v>329</v>
       </c>
@@ -13798,14 +13801,14 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="484"/>
+      <c r="A53" s="476"/>
       <c r="B53" s="240" t="s">
         <v>329</v>
       </c>
       <c r="C53" s="240" t="s">
         <v>335</v>
       </c>
-      <c r="D53" s="491" t="s">
+      <c r="D53" s="484" t="s">
         <v>336</v>
       </c>
       <c r="E53" s="240" t="s">
@@ -13816,14 +13819,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="484"/>
+      <c r="A54" s="476"/>
       <c r="B54" s="243" t="s">
         <v>329</v>
       </c>
       <c r="C54" s="243" t="s">
         <v>338</v>
       </c>
-      <c r="D54" s="490"/>
+      <c r="D54" s="483"/>
       <c r="E54" s="243" t="s">
         <v>53</v>
       </c>
@@ -13832,7 +13835,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="484"/>
+      <c r="A55" s="476"/>
       <c r="B55" s="245"/>
       <c r="C55" s="245"/>
       <c r="D55" s="246"/>
@@ -13840,7 +13843,7 @@
       <c r="F55" s="247"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="484"/>
+      <c r="A56" s="476"/>
       <c r="B56" s="237" t="s">
         <v>340</v>
       </c>
@@ -13858,7 +13861,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="484"/>
+      <c r="A57" s="476"/>
       <c r="B57" s="240" t="s">
         <v>340</v>
       </c>
@@ -13876,7 +13879,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="484"/>
+      <c r="A58" s="476"/>
       <c r="B58" s="240" t="s">
         <v>340</v>
       </c>
@@ -13894,7 +13897,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="484"/>
+      <c r="A59" s="476"/>
       <c r="B59" s="240" t="s">
         <v>340</v>
       </c>
@@ -13910,7 +13913,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="484"/>
+      <c r="A60" s="476"/>
       <c r="B60" s="240" t="s">
         <v>340</v>
       </c>
@@ -13928,7 +13931,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="484"/>
+      <c r="A61" s="476"/>
       <c r="B61" s="240" t="s">
         <v>340</v>
       </c>
@@ -13944,7 +13947,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="484"/>
+      <c r="A62" s="476"/>
       <c r="B62" s="240" t="s">
         <v>355</v>
       </c>
@@ -13960,7 +13963,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="484"/>
+      <c r="A63" s="476"/>
       <c r="B63" s="240" t="s">
         <v>355</v>
       </c>
@@ -13976,7 +13979,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="484"/>
+      <c r="A64" s="476"/>
       <c r="B64" s="250" t="s">
         <v>355</v>
       </c>
@@ -13992,7 +13995,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="484"/>
+      <c r="A65" s="476"/>
       <c r="B65" s="250" t="s">
         <v>355</v>
       </c>
@@ -14008,7 +14011,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="484"/>
+      <c r="A66" s="476"/>
       <c r="B66" s="250" t="s">
         <v>355</v>
       </c>
@@ -14024,7 +14027,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="484"/>
+      <c r="A67" s="476"/>
       <c r="B67" s="250" t="s">
         <v>355</v>
       </c>
@@ -14040,7 +14043,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="484"/>
+      <c r="A68" s="476"/>
       <c r="B68" s="253" t="s">
         <v>355</v>
       </c>
@@ -14056,7 +14059,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="484"/>
+      <c r="A69" s="476"/>
       <c r="B69" s="245"/>
       <c r="C69" s="245"/>
       <c r="D69" s="246"/>
@@ -14064,14 +14067,14 @@
       <c r="F69" s="247"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="484"/>
+      <c r="A70" s="476"/>
       <c r="B70" s="237" t="s">
         <v>340</v>
       </c>
       <c r="C70" s="237" t="s">
         <v>366</v>
       </c>
-      <c r="D70" s="492" t="s">
+      <c r="D70" s="485" t="s">
         <v>367</v>
       </c>
       <c r="E70" s="237" t="s">
@@ -14082,14 +14085,14 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="484"/>
+      <c r="A71" s="476"/>
       <c r="B71" s="240" t="s">
         <v>340</v>
       </c>
       <c r="C71" s="240" t="s">
         <v>369</v>
       </c>
-      <c r="D71" s="489"/>
+      <c r="D71" s="482"/>
       <c r="E71" s="240" t="s">
         <v>53</v>
       </c>
@@ -14098,14 +14101,14 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72" s="484"/>
+      <c r="A72" s="476"/>
       <c r="B72" s="240" t="s">
         <v>340</v>
       </c>
       <c r="C72" s="240" t="s">
         <v>371</v>
       </c>
-      <c r="D72" s="489"/>
+      <c r="D72" s="482"/>
       <c r="E72" s="240" t="s">
         <v>53</v>
       </c>
@@ -14114,14 +14117,14 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="484"/>
+      <c r="A73" s="476"/>
       <c r="B73" s="240" t="s">
         <v>340</v>
       </c>
       <c r="C73" s="240" t="s">
         <v>373</v>
       </c>
-      <c r="D73" s="489"/>
+      <c r="D73" s="482"/>
       <c r="E73" s="240" t="s">
         <v>53</v>
       </c>
@@ -14130,14 +14133,14 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="484"/>
+      <c r="A74" s="476"/>
       <c r="B74" s="240" t="s">
         <v>340</v>
       </c>
       <c r="C74" s="240" t="s">
         <v>375</v>
       </c>
-      <c r="D74" s="489"/>
+      <c r="D74" s="482"/>
       <c r="E74" s="240" t="s">
         <v>53</v>
       </c>
@@ -14146,14 +14149,14 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="484"/>
+      <c r="A75" s="476"/>
       <c r="B75" s="240" t="s">
         <v>340</v>
       </c>
       <c r="C75" s="240" t="s">
         <v>377</v>
       </c>
-      <c r="D75" s="489"/>
+      <c r="D75" s="482"/>
       <c r="E75" s="240" t="s">
         <v>53</v>
       </c>
@@ -14162,7 +14165,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="484"/>
+      <c r="A76" s="476"/>
       <c r="B76" s="240"/>
       <c r="C76" s="240"/>
       <c r="D76" s="248"/>
@@ -14170,14 +14173,14 @@
       <c r="F76" s="242"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77" s="484"/>
+      <c r="A77" s="476"/>
       <c r="B77" s="240" t="s">
         <v>340</v>
       </c>
       <c r="C77" s="240" t="s">
         <v>379</v>
       </c>
-      <c r="D77" s="491" t="s">
+      <c r="D77" s="484" t="s">
         <v>336</v>
       </c>
       <c r="E77" s="240" t="s">
@@ -14188,14 +14191,14 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="484"/>
+      <c r="A78" s="476"/>
       <c r="B78" s="243" t="s">
         <v>340</v>
       </c>
       <c r="C78" s="243" t="s">
         <v>381</v>
       </c>
-      <c r="D78" s="490"/>
+      <c r="D78" s="483"/>
       <c r="E78" s="243" t="s">
         <v>53</v>
       </c>
@@ -14204,7 +14207,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="484"/>
+      <c r="A79" s="476"/>
       <c r="B79" s="245"/>
       <c r="C79" s="245"/>
       <c r="D79" s="246"/>
@@ -14212,7 +14215,7 @@
       <c r="F79" s="247"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="484"/>
+      <c r="A80" s="476"/>
       <c r="B80" s="237" t="s">
         <v>340</v>
       </c>
@@ -14230,7 +14233,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="484"/>
+      <c r="A81" s="476"/>
       <c r="B81" s="240"/>
       <c r="C81" s="240"/>
       <c r="D81" s="248"/>
@@ -14238,14 +14241,14 @@
       <c r="F81" s="242"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="484"/>
+      <c r="A82" s="476"/>
       <c r="B82" s="240" t="s">
         <v>340</v>
       </c>
       <c r="C82" s="240" t="s">
         <v>386</v>
       </c>
-      <c r="D82" s="493" t="s">
+      <c r="D82" s="486" t="s">
         <v>387</v>
       </c>
       <c r="E82" s="240" t="s">
@@ -14256,14 +14259,14 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="484"/>
+      <c r="A83" s="476"/>
       <c r="B83" s="240" t="s">
         <v>340</v>
       </c>
       <c r="C83" s="240" t="s">
         <v>389</v>
       </c>
-      <c r="D83" s="494"/>
+      <c r="D83" s="487"/>
       <c r="E83" s="240" t="s">
         <v>53</v>
       </c>
@@ -14272,14 +14275,14 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="484"/>
+      <c r="A84" s="476"/>
       <c r="B84" s="240" t="s">
         <v>340</v>
       </c>
       <c r="C84" s="240" t="s">
         <v>391</v>
       </c>
-      <c r="D84" s="494"/>
+      <c r="D84" s="487"/>
       <c r="E84" s="240" t="s">
         <v>53</v>
       </c>
@@ -14288,14 +14291,14 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="484"/>
+      <c r="A85" s="476"/>
       <c r="B85" s="240" t="s">
         <v>340</v>
       </c>
       <c r="C85" s="240" t="s">
         <v>393</v>
       </c>
-      <c r="D85" s="494"/>
+      <c r="D85" s="487"/>
       <c r="E85" s="240" t="s">
         <v>53</v>
       </c>
@@ -14304,7 +14307,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" s="484"/>
+      <c r="A86" s="476"/>
       <c r="B86" s="240"/>
       <c r="C86" s="240"/>
       <c r="D86" s="248"/>
@@ -14312,7 +14315,7 @@
       <c r="F86" s="242"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="484"/>
+      <c r="A87" s="476"/>
       <c r="B87" s="250" t="s">
         <v>340</v>
       </c>
@@ -14330,7 +14333,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" s="484"/>
+      <c r="A88" s="476"/>
       <c r="B88" s="240" t="s">
         <v>340</v>
       </c>
@@ -14348,7 +14351,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="484"/>
+      <c r="A89" s="476"/>
       <c r="B89" s="240" t="s">
         <v>329</v>
       </c>
@@ -14366,7 +14369,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90" s="484"/>
+      <c r="A90" s="476"/>
       <c r="B90" s="243" t="s">
         <v>329</v>
       </c>
@@ -14384,18 +14387,18 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A91" s="484"/>
+      <c r="A91" s="476"/>
       <c r="F91" s="236"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92" s="484"/>
+      <c r="A92" s="476"/>
       <c r="B92" s="237" t="s">
         <v>294</v>
       </c>
       <c r="C92" s="237" t="s">
         <v>407</v>
       </c>
-      <c r="D92" s="492" t="s">
+      <c r="D92" s="485" t="s">
         <v>336</v>
       </c>
       <c r="E92" s="237" t="s">
@@ -14406,14 +14409,14 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="484"/>
+      <c r="A93" s="476"/>
       <c r="B93" s="240" t="s">
         <v>294</v>
       </c>
       <c r="C93" s="240" t="s">
         <v>409</v>
       </c>
-      <c r="D93" s="489"/>
+      <c r="D93" s="482"/>
       <c r="E93" s="240" t="s">
         <v>53</v>
       </c>
@@ -14422,7 +14425,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="484"/>
+      <c r="A94" s="476"/>
       <c r="B94" s="240"/>
       <c r="C94" s="240"/>
       <c r="D94" s="248"/>
@@ -14430,14 +14433,14 @@
       <c r="F94" s="242"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95" s="484"/>
+      <c r="A95" s="476"/>
       <c r="B95" s="240" t="s">
         <v>340</v>
       </c>
       <c r="C95" s="240" t="s">
         <v>411</v>
       </c>
-      <c r="D95" s="491" t="s">
+      <c r="D95" s="484" t="s">
         <v>412</v>
       </c>
       <c r="E95" s="240" t="s">
@@ -14448,14 +14451,14 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="484"/>
+      <c r="A96" s="476"/>
       <c r="B96" s="240" t="s">
         <v>340</v>
       </c>
       <c r="C96" s="240" t="s">
         <v>414</v>
       </c>
-      <c r="D96" s="489"/>
+      <c r="D96" s="482"/>
       <c r="E96" s="240" t="s">
         <v>53</v>
       </c>
@@ -14464,14 +14467,14 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A97" s="484"/>
+      <c r="A97" s="476"/>
       <c r="B97" s="240" t="s">
         <v>340</v>
       </c>
       <c r="C97" s="240" t="s">
         <v>416</v>
       </c>
-      <c r="D97" s="489"/>
+      <c r="D97" s="482"/>
       <c r="E97" s="240" t="s">
         <v>53</v>
       </c>
@@ -14480,14 +14483,14 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A98" s="484"/>
+      <c r="A98" s="476"/>
       <c r="B98" s="243" t="s">
         <v>340</v>
       </c>
       <c r="C98" s="243" t="s">
         <v>418</v>
       </c>
-      <c r="D98" s="490"/>
+      <c r="D98" s="483"/>
       <c r="E98" s="243" t="s">
         <v>53</v>
       </c>
@@ -14496,18 +14499,18 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99" s="484"/>
+      <c r="A99" s="476"/>
       <c r="F99" s="236"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A100" s="484"/>
+      <c r="A100" s="476"/>
       <c r="B100" s="237" t="s">
         <v>329</v>
       </c>
       <c r="C100" s="237" t="s">
         <v>420</v>
       </c>
-      <c r="D100" s="488"/>
+      <c r="D100" s="481"/>
       <c r="E100" s="237" t="s">
         <v>53</v>
       </c>
@@ -14516,14 +14519,14 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A101" s="484"/>
+      <c r="A101" s="476"/>
       <c r="B101" s="240" t="s">
         <v>329</v>
       </c>
       <c r="C101" s="240" t="s">
         <v>422</v>
       </c>
-      <c r="D101" s="489"/>
+      <c r="D101" s="482"/>
       <c r="E101" s="240" t="s">
         <v>53</v>
       </c>
@@ -14532,14 +14535,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A102" s="484"/>
+      <c r="A102" s="476"/>
       <c r="B102" s="240" t="s">
         <v>329</v>
       </c>
       <c r="C102" s="240" t="s">
         <v>424</v>
       </c>
-      <c r="D102" s="489"/>
+      <c r="D102" s="482"/>
       <c r="E102" s="240" t="s">
         <v>53</v>
       </c>
@@ -14548,14 +14551,14 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A103" s="484"/>
+      <c r="A103" s="476"/>
       <c r="B103" s="240" t="s">
         <v>329</v>
       </c>
       <c r="C103" s="240" t="s">
         <v>426</v>
       </c>
-      <c r="D103" s="489"/>
+      <c r="D103" s="482"/>
       <c r="E103" s="240" t="s">
         <v>53</v>
       </c>
@@ -14564,14 +14567,14 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A104" s="484"/>
+      <c r="A104" s="476"/>
       <c r="B104" s="240" t="s">
         <v>329</v>
       </c>
       <c r="C104" s="240" t="s">
         <v>428</v>
       </c>
-      <c r="D104" s="489"/>
+      <c r="D104" s="482"/>
       <c r="E104" s="240" t="s">
         <v>53</v>
       </c>
@@ -14580,14 +14583,14 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A105" s="484"/>
+      <c r="A105" s="476"/>
       <c r="B105" s="240" t="s">
         <v>329</v>
       </c>
       <c r="C105" s="240" t="s">
         <v>430</v>
       </c>
-      <c r="D105" s="489"/>
+      <c r="D105" s="482"/>
       <c r="E105" s="240" t="s">
         <v>53</v>
       </c>
@@ -14596,14 +14599,14 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A106" s="484"/>
+      <c r="A106" s="476"/>
       <c r="B106" s="240" t="s">
         <v>329</v>
       </c>
       <c r="C106" s="240" t="s">
         <v>432</v>
       </c>
-      <c r="D106" s="489"/>
+      <c r="D106" s="482"/>
       <c r="E106" s="240" t="s">
         <v>53</v>
       </c>
@@ -14612,14 +14615,14 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A107" s="484"/>
+      <c r="A107" s="476"/>
       <c r="B107" s="240" t="s">
         <v>329</v>
       </c>
       <c r="C107" s="240" t="s">
         <v>434</v>
       </c>
-      <c r="D107" s="489"/>
+      <c r="D107" s="482"/>
       <c r="E107" s="240" t="s">
         <v>53</v>
       </c>
@@ -14628,14 +14631,14 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A108" s="484"/>
+      <c r="A108" s="476"/>
       <c r="B108" s="240" t="s">
         <v>329</v>
       </c>
       <c r="C108" s="240" t="s">
         <v>436</v>
       </c>
-      <c r="D108" s="489"/>
+      <c r="D108" s="482"/>
       <c r="E108" s="240" t="s">
         <v>53</v>
       </c>
@@ -14644,7 +14647,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A109" s="484"/>
+      <c r="A109" s="476"/>
       <c r="B109" s="240"/>
       <c r="C109" s="240"/>
       <c r="D109" s="241"/>
@@ -14652,7 +14655,7 @@
       <c r="F109" s="242"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A110" s="484"/>
+      <c r="A110" s="476"/>
       <c r="B110" s="240" t="s">
         <v>329</v>
       </c>
@@ -14670,7 +14673,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A111" s="484"/>
+      <c r="A111" s="476"/>
       <c r="B111" s="240" t="s">
         <v>329</v>
       </c>
@@ -14688,7 +14691,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A112" s="484"/>
+      <c r="A112" s="476"/>
       <c r="B112" s="240"/>
       <c r="C112" s="240"/>
       <c r="D112" s="248"/>
@@ -14696,7 +14699,7 @@
       <c r="F112" s="258"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A113" s="484"/>
+      <c r="A113" s="476"/>
       <c r="B113" s="240" t="s">
         <v>444</v>
       </c>
@@ -14714,7 +14717,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A114" s="484"/>
+      <c r="A114" s="476"/>
       <c r="B114" s="240" t="s">
         <v>444</v>
       </c>
@@ -14732,7 +14735,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A115" s="484"/>
+      <c r="A115" s="476"/>
       <c r="B115" s="240" t="s">
         <v>444</v>
       </c>
@@ -14750,7 +14753,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A116" s="484"/>
+      <c r="A116" s="476"/>
       <c r="B116" s="240"/>
       <c r="C116" s="259"/>
       <c r="D116" s="260"/>
@@ -14758,7 +14761,7 @@
       <c r="F116" s="242"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A117" s="484"/>
+      <c r="A117" s="476"/>
       <c r="B117" s="240" t="s">
         <v>329</v>
       </c>
@@ -14776,7 +14779,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A118" s="484"/>
+      <c r="A118" s="476"/>
       <c r="B118" s="240" t="s">
         <v>329</v>
       </c>
@@ -14794,7 +14797,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A119" s="484"/>
+      <c r="A119" s="476"/>
       <c r="B119" s="240" t="s">
         <v>329</v>
       </c>
@@ -14812,7 +14815,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A120" s="484"/>
+      <c r="A120" s="476"/>
       <c r="B120" s="240" t="s">
         <v>329</v>
       </c>
@@ -14830,7 +14833,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A121" s="484"/>
+      <c r="A121" s="476"/>
       <c r="B121" s="240" t="s">
         <v>329</v>
       </c>
@@ -14848,7 +14851,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A122" s="484"/>
+      <c r="A122" s="476"/>
       <c r="B122" s="240" t="s">
         <v>329</v>
       </c>
@@ -14866,7 +14869,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A123" s="484"/>
+      <c r="A123" s="476"/>
       <c r="B123" s="243" t="s">
         <v>329</v>
       </c>
@@ -14884,11 +14887,11 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A124" s="484"/>
+      <c r="A124" s="476"/>
       <c r="F124" s="236"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A125" s="484"/>
+      <c r="A125" s="476"/>
       <c r="B125" s="237" t="s">
         <v>472</v>
       </c>
@@ -14906,14 +14909,14 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A126" s="484"/>
+      <c r="A126" s="476"/>
       <c r="B126" s="240" t="s">
         <v>472</v>
       </c>
       <c r="C126" s="240" t="s">
         <v>476</v>
       </c>
-      <c r="D126" s="476" t="s">
+      <c r="D126" s="488" t="s">
         <v>477</v>
       </c>
       <c r="E126" s="240" t="s">
@@ -14924,14 +14927,14 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A127" s="484"/>
+      <c r="A127" s="476"/>
       <c r="B127" s="240" t="s">
         <v>472</v>
       </c>
       <c r="C127" s="240" t="s">
         <v>479</v>
       </c>
-      <c r="D127" s="476"/>
+      <c r="D127" s="488"/>
       <c r="E127" s="240" t="s">
         <v>53</v>
       </c>
@@ -14940,14 +14943,14 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A128" s="484"/>
+      <c r="A128" s="476"/>
       <c r="B128" s="240" t="s">
         <v>472</v>
       </c>
       <c r="C128" s="240" t="s">
         <v>481</v>
       </c>
-      <c r="D128" s="476" t="s">
+      <c r="D128" s="488" t="s">
         <v>482</v>
       </c>
       <c r="E128" s="240" t="s">
@@ -14958,14 +14961,14 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A129" s="484"/>
+      <c r="A129" s="476"/>
       <c r="B129" s="240" t="s">
         <v>472</v>
       </c>
       <c r="C129" s="240" t="s">
         <v>484</v>
       </c>
-      <c r="D129" s="476"/>
+      <c r="D129" s="488"/>
       <c r="E129" s="240" t="s">
         <v>53</v>
       </c>
@@ -14974,14 +14977,14 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A130" s="484"/>
+      <c r="A130" s="476"/>
       <c r="B130" s="240" t="s">
         <v>472</v>
       </c>
       <c r="C130" s="240" t="s">
         <v>486</v>
       </c>
-      <c r="D130" s="476" t="s">
+      <c r="D130" s="488" t="s">
         <v>487</v>
       </c>
       <c r="E130" s="240" t="s">
@@ -14992,14 +14995,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A131" s="484"/>
+      <c r="A131" s="476"/>
       <c r="B131" s="240" t="s">
         <v>472</v>
       </c>
       <c r="C131" s="240" t="s">
         <v>489</v>
       </c>
-      <c r="D131" s="476"/>
+      <c r="D131" s="488"/>
       <c r="E131" s="240" t="s">
         <v>53</v>
       </c>
@@ -15008,7 +15011,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A132" s="484"/>
+      <c r="A132" s="476"/>
       <c r="B132" s="240" t="s">
         <v>472</v>
       </c>
@@ -15026,14 +15029,14 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A133" s="484"/>
+      <c r="A133" s="476"/>
       <c r="B133" s="240" t="s">
         <v>472</v>
       </c>
       <c r="C133" s="240" t="s">
         <v>494</v>
       </c>
-      <c r="D133" s="476" t="s">
+      <c r="D133" s="488" t="s">
         <v>495</v>
       </c>
       <c r="E133" s="240" t="s">
@@ -15044,14 +15047,14 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A134" s="484"/>
+      <c r="A134" s="476"/>
       <c r="B134" s="243" t="s">
         <v>472</v>
       </c>
       <c r="C134" s="243" t="s">
         <v>497</v>
       </c>
-      <c r="D134" s="477"/>
+      <c r="D134" s="489"/>
       <c r="E134" s="243" t="s">
         <v>53</v>
       </c>
@@ -15060,18 +15063,18 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A135" s="484"/>
+      <c r="A135" s="476"/>
       <c r="F135" s="236"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A136" s="484"/>
+      <c r="A136" s="476"/>
       <c r="B136" s="180" t="s">
         <v>499</v>
       </c>
       <c r="C136" s="62" t="s">
         <v>500</v>
       </c>
-      <c r="D136" s="478" t="s">
+      <c r="D136" s="490" t="s">
         <v>501</v>
       </c>
       <c r="E136" s="62" t="s">
@@ -15082,14 +15085,14 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A137" s="484"/>
+      <c r="A137" s="476"/>
       <c r="B137" s="229" t="s">
         <v>499</v>
       </c>
       <c r="C137" s="66" t="s">
         <v>503</v>
       </c>
-      <c r="D137" s="479"/>
+      <c r="D137" s="491"/>
       <c r="E137" s="66" t="s">
         <v>53</v>
       </c>
@@ -15098,14 +15101,14 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A138" s="484"/>
+      <c r="A138" s="476"/>
       <c r="B138" s="229" t="s">
         <v>499</v>
       </c>
       <c r="C138" s="66" t="s">
         <v>505</v>
       </c>
-      <c r="D138" s="479"/>
+      <c r="D138" s="491"/>
       <c r="E138" s="66" t="s">
         <v>53</v>
       </c>
@@ -15114,14 +15117,14 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A139" s="484"/>
+      <c r="A139" s="476"/>
       <c r="B139" s="229" t="s">
         <v>499</v>
       </c>
       <c r="C139" s="66" t="s">
         <v>507</v>
       </c>
-      <c r="D139" s="479"/>
+      <c r="D139" s="491"/>
       <c r="E139" s="66" t="s">
         <v>53</v>
       </c>
@@ -15130,7 +15133,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A140" s="484"/>
+      <c r="A140" s="476"/>
       <c r="B140" s="229" t="s">
         <v>499</v>
       </c>
@@ -15148,7 +15151,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A141" s="484"/>
+      <c r="A141" s="476"/>
       <c r="B141" s="229" t="s">
         <v>499</v>
       </c>
@@ -15166,7 +15169,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A142" s="484"/>
+      <c r="A142" s="476"/>
       <c r="B142" s="229" t="s">
         <v>499</v>
       </c>
@@ -15182,7 +15185,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A143" s="484"/>
+      <c r="A143" s="476"/>
       <c r="B143" s="229" t="s">
         <v>499</v>
       </c>
@@ -15198,7 +15201,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A144" s="484"/>
+      <c r="A144" s="476"/>
       <c r="B144" s="229" t="s">
         <v>499</v>
       </c>
@@ -15216,7 +15219,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A145" s="484"/>
+      <c r="A145" s="476"/>
       <c r="B145" s="262" t="s">
         <v>499</v>
       </c>
@@ -15234,11 +15237,11 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A146" s="484"/>
+      <c r="A146" s="476"/>
       <c r="F146" s="263"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A147" s="484"/>
+      <c r="A147" s="476"/>
       <c r="B147" s="61" t="s">
         <v>525</v>
       </c>
@@ -15256,14 +15259,14 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A148" s="484"/>
+      <c r="A148" s="476"/>
       <c r="B148" s="65" t="s">
         <v>525</v>
       </c>
       <c r="C148" s="66" t="s">
         <v>529</v>
       </c>
-      <c r="D148" s="472" t="s">
+      <c r="D148" s="492" t="s">
         <v>530</v>
       </c>
       <c r="E148" s="66" t="s">
@@ -15274,14 +15277,14 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A149" s="484"/>
+      <c r="A149" s="476"/>
       <c r="B149" s="65" t="s">
         <v>525</v>
       </c>
       <c r="C149" s="66" t="s">
         <v>532</v>
       </c>
-      <c r="D149" s="475"/>
+      <c r="D149" s="480"/>
       <c r="E149" s="66" t="s">
         <v>53</v>
       </c>
@@ -15290,14 +15293,14 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A150" s="484"/>
+      <c r="A150" s="476"/>
       <c r="B150" s="65" t="s">
         <v>525</v>
       </c>
       <c r="C150" s="66" t="s">
         <v>534</v>
       </c>
-      <c r="D150" s="472" t="s">
+      <c r="D150" s="492" t="s">
         <v>535</v>
       </c>
       <c r="E150" s="66" t="s">
@@ -15308,14 +15311,14 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A151" s="484"/>
+      <c r="A151" s="476"/>
       <c r="B151" s="65" t="s">
         <v>525</v>
       </c>
       <c r="C151" s="66" t="s">
         <v>537</v>
       </c>
-      <c r="D151" s="475"/>
+      <c r="D151" s="480"/>
       <c r="E151" s="66" t="s">
         <v>53</v>
       </c>
@@ -15324,14 +15327,14 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A152" s="484"/>
+      <c r="A152" s="476"/>
       <c r="B152" s="65" t="s">
         <v>525</v>
       </c>
       <c r="C152" s="66" t="s">
         <v>539</v>
       </c>
-      <c r="D152" s="472" t="s">
+      <c r="D152" s="492" t="s">
         <v>540</v>
       </c>
       <c r="E152" s="66" t="s">
@@ -15342,14 +15345,14 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A153" s="484"/>
+      <c r="A153" s="476"/>
       <c r="B153" s="65" t="s">
         <v>525</v>
       </c>
       <c r="C153" s="66" t="s">
         <v>542</v>
       </c>
-      <c r="D153" s="475"/>
+      <c r="D153" s="480"/>
       <c r="E153" s="66" t="s">
         <v>53</v>
       </c>
@@ -15358,14 +15361,14 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A154" s="484"/>
+      <c r="A154" s="476"/>
       <c r="B154" s="65" t="s">
         <v>525</v>
       </c>
       <c r="C154" s="66" t="s">
         <v>544</v>
       </c>
-      <c r="D154" s="475"/>
+      <c r="D154" s="480"/>
       <c r="E154" s="66" t="s">
         <v>53</v>
       </c>
@@ -15374,14 +15377,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A155" s="484"/>
+      <c r="A155" s="476"/>
       <c r="B155" s="65" t="s">
         <v>525</v>
       </c>
       <c r="C155" s="66" t="s">
         <v>546</v>
       </c>
-      <c r="D155" s="475"/>
+      <c r="D155" s="480"/>
       <c r="E155" s="66" t="s">
         <v>53</v>
       </c>
@@ -15390,7 +15393,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A156" s="484"/>
+      <c r="A156" s="476"/>
       <c r="B156" s="65" t="s">
         <v>525</v>
       </c>
@@ -15408,7 +15411,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A157" s="484"/>
+      <c r="A157" s="476"/>
       <c r="B157" s="65" t="s">
         <v>525</v>
       </c>
@@ -15426,14 +15429,14 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A158" s="484"/>
+      <c r="A158" s="476"/>
       <c r="B158" s="65" t="s">
         <v>525</v>
       </c>
       <c r="C158" s="66" t="s">
         <v>554</v>
       </c>
-      <c r="D158" s="472" t="s">
+      <c r="D158" s="492" t="s">
         <v>555</v>
       </c>
       <c r="E158" s="66" t="s">
@@ -15444,14 +15447,14 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A159" s="484"/>
+      <c r="A159" s="476"/>
       <c r="B159" s="65" t="s">
         <v>525</v>
       </c>
       <c r="C159" s="66" t="s">
         <v>557</v>
       </c>
-      <c r="D159" s="475"/>
+      <c r="D159" s="480"/>
       <c r="E159" s="66" t="s">
         <v>53</v>
       </c>
@@ -15460,14 +15463,14 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A160" s="484"/>
+      <c r="A160" s="476"/>
       <c r="B160" s="65" t="s">
         <v>525</v>
       </c>
       <c r="C160" s="66" t="s">
         <v>559</v>
       </c>
-      <c r="D160" s="472" t="s">
+      <c r="D160" s="492" t="s">
         <v>560</v>
       </c>
       <c r="E160" s="66" t="s">
@@ -15478,14 +15481,14 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A161" s="484"/>
+      <c r="A161" s="476"/>
       <c r="B161" s="65" t="s">
         <v>525</v>
       </c>
       <c r="C161" s="66" t="s">
         <v>562</v>
       </c>
-      <c r="D161" s="475"/>
+      <c r="D161" s="480"/>
       <c r="E161" s="66" t="s">
         <v>53</v>
       </c>
@@ -15494,7 +15497,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A162" s="484"/>
+      <c r="A162" s="476"/>
       <c r="B162" s="65" t="s">
         <v>525</v>
       </c>
@@ -15512,14 +15515,14 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A163" s="484"/>
+      <c r="A163" s="476"/>
       <c r="B163" s="65" t="s">
         <v>525</v>
       </c>
       <c r="C163" s="66" t="s">
         <v>567</v>
       </c>
-      <c r="D163" s="472" t="s">
+      <c r="D163" s="492" t="s">
         <v>568</v>
       </c>
       <c r="E163" s="66" t="s">
@@ -15530,14 +15533,14 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A164" s="484"/>
+      <c r="A164" s="476"/>
       <c r="B164" s="108" t="s">
         <v>525</v>
       </c>
       <c r="C164" s="77" t="s">
         <v>569</v>
       </c>
-      <c r="D164" s="473"/>
+      <c r="D164" s="493"/>
       <c r="E164" s="77" t="s">
         <v>53</v>
       </c>
@@ -15546,11 +15549,11 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A165" s="484"/>
+      <c r="A165" s="476"/>
       <c r="F165" s="280"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A166" s="484"/>
+      <c r="A166" s="476"/>
       <c r="B166" s="61" t="s">
         <v>571</v>
       </c>
@@ -15568,14 +15571,14 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A167" s="484"/>
+      <c r="A167" s="476"/>
       <c r="B167" s="65" t="s">
         <v>571</v>
       </c>
       <c r="C167" s="66" t="s">
         <v>574</v>
       </c>
-      <c r="D167" s="472" t="s">
+      <c r="D167" s="492" t="s">
         <v>530</v>
       </c>
       <c r="E167" s="66" t="s">
@@ -15586,14 +15589,14 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A168" s="484"/>
+      <c r="A168" s="476"/>
       <c r="B168" s="65" t="s">
         <v>571</v>
       </c>
       <c r="C168" s="66" t="s">
         <v>576</v>
       </c>
-      <c r="D168" s="475"/>
+      <c r="D168" s="480"/>
       <c r="E168" s="66" t="s">
         <v>53</v>
       </c>
@@ -15602,14 +15605,14 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A169" s="484"/>
+      <c r="A169" s="476"/>
       <c r="B169" s="65" t="s">
         <v>571</v>
       </c>
       <c r="C169" s="66" t="s">
         <v>578</v>
       </c>
-      <c r="D169" s="472" t="s">
+      <c r="D169" s="492" t="s">
         <v>535</v>
       </c>
       <c r="E169" s="66" t="s">
@@ -15620,14 +15623,14 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A170" s="484"/>
+      <c r="A170" s="476"/>
       <c r="B170" s="65" t="s">
         <v>571</v>
       </c>
       <c r="C170" s="66" t="s">
         <v>580</v>
       </c>
-      <c r="D170" s="475"/>
+      <c r="D170" s="480"/>
       <c r="E170" s="66" t="s">
         <v>53</v>
       </c>
@@ -15636,14 +15639,14 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A171" s="484"/>
+      <c r="A171" s="476"/>
       <c r="B171" s="65" t="s">
         <v>571</v>
       </c>
       <c r="C171" s="66" t="s">
         <v>582</v>
       </c>
-      <c r="D171" s="472" t="s">
+      <c r="D171" s="492" t="s">
         <v>540</v>
       </c>
       <c r="E171" s="66" t="s">
@@ -15654,14 +15657,14 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A172" s="484"/>
+      <c r="A172" s="476"/>
       <c r="B172" s="65" t="s">
         <v>571</v>
       </c>
       <c r="C172" s="66" t="s">
         <v>584</v>
       </c>
-      <c r="D172" s="475"/>
+      <c r="D172" s="480"/>
       <c r="E172" s="66" t="s">
         <v>53</v>
       </c>
@@ -15670,14 +15673,14 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A173" s="484"/>
+      <c r="A173" s="476"/>
       <c r="B173" s="65" t="s">
         <v>571</v>
       </c>
       <c r="C173" s="66" t="s">
         <v>586</v>
       </c>
-      <c r="D173" s="475"/>
+      <c r="D173" s="480"/>
       <c r="E173" s="66" t="s">
         <v>53</v>
       </c>
@@ -15686,14 +15689,14 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A174" s="484"/>
+      <c r="A174" s="476"/>
       <c r="B174" s="65" t="s">
         <v>571</v>
       </c>
       <c r="C174" s="66" t="s">
         <v>588</v>
       </c>
-      <c r="D174" s="475"/>
+      <c r="D174" s="480"/>
       <c r="E174" s="66" t="s">
         <v>53</v>
       </c>
@@ -15702,7 +15705,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A175" s="484"/>
+      <c r="A175" s="476"/>
       <c r="B175" s="65" t="s">
         <v>571</v>
       </c>
@@ -15720,14 +15723,14 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A176" s="484"/>
+      <c r="A176" s="476"/>
       <c r="B176" s="65" t="s">
         <v>571</v>
       </c>
       <c r="C176" s="66" t="s">
         <v>592</v>
       </c>
-      <c r="D176" s="472" t="s">
+      <c r="D176" s="492" t="s">
         <v>555</v>
       </c>
       <c r="E176" s="66" t="s">
@@ -15738,14 +15741,14 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A177" s="484"/>
+      <c r="A177" s="476"/>
       <c r="B177" s="65" t="s">
         <v>571</v>
       </c>
       <c r="C177" s="66" t="s">
         <v>594</v>
       </c>
-      <c r="D177" s="475"/>
+      <c r="D177" s="480"/>
       <c r="E177" s="66" t="s">
         <v>53</v>
       </c>
@@ -15754,14 +15757,14 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A178" s="484"/>
+      <c r="A178" s="476"/>
       <c r="B178" s="65" t="s">
         <v>571</v>
       </c>
       <c r="C178" s="66" t="s">
         <v>596</v>
       </c>
-      <c r="D178" s="472" t="s">
+      <c r="D178" s="492" t="s">
         <v>560</v>
       </c>
       <c r="E178" s="66" t="s">
@@ -15772,14 +15775,14 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A179" s="484"/>
+      <c r="A179" s="476"/>
       <c r="B179" s="65" t="s">
         <v>571</v>
       </c>
       <c r="C179" s="66" t="s">
         <v>597</v>
       </c>
-      <c r="D179" s="475"/>
+      <c r="D179" s="480"/>
       <c r="E179" s="66" t="s">
         <v>53</v>
       </c>
@@ -15788,7 +15791,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A180" s="484"/>
+      <c r="A180" s="476"/>
       <c r="B180" s="65" t="s">
         <v>571</v>
       </c>
@@ -15806,14 +15809,14 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A181" s="484"/>
+      <c r="A181" s="476"/>
       <c r="B181" s="65" t="s">
         <v>571</v>
       </c>
       <c r="C181" s="66" t="s">
         <v>601</v>
       </c>
-      <c r="D181" s="472" t="s">
+      <c r="D181" s="492" t="s">
         <v>568</v>
       </c>
       <c r="E181" s="66" t="s">
@@ -15824,14 +15827,14 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A182" s="484"/>
+      <c r="A182" s="476"/>
       <c r="B182" s="108" t="s">
         <v>571</v>
       </c>
       <c r="C182" s="77" t="s">
         <v>603</v>
       </c>
-      <c r="D182" s="473"/>
+      <c r="D182" s="493"/>
       <c r="E182" s="77" t="s">
         <v>53</v>
       </c>
@@ -15840,11 +15843,11 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A183" s="484"/>
+      <c r="A183" s="476"/>
       <c r="F183" s="297"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A184" s="484"/>
+      <c r="A184" s="476"/>
       <c r="B184" s="61" t="s">
         <v>605</v>
       </c>
@@ -15862,7 +15865,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A185" s="484"/>
+      <c r="A185" s="476"/>
       <c r="B185" s="65" t="s">
         <v>605</v>
       </c>
@@ -15880,7 +15883,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A186" s="484"/>
+      <c r="A186" s="476"/>
       <c r="B186" s="65"/>
       <c r="C186" s="66"/>
       <c r="D186" s="67"/>
@@ -15888,7 +15891,7 @@
       <c r="F186" s="107"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A187" s="484"/>
+      <c r="A187" s="476"/>
       <c r="B187" s="65" t="s">
         <v>605</v>
       </c>
@@ -15906,7 +15909,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A188" s="484"/>
+      <c r="A188" s="476"/>
       <c r="B188" s="65" t="s">
         <v>605</v>
       </c>
@@ -15924,7 +15927,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A189" s="484"/>
+      <c r="A189" s="476"/>
       <c r="B189" s="65" t="s">
         <v>605</v>
       </c>
@@ -15942,7 +15945,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A190" s="484"/>
+      <c r="A190" s="476"/>
       <c r="B190" s="65" t="s">
         <v>605</v>
       </c>
@@ -15960,7 +15963,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A191" s="484"/>
+      <c r="A191" s="476"/>
       <c r="B191" s="65" t="s">
         <v>605</v>
       </c>
@@ -15978,7 +15981,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A192" s="484"/>
+      <c r="A192" s="476"/>
       <c r="B192" s="65" t="s">
         <v>605</v>
       </c>
@@ -15996,7 +15999,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A193" s="484"/>
+      <c r="A193" s="476"/>
       <c r="B193" s="65"/>
       <c r="C193" s="66"/>
       <c r="D193" s="67"/>
@@ -16004,7 +16007,7 @@
       <c r="F193" s="107"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A194" s="484"/>
+      <c r="A194" s="476"/>
       <c r="B194" s="65" t="s">
         <v>605</v>
       </c>
@@ -16022,7 +16025,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A195" s="484"/>
+      <c r="A195" s="476"/>
       <c r="B195" s="65" t="s">
         <v>605</v>
       </c>
@@ -16040,7 +16043,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A196" s="484"/>
+      <c r="A196" s="476"/>
       <c r="B196" s="65" t="s">
         <v>605</v>
       </c>
@@ -16058,7 +16061,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A197" s="484"/>
+      <c r="A197" s="476"/>
       <c r="B197" s="65" t="s">
         <v>605</v>
       </c>
@@ -16074,7 +16077,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A198" s="484"/>
+      <c r="A198" s="476"/>
       <c r="B198" s="65" t="s">
         <v>605</v>
       </c>
@@ -16090,7 +16093,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A199" s="484"/>
+      <c r="A199" s="476"/>
       <c r="B199" s="108" t="s">
         <v>605</v>
       </c>
@@ -16106,11 +16109,11 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A200" s="484"/>
+      <c r="A200" s="476"/>
       <c r="F200" s="236"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A201" s="484"/>
+      <c r="A201" s="476"/>
       <c r="B201" s="61" t="s">
         <v>642</v>
       </c>
@@ -16126,7 +16129,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A202" s="484"/>
+      <c r="A202" s="476"/>
       <c r="B202" s="65"/>
       <c r="C202" s="66"/>
       <c r="D202" s="67"/>
@@ -16134,7 +16137,7 @@
       <c r="F202" s="107"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A203" s="484"/>
+      <c r="A203" s="476"/>
       <c r="B203" s="65" t="s">
         <v>642</v>
       </c>
@@ -16150,7 +16153,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A204" s="484"/>
+      <c r="A204" s="476"/>
       <c r="B204" s="65" t="s">
         <v>642</v>
       </c>
@@ -16166,7 +16169,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A205" s="484"/>
+      <c r="A205" s="476"/>
       <c r="B205" s="65"/>
       <c r="C205" s="66"/>
       <c r="D205" s="67"/>
@@ -16174,7 +16177,7 @@
       <c r="F205" s="107"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A206" s="484"/>
+      <c r="A206" s="476"/>
       <c r="B206" s="65" t="s">
         <v>642</v>
       </c>
@@ -16190,7 +16193,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A207" s="484"/>
+      <c r="A207" s="476"/>
       <c r="B207" s="65" t="s">
         <v>642</v>
       </c>
@@ -16206,7 +16209,7 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A208" s="484"/>
+      <c r="A208" s="476"/>
       <c r="B208" s="65" t="s">
         <v>642</v>
       </c>
@@ -16222,7 +16225,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A209" s="484"/>
+      <c r="A209" s="476"/>
       <c r="B209" s="65" t="s">
         <v>642</v>
       </c>
@@ -16238,7 +16241,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A210" s="484"/>
+      <c r="A210" s="476"/>
       <c r="B210" s="65" t="s">
         <v>642</v>
       </c>
@@ -16254,7 +16257,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A211" s="484"/>
+      <c r="A211" s="476"/>
       <c r="B211" s="65" t="s">
         <v>642</v>
       </c>
@@ -16270,7 +16273,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A212" s="484"/>
+      <c r="A212" s="476"/>
       <c r="B212" s="65" t="s">
         <v>642</v>
       </c>
@@ -16286,7 +16289,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A213" s="484"/>
+      <c r="A213" s="476"/>
       <c r="B213" s="65"/>
       <c r="C213" s="66"/>
       <c r="D213" s="67"/>
@@ -16294,7 +16297,7 @@
       <c r="F213" s="107"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A214" s="484"/>
+      <c r="A214" s="476"/>
       <c r="B214" s="65" t="s">
         <v>642</v>
       </c>
@@ -16310,7 +16313,7 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A215" s="484"/>
+      <c r="A215" s="476"/>
       <c r="B215" s="65" t="s">
         <v>642</v>
       </c>
@@ -16326,7 +16329,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A216" s="484"/>
+      <c r="A216" s="476"/>
       <c r="B216" s="65"/>
       <c r="C216" s="66"/>
       <c r="D216" s="67"/>
@@ -16334,7 +16337,7 @@
       <c r="F216" s="107"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A217" s="484"/>
+      <c r="A217" s="476"/>
       <c r="B217" s="65" t="s">
         <v>642</v>
       </c>
@@ -16350,7 +16353,7 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A218" s="484"/>
+      <c r="A218" s="476"/>
       <c r="B218" s="65" t="s">
         <v>642</v>
       </c>
@@ -16366,7 +16369,7 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A219" s="484"/>
+      <c r="A219" s="476"/>
       <c r="B219" s="65" t="s">
         <v>642</v>
       </c>
@@ -16382,7 +16385,7 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A220" s="484"/>
+      <c r="A220" s="476"/>
       <c r="B220" s="65" t="s">
         <v>642</v>
       </c>
@@ -16398,7 +16401,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A221" s="484"/>
+      <c r="A221" s="476"/>
       <c r="B221" s="65" t="s">
         <v>642</v>
       </c>
@@ -16414,7 +16417,7 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A222" s="484"/>
+      <c r="A222" s="476"/>
       <c r="B222" s="65" t="s">
         <v>642</v>
       </c>
@@ -16430,7 +16433,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A223" s="484"/>
+      <c r="A223" s="476"/>
       <c r="B223" s="65" t="s">
         <v>642</v>
       </c>
@@ -16446,7 +16449,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A224" s="484"/>
+      <c r="A224" s="476"/>
       <c r="B224" s="65" t="s">
         <v>642</v>
       </c>
@@ -16462,7 +16465,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A225" s="484"/>
+      <c r="A225" s="476"/>
       <c r="B225" s="65" t="s">
         <v>642</v>
       </c>
@@ -16478,7 +16481,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A226" s="484"/>
+      <c r="A226" s="476"/>
       <c r="B226" s="65"/>
       <c r="C226" s="66"/>
       <c r="D226" s="67"/>
@@ -16486,7 +16489,7 @@
       <c r="F226" s="107"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A227" s="484"/>
+      <c r="A227" s="476"/>
       <c r="B227" s="65" t="s">
         <v>642</v>
       </c>
@@ -16502,7 +16505,7 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A228" s="484"/>
+      <c r="A228" s="476"/>
       <c r="B228" s="65" t="s">
         <v>642</v>
       </c>
@@ -16518,7 +16521,7 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A229" s="484"/>
+      <c r="A229" s="476"/>
       <c r="B229" s="65" t="s">
         <v>642</v>
       </c>
@@ -16534,7 +16537,7 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A230" s="484"/>
+      <c r="A230" s="476"/>
       <c r="B230" s="65" t="s">
         <v>642</v>
       </c>
@@ -16550,7 +16553,7 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A231" s="484"/>
+      <c r="A231" s="476"/>
       <c r="B231" s="65" t="s">
         <v>642</v>
       </c>
@@ -16566,7 +16569,7 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A232" s="484"/>
+      <c r="A232" s="476"/>
       <c r="B232" s="65" t="s">
         <v>642</v>
       </c>
@@ -16582,7 +16585,7 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A233" s="484"/>
+      <c r="A233" s="476"/>
       <c r="B233" s="65" t="s">
         <v>642</v>
       </c>
@@ -16598,7 +16601,7 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A234" s="484"/>
+      <c r="A234" s="476"/>
       <c r="B234" s="65" t="s">
         <v>642</v>
       </c>
@@ -16614,7 +16617,7 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A235" s="484"/>
+      <c r="A235" s="476"/>
       <c r="B235" s="65" t="s">
         <v>642</v>
       </c>
@@ -16630,7 +16633,7 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A236" s="484"/>
+      <c r="A236" s="476"/>
       <c r="B236" s="65"/>
       <c r="C236" s="66"/>
       <c r="D236" s="67"/>
@@ -16638,7 +16641,7 @@
       <c r="F236" s="107"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A237" s="484"/>
+      <c r="A237" s="476"/>
       <c r="B237" s="65" t="s">
         <v>642</v>
       </c>
@@ -16654,7 +16657,7 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A238" s="484"/>
+      <c r="A238" s="476"/>
       <c r="B238" s="65" t="s">
         <v>642</v>
       </c>
@@ -16670,7 +16673,7 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A239" s="484"/>
+      <c r="A239" s="476"/>
       <c r="B239" s="65"/>
       <c r="C239" s="66"/>
       <c r="D239" s="67"/>
@@ -16678,7 +16681,7 @@
       <c r="F239" s="107"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A240" s="484"/>
+      <c r="A240" s="476"/>
       <c r="B240" s="65" t="s">
         <v>642</v>
       </c>
@@ -16694,7 +16697,7 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A241" s="484"/>
+      <c r="A241" s="476"/>
       <c r="B241" s="65" t="s">
         <v>642</v>
       </c>
@@ -16710,7 +16713,7 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A242" s="484"/>
+      <c r="A242" s="476"/>
       <c r="B242" s="65"/>
       <c r="C242" s="66"/>
       <c r="D242" s="67"/>
@@ -16718,7 +16721,7 @@
       <c r="F242" s="107"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A243" s="484"/>
+      <c r="A243" s="476"/>
       <c r="B243" s="65" t="s">
         <v>642</v>
       </c>
@@ -16736,7 +16739,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A244" s="484"/>
+      <c r="A244" s="476"/>
       <c r="B244" s="65" t="s">
         <v>642</v>
       </c>
@@ -16754,7 +16757,7 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A245" s="484"/>
+      <c r="A245" s="476"/>
       <c r="B245" s="65"/>
       <c r="C245" s="66"/>
       <c r="D245" s="67"/>
@@ -16762,7 +16765,7 @@
       <c r="F245" s="107"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A246" s="484"/>
+      <c r="A246" s="476"/>
       <c r="B246" s="65" t="s">
         <v>642</v>
       </c>
@@ -16778,7 +16781,7 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A247" s="484"/>
+      <c r="A247" s="476"/>
       <c r="B247" s="65" t="s">
         <v>642</v>
       </c>
@@ -16794,7 +16797,7 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A248" s="484"/>
+      <c r="A248" s="476"/>
       <c r="B248" s="298" t="s">
         <v>642</v>
       </c>
@@ -16810,7 +16813,7 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A249" s="484"/>
+      <c r="A249" s="476"/>
       <c r="B249" s="65"/>
       <c r="C249" s="66"/>
       <c r="D249" s="67"/>
@@ -16818,14 +16821,14 @@
       <c r="F249" s="107"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A250" s="484"/>
+      <c r="A250" s="476"/>
       <c r="B250" s="65" t="s">
         <v>642</v>
       </c>
       <c r="C250" s="66" t="s">
         <v>706</v>
       </c>
-      <c r="D250" s="474" t="s">
+      <c r="D250" s="494" t="s">
         <v>707</v>
       </c>
       <c r="E250" s="66" t="s">
@@ -16836,14 +16839,14 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A251" s="484"/>
+      <c r="A251" s="476"/>
       <c r="B251" s="108" t="s">
         <v>642</v>
       </c>
       <c r="C251" s="77" t="s">
         <v>709</v>
       </c>
-      <c r="D251" s="473"/>
+      <c r="D251" s="493"/>
       <c r="E251" s="77" t="s">
         <v>53</v>
       </c>
@@ -16852,11 +16855,11 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A252" s="484"/>
+      <c r="A252" s="476"/>
       <c r="F252" s="236"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A253" s="484"/>
+      <c r="A253" s="476"/>
       <c r="B253" s="61" t="s">
         <v>711</v>
       </c>
@@ -16872,7 +16875,7 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A254" s="484"/>
+      <c r="A254" s="476"/>
       <c r="B254" s="65" t="s">
         <v>711</v>
       </c>
@@ -16888,7 +16891,7 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A255" s="484"/>
+      <c r="A255" s="476"/>
       <c r="B255" s="65" t="s">
         <v>711</v>
       </c>
@@ -16904,7 +16907,7 @@
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A256" s="484"/>
+      <c r="A256" s="476"/>
       <c r="B256" s="65" t="s">
         <v>711</v>
       </c>
@@ -16920,7 +16923,7 @@
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A257" s="484"/>
+      <c r="A257" s="476"/>
       <c r="B257" s="65" t="s">
         <v>711</v>
       </c>
@@ -16936,7 +16939,7 @@
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A258" s="484"/>
+      <c r="A258" s="476"/>
       <c r="B258" s="65" t="s">
         <v>711</v>
       </c>
@@ -16952,7 +16955,7 @@
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A259" s="485"/>
+      <c r="A259" s="477"/>
       <c r="B259" s="65" t="s">
         <v>711</v>
       </c>
@@ -16970,7 +16973,7 @@
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A260" s="485"/>
+      <c r="A260" s="477"/>
       <c r="B260" s="65" t="s">
         <v>711</v>
       </c>
@@ -16988,7 +16991,7 @@
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A261" s="485"/>
+      <c r="A261" s="477"/>
       <c r="B261" s="65" t="s">
         <v>711</v>
       </c>
@@ -17006,7 +17009,7 @@
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A262" s="485"/>
+      <c r="A262" s="477"/>
       <c r="B262" s="65" t="s">
         <v>711</v>
       </c>
@@ -17024,7 +17027,7 @@
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A263" s="485"/>
+      <c r="A263" s="477"/>
       <c r="B263" s="65" t="s">
         <v>711</v>
       </c>
@@ -17042,7 +17045,7 @@
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A264" s="485"/>
+      <c r="A264" s="477"/>
       <c r="B264" s="65" t="s">
         <v>711</v>
       </c>
@@ -17060,7 +17063,7 @@
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A265" s="485"/>
+      <c r="A265" s="477"/>
       <c r="B265" s="65" t="s">
         <v>711</v>
       </c>
@@ -17079,7 +17082,7 @@
       <c r="G265" s="3"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A266" s="485"/>
+      <c r="A266" s="477"/>
       <c r="B266" s="65" t="s">
         <v>711</v>
       </c>
@@ -17098,7 +17101,7 @@
       <c r="G266" s="3"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A267" s="485"/>
+      <c r="A267" s="477"/>
       <c r="B267" s="65" t="s">
         <v>711</v>
       </c>
@@ -17116,7 +17119,7 @@
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A268" s="485"/>
+      <c r="A268" s="477"/>
       <c r="B268" s="65" t="s">
         <v>711</v>
       </c>
@@ -17134,7 +17137,7 @@
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A269" s="485"/>
+      <c r="A269" s="477"/>
       <c r="B269" s="65" t="s">
         <v>711</v>
       </c>
@@ -17152,7 +17155,7 @@
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A270" s="485"/>
+      <c r="A270" s="477"/>
       <c r="B270" s="65" t="s">
         <v>711</v>
       </c>
@@ -17170,7 +17173,7 @@
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A271" s="486"/>
+      <c r="A271" s="478"/>
       <c r="B271" s="124" t="s">
         <v>711</v>
       </c>
@@ -17192,6 +17195,23 @@
     <sortCondition ref="B80:B269"/>
   </sortState>
   <mergeCells count="33">
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="D171:D174"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="D152:D155"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="D136:D139"/>
+    <mergeCell ref="D148:D149"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A11:A271"/>
     <mergeCell ref="D13:D17"/>
@@ -17208,23 +17228,6 @@
     <mergeCell ref="D95:D98"/>
     <mergeCell ref="D100:D108"/>
     <mergeCell ref="D126:D127"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="D136:D139"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="D152:D155"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="D171:D174"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="D178:D179"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.196850393700787" footer="0.196850393700787"/>
@@ -22845,11 +22848,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="E105:E108"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="E112:E113"/>
     <mergeCell ref="E115:E116"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A4"/>
@@ -22865,6 +22863,11 @@
     <mergeCell ref="E92:E93"/>
     <mergeCell ref="E94:E95"/>
     <mergeCell ref="E97:E98"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E105:E108"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="E112:E113"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.196850393700787" footer="0.196850393700787"/>
@@ -22959,7 +22962,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="483" t="s">
+      <c r="A5" s="475" t="s">
         <v>270</v>
       </c>
       <c r="B5" s="51" t="s">
@@ -22996,7 +22999,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="484"/>
+      <c r="A7" s="476"/>
       <c r="B7" s="55"/>
       <c r="C7" s="56"/>
       <c r="D7" s="57"/>
@@ -23007,7 +23010,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="484"/>
+      <c r="A8" s="476"/>
       <c r="B8" s="61" t="s">
         <v>294</v>
       </c>
@@ -23026,7 +23029,7 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="484"/>
+      <c r="A9" s="476"/>
       <c r="B9" s="108" t="s">
         <v>294</v>
       </c>
@@ -23045,7 +23048,7 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="484"/>
+      <c r="A10" s="476"/>
       <c r="B10" s="55"/>
       <c r="C10" s="56"/>
       <c r="D10" s="121"/>
@@ -23056,7 +23059,7 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="484"/>
+      <c r="A11" s="476"/>
       <c r="B11" s="61" t="s">
         <v>273</v>
       </c>
@@ -23075,7 +23078,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="485"/>
+      <c r="A12" s="477"/>
       <c r="B12" s="65" t="s">
         <v>273</v>
       </c>
@@ -23091,7 +23094,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="485"/>
+      <c r="A13" s="477"/>
       <c r="B13" s="65" t="s">
         <v>273</v>
       </c>
@@ -23107,7 +23110,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="485"/>
+      <c r="A14" s="477"/>
       <c r="B14" s="108" t="s">
         <v>273</v>
       </c>
@@ -23123,7 +23126,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="485"/>
+      <c r="A15" s="477"/>
       <c r="B15" s="55"/>
       <c r="C15" s="56"/>
       <c r="D15" s="57"/>
@@ -23131,7 +23134,7 @@
       <c r="F15" s="92"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="485"/>
+      <c r="A16" s="477"/>
       <c r="B16" s="51" t="s">
         <v>1157</v>
       </c>
@@ -23147,7 +23150,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="485"/>
+      <c r="A17" s="477"/>
       <c r="B17" s="55"/>
       <c r="C17" s="56"/>
       <c r="D17" s="57"/>
@@ -23155,7 +23158,7 @@
       <c r="F17" s="92"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="485"/>
+      <c r="A18" s="477"/>
       <c r="B18" s="61" t="s">
         <v>1159</v>
       </c>
@@ -23171,7 +23174,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="485"/>
+      <c r="A19" s="477"/>
       <c r="B19" s="65" t="s">
         <v>1159</v>
       </c>
@@ -23187,7 +23190,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="485"/>
+      <c r="A20" s="477"/>
       <c r="B20" s="65" t="s">
         <v>1159</v>
       </c>
@@ -23203,7 +23206,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="485"/>
+      <c r="A21" s="477"/>
       <c r="B21" s="65" t="s">
         <v>1159</v>
       </c>
@@ -23219,7 +23222,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="485"/>
+      <c r="A22" s="477"/>
       <c r="B22" s="65" t="s">
         <v>1159</v>
       </c>
@@ -23235,7 +23238,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="485"/>
+      <c r="A23" s="477"/>
       <c r="B23" s="108" t="s">
         <v>1159</v>
       </c>
@@ -23251,7 +23254,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="485"/>
+      <c r="A24" s="477"/>
       <c r="B24" s="55"/>
       <c r="C24" s="56"/>
       <c r="D24" s="57"/>
@@ -23259,7 +23262,7 @@
       <c r="F24" s="92"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="485"/>
+      <c r="A25" s="477"/>
       <c r="B25" s="61" t="s">
         <v>1166</v>
       </c>
@@ -23275,7 +23278,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="485"/>
+      <c r="A26" s="477"/>
       <c r="B26" s="65" t="s">
         <v>1166</v>
       </c>
@@ -23291,7 +23294,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="486"/>
+      <c r="A27" s="478"/>
       <c r="B27" s="124" t="s">
         <v>1166</v>
       </c>

--- a/帮助.xlsx
+++ b/帮助.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BoBOAHK\WorkFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5451582-765E-4319-9964-6F859CF14704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCE7FE6-C19A-4931-B289-9B2B6BEEE630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30360" yWindow="1560" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="11" r:id="rId1"/>
@@ -8004,6 +8004,66 @@
     <xf numFmtId="0" fontId="31" fillId="20" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8013,66 +8073,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8091,6 +8091,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8115,12 +8121,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8169,6 +8169,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8178,43 +8214,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8503,7 +8503,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -10038,10 +10038,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="563" t="s">
+      <c r="A3" s="575" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="574" t="s">
+      <c r="B3" s="573" t="s">
         <v>1228</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -10056,8 +10056,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="564"/>
-      <c r="B4" s="569"/>
+      <c r="A4" s="576"/>
+      <c r="B4" s="574"/>
       <c r="C4" s="14" t="s">
         <v>1231</v>
       </c>
@@ -10068,8 +10068,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="564"/>
-      <c r="B5" s="569"/>
+      <c r="A5" s="576"/>
+      <c r="B5" s="574"/>
       <c r="C5" s="14" t="s">
         <v>1233</v>
       </c>
@@ -10080,8 +10080,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="564"/>
-      <c r="B6" s="569"/>
+      <c r="A6" s="576"/>
+      <c r="B6" s="574"/>
       <c r="C6" s="14" t="s">
         <v>1235</v>
       </c>
@@ -10092,8 +10092,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="564"/>
-      <c r="B7" s="569"/>
+      <c r="A7" s="576"/>
+      <c r="B7" s="574"/>
       <c r="C7" s="14" t="s">
         <v>1237</v>
       </c>
@@ -10104,8 +10104,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="564"/>
-      <c r="B8" s="569"/>
+      <c r="A8" s="576"/>
+      <c r="B8" s="574"/>
       <c r="C8" s="14" t="s">
         <v>1239</v>
       </c>
@@ -10116,7 +10116,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="564"/>
+      <c r="A9" s="576"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
@@ -10124,8 +10124,8 @@
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="564"/>
-      <c r="B10" s="569" t="s">
+      <c r="A10" s="576"/>
+      <c r="B10" s="574" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -10138,8 +10138,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="564"/>
-      <c r="B11" s="569"/>
+      <c r="A11" s="576"/>
+      <c r="B11" s="574"/>
       <c r="C11" s="14" t="s">
         <v>1243</v>
       </c>
@@ -10150,8 +10150,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="564"/>
-      <c r="B12" s="569"/>
+      <c r="A12" s="576"/>
+      <c r="B12" s="574"/>
       <c r="C12" s="14" t="s">
         <v>1245</v>
       </c>
@@ -10162,8 +10162,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="564"/>
-      <c r="B13" s="569"/>
+      <c r="A13" s="576"/>
+      <c r="B13" s="574"/>
       <c r="C13" s="14" t="s">
         <v>1247</v>
       </c>
@@ -10174,8 +10174,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="564"/>
-      <c r="B14" s="569"/>
+      <c r="A14" s="576"/>
+      <c r="B14" s="574"/>
       <c r="C14" s="14" t="s">
         <v>1249</v>
       </c>
@@ -10186,8 +10186,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="564"/>
-      <c r="B15" s="569"/>
+      <c r="A15" s="576"/>
+      <c r="B15" s="574"/>
       <c r="C15" s="14" t="s">
         <v>1251</v>
       </c>
@@ -10198,7 +10198,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="564"/>
+      <c r="A16" s="576"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
@@ -10206,8 +10206,8 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="564"/>
-      <c r="B17" s="569" t="s">
+      <c r="A17" s="576"/>
+      <c r="B17" s="574" t="s">
         <v>1253</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -10220,8 +10220,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="564"/>
-      <c r="B18" s="569"/>
+      <c r="A18" s="576"/>
+      <c r="B18" s="574"/>
       <c r="C18" s="14" t="s">
         <v>1256</v>
       </c>
@@ -10232,7 +10232,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="564"/>
+      <c r="A19" s="576"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
@@ -10240,8 +10240,8 @@
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="564"/>
-      <c r="B20" s="569" t="s">
+      <c r="A20" s="576"/>
+      <c r="B20" s="574" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="14" t="s">
@@ -10254,8 +10254,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="564"/>
-      <c r="B21" s="569"/>
+      <c r="A21" s="576"/>
+      <c r="B21" s="574"/>
       <c r="C21" s="14" t="s">
         <v>1259</v>
       </c>
@@ -10266,8 +10266,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="564"/>
-      <c r="B22" s="569"/>
+      <c r="A22" s="576"/>
+      <c r="B22" s="574"/>
       <c r="C22" s="14" t="s">
         <v>1261</v>
       </c>
@@ -10278,8 +10278,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="564"/>
-      <c r="B23" s="569"/>
+      <c r="A23" s="576"/>
+      <c r="B23" s="574"/>
       <c r="C23" s="14" t="s">
         <v>1262</v>
       </c>
@@ -10290,8 +10290,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="564"/>
-      <c r="B24" s="569"/>
+      <c r="A24" s="576"/>
+      <c r="B24" s="574"/>
       <c r="C24" s="14" t="s">
         <v>1264</v>
       </c>
@@ -10302,7 +10302,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="564"/>
+      <c r="A25" s="576"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
@@ -10310,8 +10310,8 @@
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="564"/>
-      <c r="B26" s="569" t="s">
+      <c r="A26" s="576"/>
+      <c r="B26" s="574" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="14" t="s">
@@ -10324,8 +10324,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="564"/>
-      <c r="B27" s="569"/>
+      <c r="A27" s="576"/>
+      <c r="B27" s="574"/>
       <c r="C27" s="14" t="s">
         <v>10</v>
       </c>
@@ -10336,8 +10336,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="564"/>
-      <c r="B28" s="569"/>
+      <c r="A28" s="576"/>
+      <c r="B28" s="574"/>
       <c r="C28" s="14" t="s">
         <v>1268</v>
       </c>
@@ -10348,8 +10348,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="564"/>
-      <c r="B29" s="569"/>
+      <c r="A29" s="576"/>
+      <c r="B29" s="574"/>
       <c r="C29" s="14" t="s">
         <v>1270</v>
       </c>
@@ -10360,8 +10360,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="564"/>
-      <c r="B30" s="569"/>
+      <c r="A30" s="576"/>
+      <c r="B30" s="574"/>
       <c r="C30" s="14" t="s">
         <v>80</v>
       </c>
@@ -10372,7 +10372,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="564"/>
+      <c r="A31" s="576"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
@@ -10380,8 +10380,8 @@
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="564"/>
-      <c r="B32" s="569" t="s">
+      <c r="A32" s="576"/>
+      <c r="B32" s="574" t="s">
         <v>1273</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -10394,8 +10394,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="564"/>
-      <c r="B33" s="569"/>
+      <c r="A33" s="576"/>
+      <c r="B33" s="574"/>
       <c r="C33" s="14" t="s">
         <v>1276</v>
       </c>
@@ -10406,7 +10406,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="564"/>
+      <c r="A34" s="576"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="15"/>
@@ -10414,8 +10414,8 @@
       <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="564"/>
-      <c r="B35" s="569" t="s">
+      <c r="A35" s="576"/>
+      <c r="B35" s="574" t="s">
         <v>1278</v>
       </c>
       <c r="C35" s="14" t="s">
@@ -10428,8 +10428,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="564"/>
-      <c r="B36" s="569"/>
+      <c r="A36" s="576"/>
+      <c r="B36" s="574"/>
       <c r="C36" s="14" t="s">
         <v>1281</v>
       </c>
@@ -10440,8 +10440,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="564"/>
-      <c r="B37" s="569"/>
+      <c r="A37" s="576"/>
+      <c r="B37" s="574"/>
       <c r="C37" s="14" t="s">
         <v>1283</v>
       </c>
@@ -10452,7 +10452,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="564"/>
+      <c r="A38" s="576"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
@@ -10460,8 +10460,8 @@
       <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="564"/>
-      <c r="B39" s="569" t="s">
+      <c r="A39" s="576"/>
+      <c r="B39" s="574" t="s">
         <v>1285</v>
       </c>
       <c r="C39" s="14" t="s">
@@ -10474,8 +10474,8 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="565"/>
-      <c r="B40" s="570"/>
+      <c r="A40" s="577"/>
+      <c r="B40" s="578"/>
       <c r="C40" s="17" t="s">
         <v>1288</v>
       </c>
@@ -10602,7 +10602,7 @@
       <c r="F50" s="23"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="575" t="s">
+      <c r="A51" s="563" t="s">
         <v>1302</v>
       </c>
       <c r="B51" s="31"/>
@@ -10616,7 +10616,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="576"/>
+      <c r="A52" s="564"/>
       <c r="B52" s="35"/>
       <c r="C52" s="14" t="s">
         <v>1304</v>
@@ -10628,7 +10628,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="577"/>
+      <c r="A53" s="565"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17" t="s">
         <v>1306</v>
@@ -10856,7 +10856,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="567"/>
-      <c r="B72" s="571" t="s">
+      <c r="B72" s="570" t="s">
         <v>1334</v>
       </c>
       <c r="C72" s="14" t="s">
@@ -10870,7 +10870,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="567"/>
-      <c r="B73" s="572"/>
+      <c r="B73" s="571"/>
       <c r="C73" s="14" t="s">
         <v>1336</v>
       </c>
@@ -10882,7 +10882,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="567"/>
-      <c r="B74" s="573"/>
+      <c r="B74" s="572"/>
       <c r="C74" s="14" t="s">
         <v>1338</v>
       </c>
@@ -10894,7 +10894,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="567"/>
-      <c r="B75" s="571" t="s">
+      <c r="B75" s="570" t="s">
         <v>1340</v>
       </c>
       <c r="C75" s="14" t="s">
@@ -10908,7 +10908,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="567"/>
-      <c r="B76" s="572"/>
+      <c r="B76" s="571"/>
       <c r="C76" s="14" t="s">
         <v>1343</v>
       </c>
@@ -10920,7 +10920,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="567"/>
-      <c r="B77" s="572"/>
+      <c r="B77" s="571"/>
       <c r="C77" s="14" t="s">
         <v>1345</v>
       </c>
@@ -10932,7 +10932,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="567"/>
-      <c r="B78" s="572"/>
+      <c r="B78" s="571"/>
       <c r="C78" s="14" t="s">
         <v>1347</v>
       </c>
@@ -10944,7 +10944,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="567"/>
-      <c r="B79" s="572"/>
+      <c r="B79" s="571"/>
       <c r="C79" s="14" t="s">
         <v>1349</v>
       </c>
@@ -10956,7 +10956,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="567"/>
-      <c r="B80" s="572"/>
+      <c r="B80" s="571"/>
       <c r="C80" s="14" t="s">
         <v>1350</v>
       </c>
@@ -10968,7 +10968,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="567"/>
-      <c r="B81" s="572"/>
+      <c r="B81" s="571"/>
       <c r="C81" s="14" t="s">
         <v>1352</v>
       </c>
@@ -10980,7 +10980,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="567"/>
-      <c r="B82" s="573"/>
+      <c r="B82" s="572"/>
       <c r="C82" s="14" t="s">
         <v>1354</v>
       </c>
@@ -11111,7 +11111,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93" s="578"/>
+      <c r="A93" s="569"/>
       <c r="B93" s="45"/>
       <c r="C93" s="45" t="s">
         <v>1369</v>
@@ -11124,11 +11124,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="A69:A84"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A3:A40"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B39:B40"/>
     <mergeCell ref="B72:B74"/>
     <mergeCell ref="B75:B82"/>
     <mergeCell ref="B3:B8"/>
@@ -11136,11 +11136,11 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A3:A40"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="A69:A84"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A92:A93"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.196850393700787" footer="0.196850393700787"/>
@@ -13452,7 +13452,7 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="516" t="s">
+      <c r="A5" s="508" t="s">
         <v>251</v>
       </c>
       <c r="B5" s="224" t="s">
@@ -13471,7 +13471,7 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="517"/>
+      <c r="A6" s="509"/>
       <c r="B6" s="227"/>
       <c r="C6" s="52"/>
       <c r="D6" s="53"/>
@@ -13480,7 +13480,7 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="517"/>
+      <c r="A7" s="509"/>
       <c r="B7" s="180"/>
       <c r="C7" s="62" t="s">
         <v>252</v>
@@ -13495,7 +13495,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="517"/>
+      <c r="A8" s="509"/>
       <c r="B8" s="229"/>
       <c r="C8" s="66" t="s">
         <v>254</v>
@@ -13508,7 +13508,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="517"/>
+      <c r="A9" s="509"/>
       <c r="B9" s="229"/>
       <c r="C9" s="66" t="s">
         <v>256</v>
@@ -13521,7 +13521,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="518"/>
+      <c r="A10" s="510"/>
       <c r="B10" s="182"/>
       <c r="C10" s="93" t="s">
         <v>258</v>
@@ -13534,7 +13534,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="519" t="s">
+      <c r="A11" s="511" t="s">
         <v>259</v>
       </c>
       <c r="B11" s="51" t="s">
@@ -13553,19 +13553,19 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="520"/>
+      <c r="A12" s="512"/>
       <c r="F12" s="231"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="520"/>
+      <c r="A13" s="512"/>
       <c r="B13" s="61" t="s">
         <v>262</v>
       </c>
       <c r="C13" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="D13" s="523"/>
+      <c r="D13" s="515"/>
       <c r="E13" s="62" t="s">
         <v>50</v>
       </c>
@@ -13575,14 +13575,14 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="520"/>
+      <c r="A14" s="512"/>
       <c r="B14" s="65" t="s">
         <v>262</v>
       </c>
       <c r="C14" s="66" t="s">
         <v>265</v>
       </c>
-      <c r="D14" s="511"/>
+      <c r="D14" s="516"/>
       <c r="E14" s="66" t="s">
         <v>50</v>
       </c>
@@ -13592,14 +13592,14 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="520"/>
+      <c r="A15" s="512"/>
       <c r="B15" s="65" t="s">
         <v>262</v>
       </c>
       <c r="C15" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="D15" s="511"/>
+      <c r="D15" s="516"/>
       <c r="E15" s="66" t="s">
         <v>50</v>
       </c>
@@ -13609,14 +13609,14 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="520"/>
+      <c r="A16" s="512"/>
       <c r="B16" s="65" t="s">
         <v>262</v>
       </c>
       <c r="C16" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="D16" s="511"/>
+      <c r="D16" s="516"/>
       <c r="E16" s="66" t="s">
         <v>50</v>
       </c>
@@ -13625,14 +13625,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="520"/>
+      <c r="A17" s="512"/>
       <c r="B17" s="65" t="s">
         <v>262</v>
       </c>
       <c r="C17" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="511"/>
+      <c r="D17" s="516"/>
       <c r="E17" s="66" t="s">
         <v>50</v>
       </c>
@@ -13641,7 +13641,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="520"/>
+      <c r="A18" s="512"/>
       <c r="B18" s="232" t="s">
         <v>53</v>
       </c>
@@ -13657,7 +13657,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="520"/>
+      <c r="A19" s="512"/>
       <c r="B19" s="69" t="s">
         <v>53</v>
       </c>
@@ -13673,7 +13673,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="520"/>
+      <c r="A20" s="512"/>
       <c r="B20" s="69" t="s">
         <v>53</v>
       </c>
@@ -13689,18 +13689,18 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="520"/>
+      <c r="A21" s="512"/>
       <c r="F21" s="236"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="520"/>
+      <c r="A22" s="512"/>
       <c r="B22" s="237" t="s">
         <v>278</v>
       </c>
       <c r="C22" s="237" t="s">
         <v>226</v>
       </c>
-      <c r="D22" s="524"/>
+      <c r="D22" s="517"/>
       <c r="E22" s="237" t="s">
         <v>50</v>
       </c>
@@ -13709,14 +13709,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="520"/>
+      <c r="A23" s="512"/>
       <c r="B23" s="240" t="s">
         <v>278</v>
       </c>
       <c r="C23" s="240" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="525"/>
+      <c r="D23" s="518"/>
       <c r="E23" s="240" t="s">
         <v>50</v>
       </c>
@@ -13725,14 +13725,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="520"/>
+      <c r="A24" s="512"/>
       <c r="B24" s="240" t="s">
         <v>278</v>
       </c>
       <c r="C24" s="240" t="s">
         <v>181</v>
       </c>
-      <c r="D24" s="525"/>
+      <c r="D24" s="518"/>
       <c r="E24" s="240" t="s">
         <v>50</v>
       </c>
@@ -13741,14 +13741,14 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="520"/>
+      <c r="A25" s="512"/>
       <c r="B25" s="243" t="s">
         <v>278</v>
       </c>
       <c r="C25" s="243" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="526"/>
+      <c r="D25" s="519"/>
       <c r="E25" s="243" t="s">
         <v>50</v>
       </c>
@@ -13757,18 +13757,18 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="520"/>
+      <c r="A26" s="512"/>
       <c r="F26" s="236"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="520"/>
+      <c r="A27" s="512"/>
       <c r="B27" s="237" t="s">
         <v>283</v>
       </c>
       <c r="C27" s="237" t="s">
         <v>284</v>
       </c>
-      <c r="D27" s="524"/>
+      <c r="D27" s="517"/>
       <c r="E27" s="237" t="s">
         <v>50</v>
       </c>
@@ -13777,14 +13777,14 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="520"/>
+      <c r="A28" s="512"/>
       <c r="B28" s="240" t="s">
         <v>283</v>
       </c>
       <c r="C28" s="240" t="s">
         <v>286</v>
       </c>
-      <c r="D28" s="525"/>
+      <c r="D28" s="518"/>
       <c r="E28" s="240" t="s">
         <v>50</v>
       </c>
@@ -13793,14 +13793,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="520"/>
+      <c r="A29" s="512"/>
       <c r="B29" s="240" t="s">
         <v>283</v>
       </c>
       <c r="C29" s="240" t="s">
         <v>288</v>
       </c>
-      <c r="D29" s="525"/>
+      <c r="D29" s="518"/>
       <c r="E29" s="240" t="s">
         <v>50</v>
       </c>
@@ -13809,14 +13809,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="520"/>
+      <c r="A30" s="512"/>
       <c r="B30" s="243" t="s">
         <v>283</v>
       </c>
       <c r="C30" s="243" t="s">
         <v>290</v>
       </c>
-      <c r="D30" s="526"/>
+      <c r="D30" s="519"/>
       <c r="E30" s="243" t="s">
         <v>50</v>
       </c>
@@ -13825,18 +13825,18 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="520"/>
+      <c r="A31" s="512"/>
       <c r="F31" s="236"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="520"/>
+      <c r="A32" s="512"/>
       <c r="B32" s="237" t="s">
         <v>278</v>
       </c>
       <c r="C32" s="237" t="s">
         <v>292</v>
       </c>
-      <c r="D32" s="524" t="s">
+      <c r="D32" s="517" t="s">
         <v>293</v>
       </c>
       <c r="E32" s="237" t="s">
@@ -13847,14 +13847,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="520"/>
+      <c r="A33" s="512"/>
       <c r="B33" s="240" t="s">
         <v>278</v>
       </c>
       <c r="C33" s="240" t="s">
         <v>295</v>
       </c>
-      <c r="D33" s="525"/>
+      <c r="D33" s="518"/>
       <c r="E33" s="240" t="s">
         <v>50</v>
       </c>
@@ -13863,14 +13863,14 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="520"/>
+      <c r="A34" s="512"/>
       <c r="B34" s="240" t="s">
         <v>278</v>
       </c>
       <c r="C34" s="240" t="s">
         <v>297</v>
       </c>
-      <c r="D34" s="525"/>
+      <c r="D34" s="518"/>
       <c r="E34" s="240" t="s">
         <v>50</v>
       </c>
@@ -13879,14 +13879,14 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="520"/>
+      <c r="A35" s="512"/>
       <c r="B35" s="243" t="s">
         <v>278</v>
       </c>
       <c r="C35" s="243" t="s">
         <v>299</v>
       </c>
-      <c r="D35" s="526"/>
+      <c r="D35" s="519"/>
       <c r="E35" s="243" t="s">
         <v>50</v>
       </c>
@@ -13895,18 +13895,18 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="520"/>
+      <c r="A36" s="512"/>
       <c r="F36" s="236"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="520"/>
+      <c r="A37" s="512"/>
       <c r="B37" s="237" t="s">
         <v>278</v>
       </c>
       <c r="C37" s="237" t="s">
         <v>301</v>
       </c>
-      <c r="D37" s="524"/>
+      <c r="D37" s="517"/>
       <c r="E37" s="237" t="s">
         <v>50</v>
       </c>
@@ -13915,14 +13915,14 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="520"/>
+      <c r="A38" s="512"/>
       <c r="B38" s="240" t="s">
         <v>278</v>
       </c>
       <c r="C38" s="240" t="s">
         <v>303</v>
       </c>
-      <c r="D38" s="525"/>
+      <c r="D38" s="518"/>
       <c r="E38" s="240" t="s">
         <v>50</v>
       </c>
@@ -13931,14 +13931,14 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="520"/>
+      <c r="A39" s="512"/>
       <c r="B39" s="240" t="s">
         <v>278</v>
       </c>
       <c r="C39" s="240" t="s">
         <v>305</v>
       </c>
-      <c r="D39" s="525"/>
+      <c r="D39" s="518"/>
       <c r="E39" s="240" t="s">
         <v>50</v>
       </c>
@@ -13947,14 +13947,14 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="520"/>
+      <c r="A40" s="512"/>
       <c r="B40" s="240" t="s">
         <v>278</v>
       </c>
       <c r="C40" s="240" t="s">
         <v>307</v>
       </c>
-      <c r="D40" s="525"/>
+      <c r="D40" s="518"/>
       <c r="E40" s="240" t="s">
         <v>50</v>
       </c>
@@ -13963,22 +13963,22 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="520"/>
+      <c r="A41" s="512"/>
       <c r="B41" s="240"/>
       <c r="C41" s="240"/>
-      <c r="D41" s="525"/>
+      <c r="D41" s="518"/>
       <c r="E41" s="240"/>
       <c r="F41" s="242"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="520"/>
+      <c r="A42" s="512"/>
       <c r="B42" s="240" t="s">
         <v>278</v>
       </c>
       <c r="C42" s="240" t="s">
         <v>309</v>
       </c>
-      <c r="D42" s="525"/>
+      <c r="D42" s="518"/>
       <c r="E42" s="240" t="s">
         <v>50</v>
       </c>
@@ -13987,14 +13987,14 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="520"/>
+      <c r="A43" s="512"/>
       <c r="B43" s="240" t="s">
         <v>278</v>
       </c>
       <c r="C43" s="240" t="s">
         <v>311</v>
       </c>
-      <c r="D43" s="525"/>
+      <c r="D43" s="518"/>
       <c r="E43" s="240" t="s">
         <v>50</v>
       </c>
@@ -14003,22 +14003,22 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="520"/>
+      <c r="A44" s="512"/>
       <c r="B44" s="240"/>
       <c r="C44" s="240"/>
-      <c r="D44" s="525"/>
+      <c r="D44" s="518"/>
       <c r="E44" s="240"/>
       <c r="F44" s="242"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="520"/>
+      <c r="A45" s="512"/>
       <c r="B45" s="243" t="s">
         <v>278</v>
       </c>
       <c r="C45" s="243" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="526"/>
+      <c r="D45" s="519"/>
       <c r="E45" s="243" t="s">
         <v>50</v>
       </c>
@@ -14027,18 +14027,18 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="520"/>
+      <c r="A46" s="512"/>
       <c r="F46" s="236"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="520"/>
+      <c r="A47" s="512"/>
       <c r="B47" s="237" t="s">
         <v>314</v>
       </c>
       <c r="C47" s="237" t="s">
         <v>315</v>
       </c>
-      <c r="D47" s="524"/>
+      <c r="D47" s="517"/>
       <c r="E47" s="237" t="s">
         <v>50</v>
       </c>
@@ -14047,14 +14047,14 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="520"/>
+      <c r="A48" s="512"/>
       <c r="B48" s="243" t="s">
         <v>314</v>
       </c>
       <c r="C48" s="243" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="526"/>
+      <c r="D48" s="519"/>
       <c r="E48" s="243" t="s">
         <v>50</v>
       </c>
@@ -14063,7 +14063,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="520"/>
+      <c r="A49" s="512"/>
       <c r="B49" s="245"/>
       <c r="C49" s="245"/>
       <c r="D49" s="246"/>
@@ -14071,7 +14071,7 @@
       <c r="F49" s="247"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="520"/>
+      <c r="A50" s="512"/>
       <c r="B50" s="237" t="s">
         <v>318</v>
       </c>
@@ -14087,7 +14087,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="520"/>
+      <c r="A51" s="512"/>
       <c r="B51" s="240" t="s">
         <v>318</v>
       </c>
@@ -14103,7 +14103,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="520"/>
+      <c r="A52" s="512"/>
       <c r="B52" s="240" t="s">
         <v>318</v>
       </c>
@@ -14119,14 +14119,14 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="520"/>
+      <c r="A53" s="512"/>
       <c r="B53" s="240" t="s">
         <v>318</v>
       </c>
       <c r="C53" s="240" t="s">
         <v>324</v>
       </c>
-      <c r="D53" s="527" t="s">
+      <c r="D53" s="520" t="s">
         <v>325</v>
       </c>
       <c r="E53" s="240" t="s">
@@ -14137,14 +14137,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="520"/>
+      <c r="A54" s="512"/>
       <c r="B54" s="243" t="s">
         <v>318</v>
       </c>
       <c r="C54" s="243" t="s">
         <v>327</v>
       </c>
-      <c r="D54" s="526"/>
+      <c r="D54" s="519"/>
       <c r="E54" s="243" t="s">
         <v>50</v>
       </c>
@@ -14153,7 +14153,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="520"/>
+      <c r="A55" s="512"/>
       <c r="B55" s="245"/>
       <c r="C55" s="245"/>
       <c r="D55" s="246"/>
@@ -14161,7 +14161,7 @@
       <c r="F55" s="247"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="520"/>
+      <c r="A56" s="512"/>
       <c r="B56" s="237" t="s">
         <v>329</v>
       </c>
@@ -14179,7 +14179,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="520"/>
+      <c r="A57" s="512"/>
       <c r="B57" s="240" t="s">
         <v>329</v>
       </c>
@@ -14197,7 +14197,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="520"/>
+      <c r="A58" s="512"/>
       <c r="B58" s="240" t="s">
         <v>329</v>
       </c>
@@ -14215,7 +14215,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="520"/>
+      <c r="A59" s="512"/>
       <c r="B59" s="240" t="s">
         <v>329</v>
       </c>
@@ -14231,7 +14231,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="520"/>
+      <c r="A60" s="512"/>
       <c r="B60" s="240" t="s">
         <v>329</v>
       </c>
@@ -14249,7 +14249,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="520"/>
+      <c r="A61" s="512"/>
       <c r="B61" s="240" t="s">
         <v>329</v>
       </c>
@@ -14265,7 +14265,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="520"/>
+      <c r="A62" s="512"/>
       <c r="B62" s="240" t="s">
         <v>344</v>
       </c>
@@ -14281,7 +14281,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="520"/>
+      <c r="A63" s="512"/>
       <c r="B63" s="240" t="s">
         <v>344</v>
       </c>
@@ -14297,7 +14297,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="520"/>
+      <c r="A64" s="512"/>
       <c r="B64" s="250" t="s">
         <v>344</v>
       </c>
@@ -14313,7 +14313,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="520"/>
+      <c r="A65" s="512"/>
       <c r="B65" s="250" t="s">
         <v>344</v>
       </c>
@@ -14329,7 +14329,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="520"/>
+      <c r="A66" s="512"/>
       <c r="B66" s="250" t="s">
         <v>344</v>
       </c>
@@ -14345,7 +14345,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="520"/>
+      <c r="A67" s="512"/>
       <c r="B67" s="250" t="s">
         <v>344</v>
       </c>
@@ -14361,7 +14361,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="520"/>
+      <c r="A68" s="512"/>
       <c r="B68" s="253" t="s">
         <v>344</v>
       </c>
@@ -14377,7 +14377,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="520"/>
+      <c r="A69" s="512"/>
       <c r="B69" s="245"/>
       <c r="C69" s="245"/>
       <c r="D69" s="246"/>
@@ -14385,14 +14385,14 @@
       <c r="F69" s="247"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="520"/>
+      <c r="A70" s="512"/>
       <c r="B70" s="237" t="s">
         <v>329</v>
       </c>
       <c r="C70" s="237" t="s">
         <v>355</v>
       </c>
-      <c r="D70" s="528" t="s">
+      <c r="D70" s="521" t="s">
         <v>356</v>
       </c>
       <c r="E70" s="237" t="s">
@@ -14403,14 +14403,14 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="520"/>
+      <c r="A71" s="512"/>
       <c r="B71" s="240" t="s">
         <v>329</v>
       </c>
       <c r="C71" s="240" t="s">
         <v>358</v>
       </c>
-      <c r="D71" s="525"/>
+      <c r="D71" s="518"/>
       <c r="E71" s="240" t="s">
         <v>50</v>
       </c>
@@ -14419,14 +14419,14 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72" s="520"/>
+      <c r="A72" s="512"/>
       <c r="B72" s="240" t="s">
         <v>329</v>
       </c>
       <c r="C72" s="240" t="s">
         <v>360</v>
       </c>
-      <c r="D72" s="525"/>
+      <c r="D72" s="518"/>
       <c r="E72" s="240" t="s">
         <v>50</v>
       </c>
@@ -14435,14 +14435,14 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="520"/>
+      <c r="A73" s="512"/>
       <c r="B73" s="240" t="s">
         <v>329</v>
       </c>
       <c r="C73" s="240" t="s">
         <v>362</v>
       </c>
-      <c r="D73" s="525"/>
+      <c r="D73" s="518"/>
       <c r="E73" s="240" t="s">
         <v>50</v>
       </c>
@@ -14451,14 +14451,14 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="520"/>
+      <c r="A74" s="512"/>
       <c r="B74" s="240" t="s">
         <v>329</v>
       </c>
       <c r="C74" s="240" t="s">
         <v>364</v>
       </c>
-      <c r="D74" s="525"/>
+      <c r="D74" s="518"/>
       <c r="E74" s="240" t="s">
         <v>50</v>
       </c>
@@ -14467,14 +14467,14 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="520"/>
+      <c r="A75" s="512"/>
       <c r="B75" s="240" t="s">
         <v>329</v>
       </c>
       <c r="C75" s="240" t="s">
         <v>366</v>
       </c>
-      <c r="D75" s="525"/>
+      <c r="D75" s="518"/>
       <c r="E75" s="240" t="s">
         <v>50</v>
       </c>
@@ -14483,7 +14483,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="520"/>
+      <c r="A76" s="512"/>
       <c r="B76" s="240"/>
       <c r="C76" s="240"/>
       <c r="D76" s="248"/>
@@ -14491,14 +14491,14 @@
       <c r="F76" s="242"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77" s="520"/>
+      <c r="A77" s="512"/>
       <c r="B77" s="240" t="s">
         <v>329</v>
       </c>
       <c r="C77" s="240" t="s">
         <v>368</v>
       </c>
-      <c r="D77" s="527" t="s">
+      <c r="D77" s="520" t="s">
         <v>325</v>
       </c>
       <c r="E77" s="240" t="s">
@@ -14509,14 +14509,14 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="520"/>
+      <c r="A78" s="512"/>
       <c r="B78" s="243" t="s">
         <v>329</v>
       </c>
       <c r="C78" s="243" t="s">
         <v>370</v>
       </c>
-      <c r="D78" s="526"/>
+      <c r="D78" s="519"/>
       <c r="E78" s="243" t="s">
         <v>50</v>
       </c>
@@ -14525,7 +14525,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="520"/>
+      <c r="A79" s="512"/>
       <c r="B79" s="245"/>
       <c r="C79" s="245"/>
       <c r="D79" s="246"/>
@@ -14533,7 +14533,7 @@
       <c r="F79" s="247"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="520"/>
+      <c r="A80" s="512"/>
       <c r="B80" s="237" t="s">
         <v>329</v>
       </c>
@@ -14551,7 +14551,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="520"/>
+      <c r="A81" s="512"/>
       <c r="B81" s="240"/>
       <c r="C81" s="240"/>
       <c r="D81" s="248"/>
@@ -14559,14 +14559,14 @@
       <c r="F81" s="242"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="520"/>
+      <c r="A82" s="512"/>
       <c r="B82" s="240" t="s">
         <v>329</v>
       </c>
       <c r="C82" s="240" t="s">
         <v>375</v>
       </c>
-      <c r="D82" s="529" t="s">
+      <c r="D82" s="522" t="s">
         <v>376</v>
       </c>
       <c r="E82" s="240" t="s">
@@ -14577,14 +14577,14 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="520"/>
+      <c r="A83" s="512"/>
       <c r="B83" s="240" t="s">
         <v>329</v>
       </c>
       <c r="C83" s="240" t="s">
         <v>378</v>
       </c>
-      <c r="D83" s="530"/>
+      <c r="D83" s="523"/>
       <c r="E83" s="240" t="s">
         <v>50</v>
       </c>
@@ -14593,14 +14593,14 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="520"/>
+      <c r="A84" s="512"/>
       <c r="B84" s="240" t="s">
         <v>329</v>
       </c>
       <c r="C84" s="240" t="s">
         <v>380</v>
       </c>
-      <c r="D84" s="530"/>
+      <c r="D84" s="523"/>
       <c r="E84" s="240" t="s">
         <v>50</v>
       </c>
@@ -14609,14 +14609,14 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="520"/>
+      <c r="A85" s="512"/>
       <c r="B85" s="240" t="s">
         <v>329</v>
       </c>
       <c r="C85" s="240" t="s">
         <v>382</v>
       </c>
-      <c r="D85" s="530"/>
+      <c r="D85" s="523"/>
       <c r="E85" s="240" t="s">
         <v>50</v>
       </c>
@@ -14625,7 +14625,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" s="520"/>
+      <c r="A86" s="512"/>
       <c r="B86" s="240"/>
       <c r="C86" s="240"/>
       <c r="D86" s="248"/>
@@ -14633,7 +14633,7 @@
       <c r="F86" s="242"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="520"/>
+      <c r="A87" s="512"/>
       <c r="B87" s="250" t="s">
         <v>329</v>
       </c>
@@ -14651,7 +14651,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" s="520"/>
+      <c r="A88" s="512"/>
       <c r="B88" s="240" t="s">
         <v>329</v>
       </c>
@@ -14669,7 +14669,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="520"/>
+      <c r="A89" s="512"/>
       <c r="B89" s="240" t="s">
         <v>318</v>
       </c>
@@ -14687,7 +14687,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90" s="520"/>
+      <c r="A90" s="512"/>
       <c r="B90" s="243" t="s">
         <v>318</v>
       </c>
@@ -14705,18 +14705,18 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A91" s="520"/>
+      <c r="A91" s="512"/>
       <c r="F91" s="236"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92" s="520"/>
+      <c r="A92" s="512"/>
       <c r="B92" s="237" t="s">
         <v>283</v>
       </c>
       <c r="C92" s="237" t="s">
         <v>396</v>
       </c>
-      <c r="D92" s="528" t="s">
+      <c r="D92" s="521" t="s">
         <v>325</v>
       </c>
       <c r="E92" s="237" t="s">
@@ -14727,14 +14727,14 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="520"/>
+      <c r="A93" s="512"/>
       <c r="B93" s="240" t="s">
         <v>283</v>
       </c>
       <c r="C93" s="240" t="s">
         <v>398</v>
       </c>
-      <c r="D93" s="525"/>
+      <c r="D93" s="518"/>
       <c r="E93" s="240" t="s">
         <v>50</v>
       </c>
@@ -14743,7 +14743,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="520"/>
+      <c r="A94" s="512"/>
       <c r="B94" s="240"/>
       <c r="C94" s="240"/>
       <c r="D94" s="248"/>
@@ -14751,14 +14751,14 @@
       <c r="F94" s="242"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95" s="520"/>
+      <c r="A95" s="512"/>
       <c r="B95" s="240" t="s">
         <v>329</v>
       </c>
       <c r="C95" s="240" t="s">
         <v>400</v>
       </c>
-      <c r="D95" s="527" t="s">
+      <c r="D95" s="520" t="s">
         <v>401</v>
       </c>
       <c r="E95" s="240" t="s">
@@ -14769,14 +14769,14 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="520"/>
+      <c r="A96" s="512"/>
       <c r="B96" s="240" t="s">
         <v>329</v>
       </c>
       <c r="C96" s="240" t="s">
         <v>403</v>
       </c>
-      <c r="D96" s="525"/>
+      <c r="D96" s="518"/>
       <c r="E96" s="240" t="s">
         <v>50</v>
       </c>
@@ -14785,14 +14785,14 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A97" s="520"/>
+      <c r="A97" s="512"/>
       <c r="B97" s="240" t="s">
         <v>329</v>
       </c>
       <c r="C97" s="240" t="s">
         <v>405</v>
       </c>
-      <c r="D97" s="525"/>
+      <c r="D97" s="518"/>
       <c r="E97" s="240" t="s">
         <v>50</v>
       </c>
@@ -14801,14 +14801,14 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A98" s="520"/>
+      <c r="A98" s="512"/>
       <c r="B98" s="243" t="s">
         <v>329</v>
       </c>
       <c r="C98" s="243" t="s">
         <v>407</v>
       </c>
-      <c r="D98" s="526"/>
+      <c r="D98" s="519"/>
       <c r="E98" s="243" t="s">
         <v>50</v>
       </c>
@@ -14817,18 +14817,18 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99" s="520"/>
+      <c r="A99" s="512"/>
       <c r="F99" s="236"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A100" s="520"/>
+      <c r="A100" s="512"/>
       <c r="B100" s="237" t="s">
         <v>318</v>
       </c>
       <c r="C100" s="237" t="s">
         <v>409</v>
       </c>
-      <c r="D100" s="524"/>
+      <c r="D100" s="517"/>
       <c r="E100" s="237" t="s">
         <v>50</v>
       </c>
@@ -14837,14 +14837,14 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A101" s="520"/>
+      <c r="A101" s="512"/>
       <c r="B101" s="240" t="s">
         <v>318</v>
       </c>
       <c r="C101" s="240" t="s">
         <v>411</v>
       </c>
-      <c r="D101" s="525"/>
+      <c r="D101" s="518"/>
       <c r="E101" s="240" t="s">
         <v>50</v>
       </c>
@@ -14853,14 +14853,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A102" s="520"/>
+      <c r="A102" s="512"/>
       <c r="B102" s="240" t="s">
         <v>318</v>
       </c>
       <c r="C102" s="240" t="s">
         <v>413</v>
       </c>
-      <c r="D102" s="525"/>
+      <c r="D102" s="518"/>
       <c r="E102" s="240" t="s">
         <v>50</v>
       </c>
@@ -14869,14 +14869,14 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A103" s="520"/>
+      <c r="A103" s="512"/>
       <c r="B103" s="240" t="s">
         <v>318</v>
       </c>
       <c r="C103" s="240" t="s">
         <v>415</v>
       </c>
-      <c r="D103" s="525"/>
+      <c r="D103" s="518"/>
       <c r="E103" s="240" t="s">
         <v>50</v>
       </c>
@@ -14885,14 +14885,14 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A104" s="520"/>
+      <c r="A104" s="512"/>
       <c r="B104" s="240" t="s">
         <v>318</v>
       </c>
       <c r="C104" s="240" t="s">
         <v>417</v>
       </c>
-      <c r="D104" s="525"/>
+      <c r="D104" s="518"/>
       <c r="E104" s="240" t="s">
         <v>50</v>
       </c>
@@ -14901,14 +14901,14 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A105" s="520"/>
+      <c r="A105" s="512"/>
       <c r="B105" s="240" t="s">
         <v>318</v>
       </c>
       <c r="C105" s="240" t="s">
         <v>419</v>
       </c>
-      <c r="D105" s="525"/>
+      <c r="D105" s="518"/>
       <c r="E105" s="240" t="s">
         <v>50</v>
       </c>
@@ -14917,14 +14917,14 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A106" s="520"/>
+      <c r="A106" s="512"/>
       <c r="B106" s="240" t="s">
         <v>318</v>
       </c>
       <c r="C106" s="240" t="s">
         <v>421</v>
       </c>
-      <c r="D106" s="525"/>
+      <c r="D106" s="518"/>
       <c r="E106" s="240" t="s">
         <v>50</v>
       </c>
@@ -14933,14 +14933,14 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A107" s="520"/>
+      <c r="A107" s="512"/>
       <c r="B107" s="240" t="s">
         <v>318</v>
       </c>
       <c r="C107" s="240" t="s">
         <v>423</v>
       </c>
-      <c r="D107" s="525"/>
+      <c r="D107" s="518"/>
       <c r="E107" s="240" t="s">
         <v>50</v>
       </c>
@@ -14949,14 +14949,14 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A108" s="520"/>
+      <c r="A108" s="512"/>
       <c r="B108" s="240" t="s">
         <v>318</v>
       </c>
       <c r="C108" s="240" t="s">
         <v>425</v>
       </c>
-      <c r="D108" s="525"/>
+      <c r="D108" s="518"/>
       <c r="E108" s="240" t="s">
         <v>50</v>
       </c>
@@ -14965,7 +14965,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A109" s="520"/>
+      <c r="A109" s="512"/>
       <c r="B109" s="240"/>
       <c r="C109" s="240"/>
       <c r="D109" s="241"/>
@@ -14973,7 +14973,7 @@
       <c r="F109" s="242"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A110" s="520"/>
+      <c r="A110" s="512"/>
       <c r="B110" s="240" t="s">
         <v>318</v>
       </c>
@@ -14991,7 +14991,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A111" s="520"/>
+      <c r="A111" s="512"/>
       <c r="B111" s="240" t="s">
         <v>318</v>
       </c>
@@ -15009,7 +15009,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A112" s="520"/>
+      <c r="A112" s="512"/>
       <c r="B112" s="240"/>
       <c r="C112" s="240"/>
       <c r="D112" s="248"/>
@@ -15017,7 +15017,7 @@
       <c r="F112" s="258"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A113" s="520"/>
+      <c r="A113" s="512"/>
       <c r="B113" s="240" t="s">
         <v>433</v>
       </c>
@@ -15035,7 +15035,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A114" s="520"/>
+      <c r="A114" s="512"/>
       <c r="B114" s="240" t="s">
         <v>433</v>
       </c>
@@ -15053,7 +15053,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A115" s="520"/>
+      <c r="A115" s="512"/>
       <c r="B115" s="240" t="s">
         <v>433</v>
       </c>
@@ -15071,7 +15071,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A116" s="520"/>
+      <c r="A116" s="512"/>
       <c r="B116" s="240"/>
       <c r="C116" s="259"/>
       <c r="D116" s="260"/>
@@ -15079,7 +15079,7 @@
       <c r="F116" s="242"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A117" s="520"/>
+      <c r="A117" s="512"/>
       <c r="B117" s="240" t="s">
         <v>318</v>
       </c>
@@ -15097,7 +15097,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A118" s="520"/>
+      <c r="A118" s="512"/>
       <c r="B118" s="240" t="s">
         <v>318</v>
       </c>
@@ -15115,7 +15115,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A119" s="520"/>
+      <c r="A119" s="512"/>
       <c r="B119" s="240" t="s">
         <v>318</v>
       </c>
@@ -15133,7 +15133,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A120" s="520"/>
+      <c r="A120" s="512"/>
       <c r="B120" s="240" t="s">
         <v>318</v>
       </c>
@@ -15151,7 +15151,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A121" s="520"/>
+      <c r="A121" s="512"/>
       <c r="B121" s="240" t="s">
         <v>318</v>
       </c>
@@ -15169,7 +15169,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A122" s="520"/>
+      <c r="A122" s="512"/>
       <c r="B122" s="240" t="s">
         <v>318</v>
       </c>
@@ -15187,7 +15187,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A123" s="520"/>
+      <c r="A123" s="512"/>
       <c r="B123" s="243" t="s">
         <v>318</v>
       </c>
@@ -15205,11 +15205,11 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A124" s="520"/>
+      <c r="A124" s="512"/>
       <c r="F124" s="236"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A125" s="520"/>
+      <c r="A125" s="512"/>
       <c r="B125" s="237" t="s">
         <v>461</v>
       </c>
@@ -15227,14 +15227,14 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A126" s="520"/>
+      <c r="A126" s="512"/>
       <c r="B126" s="240" t="s">
         <v>461</v>
       </c>
       <c r="C126" s="240" t="s">
         <v>465</v>
       </c>
-      <c r="D126" s="512" t="s">
+      <c r="D126" s="524" t="s">
         <v>466</v>
       </c>
       <c r="E126" s="240" t="s">
@@ -15245,14 +15245,14 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A127" s="520"/>
+      <c r="A127" s="512"/>
       <c r="B127" s="240" t="s">
         <v>461</v>
       </c>
       <c r="C127" s="240" t="s">
         <v>468</v>
       </c>
-      <c r="D127" s="512"/>
+      <c r="D127" s="524"/>
       <c r="E127" s="240" t="s">
         <v>50</v>
       </c>
@@ -15261,14 +15261,14 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A128" s="520"/>
+      <c r="A128" s="512"/>
       <c r="B128" s="240" t="s">
         <v>461</v>
       </c>
       <c r="C128" s="240" t="s">
         <v>470</v>
       </c>
-      <c r="D128" s="512" t="s">
+      <c r="D128" s="524" t="s">
         <v>471</v>
       </c>
       <c r="E128" s="240" t="s">
@@ -15279,14 +15279,14 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A129" s="520"/>
+      <c r="A129" s="512"/>
       <c r="B129" s="240" t="s">
         <v>461</v>
       </c>
       <c r="C129" s="240" t="s">
         <v>473</v>
       </c>
-      <c r="D129" s="512"/>
+      <c r="D129" s="524"/>
       <c r="E129" s="240" t="s">
         <v>50</v>
       </c>
@@ -15295,14 +15295,14 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A130" s="520"/>
+      <c r="A130" s="512"/>
       <c r="B130" s="240" t="s">
         <v>461</v>
       </c>
       <c r="C130" s="240" t="s">
         <v>475</v>
       </c>
-      <c r="D130" s="512" t="s">
+      <c r="D130" s="524" t="s">
         <v>476</v>
       </c>
       <c r="E130" s="240" t="s">
@@ -15313,14 +15313,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A131" s="520"/>
+      <c r="A131" s="512"/>
       <c r="B131" s="240" t="s">
         <v>461</v>
       </c>
       <c r="C131" s="240" t="s">
         <v>478</v>
       </c>
-      <c r="D131" s="512"/>
+      <c r="D131" s="524"/>
       <c r="E131" s="240" t="s">
         <v>50</v>
       </c>
@@ -15329,7 +15329,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A132" s="520"/>
+      <c r="A132" s="512"/>
       <c r="B132" s="240" t="s">
         <v>461</v>
       </c>
@@ -15347,14 +15347,14 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A133" s="520"/>
+      <c r="A133" s="512"/>
       <c r="B133" s="240" t="s">
         <v>461</v>
       </c>
       <c r="C133" s="240" t="s">
         <v>483</v>
       </c>
-      <c r="D133" s="512" t="s">
+      <c r="D133" s="524" t="s">
         <v>484</v>
       </c>
       <c r="E133" s="240" t="s">
@@ -15365,14 +15365,14 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A134" s="520"/>
+      <c r="A134" s="512"/>
       <c r="B134" s="243" t="s">
         <v>461</v>
       </c>
       <c r="C134" s="243" t="s">
         <v>486</v>
       </c>
-      <c r="D134" s="513"/>
+      <c r="D134" s="525"/>
       <c r="E134" s="243" t="s">
         <v>50</v>
       </c>
@@ -15381,18 +15381,18 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A135" s="520"/>
+      <c r="A135" s="512"/>
       <c r="F135" s="236"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A136" s="520"/>
+      <c r="A136" s="512"/>
       <c r="B136" s="180" t="s">
         <v>488</v>
       </c>
       <c r="C136" s="62" t="s">
         <v>489</v>
       </c>
-      <c r="D136" s="514" t="s">
+      <c r="D136" s="526" t="s">
         <v>490</v>
       </c>
       <c r="E136" s="62" t="s">
@@ -15403,14 +15403,14 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A137" s="520"/>
+      <c r="A137" s="512"/>
       <c r="B137" s="229" t="s">
         <v>488</v>
       </c>
       <c r="C137" s="66" t="s">
         <v>492</v>
       </c>
-      <c r="D137" s="515"/>
+      <c r="D137" s="527"/>
       <c r="E137" s="66" t="s">
         <v>50</v>
       </c>
@@ -15419,14 +15419,14 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A138" s="520"/>
+      <c r="A138" s="512"/>
       <c r="B138" s="229" t="s">
         <v>488</v>
       </c>
       <c r="C138" s="66" t="s">
         <v>494</v>
       </c>
-      <c r="D138" s="515"/>
+      <c r="D138" s="527"/>
       <c r="E138" s="66" t="s">
         <v>50</v>
       </c>
@@ -15435,14 +15435,14 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A139" s="520"/>
+      <c r="A139" s="512"/>
       <c r="B139" s="229" t="s">
         <v>488</v>
       </c>
       <c r="C139" s="66" t="s">
         <v>496</v>
       </c>
-      <c r="D139" s="515"/>
+      <c r="D139" s="527"/>
       <c r="E139" s="66" t="s">
         <v>50</v>
       </c>
@@ -15451,7 +15451,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A140" s="520"/>
+      <c r="A140" s="512"/>
       <c r="B140" s="229" t="s">
         <v>488</v>
       </c>
@@ -15469,7 +15469,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A141" s="520"/>
+      <c r="A141" s="512"/>
       <c r="B141" s="229" t="s">
         <v>488</v>
       </c>
@@ -15487,7 +15487,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A142" s="520"/>
+      <c r="A142" s="512"/>
       <c r="B142" s="229" t="s">
         <v>488</v>
       </c>
@@ -15503,7 +15503,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A143" s="520"/>
+      <c r="A143" s="512"/>
       <c r="B143" s="229" t="s">
         <v>488</v>
       </c>
@@ -15519,7 +15519,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A144" s="520"/>
+      <c r="A144" s="512"/>
       <c r="B144" s="229" t="s">
         <v>488</v>
       </c>
@@ -15537,7 +15537,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A145" s="520"/>
+      <c r="A145" s="512"/>
       <c r="B145" s="262" t="s">
         <v>488</v>
       </c>
@@ -15555,11 +15555,11 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A146" s="520"/>
+      <c r="A146" s="512"/>
       <c r="F146" s="263"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A147" s="520"/>
+      <c r="A147" s="512"/>
       <c r="B147" s="61" t="s">
         <v>514</v>
       </c>
@@ -15577,14 +15577,14 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A148" s="520"/>
+      <c r="A148" s="512"/>
       <c r="B148" s="65" t="s">
         <v>514</v>
       </c>
       <c r="C148" s="66" t="s">
         <v>518</v>
       </c>
-      <c r="D148" s="508" t="s">
+      <c r="D148" s="528" t="s">
         <v>519</v>
       </c>
       <c r="E148" s="66" t="s">
@@ -15595,14 +15595,14 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A149" s="520"/>
+      <c r="A149" s="512"/>
       <c r="B149" s="65" t="s">
         <v>514</v>
       </c>
       <c r="C149" s="66" t="s">
         <v>521</v>
       </c>
-      <c r="D149" s="511"/>
+      <c r="D149" s="516"/>
       <c r="E149" s="66" t="s">
         <v>50</v>
       </c>
@@ -15611,14 +15611,14 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A150" s="520"/>
+      <c r="A150" s="512"/>
       <c r="B150" s="65" t="s">
         <v>514</v>
       </c>
       <c r="C150" s="66" t="s">
         <v>523</v>
       </c>
-      <c r="D150" s="508" t="s">
+      <c r="D150" s="528" t="s">
         <v>524</v>
       </c>
       <c r="E150" s="66" t="s">
@@ -15629,14 +15629,14 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A151" s="520"/>
+      <c r="A151" s="512"/>
       <c r="B151" s="65" t="s">
         <v>514</v>
       </c>
       <c r="C151" s="66" t="s">
         <v>526</v>
       </c>
-      <c r="D151" s="511"/>
+      <c r="D151" s="516"/>
       <c r="E151" s="66" t="s">
         <v>50</v>
       </c>
@@ -15645,14 +15645,14 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A152" s="520"/>
+      <c r="A152" s="512"/>
       <c r="B152" s="65" t="s">
         <v>514</v>
       </c>
       <c r="C152" s="66" t="s">
         <v>528</v>
       </c>
-      <c r="D152" s="508" t="s">
+      <c r="D152" s="528" t="s">
         <v>529</v>
       </c>
       <c r="E152" s="66" t="s">
@@ -15663,14 +15663,14 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A153" s="520"/>
+      <c r="A153" s="512"/>
       <c r="B153" s="65" t="s">
         <v>514</v>
       </c>
       <c r="C153" s="66" t="s">
         <v>531</v>
       </c>
-      <c r="D153" s="511"/>
+      <c r="D153" s="516"/>
       <c r="E153" s="66" t="s">
         <v>50</v>
       </c>
@@ -15679,14 +15679,14 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A154" s="520"/>
+      <c r="A154" s="512"/>
       <c r="B154" s="65" t="s">
         <v>514</v>
       </c>
       <c r="C154" s="66" t="s">
         <v>533</v>
       </c>
-      <c r="D154" s="511"/>
+      <c r="D154" s="516"/>
       <c r="E154" s="66" t="s">
         <v>50</v>
       </c>
@@ -15695,14 +15695,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A155" s="520"/>
+      <c r="A155" s="512"/>
       <c r="B155" s="65" t="s">
         <v>514</v>
       </c>
       <c r="C155" s="66" t="s">
         <v>535</v>
       </c>
-      <c r="D155" s="511"/>
+      <c r="D155" s="516"/>
       <c r="E155" s="66" t="s">
         <v>50</v>
       </c>
@@ -15711,7 +15711,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A156" s="520"/>
+      <c r="A156" s="512"/>
       <c r="B156" s="65" t="s">
         <v>514</v>
       </c>
@@ -15729,7 +15729,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A157" s="520"/>
+      <c r="A157" s="512"/>
       <c r="B157" s="65" t="s">
         <v>514</v>
       </c>
@@ -15747,14 +15747,14 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A158" s="520"/>
+      <c r="A158" s="512"/>
       <c r="B158" s="65" t="s">
         <v>514</v>
       </c>
       <c r="C158" s="66" t="s">
         <v>543</v>
       </c>
-      <c r="D158" s="508" t="s">
+      <c r="D158" s="528" t="s">
         <v>544</v>
       </c>
       <c r="E158" s="66" t="s">
@@ -15765,14 +15765,14 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A159" s="520"/>
+      <c r="A159" s="512"/>
       <c r="B159" s="65" t="s">
         <v>514</v>
       </c>
       <c r="C159" s="66" t="s">
         <v>546</v>
       </c>
-      <c r="D159" s="511"/>
+      <c r="D159" s="516"/>
       <c r="E159" s="66" t="s">
         <v>50</v>
       </c>
@@ -15781,14 +15781,14 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A160" s="520"/>
+      <c r="A160" s="512"/>
       <c r="B160" s="65" t="s">
         <v>514</v>
       </c>
       <c r="C160" s="66" t="s">
         <v>548</v>
       </c>
-      <c r="D160" s="508" t="s">
+      <c r="D160" s="528" t="s">
         <v>549</v>
       </c>
       <c r="E160" s="66" t="s">
@@ -15799,14 +15799,14 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A161" s="520"/>
+      <c r="A161" s="512"/>
       <c r="B161" s="65" t="s">
         <v>514</v>
       </c>
       <c r="C161" s="66" t="s">
         <v>551</v>
       </c>
-      <c r="D161" s="511"/>
+      <c r="D161" s="516"/>
       <c r="E161" s="66" t="s">
         <v>50</v>
       </c>
@@ -15815,7 +15815,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A162" s="520"/>
+      <c r="A162" s="512"/>
       <c r="B162" s="65" t="s">
         <v>514</v>
       </c>
@@ -15833,14 +15833,14 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A163" s="520"/>
+      <c r="A163" s="512"/>
       <c r="B163" s="65" t="s">
         <v>514</v>
       </c>
       <c r="C163" s="66" t="s">
         <v>556</v>
       </c>
-      <c r="D163" s="508" t="s">
+      <c r="D163" s="528" t="s">
         <v>557</v>
       </c>
       <c r="E163" s="66" t="s">
@@ -15851,14 +15851,14 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A164" s="520"/>
+      <c r="A164" s="512"/>
       <c r="B164" s="108" t="s">
         <v>514</v>
       </c>
       <c r="C164" s="77" t="s">
         <v>558</v>
       </c>
-      <c r="D164" s="509"/>
+      <c r="D164" s="529"/>
       <c r="E164" s="77" t="s">
         <v>50</v>
       </c>
@@ -15867,11 +15867,11 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A165" s="520"/>
+      <c r="A165" s="512"/>
       <c r="F165" s="280"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A166" s="520"/>
+      <c r="A166" s="512"/>
       <c r="B166" s="61" t="s">
         <v>560</v>
       </c>
@@ -15889,14 +15889,14 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A167" s="520"/>
+      <c r="A167" s="512"/>
       <c r="B167" s="65" t="s">
         <v>560</v>
       </c>
       <c r="C167" s="66" t="s">
         <v>563</v>
       </c>
-      <c r="D167" s="508" t="s">
+      <c r="D167" s="528" t="s">
         <v>519</v>
       </c>
       <c r="E167" s="66" t="s">
@@ -15907,14 +15907,14 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A168" s="520"/>
+      <c r="A168" s="512"/>
       <c r="B168" s="65" t="s">
         <v>560</v>
       </c>
       <c r="C168" s="66" t="s">
         <v>565</v>
       </c>
-      <c r="D168" s="511"/>
+      <c r="D168" s="516"/>
       <c r="E168" s="66" t="s">
         <v>50</v>
       </c>
@@ -15923,14 +15923,14 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A169" s="520"/>
+      <c r="A169" s="512"/>
       <c r="B169" s="65" t="s">
         <v>560</v>
       </c>
       <c r="C169" s="66" t="s">
         <v>567</v>
       </c>
-      <c r="D169" s="508" t="s">
+      <c r="D169" s="528" t="s">
         <v>524</v>
       </c>
       <c r="E169" s="66" t="s">
@@ -15941,14 +15941,14 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A170" s="520"/>
+      <c r="A170" s="512"/>
       <c r="B170" s="65" t="s">
         <v>560</v>
       </c>
       <c r="C170" s="66" t="s">
         <v>569</v>
       </c>
-      <c r="D170" s="511"/>
+      <c r="D170" s="516"/>
       <c r="E170" s="66" t="s">
         <v>50</v>
       </c>
@@ -15957,14 +15957,14 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A171" s="520"/>
+      <c r="A171" s="512"/>
       <c r="B171" s="65" t="s">
         <v>560</v>
       </c>
       <c r="C171" s="66" t="s">
         <v>571</v>
       </c>
-      <c r="D171" s="508" t="s">
+      <c r="D171" s="528" t="s">
         <v>529</v>
       </c>
       <c r="E171" s="66" t="s">
@@ -15975,14 +15975,14 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A172" s="520"/>
+      <c r="A172" s="512"/>
       <c r="B172" s="65" t="s">
         <v>560</v>
       </c>
       <c r="C172" s="66" t="s">
         <v>573</v>
       </c>
-      <c r="D172" s="511"/>
+      <c r="D172" s="516"/>
       <c r="E172" s="66" t="s">
         <v>50</v>
       </c>
@@ -15991,14 +15991,14 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A173" s="520"/>
+      <c r="A173" s="512"/>
       <c r="B173" s="65" t="s">
         <v>560</v>
       </c>
       <c r="C173" s="66" t="s">
         <v>575</v>
       </c>
-      <c r="D173" s="511"/>
+      <c r="D173" s="516"/>
       <c r="E173" s="66" t="s">
         <v>50</v>
       </c>
@@ -16007,14 +16007,14 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A174" s="520"/>
+      <c r="A174" s="512"/>
       <c r="B174" s="65" t="s">
         <v>560</v>
       </c>
       <c r="C174" s="66" t="s">
         <v>577</v>
       </c>
-      <c r="D174" s="511"/>
+      <c r="D174" s="516"/>
       <c r="E174" s="66" t="s">
         <v>50</v>
       </c>
@@ -16023,7 +16023,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A175" s="520"/>
+      <c r="A175" s="512"/>
       <c r="B175" s="65" t="s">
         <v>560</v>
       </c>
@@ -16041,14 +16041,14 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A176" s="520"/>
+      <c r="A176" s="512"/>
       <c r="B176" s="65" t="s">
         <v>560</v>
       </c>
       <c r="C176" s="66" t="s">
         <v>581</v>
       </c>
-      <c r="D176" s="508" t="s">
+      <c r="D176" s="528" t="s">
         <v>544</v>
       </c>
       <c r="E176" s="66" t="s">
@@ -16059,14 +16059,14 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A177" s="520"/>
+      <c r="A177" s="512"/>
       <c r="B177" s="65" t="s">
         <v>560</v>
       </c>
       <c r="C177" s="66" t="s">
         <v>583</v>
       </c>
-      <c r="D177" s="511"/>
+      <c r="D177" s="516"/>
       <c r="E177" s="66" t="s">
         <v>50</v>
       </c>
@@ -16075,14 +16075,14 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A178" s="520"/>
+      <c r="A178" s="512"/>
       <c r="B178" s="65" t="s">
         <v>560</v>
       </c>
       <c r="C178" s="66" t="s">
         <v>585</v>
       </c>
-      <c r="D178" s="508" t="s">
+      <c r="D178" s="528" t="s">
         <v>549</v>
       </c>
       <c r="E178" s="66" t="s">
@@ -16093,14 +16093,14 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A179" s="520"/>
+      <c r="A179" s="512"/>
       <c r="B179" s="65" t="s">
         <v>560</v>
       </c>
       <c r="C179" s="66" t="s">
         <v>586</v>
       </c>
-      <c r="D179" s="511"/>
+      <c r="D179" s="516"/>
       <c r="E179" s="66" t="s">
         <v>50</v>
       </c>
@@ -16109,7 +16109,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A180" s="520"/>
+      <c r="A180" s="512"/>
       <c r="B180" s="65" t="s">
         <v>560</v>
       </c>
@@ -16127,14 +16127,14 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A181" s="520"/>
+      <c r="A181" s="512"/>
       <c r="B181" s="65" t="s">
         <v>560</v>
       </c>
       <c r="C181" s="66" t="s">
         <v>590</v>
       </c>
-      <c r="D181" s="508" t="s">
+      <c r="D181" s="528" t="s">
         <v>557</v>
       </c>
       <c r="E181" s="66" t="s">
@@ -16145,14 +16145,14 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A182" s="520"/>
+      <c r="A182" s="512"/>
       <c r="B182" s="108" t="s">
         <v>560</v>
       </c>
       <c r="C182" s="77" t="s">
         <v>592</v>
       </c>
-      <c r="D182" s="509"/>
+      <c r="D182" s="529"/>
       <c r="E182" s="77" t="s">
         <v>50</v>
       </c>
@@ -16161,11 +16161,11 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A183" s="520"/>
+      <c r="A183" s="512"/>
       <c r="F183" s="297"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A184" s="520"/>
+      <c r="A184" s="512"/>
       <c r="B184" s="61" t="s">
         <v>594</v>
       </c>
@@ -16183,7 +16183,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A185" s="520"/>
+      <c r="A185" s="512"/>
       <c r="B185" s="65" t="s">
         <v>594</v>
       </c>
@@ -16201,7 +16201,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A186" s="520"/>
+      <c r="A186" s="512"/>
       <c r="B186" s="65"/>
       <c r="C186" s="66"/>
       <c r="D186" s="67"/>
@@ -16209,7 +16209,7 @@
       <c r="F186" s="107"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A187" s="520"/>
+      <c r="A187" s="512"/>
       <c r="B187" s="65" t="s">
         <v>594</v>
       </c>
@@ -16227,7 +16227,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A188" s="520"/>
+      <c r="A188" s="512"/>
       <c r="B188" s="65" t="s">
         <v>594</v>
       </c>
@@ -16245,7 +16245,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A189" s="520"/>
+      <c r="A189" s="512"/>
       <c r="B189" s="65" t="s">
         <v>594</v>
       </c>
@@ -16263,7 +16263,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A190" s="520"/>
+      <c r="A190" s="512"/>
       <c r="B190" s="65" t="s">
         <v>594</v>
       </c>
@@ -16281,7 +16281,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A191" s="520"/>
+      <c r="A191" s="512"/>
       <c r="B191" s="65" t="s">
         <v>594</v>
       </c>
@@ -16299,7 +16299,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A192" s="520"/>
+      <c r="A192" s="512"/>
       <c r="B192" s="65" t="s">
         <v>594</v>
       </c>
@@ -16317,7 +16317,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A193" s="520"/>
+      <c r="A193" s="512"/>
       <c r="B193" s="65"/>
       <c r="C193" s="66"/>
       <c r="D193" s="67"/>
@@ -16325,7 +16325,7 @@
       <c r="F193" s="107"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A194" s="520"/>
+      <c r="A194" s="512"/>
       <c r="B194" s="65" t="s">
         <v>594</v>
       </c>
@@ -16343,7 +16343,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A195" s="520"/>
+      <c r="A195" s="512"/>
       <c r="B195" s="65" t="s">
         <v>594</v>
       </c>
@@ -16361,7 +16361,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A196" s="520"/>
+      <c r="A196" s="512"/>
       <c r="B196" s="65" t="s">
         <v>594</v>
       </c>
@@ -16379,7 +16379,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A197" s="520"/>
+      <c r="A197" s="512"/>
       <c r="B197" s="65" t="s">
         <v>594</v>
       </c>
@@ -16395,7 +16395,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A198" s="520"/>
+      <c r="A198" s="512"/>
       <c r="B198" s="65" t="s">
         <v>594</v>
       </c>
@@ -16411,7 +16411,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A199" s="520"/>
+      <c r="A199" s="512"/>
       <c r="B199" s="108" t="s">
         <v>594</v>
       </c>
@@ -16427,11 +16427,11 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A200" s="520"/>
+      <c r="A200" s="512"/>
       <c r="F200" s="236"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A201" s="520"/>
+      <c r="A201" s="512"/>
       <c r="B201" s="61" t="s">
         <v>631</v>
       </c>
@@ -16447,7 +16447,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A202" s="520"/>
+      <c r="A202" s="512"/>
       <c r="B202" s="65"/>
       <c r="C202" s="66"/>
       <c r="D202" s="67"/>
@@ -16455,7 +16455,7 @@
       <c r="F202" s="107"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A203" s="520"/>
+      <c r="A203" s="512"/>
       <c r="B203" s="65" t="s">
         <v>631</v>
       </c>
@@ -16471,7 +16471,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A204" s="520"/>
+      <c r="A204" s="512"/>
       <c r="B204" s="65" t="s">
         <v>631</v>
       </c>
@@ -16487,7 +16487,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A205" s="520"/>
+      <c r="A205" s="512"/>
       <c r="B205" s="65"/>
       <c r="C205" s="66"/>
       <c r="D205" s="67"/>
@@ -16495,7 +16495,7 @@
       <c r="F205" s="107"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A206" s="520"/>
+      <c r="A206" s="512"/>
       <c r="B206" s="65" t="s">
         <v>631</v>
       </c>
@@ -16511,7 +16511,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A207" s="520"/>
+      <c r="A207" s="512"/>
       <c r="B207" s="65" t="s">
         <v>631</v>
       </c>
@@ -16527,7 +16527,7 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A208" s="520"/>
+      <c r="A208" s="512"/>
       <c r="B208" s="65" t="s">
         <v>631</v>
       </c>
@@ -16543,7 +16543,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A209" s="520"/>
+      <c r="A209" s="512"/>
       <c r="B209" s="65" t="s">
         <v>631</v>
       </c>
@@ -16559,7 +16559,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A210" s="520"/>
+      <c r="A210" s="512"/>
       <c r="B210" s="65" t="s">
         <v>631</v>
       </c>
@@ -16575,7 +16575,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A211" s="520"/>
+      <c r="A211" s="512"/>
       <c r="B211" s="65" t="s">
         <v>631</v>
       </c>
@@ -16591,7 +16591,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A212" s="520"/>
+      <c r="A212" s="512"/>
       <c r="B212" s="65" t="s">
         <v>631</v>
       </c>
@@ -16607,7 +16607,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A213" s="520"/>
+      <c r="A213" s="512"/>
       <c r="B213" s="65"/>
       <c r="C213" s="66"/>
       <c r="D213" s="67"/>
@@ -16615,7 +16615,7 @@
       <c r="F213" s="107"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A214" s="520"/>
+      <c r="A214" s="512"/>
       <c r="B214" s="65" t="s">
         <v>631</v>
       </c>
@@ -16631,7 +16631,7 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A215" s="520"/>
+      <c r="A215" s="512"/>
       <c r="B215" s="65" t="s">
         <v>631</v>
       </c>
@@ -16647,7 +16647,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A216" s="520"/>
+      <c r="A216" s="512"/>
       <c r="B216" s="65"/>
       <c r="C216" s="66"/>
       <c r="D216" s="67"/>
@@ -16655,7 +16655,7 @@
       <c r="F216" s="107"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A217" s="520"/>
+      <c r="A217" s="512"/>
       <c r="B217" s="65" t="s">
         <v>631</v>
       </c>
@@ -16671,7 +16671,7 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A218" s="520"/>
+      <c r="A218" s="512"/>
       <c r="B218" s="65" t="s">
         <v>631</v>
       </c>
@@ -16687,7 +16687,7 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A219" s="520"/>
+      <c r="A219" s="512"/>
       <c r="B219" s="65" t="s">
         <v>631</v>
       </c>
@@ -16703,7 +16703,7 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A220" s="520"/>
+      <c r="A220" s="512"/>
       <c r="B220" s="65" t="s">
         <v>631</v>
       </c>
@@ -16719,7 +16719,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A221" s="520"/>
+      <c r="A221" s="512"/>
       <c r="B221" s="65" t="s">
         <v>631</v>
       </c>
@@ -16735,7 +16735,7 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A222" s="520"/>
+      <c r="A222" s="512"/>
       <c r="B222" s="65" t="s">
         <v>631</v>
       </c>
@@ -16751,7 +16751,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A223" s="520"/>
+      <c r="A223" s="512"/>
       <c r="B223" s="65" t="s">
         <v>631</v>
       </c>
@@ -16767,7 +16767,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A224" s="520"/>
+      <c r="A224" s="512"/>
       <c r="B224" s="65" t="s">
         <v>631</v>
       </c>
@@ -16783,7 +16783,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A225" s="520"/>
+      <c r="A225" s="512"/>
       <c r="B225" s="65" t="s">
         <v>631</v>
       </c>
@@ -16799,7 +16799,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A226" s="520"/>
+      <c r="A226" s="512"/>
       <c r="B226" s="65"/>
       <c r="C226" s="66"/>
       <c r="D226" s="67"/>
@@ -16807,7 +16807,7 @@
       <c r="F226" s="107"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A227" s="520"/>
+      <c r="A227" s="512"/>
       <c r="B227" s="65" t="s">
         <v>631</v>
       </c>
@@ -16823,7 +16823,7 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A228" s="520"/>
+      <c r="A228" s="512"/>
       <c r="B228" s="65" t="s">
         <v>631</v>
       </c>
@@ -16839,7 +16839,7 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A229" s="520"/>
+      <c r="A229" s="512"/>
       <c r="B229" s="65" t="s">
         <v>631</v>
       </c>
@@ -16855,7 +16855,7 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A230" s="520"/>
+      <c r="A230" s="512"/>
       <c r="B230" s="65" t="s">
         <v>631</v>
       </c>
@@ -16871,7 +16871,7 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A231" s="520"/>
+      <c r="A231" s="512"/>
       <c r="B231" s="65" t="s">
         <v>631</v>
       </c>
@@ -16887,7 +16887,7 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A232" s="520"/>
+      <c r="A232" s="512"/>
       <c r="B232" s="65" t="s">
         <v>631</v>
       </c>
@@ -16903,7 +16903,7 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A233" s="520"/>
+      <c r="A233" s="512"/>
       <c r="B233" s="65" t="s">
         <v>631</v>
       </c>
@@ -16919,7 +16919,7 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A234" s="520"/>
+      <c r="A234" s="512"/>
       <c r="B234" s="65" t="s">
         <v>631</v>
       </c>
@@ -16935,7 +16935,7 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A235" s="520"/>
+      <c r="A235" s="512"/>
       <c r="B235" s="65" t="s">
         <v>631</v>
       </c>
@@ -16951,7 +16951,7 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A236" s="520"/>
+      <c r="A236" s="512"/>
       <c r="B236" s="65"/>
       <c r="C236" s="66"/>
       <c r="D236" s="67"/>
@@ -16959,7 +16959,7 @@
       <c r="F236" s="107"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A237" s="520"/>
+      <c r="A237" s="512"/>
       <c r="B237" s="65" t="s">
         <v>631</v>
       </c>
@@ -16975,7 +16975,7 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A238" s="520"/>
+      <c r="A238" s="512"/>
       <c r="B238" s="65" t="s">
         <v>631</v>
       </c>
@@ -16991,7 +16991,7 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A239" s="520"/>
+      <c r="A239" s="512"/>
       <c r="B239" s="65"/>
       <c r="C239" s="66"/>
       <c r="D239" s="67"/>
@@ -16999,7 +16999,7 @@
       <c r="F239" s="107"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A240" s="520"/>
+      <c r="A240" s="512"/>
       <c r="B240" s="65" t="s">
         <v>631</v>
       </c>
@@ -17015,7 +17015,7 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A241" s="520"/>
+      <c r="A241" s="512"/>
       <c r="B241" s="65" t="s">
         <v>631</v>
       </c>
@@ -17031,7 +17031,7 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A242" s="520"/>
+      <c r="A242" s="512"/>
       <c r="B242" s="65"/>
       <c r="C242" s="66"/>
       <c r="D242" s="67"/>
@@ -17039,7 +17039,7 @@
       <c r="F242" s="107"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A243" s="520"/>
+      <c r="A243" s="512"/>
       <c r="B243" s="65" t="s">
         <v>631</v>
       </c>
@@ -17057,7 +17057,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A244" s="520"/>
+      <c r="A244" s="512"/>
       <c r="B244" s="65" t="s">
         <v>631</v>
       </c>
@@ -17075,7 +17075,7 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A245" s="520"/>
+      <c r="A245" s="512"/>
       <c r="B245" s="65"/>
       <c r="C245" s="66"/>
       <c r="D245" s="67"/>
@@ -17083,7 +17083,7 @@
       <c r="F245" s="107"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A246" s="520"/>
+      <c r="A246" s="512"/>
       <c r="B246" s="65" t="s">
         <v>631</v>
       </c>
@@ -17099,7 +17099,7 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A247" s="520"/>
+      <c r="A247" s="512"/>
       <c r="B247" s="65" t="s">
         <v>631</v>
       </c>
@@ -17115,7 +17115,7 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A248" s="520"/>
+      <c r="A248" s="512"/>
       <c r="B248" s="298" t="s">
         <v>631</v>
       </c>
@@ -17131,7 +17131,7 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A249" s="520"/>
+      <c r="A249" s="512"/>
       <c r="B249" s="65"/>
       <c r="C249" s="66"/>
       <c r="D249" s="67"/>
@@ -17139,14 +17139,14 @@
       <c r="F249" s="107"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A250" s="520"/>
+      <c r="A250" s="512"/>
       <c r="B250" s="65" t="s">
         <v>631</v>
       </c>
       <c r="C250" s="66" t="s">
         <v>695</v>
       </c>
-      <c r="D250" s="510" t="s">
+      <c r="D250" s="530" t="s">
         <v>696</v>
       </c>
       <c r="E250" s="66" t="s">
@@ -17157,14 +17157,14 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A251" s="520"/>
+      <c r="A251" s="512"/>
       <c r="B251" s="108" t="s">
         <v>631</v>
       </c>
       <c r="C251" s="77" t="s">
         <v>698</v>
       </c>
-      <c r="D251" s="509"/>
+      <c r="D251" s="529"/>
       <c r="E251" s="77" t="s">
         <v>50</v>
       </c>
@@ -17173,11 +17173,11 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A252" s="520"/>
+      <c r="A252" s="512"/>
       <c r="F252" s="236"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A253" s="520"/>
+      <c r="A253" s="512"/>
       <c r="B253" s="61" t="s">
         <v>700</v>
       </c>
@@ -17193,7 +17193,7 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A254" s="520"/>
+      <c r="A254" s="512"/>
       <c r="B254" s="65" t="s">
         <v>700</v>
       </c>
@@ -17209,7 +17209,7 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A255" s="520"/>
+      <c r="A255" s="512"/>
       <c r="B255" s="65" t="s">
         <v>700</v>
       </c>
@@ -17225,7 +17225,7 @@
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A256" s="520"/>
+      <c r="A256" s="512"/>
       <c r="B256" s="65" t="s">
         <v>700</v>
       </c>
@@ -17241,7 +17241,7 @@
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A257" s="520"/>
+      <c r="A257" s="512"/>
       <c r="B257" s="65" t="s">
         <v>700</v>
       </c>
@@ -17257,7 +17257,7 @@
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A258" s="520"/>
+      <c r="A258" s="512"/>
       <c r="B258" s="65" t="s">
         <v>700</v>
       </c>
@@ -17273,7 +17273,7 @@
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A259" s="521"/>
+      <c r="A259" s="513"/>
       <c r="B259" s="65" t="s">
         <v>700</v>
       </c>
@@ -17291,7 +17291,7 @@
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A260" s="521"/>
+      <c r="A260" s="513"/>
       <c r="B260" s="65" t="s">
         <v>700</v>
       </c>
@@ -17309,7 +17309,7 @@
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A261" s="521"/>
+      <c r="A261" s="513"/>
       <c r="B261" s="65" t="s">
         <v>700</v>
       </c>
@@ -17327,7 +17327,7 @@
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A262" s="521"/>
+      <c r="A262" s="513"/>
       <c r="B262" s="65" t="s">
         <v>700</v>
       </c>
@@ -17345,7 +17345,7 @@
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A263" s="521"/>
+      <c r="A263" s="513"/>
       <c r="B263" s="65" t="s">
         <v>700</v>
       </c>
@@ -17363,7 +17363,7 @@
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A264" s="521"/>
+      <c r="A264" s="513"/>
       <c r="B264" s="65" t="s">
         <v>700</v>
       </c>
@@ -17381,7 +17381,7 @@
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A265" s="521"/>
+      <c r="A265" s="513"/>
       <c r="B265" s="65" t="s">
         <v>700</v>
       </c>
@@ -17400,7 +17400,7 @@
       <c r="G265" s="3"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A266" s="521"/>
+      <c r="A266" s="513"/>
       <c r="B266" s="65" t="s">
         <v>700</v>
       </c>
@@ -17419,7 +17419,7 @@
       <c r="G266" s="3"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A267" s="521"/>
+      <c r="A267" s="513"/>
       <c r="B267" s="65" t="s">
         <v>700</v>
       </c>
@@ -17437,7 +17437,7 @@
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A268" s="521"/>
+      <c r="A268" s="513"/>
       <c r="B268" s="65" t="s">
         <v>700</v>
       </c>
@@ -17455,7 +17455,7 @@
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A269" s="521"/>
+      <c r="A269" s="513"/>
       <c r="B269" s="65" t="s">
         <v>700</v>
       </c>
@@ -17473,7 +17473,7 @@
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A270" s="521"/>
+      <c r="A270" s="513"/>
       <c r="B270" s="65" t="s">
         <v>700</v>
       </c>
@@ -17491,7 +17491,7 @@
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A271" s="522"/>
+      <c r="A271" s="514"/>
       <c r="B271" s="124" t="s">
         <v>700</v>
       </c>
@@ -17513,6 +17513,23 @@
     <sortCondition ref="B80:B269"/>
   </sortState>
   <mergeCells count="33">
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="D171:D174"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="D152:D155"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="D136:D139"/>
+    <mergeCell ref="D148:D149"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A11:A271"/>
     <mergeCell ref="D13:D17"/>
@@ -17529,23 +17546,6 @@
     <mergeCell ref="D95:D98"/>
     <mergeCell ref="D100:D108"/>
     <mergeCell ref="D126:D127"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="D136:D139"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="D152:D155"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="D171:D174"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="D178:D179"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.196850393700787" footer="0.196850393700787"/>
@@ -20327,15 +20327,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="537" t="s">
+      <c r="A1" s="539" t="s">
         <v>1002</v>
       </c>
-      <c r="B1" s="537"/>
-      <c r="C1" s="537"/>
-      <c r="D1" s="537"/>
-      <c r="E1" s="537"/>
-      <c r="F1" s="537"/>
-      <c r="G1" s="537"/>
+      <c r="B1" s="539"/>
+      <c r="C1" s="539"/>
+      <c r="D1" s="539"/>
+      <c r="E1" s="539"/>
+      <c r="F1" s="539"/>
+      <c r="G1" s="539"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="126" t="s">
@@ -20359,7 +20359,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="538" t="s">
+      <c r="A3" s="540" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="129" t="s">
@@ -20381,7 +20381,7 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="539"/>
+      <c r="A4" s="541"/>
       <c r="B4" s="133"/>
       <c r="C4" s="21"/>
       <c r="D4" s="39"/>
@@ -20391,7 +20391,7 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="540" t="s">
+      <c r="A5" s="542" t="s">
         <v>259</v>
       </c>
       <c r="B5" s="134" t="s">
@@ -20413,7 +20413,7 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="541"/>
+      <c r="A6" s="543"/>
       <c r="B6" s="133"/>
       <c r="C6" s="21"/>
       <c r="D6" s="39"/>
@@ -20423,7 +20423,7 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="541"/>
+      <c r="A7" s="543"/>
       <c r="B7" s="138" t="s">
         <v>262</v>
       </c>
@@ -20433,7 +20433,7 @@
       <c r="D7" s="139" t="s">
         <v>1003</v>
       </c>
-      <c r="E7" s="544"/>
+      <c r="E7" s="546"/>
       <c r="F7" s="11" t="s">
         <v>50</v>
       </c>
@@ -20443,7 +20443,7 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="541"/>
+      <c r="A8" s="543"/>
       <c r="B8" s="140" t="s">
         <v>262</v>
       </c>
@@ -20453,7 +20453,7 @@
       <c r="D8" s="36" t="s">
         <v>1004</v>
       </c>
-      <c r="E8" s="545"/>
+      <c r="E8" s="537"/>
       <c r="F8" s="14" t="s">
         <v>50</v>
       </c>
@@ -20463,7 +20463,7 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="541"/>
+      <c r="A9" s="543"/>
       <c r="B9" s="140" t="s">
         <v>262</v>
       </c>
@@ -20473,7 +20473,7 @@
       <c r="D9" s="36" t="s">
         <v>1005</v>
       </c>
-      <c r="E9" s="545"/>
+      <c r="E9" s="537"/>
       <c r="F9" s="14" t="s">
         <v>50</v>
       </c>
@@ -20483,7 +20483,7 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="541"/>
+      <c r="A10" s="543"/>
       <c r="B10" s="140" t="s">
         <v>262</v>
       </c>
@@ -20493,7 +20493,7 @@
       <c r="D10" s="36" t="s">
         <v>1006</v>
       </c>
-      <c r="E10" s="545"/>
+      <c r="E10" s="537"/>
       <c r="F10" s="14" t="s">
         <v>50</v>
       </c>
@@ -20502,7 +20502,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="541"/>
+      <c r="A11" s="543"/>
       <c r="B11" s="140" t="s">
         <v>262</v>
       </c>
@@ -20512,7 +20512,7 @@
       <c r="D11" s="36" t="s">
         <v>1007</v>
       </c>
-      <c r="E11" s="545"/>
+      <c r="E11" s="537"/>
       <c r="F11" s="14" t="s">
         <v>50</v>
       </c>
@@ -20521,7 +20521,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="541"/>
+      <c r="A12" s="543"/>
       <c r="B12" s="141" t="s">
         <v>53</v>
       </c>
@@ -20540,7 +20540,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="541"/>
+      <c r="A13" s="543"/>
       <c r="B13" s="133"/>
       <c r="C13" s="21"/>
       <c r="D13" s="39"/>
@@ -20549,7 +20549,7 @@
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="541"/>
+      <c r="A14" s="543"/>
       <c r="B14" s="138" t="s">
         <v>278</v>
       </c>
@@ -20559,7 +20559,7 @@
       <c r="D14" s="139" t="s">
         <v>279</v>
       </c>
-      <c r="E14" s="544"/>
+      <c r="E14" s="546"/>
       <c r="F14" s="11" t="s">
         <v>50</v>
       </c>
@@ -20568,7 +20568,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="541"/>
+      <c r="A15" s="543"/>
       <c r="B15" s="140" t="s">
         <v>278</v>
       </c>
@@ -20578,7 +20578,7 @@
       <c r="D15" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="E15" s="545"/>
+      <c r="E15" s="537"/>
       <c r="F15" s="14" t="s">
         <v>50</v>
       </c>
@@ -20587,7 +20587,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="541"/>
+      <c r="A16" s="543"/>
       <c r="B16" s="140" t="s">
         <v>278</v>
       </c>
@@ -20597,7 +20597,7 @@
       <c r="D16" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="E16" s="545"/>
+      <c r="E16" s="537"/>
       <c r="F16" s="14" t="s">
         <v>50</v>
       </c>
@@ -20606,7 +20606,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="541"/>
+      <c r="A17" s="543"/>
       <c r="B17" s="140" t="s">
         <v>278</v>
       </c>
@@ -20616,7 +20616,7 @@
       <c r="D17" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="E17" s="545"/>
+      <c r="E17" s="537"/>
       <c r="F17" s="14" t="s">
         <v>50</v>
       </c>
@@ -20625,7 +20625,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="541"/>
+      <c r="A18" s="543"/>
       <c r="B18" s="140" t="s">
         <v>278</v>
       </c>
@@ -20644,7 +20644,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="541"/>
+      <c r="A19" s="543"/>
       <c r="B19" s="141" t="s">
         <v>278</v>
       </c>
@@ -20663,7 +20663,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="541"/>
+      <c r="A20" s="543"/>
       <c r="B20" s="133"/>
       <c r="C20" s="21"/>
       <c r="D20" s="39"/>
@@ -20672,7 +20672,7 @@
       <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="541"/>
+      <c r="A21" s="543"/>
       <c r="B21" s="138" t="s">
         <v>278</v>
       </c>
@@ -20682,7 +20682,7 @@
       <c r="D21" s="139" t="s">
         <v>1010</v>
       </c>
-      <c r="E21" s="544"/>
+      <c r="E21" s="546"/>
       <c r="F21" s="11" t="s">
         <v>50</v>
       </c>
@@ -20691,7 +20691,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="541"/>
+      <c r="A22" s="543"/>
       <c r="B22" s="140" t="s">
         <v>278</v>
       </c>
@@ -20701,7 +20701,7 @@
       <c r="D22" s="36" t="s">
         <v>1011</v>
       </c>
-      <c r="E22" s="545"/>
+      <c r="E22" s="537"/>
       <c r="F22" s="14" t="s">
         <v>50</v>
       </c>
@@ -20710,7 +20710,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="541"/>
+      <c r="A23" s="543"/>
       <c r="B23" s="140" t="s">
         <v>278</v>
       </c>
@@ -20720,7 +20720,7 @@
       <c r="D23" s="36" t="s">
         <v>1012</v>
       </c>
-      <c r="E23" s="545"/>
+      <c r="E23" s="537"/>
       <c r="F23" s="14" t="s">
         <v>50</v>
       </c>
@@ -20729,7 +20729,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="541"/>
+      <c r="A24" s="543"/>
       <c r="B24" s="141" t="s">
         <v>278</v>
       </c>
@@ -20739,7 +20739,7 @@
       <c r="D24" s="46" t="s">
         <v>1013</v>
       </c>
-      <c r="E24" s="546"/>
+      <c r="E24" s="538"/>
       <c r="F24" s="45" t="s">
         <v>50</v>
       </c>
@@ -20748,7 +20748,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="541"/>
+      <c r="A25" s="543"/>
       <c r="B25" s="133"/>
       <c r="C25" s="21"/>
       <c r="D25" s="39"/>
@@ -20757,7 +20757,7 @@
       <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="541"/>
+      <c r="A26" s="543"/>
       <c r="B26" s="138" t="s">
         <v>314</v>
       </c>
@@ -20767,7 +20767,7 @@
       <c r="D26" s="139" t="s">
         <v>1014</v>
       </c>
-      <c r="E26" s="544"/>
+      <c r="E26" s="546"/>
       <c r="F26" s="11" t="s">
         <v>50</v>
       </c>
@@ -20776,7 +20776,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="541"/>
+      <c r="A27" s="543"/>
       <c r="B27" s="141" t="s">
         <v>314</v>
       </c>
@@ -20786,7 +20786,7 @@
       <c r="D27" s="46" t="s">
         <v>1015</v>
       </c>
-      <c r="E27" s="546"/>
+      <c r="E27" s="538"/>
       <c r="F27" s="45" t="s">
         <v>50</v>
       </c>
@@ -20795,7 +20795,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="541"/>
+      <c r="A28" s="543"/>
       <c r="B28" s="133"/>
       <c r="C28" s="21"/>
       <c r="D28" s="39"/>
@@ -20804,7 +20804,7 @@
       <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="541"/>
+      <c r="A29" s="543"/>
       <c r="B29" s="138" t="s">
         <v>433</v>
       </c>
@@ -20823,7 +20823,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="541"/>
+      <c r="A30" s="543"/>
       <c r="B30" s="140" t="s">
         <v>433</v>
       </c>
@@ -20842,7 +20842,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="541"/>
+      <c r="A31" s="543"/>
       <c r="B31" s="141" t="s">
         <v>433</v>
       </c>
@@ -20861,7 +20861,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="541"/>
+      <c r="A32" s="543"/>
       <c r="B32" s="144"/>
       <c r="C32" s="43"/>
       <c r="D32" s="145"/>
@@ -20870,7 +20870,7 @@
       <c r="G32" s="146"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="541"/>
+      <c r="A33" s="543"/>
       <c r="B33" s="138" t="s">
         <v>329</v>
       </c>
@@ -20889,7 +20889,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="541"/>
+      <c r="A34" s="543"/>
       <c r="B34" s="140" t="s">
         <v>329</v>
       </c>
@@ -20908,7 +20908,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="541"/>
+      <c r="A35" s="543"/>
       <c r="B35" s="140" t="s">
         <v>329</v>
       </c>
@@ -20927,7 +20927,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="541"/>
+      <c r="A36" s="543"/>
       <c r="B36" s="140" t="s">
         <v>329</v>
       </c>
@@ -20946,7 +20946,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="541"/>
+      <c r="A37" s="543"/>
       <c r="B37" s="140" t="s">
         <v>329</v>
       </c>
@@ -20963,7 +20963,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="541"/>
+      <c r="A38" s="543"/>
       <c r="B38" s="141" t="s">
         <v>329</v>
       </c>
@@ -20980,7 +20980,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="541"/>
+      <c r="A39" s="543"/>
       <c r="B39" s="133"/>
       <c r="C39" s="21"/>
       <c r="D39" s="39"/>
@@ -20989,7 +20989,7 @@
       <c r="G39" s="23"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="541"/>
+      <c r="A40" s="543"/>
       <c r="B40" s="147" t="s">
         <v>344</v>
       </c>
@@ -21008,7 +21008,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="541"/>
+      <c r="A41" s="543"/>
       <c r="B41" s="152" t="s">
         <v>344</v>
       </c>
@@ -21027,7 +21027,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="541"/>
+      <c r="A42" s="543"/>
       <c r="B42" s="152" t="s">
         <v>344</v>
       </c>
@@ -21046,7 +21046,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="541"/>
+      <c r="A43" s="543"/>
       <c r="B43" s="152" t="s">
         <v>344</v>
       </c>
@@ -21065,7 +21065,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="541"/>
+      <c r="A44" s="543"/>
       <c r="B44" s="141" t="s">
         <v>344</v>
       </c>
@@ -21084,7 +21084,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="541"/>
+      <c r="A45" s="543"/>
       <c r="B45" s="133"/>
       <c r="C45" s="21"/>
       <c r="D45" s="39"/>
@@ -21093,7 +21093,7 @@
       <c r="G45" s="23"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="541"/>
+      <c r="A46" s="543"/>
       <c r="B46" s="138" t="s">
         <v>318</v>
       </c>
@@ -21103,7 +21103,7 @@
       <c r="D46" s="139" t="s">
         <v>1030</v>
       </c>
-      <c r="E46" s="544"/>
+      <c r="E46" s="546"/>
       <c r="F46" s="11" t="s">
         <v>50</v>
       </c>
@@ -21112,7 +21112,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="541"/>
+      <c r="A47" s="543"/>
       <c r="B47" s="140" t="s">
         <v>318</v>
       </c>
@@ -21122,7 +21122,7 @@
       <c r="D47" s="36" t="s">
         <v>1031</v>
       </c>
-      <c r="E47" s="545"/>
+      <c r="E47" s="537"/>
       <c r="F47" s="14" t="s">
         <v>50</v>
       </c>
@@ -21131,7 +21131,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="541"/>
+      <c r="A48" s="543"/>
       <c r="B48" s="140" t="s">
         <v>318</v>
       </c>
@@ -21141,7 +21141,7 @@
       <c r="D48" s="36" t="s">
         <v>1032</v>
       </c>
-      <c r="E48" s="545"/>
+      <c r="E48" s="537"/>
       <c r="F48" s="14" t="s">
         <v>50</v>
       </c>
@@ -21150,7 +21150,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="541"/>
+      <c r="A49" s="543"/>
       <c r="B49" s="140" t="s">
         <v>318</v>
       </c>
@@ -21160,7 +21160,7 @@
       <c r="D49" s="36" t="s">
         <v>1033</v>
       </c>
-      <c r="E49" s="545"/>
+      <c r="E49" s="537"/>
       <c r="F49" s="14" t="s">
         <v>50</v>
       </c>
@@ -21169,7 +21169,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="541"/>
+      <c r="A50" s="543"/>
       <c r="B50" s="140" t="s">
         <v>318</v>
       </c>
@@ -21179,7 +21179,7 @@
       <c r="D50" s="36" t="s">
         <v>1034</v>
       </c>
-      <c r="E50" s="545"/>
+      <c r="E50" s="537"/>
       <c r="F50" s="14" t="s">
         <v>50</v>
       </c>
@@ -21188,7 +21188,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="541"/>
+      <c r="A51" s="543"/>
       <c r="B51" s="140" t="s">
         <v>433</v>
       </c>
@@ -21207,7 +21207,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="541"/>
+      <c r="A52" s="543"/>
       <c r="B52" s="140" t="s">
         <v>433</v>
       </c>
@@ -21226,7 +21226,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="541"/>
+      <c r="A53" s="543"/>
       <c r="B53" s="140" t="s">
         <v>433</v>
       </c>
@@ -21245,7 +21245,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="541"/>
+      <c r="A54" s="543"/>
       <c r="B54" s="141" t="s">
         <v>433</v>
       </c>
@@ -21264,7 +21264,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="541"/>
+      <c r="A55" s="543"/>
       <c r="B55" s="158"/>
       <c r="C55" s="44"/>
       <c r="D55" s="159"/>
@@ -21273,7 +21273,7 @@
       <c r="G55" s="160"/>
     </row>
     <row r="56" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="541"/>
+      <c r="A56" s="543"/>
       <c r="B56" s="138" t="s">
         <v>433</v>
       </c>
@@ -21292,7 +21292,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="541"/>
+      <c r="A57" s="543"/>
       <c r="B57" s="140" t="s">
         <v>433</v>
       </c>
@@ -21311,7 +21311,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="541"/>
+      <c r="A58" s="543"/>
       <c r="B58" s="140" t="s">
         <v>433</v>
       </c>
@@ -21330,7 +21330,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="541"/>
+      <c r="A59" s="543"/>
       <c r="B59" s="140" t="s">
         <v>433</v>
       </c>
@@ -21349,7 +21349,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="541"/>
+      <c r="A60" s="543"/>
       <c r="B60" s="141" t="s">
         <v>433</v>
       </c>
@@ -21368,7 +21368,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="541"/>
+      <c r="A61" s="543"/>
       <c r="B61" s="133"/>
       <c r="C61" s="21"/>
       <c r="D61" s="39"/>
@@ -21377,7 +21377,7 @@
       <c r="G61" s="23"/>
     </row>
     <row r="62" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="541"/>
+      <c r="A62" s="543"/>
       <c r="B62" s="138" t="s">
         <v>1046</v>
       </c>
@@ -21396,7 +21396,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="541"/>
+      <c r="A63" s="543"/>
       <c r="B63" s="140" t="s">
         <v>1046</v>
       </c>
@@ -21415,7 +21415,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="541"/>
+      <c r="A64" s="543"/>
       <c r="B64" s="140" t="s">
         <v>1046</v>
       </c>
@@ -21434,7 +21434,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="541"/>
+      <c r="A65" s="543"/>
       <c r="B65" s="140" t="s">
         <v>1046</v>
       </c>
@@ -21453,7 +21453,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="541"/>
+      <c r="A66" s="543"/>
       <c r="B66" s="140" t="s">
         <v>1046</v>
       </c>
@@ -21472,7 +21472,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="541"/>
+      <c r="A67" s="543"/>
       <c r="B67" s="140" t="s">
         <v>1046</v>
       </c>
@@ -21491,7 +21491,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="541"/>
+      <c r="A68" s="543"/>
       <c r="B68" s="140" t="s">
         <v>1046</v>
       </c>
@@ -21510,7 +21510,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="541"/>
+      <c r="A69" s="543"/>
       <c r="B69" s="140" t="s">
         <v>1046</v>
       </c>
@@ -21529,7 +21529,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="541"/>
+      <c r="A70" s="543"/>
       <c r="B70" s="140" t="s">
         <v>1046</v>
       </c>
@@ -21548,7 +21548,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="541"/>
+      <c r="A71" s="543"/>
       <c r="B71" s="140" t="s">
         <v>1046</v>
       </c>
@@ -21567,7 +21567,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="541"/>
+      <c r="A72" s="543"/>
       <c r="B72" s="140" t="s">
         <v>1046</v>
       </c>
@@ -21586,7 +21586,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="541"/>
+      <c r="A73" s="543"/>
       <c r="B73" s="140" t="s">
         <v>1046</v>
       </c>
@@ -21605,7 +21605,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="541"/>
+      <c r="A74" s="543"/>
       <c r="B74" s="140" t="s">
         <v>1046</v>
       </c>
@@ -21624,7 +21624,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="541"/>
+      <c r="A75" s="543"/>
       <c r="B75" s="140" t="s">
         <v>1046</v>
       </c>
@@ -21643,7 +21643,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="541"/>
+      <c r="A76" s="543"/>
       <c r="B76" s="140" t="s">
         <v>1046</v>
       </c>
@@ -21662,7 +21662,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="541"/>
+      <c r="A77" s="543"/>
       <c r="B77" s="140" t="s">
         <v>1046</v>
       </c>
@@ -21681,7 +21681,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="541"/>
+      <c r="A78" s="543"/>
       <c r="B78" s="140" t="s">
         <v>1046</v>
       </c>
@@ -21702,7 +21702,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="541"/>
+      <c r="A79" s="543"/>
       <c r="B79" s="141" t="s">
         <v>1046</v>
       </c>
@@ -21723,7 +21723,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="541"/>
+      <c r="A80" s="543"/>
       <c r="B80" s="133"/>
       <c r="C80" s="21"/>
       <c r="D80" s="39"/>
@@ -21732,7 +21732,7 @@
       <c r="G80" s="165"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81" s="541"/>
+      <c r="A81" s="543"/>
       <c r="B81" s="138" t="s">
         <v>1075</v>
       </c>
@@ -21751,7 +21751,7 @@
       <c r="G81" s="142"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="541"/>
+      <c r="A82" s="543"/>
       <c r="B82" s="140" t="s">
         <v>1075</v>
       </c>
@@ -21761,7 +21761,7 @@
       <c r="D82" s="36" t="s">
         <v>1076</v>
       </c>
-      <c r="E82" s="545" t="s">
+      <c r="E82" s="537" t="s">
         <v>519</v>
       </c>
       <c r="F82" s="14" t="s">
@@ -21770,7 +21770,7 @@
       <c r="G82" s="166"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="541"/>
+      <c r="A83" s="543"/>
       <c r="B83" s="140" t="s">
         <v>1075</v>
       </c>
@@ -21780,14 +21780,14 @@
       <c r="D83" s="36" t="s">
         <v>1076</v>
       </c>
-      <c r="E83" s="545"/>
+      <c r="E83" s="537"/>
       <c r="F83" s="14" t="s">
         <v>50</v>
       </c>
       <c r="G83" s="166"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="541"/>
+      <c r="A84" s="543"/>
       <c r="B84" s="140" t="s">
         <v>1075</v>
       </c>
@@ -21797,7 +21797,7 @@
       <c r="D84" s="36" t="s">
         <v>1076</v>
       </c>
-      <c r="E84" s="545" t="s">
+      <c r="E84" s="537" t="s">
         <v>524</v>
       </c>
       <c r="F84" s="14" t="s">
@@ -21806,7 +21806,7 @@
       <c r="G84" s="166"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="541"/>
+      <c r="A85" s="543"/>
       <c r="B85" s="140" t="s">
         <v>1075</v>
       </c>
@@ -21816,14 +21816,14 @@
       <c r="D85" s="36" t="s">
         <v>1076</v>
       </c>
-      <c r="E85" s="545"/>
+      <c r="E85" s="537"/>
       <c r="F85" s="14" t="s">
         <v>50</v>
       </c>
       <c r="G85" s="166"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="541"/>
+      <c r="A86" s="543"/>
       <c r="B86" s="140" t="s">
         <v>1075</v>
       </c>
@@ -21833,7 +21833,7 @@
       <c r="D86" s="36" t="s">
         <v>1076</v>
       </c>
-      <c r="E86" s="545" t="s">
+      <c r="E86" s="537" t="s">
         <v>529</v>
       </c>
       <c r="F86" s="14" t="s">
@@ -21842,7 +21842,7 @@
       <c r="G86" s="68"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="541"/>
+      <c r="A87" s="543"/>
       <c r="B87" s="140" t="s">
         <v>1075</v>
       </c>
@@ -21852,14 +21852,14 @@
       <c r="D87" s="36" t="s">
         <v>1076</v>
       </c>
-      <c r="E87" s="545"/>
+      <c r="E87" s="537"/>
       <c r="F87" s="14" t="s">
         <v>50</v>
       </c>
       <c r="G87" s="68"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="541"/>
+      <c r="A88" s="543"/>
       <c r="B88" s="140" t="s">
         <v>1075</v>
       </c>
@@ -21869,14 +21869,14 @@
       <c r="D88" s="36" t="s">
         <v>1076</v>
       </c>
-      <c r="E88" s="545"/>
+      <c r="E88" s="537"/>
       <c r="F88" s="14" t="s">
         <v>50</v>
       </c>
       <c r="G88" s="68"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="541"/>
+      <c r="A89" s="543"/>
       <c r="B89" s="140" t="s">
         <v>1075</v>
       </c>
@@ -21886,14 +21886,14 @@
       <c r="D89" s="36" t="s">
         <v>1076</v>
       </c>
-      <c r="E89" s="545"/>
+      <c r="E89" s="537"/>
       <c r="F89" s="14" t="s">
         <v>50</v>
       </c>
       <c r="G89" s="68"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="541"/>
+      <c r="A90" s="543"/>
       <c r="B90" s="140" t="s">
         <v>1075</v>
       </c>
@@ -21912,7 +21912,7 @@
       <c r="G90" s="68"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A91" s="541"/>
+      <c r="A91" s="543"/>
       <c r="B91" s="140" t="s">
         <v>1075</v>
       </c>
@@ -21931,7 +21931,7 @@
       <c r="G91" s="68"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A92" s="541"/>
+      <c r="A92" s="543"/>
       <c r="B92" s="140" t="s">
         <v>1075</v>
       </c>
@@ -21941,7 +21941,7 @@
       <c r="D92" s="36" t="s">
         <v>1076</v>
       </c>
-      <c r="E92" s="545" t="s">
+      <c r="E92" s="537" t="s">
         <v>544</v>
       </c>
       <c r="F92" s="14" t="s">
@@ -21950,7 +21950,7 @@
       <c r="G92" s="166"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A93" s="541"/>
+      <c r="A93" s="543"/>
       <c r="B93" s="140" t="s">
         <v>1075</v>
       </c>
@@ -21960,14 +21960,14 @@
       <c r="D93" s="36" t="s">
         <v>1076</v>
       </c>
-      <c r="E93" s="545"/>
+      <c r="E93" s="537"/>
       <c r="F93" s="14" t="s">
         <v>50</v>
       </c>
       <c r="G93" s="166"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A94" s="541"/>
+      <c r="A94" s="543"/>
       <c r="B94" s="140" t="s">
         <v>1075</v>
       </c>
@@ -21977,7 +21977,7 @@
       <c r="D94" s="36" t="s">
         <v>1076</v>
       </c>
-      <c r="E94" s="545" t="s">
+      <c r="E94" s="537" t="s">
         <v>549</v>
       </c>
       <c r="F94" s="14" t="s">
@@ -21986,7 +21986,7 @@
       <c r="G94" s="68"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A95" s="541"/>
+      <c r="A95" s="543"/>
       <c r="B95" s="140" t="s">
         <v>1075</v>
       </c>
@@ -21996,14 +21996,14 @@
       <c r="D95" s="36" t="s">
         <v>1076</v>
       </c>
-      <c r="E95" s="545"/>
+      <c r="E95" s="537"/>
       <c r="F95" s="14" t="s">
         <v>50</v>
       </c>
       <c r="G95" s="166"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A96" s="541"/>
+      <c r="A96" s="543"/>
       <c r="B96" s="140" t="s">
         <v>1075</v>
       </c>
@@ -22022,7 +22022,7 @@
       <c r="G96" s="68"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A97" s="541"/>
+      <c r="A97" s="543"/>
       <c r="B97" s="140" t="s">
         <v>1075</v>
       </c>
@@ -22032,7 +22032,7 @@
       <c r="D97" s="36" t="s">
         <v>1076</v>
       </c>
-      <c r="E97" s="545" t="s">
+      <c r="E97" s="537" t="s">
         <v>557</v>
       </c>
       <c r="F97" s="14" t="s">
@@ -22041,7 +22041,7 @@
       <c r="G97" s="166"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A98" s="541"/>
+      <c r="A98" s="543"/>
       <c r="B98" s="141" t="s">
         <v>1075</v>
       </c>
@@ -22051,14 +22051,14 @@
       <c r="D98" s="46" t="s">
         <v>1076</v>
       </c>
-      <c r="E98" s="546"/>
+      <c r="E98" s="538"/>
       <c r="F98" s="45" t="s">
         <v>50</v>
       </c>
       <c r="G98" s="167"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A99" s="541"/>
+      <c r="A99" s="543"/>
       <c r="B99" s="133"/>
       <c r="C99" s="21"/>
       <c r="D99" s="39"/>
@@ -22067,7 +22067,7 @@
       <c r="G99" s="23"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A100" s="541"/>
+      <c r="A100" s="543"/>
       <c r="B100" s="138" t="s">
         <v>560</v>
       </c>
@@ -22086,7 +22086,7 @@
       <c r="G100" s="13"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A101" s="541"/>
+      <c r="A101" s="543"/>
       <c r="B101" s="140" t="s">
         <v>560</v>
       </c>
@@ -22096,7 +22096,7 @@
       <c r="D101" s="36" t="s">
         <v>1077</v>
       </c>
-      <c r="E101" s="545" t="s">
+      <c r="E101" s="537" t="s">
         <v>519</v>
       </c>
       <c r="F101" s="14" t="s">
@@ -22105,7 +22105,7 @@
       <c r="G101" s="16"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A102" s="541"/>
+      <c r="A102" s="543"/>
       <c r="B102" s="140" t="s">
         <v>560</v>
       </c>
@@ -22115,14 +22115,14 @@
       <c r="D102" s="36" t="s">
         <v>1077</v>
       </c>
-      <c r="E102" s="545"/>
+      <c r="E102" s="537"/>
       <c r="F102" s="14" t="s">
         <v>50</v>
       </c>
       <c r="G102" s="16"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A103" s="541"/>
+      <c r="A103" s="543"/>
       <c r="B103" s="140" t="s">
         <v>560</v>
       </c>
@@ -22132,7 +22132,7 @@
       <c r="D103" s="36" t="s">
         <v>1077</v>
       </c>
-      <c r="E103" s="545" t="s">
+      <c r="E103" s="537" t="s">
         <v>524</v>
       </c>
       <c r="F103" s="14" t="s">
@@ -22141,7 +22141,7 @@
       <c r="G103" s="16"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A104" s="541"/>
+      <c r="A104" s="543"/>
       <c r="B104" s="140" t="s">
         <v>560</v>
       </c>
@@ -22151,14 +22151,14 @@
       <c r="D104" s="36" t="s">
         <v>1077</v>
       </c>
-      <c r="E104" s="545"/>
+      <c r="E104" s="537"/>
       <c r="F104" s="14" t="s">
         <v>50</v>
       </c>
       <c r="G104" s="16"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A105" s="541"/>
+      <c r="A105" s="543"/>
       <c r="B105" s="140" t="s">
         <v>560</v>
       </c>
@@ -22168,7 +22168,7 @@
       <c r="D105" s="36" t="s">
         <v>1077</v>
       </c>
-      <c r="E105" s="545" t="s">
+      <c r="E105" s="537" t="s">
         <v>529</v>
       </c>
       <c r="F105" s="14" t="s">
@@ -22177,7 +22177,7 @@
       <c r="G105" s="16"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A106" s="541"/>
+      <c r="A106" s="543"/>
       <c r="B106" s="140" t="s">
         <v>560</v>
       </c>
@@ -22187,14 +22187,14 @@
       <c r="D106" s="36" t="s">
         <v>1077</v>
       </c>
-      <c r="E106" s="545"/>
+      <c r="E106" s="537"/>
       <c r="F106" s="14" t="s">
         <v>50</v>
       </c>
       <c r="G106" s="16"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A107" s="541"/>
+      <c r="A107" s="543"/>
       <c r="B107" s="140" t="s">
         <v>560</v>
       </c>
@@ -22204,14 +22204,14 @@
       <c r="D107" s="36" t="s">
         <v>1077</v>
       </c>
-      <c r="E107" s="545"/>
+      <c r="E107" s="537"/>
       <c r="F107" s="14" t="s">
         <v>50</v>
       </c>
       <c r="G107" s="16"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A108" s="541"/>
+      <c r="A108" s="543"/>
       <c r="B108" s="140" t="s">
         <v>560</v>
       </c>
@@ -22221,14 +22221,14 @@
       <c r="D108" s="36" t="s">
         <v>1077</v>
       </c>
-      <c r="E108" s="545"/>
+      <c r="E108" s="537"/>
       <c r="F108" s="14" t="s">
         <v>50</v>
       </c>
       <c r="G108" s="16"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A109" s="541"/>
+      <c r="A109" s="543"/>
       <c r="B109" s="140" t="s">
         <v>560</v>
       </c>
@@ -22247,7 +22247,7 @@
       <c r="G109" s="16"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A110" s="541"/>
+      <c r="A110" s="543"/>
       <c r="B110" s="140" t="s">
         <v>560</v>
       </c>
@@ -22257,7 +22257,7 @@
       <c r="D110" s="36" t="s">
         <v>1077</v>
       </c>
-      <c r="E110" s="545" t="s">
+      <c r="E110" s="537" t="s">
         <v>544</v>
       </c>
       <c r="F110" s="14" t="s">
@@ -22266,7 +22266,7 @@
       <c r="G110" s="16"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A111" s="541"/>
+      <c r="A111" s="543"/>
       <c r="B111" s="140" t="s">
         <v>560</v>
       </c>
@@ -22276,14 +22276,14 @@
       <c r="D111" s="36" t="s">
         <v>1077</v>
       </c>
-      <c r="E111" s="545"/>
+      <c r="E111" s="537"/>
       <c r="F111" s="14" t="s">
         <v>50</v>
       </c>
       <c r="G111" s="16"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A112" s="541"/>
+      <c r="A112" s="543"/>
       <c r="B112" s="140" t="s">
         <v>560</v>
       </c>
@@ -22293,7 +22293,7 @@
       <c r="D112" s="36" t="s">
         <v>1077</v>
       </c>
-      <c r="E112" s="545" t="s">
+      <c r="E112" s="537" t="s">
         <v>549</v>
       </c>
       <c r="F112" s="14" t="s">
@@ -22302,7 +22302,7 @@
       <c r="G112" s="16"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A113" s="541"/>
+      <c r="A113" s="543"/>
       <c r="B113" s="140" t="s">
         <v>560</v>
       </c>
@@ -22312,14 +22312,14 @@
       <c r="D113" s="36" t="s">
         <v>1077</v>
       </c>
-      <c r="E113" s="545"/>
+      <c r="E113" s="537"/>
       <c r="F113" s="14" t="s">
         <v>50</v>
       </c>
       <c r="G113" s="16"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A114" s="541"/>
+      <c r="A114" s="543"/>
       <c r="B114" s="140" t="s">
         <v>560</v>
       </c>
@@ -22338,7 +22338,7 @@
       <c r="G114" s="16"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A115" s="541"/>
+      <c r="A115" s="543"/>
       <c r="B115" s="140" t="s">
         <v>560</v>
       </c>
@@ -22348,7 +22348,7 @@
       <c r="D115" s="36" t="s">
         <v>1077</v>
       </c>
-      <c r="E115" s="545" t="s">
+      <c r="E115" s="537" t="s">
         <v>557</v>
       </c>
       <c r="F115" s="14" t="s">
@@ -22357,7 +22357,7 @@
       <c r="G115" s="16"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A116" s="541"/>
+      <c r="A116" s="543"/>
       <c r="B116" s="141" t="s">
         <v>560</v>
       </c>
@@ -22367,14 +22367,14 @@
       <c r="D116" s="46" t="s">
         <v>1077</v>
       </c>
-      <c r="E116" s="546"/>
+      <c r="E116" s="538"/>
       <c r="F116" s="45" t="s">
         <v>50</v>
       </c>
       <c r="G116" s="47"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A117" s="541"/>
+      <c r="A117" s="543"/>
       <c r="B117" s="133"/>
       <c r="C117" s="21"/>
       <c r="D117" s="39"/>
@@ -22383,7 +22383,7 @@
       <c r="G117" s="23"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A118" s="541"/>
+      <c r="A118" s="543"/>
       <c r="B118" s="138" t="s">
         <v>700</v>
       </c>
@@ -22404,7 +22404,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A119" s="541"/>
+      <c r="A119" s="543"/>
       <c r="B119" s="140" t="s">
         <v>700</v>
       </c>
@@ -22425,7 +22425,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A120" s="542"/>
+      <c r="A120" s="544"/>
       <c r="B120" s="168" t="s">
         <v>700</v>
       </c>
@@ -22446,7 +22446,7 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A121" s="542"/>
+      <c r="A121" s="544"/>
       <c r="B121" s="133"/>
       <c r="C121" s="21"/>
       <c r="D121" s="39"/>
@@ -22455,7 +22455,7 @@
       <c r="G121" s="23"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A122" s="542"/>
+      <c r="A122" s="544"/>
       <c r="B122" s="138" t="s">
         <v>1081</v>
       </c>
@@ -22474,7 +22474,7 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A123" s="542"/>
+      <c r="A123" s="544"/>
       <c r="B123" s="140" t="s">
         <v>1081</v>
       </c>
@@ -22493,7 +22493,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A124" s="542"/>
+      <c r="A124" s="544"/>
       <c r="B124" s="140" t="s">
         <v>1081</v>
       </c>
@@ -22512,7 +22512,7 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A125" s="542"/>
+      <c r="A125" s="544"/>
       <c r="B125" s="140" t="s">
         <v>1081</v>
       </c>
@@ -22531,7 +22531,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A126" s="542"/>
+      <c r="A126" s="544"/>
       <c r="B126" s="140" t="s">
         <v>1081</v>
       </c>
@@ -22550,7 +22550,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A127" s="542"/>
+      <c r="A127" s="544"/>
       <c r="B127" s="140" t="s">
         <v>1081</v>
       </c>
@@ -22569,7 +22569,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A128" s="542"/>
+      <c r="A128" s="544"/>
       <c r="B128" s="140" t="s">
         <v>1081</v>
       </c>
@@ -22588,7 +22588,7 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A129" s="542"/>
+      <c r="A129" s="544"/>
       <c r="B129" s="140" t="s">
         <v>1081</v>
       </c>
@@ -22607,7 +22607,7 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A130" s="542"/>
+      <c r="A130" s="544"/>
       <c r="B130" s="141" t="s">
         <v>1081</v>
       </c>
@@ -22626,7 +22626,7 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A131" s="542"/>
+      <c r="A131" s="544"/>
       <c r="B131" s="133"/>
       <c r="C131" s="21"/>
       <c r="D131" s="39"/>
@@ -22635,7 +22635,7 @@
       <c r="G131" s="23"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A132" s="542"/>
+      <c r="A132" s="544"/>
       <c r="B132" s="138" t="s">
         <v>1081</v>
       </c>
@@ -22654,7 +22654,7 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A133" s="542"/>
+      <c r="A133" s="544"/>
       <c r="B133" s="140" t="s">
         <v>1081</v>
       </c>
@@ -22673,7 +22673,7 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A134" s="542"/>
+      <c r="A134" s="544"/>
       <c r="B134" s="141" t="s">
         <v>1081</v>
       </c>
@@ -22692,7 +22692,7 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A135" s="542"/>
+      <c r="A135" s="544"/>
       <c r="B135" s="133"/>
       <c r="C135" s="21"/>
       <c r="D135" s="39"/>
@@ -22701,7 +22701,7 @@
       <c r="G135" s="60"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A136" s="542"/>
+      <c r="A136" s="544"/>
       <c r="B136" s="138" t="s">
         <v>1099</v>
       </c>
@@ -22720,7 +22720,7 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A137" s="542"/>
+      <c r="A137" s="544"/>
       <c r="B137" s="141" t="s">
         <v>1099</v>
       </c>
@@ -22739,7 +22739,7 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A138" s="542"/>
+      <c r="A138" s="544"/>
       <c r="B138" s="133"/>
       <c r="C138" s="21"/>
       <c r="D138" s="39"/>
@@ -22748,7 +22748,7 @@
       <c r="G138" s="60"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A139" s="542"/>
+      <c r="A139" s="544"/>
       <c r="B139" s="138" t="s">
         <v>1099</v>
       </c>
@@ -22767,7 +22767,7 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A140" s="542"/>
+      <c r="A140" s="544"/>
       <c r="B140" s="141" t="s">
         <v>1099</v>
       </c>
@@ -22786,7 +22786,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A141" s="542"/>
+      <c r="A141" s="544"/>
       <c r="B141" s="133"/>
       <c r="C141" s="21"/>
       <c r="D141" s="39"/>
@@ -22795,7 +22795,7 @@
       <c r="G141" s="60"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A142" s="542"/>
+      <c r="A142" s="544"/>
       <c r="B142" s="147" t="s">
         <v>1108</v>
       </c>
@@ -22814,7 +22814,7 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A143" s="542"/>
+      <c r="A143" s="544"/>
       <c r="B143" s="152" t="s">
         <v>1108</v>
       </c>
@@ -22833,7 +22833,7 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A144" s="542"/>
+      <c r="A144" s="544"/>
       <c r="B144" s="152" t="s">
         <v>1108</v>
       </c>
@@ -22852,7 +22852,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A145" s="542"/>
+      <c r="A145" s="544"/>
       <c r="B145" s="152" t="s">
         <v>1108</v>
       </c>
@@ -22871,7 +22871,7 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A146" s="542"/>
+      <c r="A146" s="544"/>
       <c r="B146" s="152" t="s">
         <v>1108</v>
       </c>
@@ -22890,7 +22890,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A147" s="542"/>
+      <c r="A147" s="544"/>
       <c r="B147" s="152" t="s">
         <v>1108</v>
       </c>
@@ -22909,7 +22909,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A148" s="542"/>
+      <c r="A148" s="544"/>
       <c r="B148" s="168" t="s">
         <v>1108</v>
       </c>
@@ -22928,7 +22928,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A149" s="542"/>
+      <c r="A149" s="544"/>
       <c r="B149" s="133"/>
       <c r="C149" s="21"/>
       <c r="D149" s="39"/>
@@ -22937,7 +22937,7 @@
       <c r="G149" s="60"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A150" s="542"/>
+      <c r="A150" s="544"/>
       <c r="B150" s="138" t="s">
         <v>1118</v>
       </c>
@@ -22956,7 +22956,7 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A151" s="542"/>
+      <c r="A151" s="544"/>
       <c r="B151" s="140" t="s">
         <v>1118</v>
       </c>
@@ -22975,7 +22975,7 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A152" s="542"/>
+      <c r="A152" s="544"/>
       <c r="B152" s="140" t="s">
         <v>1118</v>
       </c>
@@ -22994,7 +22994,7 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A153" s="542"/>
+      <c r="A153" s="544"/>
       <c r="B153" s="140" t="s">
         <v>1118</v>
       </c>
@@ -23013,7 +23013,7 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A154" s="542"/>
+      <c r="A154" s="544"/>
       <c r="B154" s="140" t="s">
         <v>1118</v>
       </c>
@@ -23032,7 +23032,7 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A155" s="542"/>
+      <c r="A155" s="544"/>
       <c r="B155" s="140" t="s">
         <v>1118</v>
       </c>
@@ -23051,7 +23051,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A156" s="542"/>
+      <c r="A156" s="544"/>
       <c r="B156" s="140" t="s">
         <v>1118</v>
       </c>
@@ -23070,7 +23070,7 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A157" s="542"/>
+      <c r="A157" s="544"/>
       <c r="B157" s="140" t="s">
         <v>1118</v>
       </c>
@@ -23089,7 +23089,7 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A158" s="542"/>
+      <c r="A158" s="544"/>
       <c r="B158" s="140" t="s">
         <v>1118</v>
       </c>
@@ -23108,7 +23108,7 @@
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A159" s="542"/>
+      <c r="A159" s="544"/>
       <c r="B159" s="140" t="s">
         <v>1118</v>
       </c>
@@ -23127,7 +23127,7 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A160" s="542"/>
+      <c r="A160" s="544"/>
       <c r="B160" s="140" t="s">
         <v>1118</v>
       </c>
@@ -23146,7 +23146,7 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A161" s="543"/>
+      <c r="A161" s="545"/>
       <c r="B161" s="141" t="s">
         <v>1118</v>
       </c>
@@ -23166,6 +23166,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="E103:E104"/>
     <mergeCell ref="E105:E108"/>
     <mergeCell ref="E110:E111"/>
     <mergeCell ref="E112:E113"/>
@@ -23182,10 +23186,6 @@
     <mergeCell ref="E84:E85"/>
     <mergeCell ref="E86:E89"/>
     <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="E103:E104"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.196850393700787" footer="0.196850393700787"/>
@@ -23280,7 +23280,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="519" t="s">
+      <c r="A5" s="511" t="s">
         <v>259</v>
       </c>
       <c r="B5" s="51" t="s">
@@ -23317,7 +23317,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="520"/>
+      <c r="A7" s="512"/>
       <c r="B7" s="55"/>
       <c r="C7" s="56"/>
       <c r="D7" s="57"/>
@@ -23328,7 +23328,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="520"/>
+      <c r="A8" s="512"/>
       <c r="B8" s="61" t="s">
         <v>283</v>
       </c>
@@ -23347,7 +23347,7 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="520"/>
+      <c r="A9" s="512"/>
       <c r="B9" s="108" t="s">
         <v>283</v>
       </c>
@@ -23366,7 +23366,7 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="520"/>
+      <c r="A10" s="512"/>
       <c r="B10" s="55"/>
       <c r="C10" s="56"/>
       <c r="D10" s="121"/>
@@ -23377,7 +23377,7 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="520"/>
+      <c r="A11" s="512"/>
       <c r="B11" s="61" t="s">
         <v>262</v>
       </c>
@@ -23396,7 +23396,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="521"/>
+      <c r="A12" s="513"/>
       <c r="B12" s="65" t="s">
         <v>262</v>
       </c>
@@ -23412,7 +23412,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="521"/>
+      <c r="A13" s="513"/>
       <c r="B13" s="65" t="s">
         <v>262</v>
       </c>
@@ -23428,7 +23428,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="521"/>
+      <c r="A14" s="513"/>
       <c r="B14" s="108" t="s">
         <v>262</v>
       </c>
@@ -23444,7 +23444,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="521"/>
+      <c r="A15" s="513"/>
       <c r="B15" s="55"/>
       <c r="C15" s="56"/>
       <c r="D15" s="57"/>
@@ -23452,7 +23452,7 @@
       <c r="F15" s="92"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="521"/>
+      <c r="A16" s="513"/>
       <c r="B16" s="51" t="s">
         <v>1146</v>
       </c>
@@ -23468,7 +23468,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="521"/>
+      <c r="A17" s="513"/>
       <c r="B17" s="55"/>
       <c r="C17" s="56"/>
       <c r="D17" s="57"/>
@@ -23476,7 +23476,7 @@
       <c r="F17" s="92"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="521"/>
+      <c r="A18" s="513"/>
       <c r="B18" s="61" t="s">
         <v>1148</v>
       </c>
@@ -23492,7 +23492,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="521"/>
+      <c r="A19" s="513"/>
       <c r="B19" s="65" t="s">
         <v>1148</v>
       </c>
@@ -23508,7 +23508,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="521"/>
+      <c r="A20" s="513"/>
       <c r="B20" s="65" t="s">
         <v>1148</v>
       </c>
@@ -23524,7 +23524,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="521"/>
+      <c r="A21" s="513"/>
       <c r="B21" s="65" t="s">
         <v>1148</v>
       </c>
@@ -23540,7 +23540,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="521"/>
+      <c r="A22" s="513"/>
       <c r="B22" s="65" t="s">
         <v>1148</v>
       </c>
@@ -23556,7 +23556,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="521"/>
+      <c r="A23" s="513"/>
       <c r="B23" s="108" t="s">
         <v>1148</v>
       </c>
@@ -23572,7 +23572,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="521"/>
+      <c r="A24" s="513"/>
       <c r="B24" s="55"/>
       <c r="C24" s="56"/>
       <c r="D24" s="57"/>
@@ -23580,7 +23580,7 @@
       <c r="F24" s="92"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="521"/>
+      <c r="A25" s="513"/>
       <c r="B25" s="61" t="s">
         <v>1155</v>
       </c>
@@ -23596,7 +23596,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="521"/>
+      <c r="A26" s="513"/>
       <c r="B26" s="65" t="s">
         <v>1155</v>
       </c>
@@ -23612,7 +23612,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="522"/>
+      <c r="A27" s="514"/>
       <c r="B27" s="124" t="s">
         <v>1155</v>
       </c>
